--- a/historical/data/data_strict.xlsx
+++ b/historical/data/data_strict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B17838E-5759-4544-A800-04F6A1DFAC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E956E3C8-7CBC-9847-BE40-4CB0F14A0A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46320" yWindow="-3100" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2005,36 +2005,18 @@
     <t>Dòngwù</t>
   </si>
   <si>
-    <t>回答, 答, 应答</t>
-  </si>
-  <si>
-    <t>Huídá, Dá, Yìngdá</t>
-  </si>
-  <si>
     <t>蚂蚁, 蚁</t>
   </si>
   <si>
     <t>Mǎyǐ, Yǐ</t>
   </si>
   <si>
-    <t>生气, 愤怒, 恼怒</t>
-  </si>
-  <si>
-    <t>Shēngqì, Fènnù, Nǎonù</t>
-  </si>
-  <si>
     <t>手臂, 臂, 胳膊</t>
   </si>
   <si>
     <t>Shǒubì, Bì, Gēbó</t>
   </si>
   <si>
-    <t>岑树</t>
-  </si>
-  <si>
-    <t>Cén shù</t>
-  </si>
-  <si>
     <t>Xiūkuì, Cán, Zuò</t>
   </si>
   <si>
@@ -2761,12 +2743,6 @@
     <t>Huī</t>
   </si>
   <si>
-    <t>问, 要求, 询问</t>
-  </si>
-  <si>
-    <t>Wèn, Yāoqiú, Xúnwèn</t>
-  </si>
-  <si>
     <t>pitati, zatražiti</t>
   </si>
   <si>
@@ -2978,12 +2954,6 @@
   </si>
   <si>
     <t>šilo</t>
-  </si>
-  <si>
-    <t>锥子, 锥子</t>
-  </si>
-  <si>
-    <t>Zhuīzi, Zhuī</t>
   </si>
   <si>
     <t>шило</t>
@@ -7263,6 +7233,36 @@
   </si>
   <si>
     <t>lotsatuta</t>
+  </si>
+  <si>
+    <t>生气, 恼怒</t>
+  </si>
+  <si>
+    <t>答, 应答</t>
+  </si>
+  <si>
+    <t>岑树, 白蜡树</t>
+  </si>
+  <si>
+    <t>Cén shù, Báilà shù</t>
+  </si>
+  <si>
+    <t>问</t>
+  </si>
+  <si>
+    <t>Wèn</t>
+  </si>
+  <si>
+    <t>Shēngqì, Nǎonù</t>
+  </si>
+  <si>
+    <t>Dá, Yìngdá</t>
+  </si>
+  <si>
+    <t>锥子</t>
+  </si>
+  <si>
+    <t>Zhuīzi</t>
   </si>
 </sst>
 </file>
@@ -7752,7 +7752,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7762,6 +7762,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -8123,7 +8126,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8226,19 +8229,19 @@
         <v>503</v>
       </c>
       <c r="H1" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="I1" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="J1" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="K1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="L1" t="s">
-        <v>1193</v>
+        <v>1183</v>
       </c>
       <c r="M1" t="s">
         <v>578</v>
@@ -8262,172 +8265,172 @@
         <v>549</v>
       </c>
       <c r="T1" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="U1" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="V1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="W1" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="X1" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="Y1" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="Z1" t="s">
+        <v>770</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>771</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>772</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>773</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>774</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>775</v>
+      </c>
+      <c r="AF1" t="s">
         <v>776</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AG1" t="s">
         <v>777</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AH1" t="s">
         <v>778</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AI1" t="s">
+        <v>985</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>779</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AK1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AL1" t="s">
         <v>780</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AM1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AN1" t="s">
         <v>781</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AO1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AP1" t="s">
         <v>782</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AQ1" t="s">
         <v>783</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AR1" t="s">
         <v>784</v>
       </c>
-      <c r="AI1" t="s">
-        <v>995</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="AS1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AT1" t="s">
         <v>785</v>
       </c>
-      <c r="AK1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>786</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="AN1" t="s">
+      <c r="AU1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AX1" t="s">
         <v>787</v>
       </c>
-      <c r="AO1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>788</v>
-      </c>
-      <c r="AQ1" t="s">
+      <c r="AZ1" t="s">
         <v>789</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="BA1" t="s">
         <v>790</v>
       </c>
-      <c r="AS1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AT1" t="s">
+      <c r="BB1" t="s">
         <v>791</v>
       </c>
-      <c r="AU1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="AX1" t="s">
+      <c r="BC1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>792</v>
+      </c>
+      <c r="BE1" t="s">
         <v>793</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BF1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>794</v>
+      </c>
+      <c r="BH1" t="s">
         <v>795</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BI1" t="s">
         <v>796</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BJ1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="BK1" t="s">
         <v>797</v>
       </c>
-      <c r="BC1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="BD1" t="s">
+      <c r="BL1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="BM1" t="s">
         <v>798</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BN1" t="s">
         <v>799</v>
       </c>
-      <c r="BF1" t="s">
-        <v>1316</v>
-      </c>
-      <c r="BG1" t="s">
+      <c r="BO1" t="s">
         <v>800</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BP1" t="s">
         <v>801</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BQ1" t="s">
         <v>802</v>
       </c>
-      <c r="BJ1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="BK1" t="s">
+      <c r="BR1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="BS1" t="s">
         <v>803</v>
       </c>
-      <c r="BL1" t="s">
-        <v>1388</v>
-      </c>
-      <c r="BM1" t="s">
+      <c r="BT1" t="s">
         <v>804</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BU1" t="s">
         <v>805</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BV1" t="s">
         <v>806</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BW1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="BX1" t="s">
         <v>807</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BY1" t="s">
         <v>808</v>
       </c>
-      <c r="BR1" t="s">
-        <v>1469</v>
-      </c>
-      <c r="BS1" t="s">
+      <c r="BZ1" t="s">
         <v>809</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>810</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>811</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>812</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>1593</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>813</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>814</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="2" spans="1:78" x14ac:dyDescent="0.2">
@@ -8437,10 +8440,10 @@
       <c r="B2" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>488</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -8534,7 +8537,7 @@
         <v>488</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>488</v>
@@ -8546,7 +8549,7 @@
         <v>488</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="AN2" s="2" t="s">
         <v>488</v>
@@ -8659,223 +8662,223 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1511</v>
+        <v>1501</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1531</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1554</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>1552</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>1528</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="X3" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>1533</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>1534</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>1535</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>1525</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>1526</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>1527</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>1541</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>1542</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>1564</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>1562</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>1544</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>1531</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>1532</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>1533</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>1529</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>1530</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>1531</v>
-      </c>
-      <c r="U3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>1536</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>1537</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>1539</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>1540</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>1543</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>1544</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>1545</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>1546</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>1547</v>
       </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>1539</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>1540</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>1546</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>1547</v>
+      </c>
+      <c r="AR3" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>1549</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>1550</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>1551</v>
       </c>
-      <c r="AL3" s="2" t="s">
-        <v>1552</v>
-      </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AX3" t="s">
         <v>1553</v>
       </c>
-      <c r="AN3" s="2" t="s">
-        <v>1554</v>
-      </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AZ3" t="s">
         <v>1555</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="BA3" t="s">
         <v>1556</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="BB3" t="s">
         <v>1557</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="BC3" t="s">
         <v>1558</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="BD3" t="s">
         <v>1559</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="BE3" t="s">
         <v>1560</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="BF3" t="s">
         <v>1561</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="BG3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="BH3" t="s">
         <v>1563</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BI3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>983</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>983</v>
+      </c>
+      <c r="BM3" t="s">
         <v>1565</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BN3" t="s">
         <v>1566</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BO3" t="s">
         <v>1567</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BP3" t="s">
         <v>1568</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BQ3" t="s">
         <v>1569</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BR3" t="s">
         <v>1570</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BS3" t="s">
         <v>1571</v>
       </c>
-      <c r="BG3" t="s">
-        <v>1572</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>1573</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>1574</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>1531</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>993</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>993</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>1575</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>1576</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>1577</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>1578</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>1579</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>1580</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>1581</v>
-      </c>
       <c r="BT3" t="s">
-        <v>1512</v>
+        <v>1502</v>
       </c>
       <c r="BU3" t="s">
-        <v>1511</v>
+        <v>1501</v>
       </c>
       <c r="BV3" t="s">
-        <v>1595</v>
+        <v>1585</v>
       </c>
       <c r="BW3" t="s">
-        <v>1596</v>
+        <v>1586</v>
       </c>
       <c r="BX3" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="BY3" t="s">
-        <v>1634</v>
+        <v>1624</v>
       </c>
       <c r="BZ3" t="s">
-        <v>1650</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="4" spans="1:78" x14ac:dyDescent="0.2">
@@ -8885,10 +8888,10 @@
       <c r="B4" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>653</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -8901,25 +8904,25 @@
         <v>505</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>1228</v>
+        <v>1218</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>607</v>
@@ -8937,172 +8940,172 @@
         <v>551</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="AK4" s="2" t="s">
         <v>473</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="AO4" s="2" t="s">
         <v>473</v>
       </c>
       <c r="AP4" s="2" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
       <c r="AQ4" s="2" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
       <c r="AT4" s="2" t="s">
-        <v>1191</v>
+        <v>1181</v>
       </c>
       <c r="AU4" s="2" t="s">
-        <v>1192</v>
+        <v>1182</v>
       </c>
       <c r="AX4" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="AZ4" t="s">
-        <v>1243</v>
+        <v>1233</v>
       </c>
       <c r="BA4" t="s">
-        <v>1259</v>
+        <v>1249</v>
       </c>
       <c r="BB4" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="BC4" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="BD4" t="s">
-        <v>1301</v>
+        <v>1291</v>
       </c>
       <c r="BE4" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="BF4" t="s">
-        <v>1318</v>
+        <v>1308</v>
       </c>
       <c r="BG4" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="BH4" t="s">
-        <v>1354</v>
+        <v>1344</v>
       </c>
       <c r="BI4" t="s">
-        <v>1367</v>
+        <v>1357</v>
       </c>
       <c r="BJ4" t="s">
         <v>607</v>
       </c>
       <c r="BK4" t="s">
-        <v>1387</v>
+        <v>1377</v>
       </c>
       <c r="BL4" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
       <c r="BM4" t="s">
-        <v>1416</v>
+        <v>1406</v>
       </c>
       <c r="BN4" t="s">
-        <v>1416</v>
+        <v>1406</v>
       </c>
       <c r="BO4" t="s">
-        <v>1442</v>
+        <v>1432</v>
       </c>
       <c r="BP4" t="s">
-        <v>1457</v>
+        <v>1447</v>
       </c>
       <c r="BQ4" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="BR4" t="s">
         <v>473</v>
       </c>
       <c r="BS4" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="BT4" t="s">
-        <v>1510</v>
+        <v>1500</v>
       </c>
       <c r="BU4" t="s">
         <v>473</v>
       </c>
       <c r="BV4" t="s">
-        <v>1592</v>
+        <v>1582</v>
       </c>
       <c r="BW4" t="s">
-        <v>1594</v>
+        <v>1584</v>
       </c>
       <c r="BX4" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="BY4" t="s">
-        <v>1635</v>
+        <v>1625</v>
       </c>
       <c r="BZ4" t="s">
-        <v>1651</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="5" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9110,16 +9113,16 @@
         <v>474</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2403</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>662</v>
+        <v>2393</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>2396</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>2402</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>507</v>
@@ -9128,19 +9131,19 @@
         <v>508</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>1194</v>
+        <v>1184</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>1195</v>
+        <v>1185</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>580</v>
@@ -9149,7 +9152,7 @@
         <v>581</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>625</v>
@@ -9164,172 +9167,172 @@
         <v>553</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
       <c r="AS5" s="2" t="s">
-        <v>1139</v>
+        <v>1129</v>
       </c>
       <c r="AT5" s="2" t="s">
-        <v>1189</v>
+        <v>1179</v>
       </c>
       <c r="AU5" s="2" t="s">
-        <v>1190</v>
+        <v>1180</v>
       </c>
       <c r="AX5" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="AZ5" t="s">
-        <v>1244</v>
+        <v>1234</v>
       </c>
       <c r="BA5" t="s">
-        <v>1260</v>
+        <v>1250</v>
       </c>
       <c r="BB5" t="s">
-        <v>1277</v>
+        <v>1267</v>
       </c>
       <c r="BC5" t="s">
-        <v>1278</v>
+        <v>1268</v>
       </c>
       <c r="BD5" t="s">
-        <v>1302</v>
+        <v>1292</v>
       </c>
       <c r="BE5" t="s">
-        <v>1319</v>
+        <v>1309</v>
       </c>
       <c r="BF5" t="s">
-        <v>1320</v>
+        <v>1310</v>
       </c>
       <c r="BG5" t="s">
-        <v>1343</v>
+        <v>1333</v>
       </c>
       <c r="BH5" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="BI5" t="s">
-        <v>1368</v>
+        <v>1358</v>
       </c>
       <c r="BJ5" t="s">
-        <v>1369</v>
+        <v>1359</v>
       </c>
       <c r="BK5" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
       <c r="BL5" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
       <c r="BM5" t="s">
-        <v>1417</v>
+        <v>1407</v>
       </c>
       <c r="BN5" t="s">
-        <v>1430</v>
+        <v>1420</v>
       </c>
       <c r="BO5" t="s">
-        <v>1443</v>
+        <v>1433</v>
       </c>
       <c r="BP5" t="s">
-        <v>1458</v>
+        <v>1448</v>
       </c>
       <c r="BQ5" t="s">
-        <v>1470</v>
+        <v>1460</v>
       </c>
       <c r="BR5" t="s">
-        <v>1471</v>
+        <v>1461</v>
       </c>
       <c r="BS5" t="s">
-        <v>1498</v>
+        <v>1488</v>
       </c>
       <c r="BT5" t="s">
-        <v>1513</v>
+        <v>1503</v>
       </c>
       <c r="BU5" t="s">
-        <v>1582</v>
+        <v>1572</v>
       </c>
       <c r="BV5" t="s">
-        <v>1597</v>
+        <v>1587</v>
       </c>
       <c r="BW5" t="s">
-        <v>1598</v>
+        <v>1588</v>
       </c>
       <c r="BX5" t="s">
-        <v>1622</v>
+        <v>1612</v>
       </c>
       <c r="BY5" t="s">
-        <v>1636</v>
+        <v>1626</v>
       </c>
       <c r="BZ5" t="s">
-        <v>1652</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="6" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9339,14 +9342,14 @@
       <c r="B6" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>656</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>509</v>
@@ -9355,19 +9358,19 @@
         <v>510</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>1196</v>
+        <v>1186</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>1197</v>
+        <v>1187</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>582</v>
@@ -9394,169 +9397,169 @@
         <v>608</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
       <c r="AN6" s="2" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
       <c r="AP6" s="2" t="s">
         <v>475</v>
       </c>
       <c r="AQ6" s="2" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
       <c r="AR6" s="3" t="s">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="AS6" s="2" t="s">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="AT6" s="2" t="s">
-        <v>1187</v>
+        <v>1177</v>
       </c>
       <c r="AU6" s="2" t="s">
-        <v>1188</v>
+        <v>1178</v>
       </c>
       <c r="AX6" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="AZ6" t="s">
-        <v>1245</v>
+        <v>1235</v>
       </c>
       <c r="BA6" t="s">
         <v>475</v>
       </c>
       <c r="BB6" t="s">
-        <v>1279</v>
+        <v>1269</v>
       </c>
       <c r="BC6" t="s">
-        <v>1280</v>
+        <v>1270</v>
       </c>
       <c r="BD6" t="s">
         <v>475</v>
       </c>
       <c r="BE6" t="s">
-        <v>1321</v>
+        <v>1311</v>
       </c>
       <c r="BF6" t="s">
-        <v>1322</v>
+        <v>1312</v>
       </c>
       <c r="BG6" t="s">
-        <v>1344</v>
+        <v>1334</v>
       </c>
       <c r="BH6" t="s">
-        <v>1355</v>
+        <v>1345</v>
       </c>
       <c r="BI6" t="s">
-        <v>1370</v>
+        <v>1360</v>
       </c>
       <c r="BJ6" t="s">
         <v>608</v>
       </c>
       <c r="BK6" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
       <c r="BL6" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
       <c r="BM6" t="s">
-        <v>1418</v>
+        <v>1408</v>
       </c>
       <c r="BN6" t="s">
-        <v>1431</v>
+        <v>1421</v>
       </c>
       <c r="BO6" t="s">
         <v>475</v>
       </c>
       <c r="BP6" t="s">
-        <v>1459</v>
+        <v>1449</v>
       </c>
       <c r="BQ6" t="s">
-        <v>1472</v>
+        <v>1462</v>
       </c>
       <c r="BR6" t="s">
-        <v>1473</v>
+        <v>1463</v>
       </c>
       <c r="BS6" t="s">
-        <v>1499</v>
+        <v>1489</v>
       </c>
       <c r="BT6" t="s">
-        <v>1514</v>
+        <v>1504</v>
       </c>
       <c r="BU6" t="s">
-        <v>1583</v>
+        <v>1573</v>
       </c>
       <c r="BV6" t="s">
-        <v>1599</v>
+        <v>1589</v>
       </c>
       <c r="BW6" t="s">
-        <v>1600</v>
+        <v>1590</v>
       </c>
       <c r="BX6" t="s">
-        <v>1623</v>
+        <v>1613</v>
       </c>
       <c r="BY6" t="s">
-        <v>1637</v>
+        <v>1627</v>
       </c>
       <c r="BZ6" t="s">
-        <v>1653</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="7" spans="1:78" x14ac:dyDescent="0.2">
@@ -9566,11 +9569,11 @@
       <c r="B7" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>658</v>
+      <c r="C7" s="4" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>2403</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>492</v>
@@ -9582,19 +9585,19 @@
         <v>512</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1198</v>
+        <v>1188</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>1199</v>
+        <v>1189</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>584</v>
@@ -9618,172 +9621,172 @@
         <v>557</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
       <c r="AQ7" s="2" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="AS7" s="2" t="s">
-        <v>1143</v>
+        <v>1133</v>
       </c>
       <c r="AT7" s="2" t="s">
-        <v>1185</v>
+        <v>1175</v>
       </c>
       <c r="AU7" s="2" t="s">
-        <v>1186</v>
+        <v>1176</v>
       </c>
       <c r="AX7" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="AZ7" t="s">
-        <v>1246</v>
+        <v>1236</v>
       </c>
       <c r="BA7" t="s">
-        <v>1261</v>
+        <v>1251</v>
       </c>
       <c r="BB7" t="s">
-        <v>1281</v>
+        <v>1271</v>
       </c>
       <c r="BC7" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="BD7" t="s">
-        <v>1303</v>
+        <v>1293</v>
       </c>
       <c r="BE7" t="s">
-        <v>1323</v>
+        <v>1313</v>
       </c>
       <c r="BF7" t="s">
-        <v>1324</v>
+        <v>1314</v>
       </c>
       <c r="BG7" t="s">
-        <v>1345</v>
+        <v>1335</v>
       </c>
       <c r="BH7" t="s">
-        <v>1356</v>
+        <v>1346</v>
       </c>
       <c r="BI7" t="s">
-        <v>1371</v>
+        <v>1361</v>
       </c>
       <c r="BJ7" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="BK7" t="s">
-        <v>1394</v>
+        <v>1384</v>
       </c>
       <c r="BL7" t="s">
-        <v>1395</v>
+        <v>1385</v>
       </c>
       <c r="BM7" t="s">
-        <v>1419</v>
+        <v>1409</v>
       </c>
       <c r="BN7" t="s">
-        <v>1432</v>
+        <v>1422</v>
       </c>
       <c r="BO7" t="s">
-        <v>1444</v>
+        <v>1434</v>
       </c>
       <c r="BP7" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="BQ7" t="s">
-        <v>1474</v>
+        <v>1464</v>
       </c>
       <c r="BR7" t="s">
-        <v>1475</v>
+        <v>1465</v>
       </c>
       <c r="BS7" t="s">
-        <v>1500</v>
+        <v>1490</v>
       </c>
       <c r="BT7" t="s">
-        <v>1515</v>
+        <v>1505</v>
       </c>
       <c r="BU7" t="s">
-        <v>1584</v>
+        <v>1574</v>
       </c>
       <c r="BV7" t="s">
-        <v>1601</v>
+        <v>1591</v>
       </c>
       <c r="BW7" t="s">
-        <v>1602</v>
+        <v>1592</v>
       </c>
       <c r="BX7" t="s">
-        <v>1624</v>
+        <v>1614</v>
       </c>
       <c r="BY7" t="s">
-        <v>1638</v>
+        <v>1628</v>
       </c>
       <c r="BZ7" t="s">
-        <v>1654</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="8" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9793,11 +9796,11 @@
       <c r="B8" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>660</v>
+      <c r="C8" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>658</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>560</v>
@@ -9809,19 +9812,19 @@
         <v>514</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>1200</v>
+        <v>1190</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>1201</v>
+        <v>1191</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>586</v>
@@ -9845,172 +9848,172 @@
         <v>559</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="AF8" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="AG8" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="AG8" s="2" t="s">
-        <v>958</v>
-      </c>
       <c r="AH8" s="2" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
       <c r="AO8" s="2" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="AQ8" s="2" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="AR8" s="2" t="s">
-        <v>1144</v>
+        <v>1134</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>1145</v>
+        <v>1135</v>
       </c>
       <c r="AT8" s="2" t="s">
-        <v>1183</v>
+        <v>1173</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>1184</v>
+        <v>1174</v>
       </c>
       <c r="AX8" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="AZ8" t="s">
-        <v>1247</v>
+        <v>1237</v>
       </c>
       <c r="BA8" t="s">
-        <v>1262</v>
+        <v>1252</v>
       </c>
       <c r="BB8" t="s">
-        <v>1282</v>
+        <v>1272</v>
       </c>
       <c r="BC8" t="s">
-        <v>1283</v>
+        <v>1273</v>
       </c>
       <c r="BD8" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="BE8" t="s">
-        <v>1325</v>
+        <v>1315</v>
       </c>
       <c r="BF8" t="s">
-        <v>1326</v>
+        <v>1316</v>
       </c>
       <c r="BG8" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="BH8" t="s">
-        <v>1357</v>
+        <v>1347</v>
       </c>
       <c r="BI8" t="s">
-        <v>1372</v>
+        <v>1362</v>
       </c>
       <c r="BJ8" t="s">
         <v>610</v>
       </c>
       <c r="BK8" t="s">
-        <v>1396</v>
+        <v>1386</v>
       </c>
       <c r="BL8" t="s">
-        <v>1397</v>
+        <v>1387</v>
       </c>
       <c r="BM8" t="s">
-        <v>1420</v>
+        <v>1410</v>
       </c>
       <c r="BN8" t="s">
-        <v>1433</v>
+        <v>1423</v>
       </c>
       <c r="BO8" t="s">
-        <v>1445</v>
+        <v>1435</v>
       </c>
       <c r="BP8" t="s">
-        <v>1460</v>
+        <v>1450</v>
       </c>
       <c r="BQ8" s="1" t="s">
-        <v>1476</v>
+        <v>1466</v>
       </c>
       <c r="BR8" t="s">
-        <v>1477</v>
+        <v>1467</v>
       </c>
       <c r="BS8" t="s">
-        <v>1501</v>
+        <v>1491</v>
       </c>
       <c r="BT8" t="s">
-        <v>1516</v>
+        <v>1506</v>
       </c>
       <c r="BU8" t="s">
-        <v>1585</v>
+        <v>1575</v>
       </c>
       <c r="BV8" t="s">
-        <v>1603</v>
+        <v>1593</v>
       </c>
       <c r="BW8" t="s">
-        <v>1604</v>
+        <v>1594</v>
       </c>
       <c r="BX8" t="s">
-        <v>1625</v>
+        <v>1615</v>
       </c>
       <c r="BY8" t="s">
-        <v>1639</v>
+        <v>1629</v>
       </c>
       <c r="BZ8" t="s">
-        <v>1655</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="9" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10020,14 +10023,14 @@
       <c r="B9" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>904</v>
+      <c r="C9" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>898</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>515</v>
@@ -10036,19 +10039,19 @@
         <v>516</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>1202</v>
+        <v>1192</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>1203</v>
+        <v>1193</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>588</v>
@@ -10075,169 +10078,169 @@
         <v>611</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="AH9" s="3" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="AI9" s="2" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="AJ9" s="2" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="AK9" s="2" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="AL9" s="2" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
       <c r="AM9" s="2" t="s">
-        <v>1068</v>
+        <v>1058</v>
       </c>
       <c r="AN9" s="2" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="AO9" s="2" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="AP9" s="2" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
       <c r="AQ9" s="2" t="s">
-        <v>1125</v>
+        <v>1115</v>
       </c>
       <c r="AR9" s="2" t="s">
-        <v>1146</v>
+        <v>1136</v>
       </c>
       <c r="AS9" s="2" t="s">
-        <v>1147</v>
+        <v>1137</v>
       </c>
       <c r="AT9" s="2" t="s">
-        <v>1181</v>
+        <v>1171</v>
       </c>
       <c r="AU9" s="2" t="s">
-        <v>1182</v>
+        <v>1172</v>
       </c>
       <c r="AX9" t="s">
-        <v>1221</v>
+        <v>1211</v>
       </c>
       <c r="AZ9" t="s">
-        <v>1248</v>
+        <v>1238</v>
       </c>
       <c r="BA9" t="s">
-        <v>1263</v>
+        <v>1253</v>
       </c>
       <c r="BB9" t="s">
-        <v>1284</v>
+        <v>1274</v>
       </c>
       <c r="BC9" t="s">
-        <v>1285</v>
+        <v>1275</v>
       </c>
       <c r="BD9" t="s">
-        <v>1305</v>
+        <v>1295</v>
       </c>
       <c r="BE9" t="s">
-        <v>1327</v>
+        <v>1317</v>
       </c>
       <c r="BF9" t="s">
-        <v>1328</v>
+        <v>1318</v>
       </c>
       <c r="BG9" t="s">
-        <v>1346</v>
+        <v>1336</v>
       </c>
       <c r="BH9" t="s">
-        <v>1358</v>
+        <v>1348</v>
       </c>
       <c r="BI9" t="s">
-        <v>1373</v>
+        <v>1363</v>
       </c>
       <c r="BJ9" t="s">
         <v>611</v>
       </c>
       <c r="BK9" t="s">
-        <v>1398</v>
+        <v>1388</v>
       </c>
       <c r="BL9" t="s">
-        <v>1399</v>
+        <v>1389</v>
       </c>
       <c r="BM9" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="BN9" t="s">
-        <v>1434</v>
+        <v>1424</v>
       </c>
       <c r="BO9" t="s">
-        <v>1446</v>
+        <v>1436</v>
       </c>
       <c r="BP9" t="s">
-        <v>1461</v>
+        <v>1451</v>
       </c>
       <c r="BQ9" t="s">
-        <v>1478</v>
+        <v>1468</v>
       </c>
       <c r="BR9" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
       <c r="BS9" t="s">
-        <v>1502</v>
+        <v>1492</v>
       </c>
       <c r="BT9" t="s">
-        <v>1517</v>
+        <v>1507</v>
       </c>
       <c r="BU9" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="BV9" t="s">
-        <v>1605</v>
+        <v>1595</v>
       </c>
       <c r="BW9" t="s">
-        <v>1606</v>
+        <v>1596</v>
       </c>
       <c r="BX9" t="s">
-        <v>1626</v>
+        <v>1616</v>
       </c>
       <c r="BY9" t="s">
-        <v>1640</v>
+        <v>1630</v>
       </c>
       <c r="BZ9" t="s">
-        <v>1656</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.2">
@@ -10245,13 +10248,13 @@
         <v>479</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2404</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>664</v>
+        <v>2394</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>660</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>494</v>
@@ -10263,19 +10266,19 @@
         <v>479</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>1204</v>
+        <v>1194</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>1205</v>
+        <v>1195</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>590</v>
@@ -10302,7 +10305,7 @@
         <v>564</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>479</v>
@@ -10311,94 +10314,94 @@
         <v>479</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
       <c r="AI10" s="2" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="AL10" s="2" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="AM10" s="2" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="AN10" s="2" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="AO10" s="2" t="s">
-        <v>1097</v>
+        <v>1087</v>
       </c>
       <c r="AP10" s="2" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
       <c r="AQ10" s="2" t="s">
-        <v>1126</v>
+        <v>1116</v>
       </c>
       <c r="AR10" s="2" t="s">
-        <v>1148</v>
+        <v>1138</v>
       </c>
       <c r="AS10" s="2" t="s">
-        <v>1149</v>
+        <v>1139</v>
       </c>
       <c r="AT10" s="2" t="s">
-        <v>1179</v>
+        <v>1169</v>
       </c>
       <c r="AU10" s="2" t="s">
-        <v>1180</v>
+        <v>1170</v>
       </c>
       <c r="AX10" t="s">
-        <v>1222</v>
+        <v>1212</v>
       </c>
       <c r="AZ10" t="s">
-        <v>1249</v>
+        <v>1239</v>
       </c>
       <c r="BA10" t="s">
-        <v>1264</v>
+        <v>1254</v>
       </c>
       <c r="BB10" t="s">
-        <v>1286</v>
+        <v>1276</v>
       </c>
       <c r="BC10" t="s">
-        <v>1287</v>
+        <v>1277</v>
       </c>
       <c r="BD10" t="s">
-        <v>1306</v>
+        <v>1296</v>
       </c>
       <c r="BE10" t="s">
         <v>563</v>
@@ -10407,49 +10410,49 @@
         <v>564</v>
       </c>
       <c r="BG10" t="s">
-        <v>1347</v>
+        <v>1337</v>
       </c>
       <c r="BH10" t="s">
-        <v>1359</v>
+        <v>1349</v>
       </c>
       <c r="BI10" t="s">
-        <v>1374</v>
+        <v>1364</v>
       </c>
       <c r="BJ10" t="s">
         <v>612</v>
       </c>
       <c r="BK10" t="s">
-        <v>1400</v>
+        <v>1390</v>
       </c>
       <c r="BL10" t="s">
-        <v>1401</v>
+        <v>1391</v>
       </c>
       <c r="BM10" t="s">
-        <v>1421</v>
+        <v>1411</v>
       </c>
       <c r="BN10" t="s">
-        <v>1126</v>
+        <v>1116</v>
       </c>
       <c r="BO10" t="s">
-        <v>1447</v>
+        <v>1437</v>
       </c>
       <c r="BP10" t="s">
-        <v>1462</v>
+        <v>1452</v>
       </c>
       <c r="BQ10" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
       <c r="BR10" t="s">
-        <v>1481</v>
+        <v>1471</v>
       </c>
       <c r="BS10" t="s">
-        <v>1503</v>
+        <v>1493</v>
       </c>
       <c r="BT10" t="s">
-        <v>1097</v>
+        <v>1087</v>
       </c>
       <c r="BU10" t="s">
-        <v>1586</v>
+        <v>1576</v>
       </c>
       <c r="BV10" t="s">
         <v>563</v>
@@ -10458,13 +10461,13 @@
         <v>564</v>
       </c>
       <c r="BX10" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="BY10" t="s">
-        <v>1641</v>
+        <v>1631</v>
       </c>
       <c r="BZ10" t="s">
-        <v>1657</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="11" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10474,11 +10477,11 @@
       <c r="B11" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>906</v>
+      <c r="C11" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>900</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>495</v>
@@ -10490,19 +10493,19 @@
         <v>519</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>1206</v>
+        <v>1196</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>1207</v>
+        <v>1197</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>592</v>
@@ -10520,178 +10523,178 @@
         <v>638</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>638</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="AA11" s="2" t="s">
         <v>593</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="AH11" s="2" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="AI11" s="2" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="AM11" s="2" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="AN11" s="2" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="AO11" s="2" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="AP11" s="2" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="AQ11" s="2" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
       <c r="AR11" s="2" t="s">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="AS11" s="2" t="s">
-        <v>1151</v>
+        <v>1141</v>
       </c>
       <c r="AT11" s="2" t="s">
-        <v>1177</v>
+        <v>1167</v>
       </c>
       <c r="AU11" s="2" t="s">
-        <v>1178</v>
+        <v>1168</v>
       </c>
       <c r="AX11" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="AZ11" t="s">
-        <v>1250</v>
+        <v>1240</v>
       </c>
       <c r="BA11" t="s">
-        <v>1265</v>
+        <v>1255</v>
       </c>
       <c r="BB11" t="s">
-        <v>1288</v>
+        <v>1278</v>
       </c>
       <c r="BC11" t="s">
         <v>593</v>
       </c>
       <c r="BD11" t="s">
-        <v>1307</v>
+        <v>1297</v>
       </c>
       <c r="BE11" t="s">
-        <v>1329</v>
+        <v>1319</v>
       </c>
       <c r="BF11" t="s">
-        <v>1330</v>
+        <v>1320</v>
       </c>
       <c r="BG11" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="BH11" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="BI11" s="1" t="s">
-        <v>1375</v>
+        <v>1365</v>
       </c>
       <c r="BJ11" t="s">
-        <v>1376</v>
+        <v>1366</v>
       </c>
       <c r="BK11" t="s">
-        <v>1402</v>
+        <v>1392</v>
       </c>
       <c r="BL11" t="s">
-        <v>1403</v>
+        <v>1393</v>
       </c>
       <c r="BM11" t="s">
-        <v>1422</v>
+        <v>1412</v>
       </c>
       <c r="BN11" t="s">
-        <v>1435</v>
+        <v>1425</v>
       </c>
       <c r="BO11" t="s">
-        <v>1449</v>
+        <v>1439</v>
       </c>
       <c r="BP11" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="BQ11" t="s">
-        <v>1482</v>
+        <v>1472</v>
       </c>
       <c r="BR11" t="s">
-        <v>1483</v>
+        <v>1473</v>
       </c>
       <c r="BS11" t="s">
-        <v>1504</v>
+        <v>1494</v>
       </c>
       <c r="BT11" t="s">
-        <v>1518</v>
+        <v>1508</v>
       </c>
       <c r="BU11" t="s">
-        <v>1518</v>
+        <v>1508</v>
       </c>
       <c r="BV11" t="s">
-        <v>1607</v>
+        <v>1597</v>
       </c>
       <c r="BW11" t="s">
-        <v>1608</v>
+        <v>1598</v>
       </c>
       <c r="BX11" t="s">
-        <v>1627</v>
+        <v>1617</v>
       </c>
       <c r="BY11" t="s">
-        <v>1642</v>
+        <v>1632</v>
       </c>
       <c r="BZ11" t="s">
-        <v>1658</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.2">
@@ -10701,41 +10704,41 @@
       <c r="B12" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>666</v>
+      <c r="C12" s="4" t="s">
+        <v>2398</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>2399</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>498</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>613</v>
@@ -10756,154 +10759,154 @@
         <v>613</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="AH12" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="AI12" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="AK12" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="AL12" s="2" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
       <c r="AM12" s="2" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
       <c r="AN12" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="AO12" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="AP12" s="2" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
       <c r="AQ12" s="2" t="s">
-        <v>1128</v>
+        <v>1118</v>
       </c>
       <c r="AR12" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="AS12" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="AT12" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="AU12" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="AX12" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="AZ12" t="s">
-        <v>1251</v>
+        <v>1241</v>
       </c>
       <c r="BA12" t="s">
-        <v>1266</v>
+        <v>1256</v>
       </c>
       <c r="BB12" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="BC12" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="BD12" t="s">
-        <v>1308</v>
+        <v>1298</v>
       </c>
       <c r="BE12" t="s">
         <v>565</v>
       </c>
       <c r="BF12" t="s">
-        <v>1331</v>
+        <v>1321</v>
       </c>
       <c r="BG12" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="BH12" t="s">
-        <v>1360</v>
+        <v>1350</v>
       </c>
       <c r="BI12" t="s">
-        <v>1377</v>
+        <v>1367</v>
       </c>
       <c r="BJ12" t="s">
         <v>613</v>
       </c>
       <c r="BK12" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="BL12" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="BM12" t="s">
-        <v>1423</v>
+        <v>1413</v>
       </c>
       <c r="BN12" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="BO12" t="s">
-        <v>1448</v>
+        <v>1438</v>
       </c>
       <c r="BP12" t="s">
-        <v>1463</v>
+        <v>1453</v>
       </c>
       <c r="BQ12" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="BR12" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="BS12" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="BT12" t="s">
-        <v>1519</v>
+        <v>1509</v>
       </c>
       <c r="BU12" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="BV12" t="s">
         <v>639</v>
@@ -10912,13 +10915,13 @@
         <v>640</v>
       </c>
       <c r="BX12" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="BY12" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="BZ12" t="s">
-        <v>1659</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="13" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10928,11 +10931,11 @@
       <c r="B13" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>908</v>
+      <c r="C13" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>902</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>499</v>
@@ -10944,19 +10947,19 @@
         <v>523</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>1237</v>
+        <v>1227</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>596</v>
@@ -10974,178 +10977,178 @@
         <v>644</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>617</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="AH13" s="2" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="AI13" s="2" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="AJ13" s="2" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="AK13" s="2" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="AL13" s="2" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="AM13" s="2" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="AN13" s="2" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="AO13" s="2" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="AP13" s="2" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="AQ13" s="2" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
       <c r="AR13" s="3" t="s">
-        <v>1154</v>
+        <v>1144</v>
       </c>
       <c r="AS13" s="2" t="s">
-        <v>1155</v>
+        <v>1145</v>
       </c>
       <c r="AT13" s="2" t="s">
-        <v>1173</v>
+        <v>1163</v>
       </c>
       <c r="AU13" s="2" t="s">
-        <v>1174</v>
+        <v>1164</v>
       </c>
       <c r="AX13" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="AZ13" t="s">
-        <v>1253</v>
+        <v>1243</v>
       </c>
       <c r="BA13" t="s">
-        <v>1270</v>
+        <v>1260</v>
       </c>
       <c r="BB13" t="s">
-        <v>1289</v>
+        <v>1279</v>
       </c>
       <c r="BC13" t="s">
-        <v>1290</v>
+        <v>1280</v>
       </c>
       <c r="BD13" t="s">
-        <v>1310</v>
+        <v>1300</v>
       </c>
       <c r="BE13" t="s">
-        <v>1332</v>
+        <v>1322</v>
       </c>
       <c r="BF13" t="s">
-        <v>1333</v>
+        <v>1323</v>
       </c>
       <c r="BG13" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="BH13" t="s">
-        <v>1362</v>
+        <v>1352</v>
       </c>
       <c r="BI13" t="s">
-        <v>1380</v>
+        <v>1370</v>
       </c>
       <c r="BJ13" t="s">
         <v>617</v>
       </c>
       <c r="BK13" t="s">
-        <v>1406</v>
+        <v>1396</v>
       </c>
       <c r="BL13" t="s">
-        <v>1407</v>
+        <v>1397</v>
       </c>
       <c r="BM13" t="s">
-        <v>1425</v>
+        <v>1415</v>
       </c>
       <c r="BN13" t="s">
         <v>644</v>
       </c>
       <c r="BO13" t="s">
-        <v>1451</v>
+        <v>1441</v>
       </c>
       <c r="BP13" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="BQ13" t="s">
-        <v>1486</v>
+        <v>1476</v>
       </c>
       <c r="BR13" t="s">
-        <v>1487</v>
+        <v>1477</v>
       </c>
       <c r="BS13" t="s">
-        <v>1506</v>
+        <v>1496</v>
       </c>
       <c r="BT13" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="BU13" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="BV13" t="s">
-        <v>1609</v>
+        <v>1599</v>
       </c>
       <c r="BW13" t="s">
-        <v>1610</v>
+        <v>1600</v>
       </c>
       <c r="BX13" t="s">
-        <v>1628</v>
+        <v>1618</v>
       </c>
       <c r="BY13" t="s">
-        <v>1643</v>
+        <v>1633</v>
       </c>
       <c r="BZ13" t="s">
-        <v>1660</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="14" spans="1:78" ht="34" x14ac:dyDescent="0.2">
@@ -11153,13 +11156,13 @@
         <v>481</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2405</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>667</v>
+        <v>2395</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>661</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>493</v>
@@ -11171,16 +11174,16 @@
         <v>521</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>1208</v>
+        <v>1198</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>595</v>
@@ -11201,178 +11204,178 @@
         <v>642</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="AH14" s="3" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="AI14" s="2" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="AJ14" s="2" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="AK14" s="2" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="AL14" s="2" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
       <c r="AM14" s="2" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
       <c r="AN14" s="2" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="AO14" s="2" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="AP14" s="2" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="AQ14" s="2" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="AR14" s="3" t="s">
-        <v>1152</v>
+        <v>1142</v>
       </c>
       <c r="AS14" s="2" t="s">
-        <v>1153</v>
+        <v>1143</v>
       </c>
       <c r="AT14" s="2" t="s">
-        <v>1175</v>
+        <v>1165</v>
       </c>
       <c r="AU14" s="2" t="s">
-        <v>1176</v>
+        <v>1166</v>
       </c>
       <c r="AX14" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="AZ14" t="s">
-        <v>1252</v>
+        <v>1242</v>
       </c>
       <c r="BA14" t="s">
-        <v>1269</v>
+        <v>1259</v>
       </c>
       <c r="BB14" t="s">
-        <v>1291</v>
+        <v>1281</v>
       </c>
       <c r="BC14" t="s">
-        <v>1292</v>
+        <v>1282</v>
       </c>
       <c r="BD14" t="s">
-        <v>1309</v>
+        <v>1299</v>
       </c>
       <c r="BE14" t="s">
-        <v>1334</v>
+        <v>1324</v>
       </c>
       <c r="BF14" t="s">
-        <v>1335</v>
+        <v>1325</v>
       </c>
       <c r="BG14" t="s">
-        <v>1208</v>
+        <v>1198</v>
       </c>
       <c r="BH14" t="s">
-        <v>1361</v>
+        <v>1351</v>
       </c>
       <c r="BI14" t="s">
-        <v>1378</v>
+        <v>1368</v>
       </c>
       <c r="BJ14" t="s">
-        <v>1379</v>
+        <v>1369</v>
       </c>
       <c r="BK14" t="s">
-        <v>1404</v>
+        <v>1394</v>
       </c>
       <c r="BL14" t="s">
-        <v>1405</v>
+        <v>1395</v>
       </c>
       <c r="BM14" t="s">
-        <v>1424</v>
+        <v>1414</v>
       </c>
       <c r="BN14" t="s">
-        <v>1437</v>
+        <v>1427</v>
       </c>
       <c r="BO14" t="s">
-        <v>1450</v>
+        <v>1440</v>
       </c>
       <c r="BP14" t="s">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="BQ14" t="s">
-        <v>1484</v>
+        <v>1474</v>
       </c>
       <c r="BR14" t="s">
-        <v>1485</v>
+        <v>1475</v>
       </c>
       <c r="BS14" t="s">
-        <v>1505</v>
+        <v>1495</v>
       </c>
       <c r="BT14" t="s">
-        <v>1520</v>
+        <v>1510</v>
       </c>
       <c r="BU14" t="s">
-        <v>1587</v>
+        <v>1577</v>
       </c>
       <c r="BV14" s="1" t="s">
-        <v>1611</v>
+        <v>1601</v>
       </c>
       <c r="BW14" t="s">
-        <v>1612</v>
+        <v>1602</v>
       </c>
       <c r="BX14" t="s">
-        <v>1629</v>
+        <v>1619</v>
       </c>
       <c r="BY14" t="s">
-        <v>1644</v>
+        <v>1634</v>
       </c>
       <c r="BZ14" t="s">
-        <v>1661</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="15" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -11382,14 +11385,14 @@
       <c r="B15" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>909</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>910</v>
+      <c r="C15" s="5" t="s">
+        <v>2400</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>2401</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>524</v>
@@ -11398,19 +11401,19 @@
         <v>525</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>1238</v>
+        <v>1228</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>1211</v>
+        <v>1201</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>1212</v>
+        <v>1202</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>598</v>
@@ -11419,201 +11422,201 @@
         <v>599</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="T15" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="Y15" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="U15" s="2" t="s">
-        <v>914</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>919</v>
-      </c>
       <c r="Z15" s="2" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="AI15" s="2" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="AJ15" s="2" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="AK15" s="2" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
       <c r="AL15" s="2" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="AM15" s="2" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="AN15" s="2" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="AO15" s="2" t="s">
-        <v>1101</v>
+        <v>1091</v>
       </c>
       <c r="AP15" s="2" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="AQ15" s="2" t="s">
-        <v>1131</v>
+        <v>1121</v>
       </c>
       <c r="AR15" s="3" t="s">
-        <v>1156</v>
+        <v>1146</v>
       </c>
       <c r="AS15" s="2" t="s">
-        <v>1157</v>
+        <v>1147</v>
       </c>
       <c r="AT15" s="2" t="s">
-        <v>1171</v>
+        <v>1161</v>
       </c>
       <c r="AU15" s="2" t="s">
-        <v>1172</v>
+        <v>1162</v>
       </c>
       <c r="AX15" t="s">
-        <v>1224</v>
+        <v>1214</v>
       </c>
       <c r="AZ15" t="s">
-        <v>1254</v>
+        <v>1244</v>
       </c>
       <c r="BA15" t="s">
-        <v>1271</v>
+        <v>1261</v>
       </c>
       <c r="BB15" t="s">
-        <v>1293</v>
+        <v>1283</v>
       </c>
       <c r="BC15" t="s">
-        <v>1294</v>
+        <v>1284</v>
       </c>
       <c r="BD15" t="s">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="BE15" t="s">
-        <v>1336</v>
+        <v>1326</v>
       </c>
       <c r="BF15" t="s">
-        <v>1337</v>
+        <v>1327</v>
       </c>
       <c r="BG15" t="s">
-        <v>1350</v>
+        <v>1340</v>
       </c>
       <c r="BH15" t="s">
-        <v>1363</v>
+        <v>1353</v>
       </c>
       <c r="BI15" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="BJ15" t="s">
-        <v>1382</v>
+        <v>1372</v>
       </c>
       <c r="BK15" t="s">
-        <v>1408</v>
+        <v>1398</v>
       </c>
       <c r="BL15" t="s">
-        <v>1409</v>
+        <v>1399</v>
       </c>
       <c r="BM15" s="1" t="s">
-        <v>1426</v>
+        <v>1416</v>
       </c>
       <c r="BN15" t="s">
-        <v>1438</v>
+        <v>1428</v>
       </c>
       <c r="BO15" t="s">
-        <v>1452</v>
+        <v>1442</v>
       </c>
       <c r="BP15" t="s">
-        <v>1465</v>
+        <v>1455</v>
       </c>
       <c r="BQ15" t="s">
-        <v>1488</v>
+        <v>1478</v>
       </c>
       <c r="BR15" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
       <c r="BS15" t="s">
-        <v>1507</v>
+        <v>1497</v>
       </c>
       <c r="BT15" t="s">
-        <v>1521</v>
+        <v>1511</v>
       </c>
       <c r="BU15" t="s">
-        <v>1588</v>
+        <v>1578</v>
       </c>
       <c r="BV15" t="s">
-        <v>1613</v>
+        <v>1603</v>
       </c>
       <c r="BW15" t="s">
-        <v>1614</v>
+        <v>1604</v>
       </c>
       <c r="BX15" t="s">
-        <v>1630</v>
+        <v>1620</v>
       </c>
       <c r="BY15" t="s">
-        <v>1645</v>
+        <v>1635</v>
       </c>
       <c r="BZ15" t="s">
-        <v>1662</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>670</v>
+      <c r="C16" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>664</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>501</v>
@@ -11625,19 +11628,19 @@
         <v>529</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>1239</v>
+        <v>1229</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>1213</v>
+        <v>1203</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>1214</v>
+        <v>1204</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>600</v>
@@ -11664,169 +11667,169 @@
         <v>618</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="AH16" s="2" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="AI16" s="2" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="AJ16" s="2" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
       <c r="AK16" s="2" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="AL16" s="2" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
       <c r="AM16" s="2" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
       <c r="AN16" s="2" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
       <c r="AO16" s="2" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="AP16" s="2" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="AQ16" s="2" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="AR16" s="2" t="s">
-        <v>1158</v>
+        <v>1148</v>
       </c>
       <c r="AS16" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AT16" s="2" t="s">
         <v>1159</v>
       </c>
-      <c r="AT16" s="2" t="s">
-        <v>1169</v>
-      </c>
       <c r="AU16" s="2" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="AX16" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
       <c r="AZ16" t="s">
-        <v>1255</v>
+        <v>1245</v>
       </c>
       <c r="BA16" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="BB16" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="BC16" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
       <c r="BD16" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="BE16" t="s">
-        <v>1338</v>
+        <v>1328</v>
       </c>
       <c r="BF16" t="s">
-        <v>1339</v>
+        <v>1329</v>
       </c>
       <c r="BG16" t="s">
-        <v>1351</v>
+        <v>1341</v>
       </c>
       <c r="BH16" t="s">
-        <v>1364</v>
+        <v>1354</v>
       </c>
       <c r="BI16" t="s">
-        <v>1383</v>
+        <v>1373</v>
       </c>
       <c r="BJ16" t="s">
         <v>618</v>
       </c>
       <c r="BK16" t="s">
-        <v>1410</v>
+        <v>1400</v>
       </c>
       <c r="BL16" t="s">
-        <v>1411</v>
+        <v>1401</v>
       </c>
       <c r="BM16" t="s">
-        <v>1427</v>
+        <v>1417</v>
       </c>
       <c r="BN16" t="s">
-        <v>1439</v>
+        <v>1429</v>
       </c>
       <c r="BO16" t="s">
-        <v>1453</v>
+        <v>1443</v>
       </c>
       <c r="BP16" t="s">
-        <v>1466</v>
+        <v>1456</v>
       </c>
       <c r="BQ16" t="s">
-        <v>1490</v>
+        <v>1480</v>
       </c>
       <c r="BR16" t="s">
-        <v>1491</v>
+        <v>1481</v>
       </c>
       <c r="BS16" t="s">
-        <v>1508</v>
+        <v>1498</v>
       </c>
       <c r="BT16" t="s">
-        <v>1522</v>
+        <v>1512</v>
       </c>
       <c r="BU16" t="s">
-        <v>1589</v>
+        <v>1579</v>
       </c>
       <c r="BV16" t="s">
-        <v>1615</v>
+        <v>1605</v>
       </c>
       <c r="BW16" t="s">
-        <v>1616</v>
+        <v>1606</v>
       </c>
       <c r="BX16" t="s">
-        <v>1631</v>
+        <v>1621</v>
       </c>
       <c r="BY16" t="s">
-        <v>1646</v>
+        <v>1636</v>
       </c>
       <c r="BZ16" t="s">
-        <v>1663</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="17" spans="1:78" x14ac:dyDescent="0.2">
@@ -11836,11 +11839,11 @@
       <c r="B17" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>672</v>
+      <c r="C17" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>666</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>502</v>
@@ -11852,19 +11855,19 @@
         <v>531</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>1240</v>
+        <v>1230</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>1215</v>
+        <v>1205</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>1216</v>
+        <v>1206</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>602</v>
@@ -11876,10 +11879,10 @@
         <v>619</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>570</v>
@@ -11888,399 +11891,399 @@
         <v>571</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="AF17" s="2" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="AH17" s="2" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="AI17" s="2" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="AJ17" s="2" t="s">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="AK17" s="2" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="AL17" s="2" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
       <c r="AM17" s="2" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="AN17" s="2" t="s">
-        <v>1102</v>
+        <v>1092</v>
       </c>
       <c r="AO17" s="2" t="s">
-        <v>1103</v>
+        <v>1093</v>
       </c>
       <c r="AP17" s="2" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
       <c r="AQ17" s="2" t="s">
-        <v>1133</v>
+        <v>1123</v>
       </c>
       <c r="AR17" s="2" t="s">
-        <v>1160</v>
+        <v>1150</v>
       </c>
       <c r="AS17" s="2" t="s">
-        <v>1161</v>
+        <v>1151</v>
       </c>
       <c r="AT17" s="2" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="AU17" s="2" t="s">
-        <v>1168</v>
+        <v>1158</v>
       </c>
       <c r="AX17" t="s">
-        <v>1226</v>
+        <v>1216</v>
       </c>
       <c r="AZ17" t="s">
-        <v>1256</v>
+        <v>1246</v>
       </c>
       <c r="BA17" t="s">
-        <v>1273</v>
+        <v>1263</v>
       </c>
       <c r="BB17" t="s">
-        <v>1297</v>
+        <v>1287</v>
       </c>
       <c r="BC17" t="s">
-        <v>1298</v>
+        <v>1288</v>
       </c>
       <c r="BD17" t="s">
-        <v>1313</v>
+        <v>1303</v>
       </c>
       <c r="BE17" t="s">
-        <v>1340</v>
+        <v>1330</v>
       </c>
       <c r="BF17" t="s">
-        <v>1341</v>
+        <v>1331</v>
       </c>
       <c r="BG17" t="s">
-        <v>1352</v>
+        <v>1342</v>
       </c>
       <c r="BH17" t="s">
-        <v>1365</v>
+        <v>1355</v>
       </c>
       <c r="BI17" t="s">
-        <v>1384</v>
+        <v>1374</v>
       </c>
       <c r="BJ17" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="BK17" t="s">
-        <v>1412</v>
+        <v>1402</v>
       </c>
       <c r="BL17" t="s">
-        <v>1413</v>
+        <v>1403</v>
       </c>
       <c r="BM17" t="s">
-        <v>1428</v>
+        <v>1418</v>
       </c>
       <c r="BN17" t="s">
-        <v>1440</v>
+        <v>1430</v>
       </c>
       <c r="BO17" t="s">
-        <v>1454</v>
+        <v>1444</v>
       </c>
       <c r="BP17" t="s">
-        <v>1467</v>
+        <v>1457</v>
       </c>
       <c r="BQ17" t="s">
-        <v>1492</v>
+        <v>1482</v>
       </c>
       <c r="BR17" t="s">
-        <v>1493</v>
+        <v>1483</v>
       </c>
       <c r="BS17" t="s">
-        <v>1509</v>
+        <v>1499</v>
       </c>
       <c r="BT17" t="s">
-        <v>1523</v>
+        <v>1513</v>
       </c>
       <c r="BU17" t="s">
-        <v>1590</v>
+        <v>1580</v>
       </c>
       <c r="BV17" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
       <c r="BW17" t="s">
-        <v>1618</v>
+        <v>1608</v>
       </c>
       <c r="BX17" t="s">
-        <v>1632</v>
+        <v>1622</v>
       </c>
       <c r="BY17" t="s">
-        <v>1647</v>
+        <v>1637</v>
       </c>
       <c r="BZ17" t="s">
-        <v>1664</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="18" spans="1:78" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>961</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>2405</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="Y18" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>993</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="Z18" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>991</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>989</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="H18" s="2" t="s">
+      <c r="AA18" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="AF18" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="AG18" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="AH18" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="AI18" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AJ18" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="AL18" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AN18" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="AO18" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="AP18" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AR18" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="AS18" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="AT18" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="AU18" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>963</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>1247</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>1264</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>983</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>983</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>1304</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>974</v>
+      </c>
+      <c r="BF18" t="s">
         <v>975</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>1241</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>986</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>984</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>985</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>988</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>981</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>980</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>971</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>979</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>978</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>977</v>
-      </c>
-      <c r="Z18" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="AB18" s="2" t="s">
+      <c r="BG18" t="s">
+        <v>983</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>983</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>974</v>
+      </c>
+      <c r="BJ18" t="s">
         <v>973</v>
       </c>
-      <c r="AC18" s="2" t="s">
+      <c r="BK18" t="s">
+        <v>983</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>983</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>1419</v>
+      </c>
+      <c r="BN18" t="s">
+        <v>973</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>1445</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>963</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>1484</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>1485</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>983</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>1514</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>961</v>
+      </c>
+      <c r="BV18" t="s">
         <v>974</v>
       </c>
-      <c r="AD18" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="AE18" s="2" t="s">
-        <v>971</v>
-      </c>
-      <c r="AF18" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="AG18" s="2" t="s">
-        <v>970</v>
-      </c>
-      <c r="AH18" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="AI18" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="AJ18" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="AK18" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="AL18" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AM18" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="AN18" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="AO18" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="AP18" s="2" t="s">
-        <v>1118</v>
-      </c>
-      <c r="AQ18" s="2" t="s">
-        <v>1119</v>
-      </c>
-      <c r="AR18" s="3" t="s">
-        <v>993</v>
-      </c>
-      <c r="AS18" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="AT18" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="AU18" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>971</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>1257</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>1274</v>
-      </c>
-      <c r="BB18" t="s">
-        <v>993</v>
-      </c>
-      <c r="BC18" t="s">
-        <v>993</v>
-      </c>
-      <c r="BD18" t="s">
-        <v>1314</v>
-      </c>
-      <c r="BE18" t="s">
-        <v>984</v>
-      </c>
-      <c r="BF18" t="s">
-        <v>985</v>
-      </c>
-      <c r="BG18" t="s">
-        <v>993</v>
-      </c>
-      <c r="BH18" t="s">
-        <v>993</v>
-      </c>
-      <c r="BI18" t="s">
-        <v>984</v>
-      </c>
-      <c r="BJ18" t="s">
-        <v>981</v>
-      </c>
-      <c r="BK18" t="s">
-        <v>993</v>
-      </c>
-      <c r="BL18" t="s">
-        <v>993</v>
-      </c>
-      <c r="BM18" t="s">
-        <v>1429</v>
-      </c>
-      <c r="BN18" t="s">
-        <v>981</v>
-      </c>
-      <c r="BO18" t="s">
-        <v>1455</v>
-      </c>
-      <c r="BP18" t="s">
-        <v>971</v>
-      </c>
-      <c r="BQ18" t="s">
-        <v>1494</v>
-      </c>
-      <c r="BR18" t="s">
-        <v>1495</v>
-      </c>
-      <c r="BS18" t="s">
-        <v>993</v>
-      </c>
-      <c r="BT18" t="s">
-        <v>1524</v>
-      </c>
-      <c r="BU18" t="s">
-        <v>969</v>
-      </c>
-      <c r="BV18" t="s">
-        <v>984</v>
-      </c>
       <c r="BW18" t="s">
-        <v>1619</v>
+        <v>1609</v>
       </c>
       <c r="BX18" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="BY18" s="1" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
       <c r="BZ18" t="s">
-        <v>1665</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="19" spans="1:78" x14ac:dyDescent="0.2">
@@ -12290,14 +12293,14 @@
       <c r="B19" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="4" t="s">
         <v>651</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>532</v>
@@ -12306,19 +12309,19 @@
         <v>533</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>1242</v>
+        <v>1232</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>1218</v>
+        <v>1208</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>604</v>
@@ -12345,169 +12348,169 @@
         <v>620</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="AF19" s="2" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="AG19" s="2" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="AH19" s="2" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="AI19" s="2" t="s">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="AJ19" s="2" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="AK19" s="2" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="AL19" s="2" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="AM19" s="2" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="AN19" s="2" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="AO19" s="2" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="AP19" s="2" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="AQ19" s="2" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
       <c r="AR19" s="2" t="s">
-        <v>1162</v>
+        <v>1152</v>
       </c>
       <c r="AS19" s="2" t="s">
-        <v>1163</v>
+        <v>1153</v>
       </c>
       <c r="AT19" s="2" t="s">
-        <v>1164</v>
+        <v>1154</v>
       </c>
       <c r="AU19" s="2" t="s">
-        <v>1166</v>
+        <v>1156</v>
       </c>
       <c r="AX19" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
       <c r="AZ19" t="s">
-        <v>1258</v>
+        <v>1248</v>
       </c>
       <c r="BA19" t="s">
-        <v>1275</v>
+        <v>1265</v>
       </c>
       <c r="BB19" t="s">
-        <v>1299</v>
+        <v>1289</v>
       </c>
       <c r="BC19" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="BD19" t="s">
-        <v>1315</v>
+        <v>1305</v>
       </c>
       <c r="BE19" t="s">
-        <v>1342</v>
+        <v>1332</v>
       </c>
       <c r="BF19" t="s">
-        <v>1315</v>
+        <v>1305</v>
       </c>
       <c r="BG19" t="s">
-        <v>1353</v>
+        <v>1343</v>
       </c>
       <c r="BH19" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="BI19" t="s">
-        <v>1385</v>
+        <v>1375</v>
       </c>
       <c r="BJ19" t="s">
-        <v>1386</v>
+        <v>1376</v>
       </c>
       <c r="BK19" t="s">
-        <v>1414</v>
+        <v>1404</v>
       </c>
       <c r="BL19" t="s">
-        <v>1415</v>
+        <v>1405</v>
       </c>
       <c r="BM19" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="BN19" t="s">
-        <v>1441</v>
+        <v>1431</v>
       </c>
       <c r="BO19" t="s">
-        <v>1456</v>
+        <v>1446</v>
       </c>
       <c r="BP19" t="s">
-        <v>1468</v>
+        <v>1458</v>
       </c>
       <c r="BQ19" t="s">
-        <v>1496</v>
+        <v>1486</v>
       </c>
       <c r="BR19" t="s">
-        <v>1497</v>
+        <v>1487</v>
       </c>
       <c r="BS19" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="BT19" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="BU19" t="s">
-        <v>1591</v>
+        <v>1581</v>
       </c>
       <c r="BV19" t="s">
-        <v>1620</v>
+        <v>1610</v>
       </c>
       <c r="BW19" t="s">
-        <v>1621</v>
+        <v>1611</v>
       </c>
       <c r="BX19" t="s">
-        <v>1633</v>
+        <v>1623</v>
       </c>
       <c r="BY19" t="s">
-        <v>1649</v>
+        <v>1639</v>
       </c>
       <c r="BZ19" t="s">
-        <v>1666</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="20" spans="1:78" x14ac:dyDescent="0.2">
@@ -12515,37 +12518,37 @@
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1836</v>
+        <v>1826</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>2002</v>
+        <v>1992</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>2003</v>
+        <v>1993</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>1672</v>
+        <v>1662</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>1729</v>
+        <v>1719</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>1730</v>
+        <v>1720</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>2126</v>
+        <v>2116</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>2127</v>
+        <v>2117</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>2237</v>
+        <v>2227</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>2311</v>
+        <v>2301</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>2312</v>
+        <v>2302</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -12553,10 +12556,10 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2" t="s">
-        <v>1889</v>
+        <v>1879</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>1890</v>
+        <v>1880</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -12592,37 +12595,37 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1837</v>
+        <v>1827</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>2004</v>
+        <v>1994</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>2005</v>
+        <v>1995</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1673</v>
+        <v>1663</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>1731</v>
+        <v>1721</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>2128</v>
+        <v>2118</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>2129</v>
+        <v>2119</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>2238</v>
+        <v>2228</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>2309</v>
+        <v>2299</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -12630,10 +12633,10 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2" t="s">
-        <v>1891</v>
+        <v>1881</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>1892</v>
+        <v>1882</v>
       </c>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -12669,37 +12672,37 @@
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1841</v>
+        <v>1831</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>2006</v>
+        <v>1996</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>2007</v>
+        <v>1997</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1674</v>
+        <v>1664</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>1733</v>
+        <v>1723</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>1734</v>
+        <v>1724</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>2130</v>
+        <v>2120</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>2131</v>
+        <v>2121</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>2239</v>
+        <v>2229</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>2307</v>
+        <v>2297</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>2308</v>
+        <v>2298</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -12707,10 +12710,10 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2" t="s">
-        <v>1893</v>
+        <v>1883</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>1894</v>
+        <v>1884</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -12746,37 +12749,37 @@
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1840</v>
+        <v>1830</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>2009</v>
+        <v>1999</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1675</v>
+        <v>1665</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>1735</v>
+        <v>1725</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>1736</v>
+        <v>1726</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>2132</v>
+        <v>2122</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>2133</v>
+        <v>2123</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>2240</v>
+        <v>2230</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>2305</v>
+        <v>2295</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>2306</v>
+        <v>2296</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -12784,10 +12787,10 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2" t="s">
-        <v>1895</v>
+        <v>1885</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>1736</v>
+        <v>1726</v>
       </c>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -12823,37 +12826,37 @@
         <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1838</v>
+        <v>1828</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1676</v>
+        <v>1666</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>1737</v>
+        <v>1727</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>1738</v>
+        <v>1728</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>2134</v>
+        <v>2124</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>2135</v>
+        <v>2125</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>2241</v>
+        <v>2231</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>2303</v>
+        <v>2293</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>2304</v>
+        <v>2294</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -12861,10 +12864,10 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2" t="s">
-        <v>1896</v>
+        <v>1886</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>1897</v>
+        <v>1887</v>
       </c>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -12900,37 +12903,37 @@
         <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1839</v>
+        <v>1829</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1677</v>
+        <v>1667</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>1739</v>
+        <v>1729</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>1740</v>
+        <v>1730</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>2136</v>
+        <v>2126</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>2137</v>
+        <v>2127</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>2242</v>
+        <v>2232</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>2301</v>
+        <v>2291</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>2302</v>
+        <v>2292</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -12938,10 +12941,10 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2" t="s">
-        <v>1898</v>
+        <v>1888</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>1899</v>
+        <v>1889</v>
       </c>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -12977,37 +12980,37 @@
         <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1842</v>
+        <v>1832</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>2016</v>
+        <v>2006</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>2017</v>
+        <v>2007</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1678</v>
+        <v>1668</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>1741</v>
+        <v>1731</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>1742</v>
+        <v>1732</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>2138</v>
+        <v>2128</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>2139</v>
+        <v>2129</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>2243</v>
+        <v>2233</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>2299</v>
+        <v>2289</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>2300</v>
+        <v>2290</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -13015,10 +13018,10 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2" t="s">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>1901</v>
+        <v>1891</v>
       </c>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -13054,37 +13057,37 @@
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1843</v>
+        <v>1833</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1679</v>
+        <v>1669</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>1743</v>
+        <v>1733</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>1744</v>
+        <v>1734</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>2140</v>
+        <v>2130</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>2141</v>
+        <v>2131</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>2244</v>
+        <v>2234</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>2297</v>
+        <v>2287</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>2298</v>
+        <v>2288</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -13092,10 +13095,10 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2" t="s">
-        <v>1902</v>
+        <v>1892</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>1903</v>
+        <v>1893</v>
       </c>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -13128,40 +13131,40 @@
     </row>
     <row r="28" spans="1:78" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1268</v>
+        <v>1258</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1844</v>
+        <v>1834</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1680</v>
+        <v>1670</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>1745</v>
+        <v>1735</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>1746</v>
+        <v>1736</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>2142</v>
+        <v>2132</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>2143</v>
+        <v>2133</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>2245</v>
+        <v>2235</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>2296</v>
+        <v>2286</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>2295</v>
+        <v>2285</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -13169,10 +13172,10 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2" t="s">
-        <v>1904</v>
+        <v>1894</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>1905</v>
+        <v>1895</v>
       </c>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -13205,40 +13208,40 @@
     </row>
     <row r="29" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1974</v>
+        <v>1964</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>2001</v>
+        <v>1991</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>2022</v>
+        <v>2012</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1998</v>
+        <v>1988</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>1999</v>
+        <v>1989</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>2144</v>
+        <v>2134</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>2145</v>
+        <v>2135</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>2236</v>
+        <v>2226</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>2293</v>
+        <v>2283</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>2294</v>
+        <v>2284</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -13246,10 +13249,10 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2" t="s">
-        <v>1975</v>
+        <v>1965</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>1976</v>
+        <v>1966</v>
       </c>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -13285,37 +13288,37 @@
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1845</v>
+        <v>1835</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>2024</v>
+        <v>2014</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>2025</v>
+        <v>2015</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1681</v>
+        <v>1671</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1747</v>
+        <v>1737</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1748</v>
+        <v>1738</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>2146</v>
+        <v>2136</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>2247</v>
+        <v>2237</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>2315</v>
+        <v>2305</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>2316</v>
+        <v>2306</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -13323,10 +13326,10 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2" t="s">
-        <v>1906</v>
+        <v>1896</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>1907</v>
+        <v>1897</v>
       </c>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
@@ -13362,37 +13365,37 @@
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1846</v>
+        <v>1836</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>2031</v>
+        <v>2021</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>2032</v>
+        <v>2022</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1682</v>
+        <v>1672</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>1749</v>
+        <v>1739</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>1750</v>
+        <v>1740</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>2148</v>
+        <v>2138</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>2149</v>
+        <v>2139</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>2248</v>
+        <v>2238</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>2319</v>
+        <v>2309</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -13400,10 +13403,10 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2" t="s">
-        <v>1909</v>
+        <v>1899</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>1908</v>
+        <v>1898</v>
       </c>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
@@ -13439,37 +13442,37 @@
         <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1847</v>
+        <v>1837</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>2033</v>
+        <v>2023</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>2034</v>
+        <v>2024</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1683</v>
+        <v>1673</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>1751</v>
+        <v>1741</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>1752</v>
+        <v>1742</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>2150</v>
+        <v>2140</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>2151</v>
+        <v>2141</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>2249</v>
+        <v>2239</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>2317</v>
+        <v>2307</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>2318</v>
+        <v>2308</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -13477,10 +13480,10 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2" t="s">
-        <v>1910</v>
+        <v>1900</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>1911</v>
+        <v>1901</v>
       </c>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
@@ -13516,37 +13519,37 @@
         <v>11</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1848</v>
+        <v>1838</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>2035</v>
+        <v>2025</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>2036</v>
+        <v>2026</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>1684</v>
+        <v>1674</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>1753</v>
+        <v>1743</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>1754</v>
+        <v>1744</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>2152</v>
+        <v>2142</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>2153</v>
+        <v>2143</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>2250</v>
+        <v>2240</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>2322</v>
+        <v>2312</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -13554,10 +13557,10 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2" t="s">
-        <v>1912</v>
+        <v>1902</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>1913</v>
+        <v>1903</v>
       </c>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
@@ -13593,37 +13596,37 @@
         <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1849</v>
+        <v>1839</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>2037</v>
+        <v>2027</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>2038</v>
+        <v>2028</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1685</v>
+        <v>1675</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>1755</v>
+        <v>1745</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>1756</v>
+        <v>1746</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>2154</v>
+        <v>2144</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>2155</v>
+        <v>2145</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>2251</v>
+        <v>2241</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>2323</v>
+        <v>2313</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>2358</v>
+        <v>2348</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -13631,10 +13634,10 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2" t="s">
-        <v>1914</v>
+        <v>1904</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>1915</v>
+        <v>1905</v>
       </c>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
@@ -13670,37 +13673,37 @@
         <v>13</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1850</v>
+        <v>1840</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>2039</v>
+        <v>2029</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1686</v>
+        <v>1676</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>1757</v>
+        <v>1747</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>2156</v>
+        <v>2146</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>2157</v>
+        <v>2147</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>2252</v>
+        <v>2242</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>2324</v>
+        <v>2314</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>2325</v>
+        <v>2315</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -13708,10 +13711,10 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2" t="s">
-        <v>1916</v>
+        <v>1906</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>1917</v>
+        <v>1907</v>
       </c>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
@@ -13744,40 +13747,40 @@
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1267</v>
+        <v>1257</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1851</v>
+        <v>1841</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>2041</v>
+        <v>2031</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2042</v>
+        <v>2032</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1687</v>
+        <v>1677</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>2158</v>
+        <v>2148</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>2159</v>
+        <v>2149</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>2253</v>
+        <v>2243</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>2326</v>
+        <v>2316</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>2327</v>
+        <v>2317</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -13785,10 +13788,10 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2" t="s">
-        <v>1918</v>
+        <v>1908</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>1919</v>
+        <v>1909</v>
       </c>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
@@ -13824,37 +13827,37 @@
         <v>506</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1852</v>
+        <v>1842</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>2043</v>
+        <v>2033</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>2044</v>
+        <v>2034</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1688</v>
+        <v>1678</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>1762</v>
+        <v>1752</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>2160</v>
+        <v>2150</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>2161</v>
+        <v>2151</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>2254</v>
+        <v>2244</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>2328</v>
+        <v>2318</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>2329</v>
+        <v>2319</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -13862,10 +13865,10 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2" t="s">
-        <v>1920</v>
+        <v>1910</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>1921</v>
+        <v>1911</v>
       </c>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
@@ -13901,37 +13904,37 @@
         <v>14</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1853</v>
+        <v>1843</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>2045</v>
+        <v>2035</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>2046</v>
+        <v>2036</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1689</v>
+        <v>1679</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>1764</v>
+        <v>1754</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>2162</v>
+        <v>2152</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>2163</v>
+        <v>2153</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>2255</v>
+        <v>2245</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>2330</v>
+        <v>2320</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>2331</v>
+        <v>2321</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -13939,10 +13942,10 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2" t="s">
-        <v>1922</v>
+        <v>1912</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>1923</v>
+        <v>1913</v>
       </c>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
@@ -13978,37 +13981,37 @@
         <v>15</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1854</v>
+        <v>1844</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>2047</v>
+        <v>2037</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>2048</v>
+        <v>2038</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>1690</v>
+        <v>1680</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>1766</v>
+        <v>1756</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>2164</v>
+        <v>2154</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>2165</v>
+        <v>2155</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>2246</v>
+        <v>2236</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>2313</v>
+        <v>2303</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>2314</v>
+        <v>2304</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -14016,10 +14019,10 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2" t="s">
-        <v>1925</v>
+        <v>1915</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>1924</v>
+        <v>1914</v>
       </c>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
@@ -14055,37 +14058,37 @@
         <v>16</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1855</v>
+        <v>1845</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>2049</v>
+        <v>2039</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1691</v>
+        <v>1681</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>1767</v>
+        <v>1757</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>1768</v>
+        <v>1758</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>2166</v>
+        <v>2156</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>2167</v>
+        <v>2157</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>2257</v>
+        <v>2247</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>2334</v>
+        <v>2324</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>2335</v>
+        <v>2325</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -14093,10 +14096,10 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2" t="s">
-        <v>1926</v>
+        <v>1916</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>1927</v>
+        <v>1917</v>
       </c>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
@@ -14132,37 +14135,37 @@
         <v>17</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1856</v>
+        <v>1846</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>2051</v>
+        <v>2041</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>2052</v>
+        <v>2042</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>1692</v>
+        <v>1682</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>1769</v>
+        <v>1759</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>1770</v>
+        <v>1760</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>2168</v>
+        <v>2158</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>2169</v>
+        <v>2159</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>2258</v>
+        <v>2248</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>2336</v>
+        <v>2326</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>2337</v>
+        <v>2327</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -14170,10 +14173,10 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2" t="s">
-        <v>1928</v>
+        <v>1918</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>1929</v>
+        <v>1919</v>
       </c>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
@@ -14209,37 +14212,37 @@
         <v>18</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1857</v>
+        <v>1847</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>2053</v>
+        <v>2043</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>2054</v>
+        <v>2044</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>1693</v>
+        <v>1683</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>1771</v>
+        <v>1761</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>1772</v>
+        <v>1762</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>2170</v>
+        <v>2160</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>2171</v>
+        <v>2161</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>2259</v>
+        <v>2249</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>2338</v>
+        <v>2328</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>2339</v>
+        <v>2329</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -14247,10 +14250,10 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2" t="s">
-        <v>1930</v>
+        <v>1920</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>1931</v>
+        <v>1921</v>
       </c>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
@@ -14286,37 +14289,37 @@
         <v>490</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1858</v>
+        <v>1848</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>2056</v>
+        <v>2046</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>2055</v>
+        <v>2045</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>1773</v>
+        <v>1763</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>1774</v>
+        <v>1764</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>2172</v>
+        <v>2162</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>2173</v>
+        <v>2163</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>2260</v>
+        <v>2250</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>2340</v>
+        <v>2330</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>2341</v>
+        <v>2331</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -14324,10 +14327,10 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2" t="s">
-        <v>1932</v>
+        <v>1922</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>1933</v>
+        <v>1923</v>
       </c>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
@@ -14363,37 +14366,37 @@
         <v>19</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1859</v>
+        <v>1849</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>2057</v>
+        <v>2047</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>2058</v>
+        <v>2048</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>1775</v>
+        <v>1765</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>1776</v>
+        <v>1766</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>2174</v>
+        <v>2164</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>2175</v>
+        <v>2165</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>2261</v>
+        <v>2251</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>2344</v>
+        <v>2334</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>2345</v>
+        <v>2335</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -14401,10 +14404,10 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2" t="s">
-        <v>1934</v>
+        <v>1924</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>1935</v>
+        <v>1925</v>
       </c>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
@@ -14437,40 +14440,40 @@
     </row>
     <row r="45" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1860</v>
+        <v>1850</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>2059</v>
+        <v>2049</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>2060</v>
+        <v>2050</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>1697</v>
+        <v>1687</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>1777</v>
+        <v>1767</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>1778</v>
+        <v>1768</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>2176</v>
+        <v>2166</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>2177</v>
+        <v>2167</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>2262</v>
+        <v>2252</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>2342</v>
+        <v>2332</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>2343</v>
+        <v>2333</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -14478,10 +14481,10 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2" t="s">
-        <v>1936</v>
+        <v>1926</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>1937</v>
+        <v>1927</v>
       </c>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
@@ -14517,37 +14520,37 @@
         <v>20</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1861</v>
+        <v>1851</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>2063</v>
+        <v>2053</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>2064</v>
+        <v>2054</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>1698</v>
+        <v>1688</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>1779</v>
+        <v>1769</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>1780</v>
+        <v>1770</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>2178</v>
+        <v>2168</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>2179</v>
+        <v>2169</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>2263</v>
+        <v>2253</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>2346</v>
+        <v>2336</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>2347</v>
+        <v>2337</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -14555,10 +14558,10 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2" t="s">
-        <v>1938</v>
+        <v>1928</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>1939</v>
+        <v>1929</v>
       </c>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
@@ -14594,37 +14597,37 @@
         <v>21</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1862</v>
+        <v>1852</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>2065</v>
+        <v>2055</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>2066</v>
+        <v>2056</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>1699</v>
+        <v>1689</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>1781</v>
+        <v>1771</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>1782</v>
+        <v>1772</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>2180</v>
+        <v>2170</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>2181</v>
+        <v>2171</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>2264</v>
+        <v>2254</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>2348</v>
+        <v>2338</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>2349</v>
+        <v>2339</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -14632,10 +14635,10 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2" t="s">
-        <v>1940</v>
+        <v>1930</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>1941</v>
+        <v>1931</v>
       </c>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
@@ -14671,37 +14674,37 @@
         <v>577</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1863</v>
+        <v>1853</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>2067</v>
+        <v>2057</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>2068</v>
+        <v>2058</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>1700</v>
+        <v>1690</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>1783</v>
+        <v>1773</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>1784</v>
+        <v>1774</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>2182</v>
+        <v>2172</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>2183</v>
+        <v>2173</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>2265</v>
+        <v>2255</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>2350</v>
+        <v>2340</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>2351</v>
+        <v>2341</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -14709,10 +14712,10 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="3" t="s">
-        <v>1942</v>
+        <v>1932</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>1943</v>
+        <v>1933</v>
       </c>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
@@ -14748,37 +14751,37 @@
         <v>22</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1864</v>
+        <v>1854</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>2069</v>
+        <v>2059</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>2070</v>
+        <v>2060</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>1701</v>
+        <v>1691</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>1785</v>
+        <v>1775</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>1786</v>
+        <v>1776</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>2185</v>
+        <v>2175</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>2184</v>
+        <v>2174</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>2256</v>
+        <v>2246</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>2332</v>
+        <v>2322</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>2333</v>
+        <v>2323</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -14786,10 +14789,10 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2" t="s">
-        <v>1944</v>
+        <v>1934</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>1945</v>
+        <v>1935</v>
       </c>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
@@ -14825,37 +14828,37 @@
         <v>23</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1865</v>
+        <v>1855</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>2071</v>
+        <v>2061</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>2072</v>
+        <v>2062</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>1702</v>
+        <v>1692</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>1787</v>
+        <v>1777</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>1788</v>
+        <v>1778</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>2186</v>
+        <v>2176</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>2187</v>
+        <v>2177</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>2267</v>
+        <v>2257</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>2354</v>
+        <v>2344</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>2355</v>
+        <v>2345</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -14863,10 +14866,10 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2" t="s">
-        <v>1946</v>
+        <v>1936</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>1947</v>
+        <v>1937</v>
       </c>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
@@ -14899,40 +14902,40 @@
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1703</v>
+        <v>1693</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1866</v>
+        <v>1856</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>2073</v>
+        <v>2063</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>2074</v>
+        <v>2064</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>1790</v>
+        <v>1780</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>1789</v>
+        <v>1779</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>2188</v>
+        <v>2178</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>2189</v>
+        <v>2179</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>2268</v>
+        <v>2258</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>2356</v>
+        <v>2346</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>2357</v>
+        <v>2347</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -14940,10 +14943,10 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2" t="s">
-        <v>1948</v>
+        <v>1938</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>1949</v>
+        <v>1939</v>
       </c>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
@@ -14979,37 +14982,37 @@
         <v>24</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1867</v>
+        <v>1857</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>2075</v>
+        <v>2065</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>2076</v>
+        <v>2066</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>1705</v>
+        <v>1695</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>1791</v>
+        <v>1781</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>1792</v>
+        <v>1782</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>2190</v>
+        <v>2180</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>2191</v>
+        <v>2181</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>2269</v>
+        <v>2259</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>2360</v>
+        <v>2350</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>2359</v>
+        <v>2349</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -15017,10 +15020,10 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2" t="s">
-        <v>1950</v>
+        <v>1940</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>1951</v>
+        <v>1941</v>
       </c>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
@@ -15053,40 +15056,40 @@
     </row>
     <row r="53" spans="1:47" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1868</v>
+        <v>1858</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>2077</v>
+        <v>2067</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>2078</v>
+        <v>2068</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>1707</v>
+        <v>1697</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>1793</v>
+        <v>1783</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>1794</v>
+        <v>1784</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>2192</v>
+        <v>2182</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>2193</v>
+        <v>2183</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>2270</v>
+        <v>2260</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>2361</v>
+        <v>2351</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>2362</v>
+        <v>2352</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -15094,10 +15097,10 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="3" t="s">
-        <v>1952</v>
+        <v>1942</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>1953</v>
+        <v>1943</v>
       </c>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
@@ -15133,37 +15136,37 @@
         <v>25</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1869</v>
+        <v>1859</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>2079</v>
+        <v>2069</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>2080</v>
+        <v>2070</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>1708</v>
+        <v>1698</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>1795</v>
+        <v>1785</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>1796</v>
+        <v>1786</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>2194</v>
+        <v>2184</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>2195</v>
+        <v>2185</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>2271</v>
+        <v>2261</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>2363</v>
+        <v>2353</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>2364</v>
+        <v>2354</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -15171,10 +15174,10 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2" t="s">
-        <v>1954</v>
+        <v>1944</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>1955</v>
+        <v>1945</v>
       </c>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
@@ -15210,37 +15213,37 @@
         <v>491</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1870</v>
+        <v>1860</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>2081</v>
+        <v>2071</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>2082</v>
+        <v>2072</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>1709</v>
+        <v>1699</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>1797</v>
+        <v>1787</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>1798</v>
+        <v>1788</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>2196</v>
+        <v>2186</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>2197</v>
+        <v>2187</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>2272</v>
+        <v>2262</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>2365</v>
+        <v>2355</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>2366</v>
+        <v>2356</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -15248,10 +15251,10 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2" t="s">
-        <v>1956</v>
+        <v>1946</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>1957</v>
+        <v>1947</v>
       </c>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
@@ -15287,37 +15290,37 @@
         <v>26</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1871</v>
+        <v>1861</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>2083</v>
+        <v>2073</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>2084</v>
+        <v>2074</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>1710</v>
+        <v>1700</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>1799</v>
+        <v>1789</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>1800</v>
+        <v>1790</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>2198</v>
+        <v>2188</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>2199</v>
+        <v>2189</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>2273</v>
+        <v>2263</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>2369</v>
+        <v>2359</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>2370</v>
+        <v>2360</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -15325,10 +15328,10 @@
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2" t="s">
-        <v>1958</v>
+        <v>1948</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>1959</v>
+        <v>1949</v>
       </c>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
@@ -15364,37 +15367,37 @@
         <v>27</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1872</v>
+        <v>1862</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>2085</v>
+        <v>2075</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>2086</v>
+        <v>2076</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>1711</v>
+        <v>1701</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>1801</v>
+        <v>1791</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>1802</v>
+        <v>1792</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>2200</v>
+        <v>2190</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>2201</v>
+        <v>2191</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>2274</v>
+        <v>2264</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>2367</v>
+        <v>2357</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>2368</v>
+        <v>2358</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -15402,10 +15405,10 @@
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2" t="s">
-        <v>1960</v>
+        <v>1950</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>1961</v>
+        <v>1951</v>
       </c>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
@@ -15441,37 +15444,37 @@
         <v>28</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1873</v>
+        <v>1863</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>2087</v>
+        <v>2077</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>2088</v>
+        <v>2078</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>1712</v>
+        <v>1702</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>1803</v>
+        <v>1793</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>1804</v>
+        <v>1794</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>2202</v>
+        <v>2192</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>2203</v>
+        <v>2193</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>2275</v>
+        <v>2265</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>2371</v>
+        <v>2361</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>2372</v>
+        <v>2362</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -15479,10 +15482,10 @@
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2" t="s">
-        <v>1962</v>
+        <v>1952</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>1963</v>
+        <v>1953</v>
       </c>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
@@ -15518,37 +15521,37 @@
         <v>29</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1874</v>
+        <v>1864</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>2089</v>
+        <v>2079</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>2090</v>
+        <v>2080</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>1713</v>
+        <v>1703</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>1805</v>
+        <v>1795</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>1806</v>
+        <v>1796</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>2204</v>
+        <v>2194</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>2205</v>
+        <v>2195</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>2266</v>
+        <v>2256</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>2352</v>
+        <v>2342</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>2353</v>
+        <v>2343</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -15556,10 +15559,10 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2" t="s">
-        <v>1964</v>
+        <v>1954</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>1965</v>
+        <v>1955</v>
       </c>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
@@ -15595,37 +15598,37 @@
         <v>30</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1875</v>
+        <v>1865</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>2091</v>
+        <v>2081</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>2092</v>
+        <v>2082</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>1714</v>
+        <v>1704</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>1807</v>
+        <v>1797</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>1808</v>
+        <v>1798</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>2206</v>
+        <v>2196</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>2207</v>
+        <v>2197</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>2278</v>
+        <v>2268</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>2376</v>
+        <v>2366</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>2375</v>
+        <v>2365</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -15633,10 +15636,10 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2" t="s">
-        <v>1966</v>
+        <v>1956</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>1967</v>
+        <v>1957</v>
       </c>
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
@@ -15672,37 +15675,37 @@
         <v>31</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1876</v>
+        <v>1866</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>2093</v>
+        <v>2083</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>2094</v>
+        <v>2084</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>1715</v>
+        <v>1705</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>1810</v>
+        <v>1800</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>1809</v>
+        <v>1799</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>2208</v>
+        <v>2198</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>2209</v>
+        <v>2199</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>2279</v>
+        <v>2269</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>2377</v>
+        <v>2367</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>2378</v>
+        <v>2368</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -15710,10 +15713,10 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="3" t="s">
-        <v>1968</v>
+        <v>1958</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>1969</v>
+        <v>1959</v>
       </c>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
@@ -15749,37 +15752,37 @@
         <v>32</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1877</v>
+        <v>1867</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>2095</v>
+        <v>2085</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>2096</v>
+        <v>2086</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>1716</v>
+        <v>1706</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>1811</v>
+        <v>1801</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>1812</v>
+        <v>1802</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>2210</v>
+        <v>2200</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>2211</v>
+        <v>2201</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>2280</v>
+        <v>2270</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>2379</v>
+        <v>2369</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>2380</v>
+        <v>2370</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -15787,10 +15790,10 @@
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2" t="s">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>1971</v>
+        <v>1961</v>
       </c>
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
@@ -15823,40 +15826,40 @@
     </row>
     <row r="63" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>2282</v>
+        <v>2272</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1878</v>
+        <v>1868</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>2097</v>
+        <v>2087</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>2098</v>
+        <v>2088</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>1717</v>
+        <v>1707</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>1813</v>
+        <v>1803</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>1814</v>
+        <v>1804</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>2212</v>
+        <v>2202</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>2213</v>
+        <v>2203</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>2281</v>
+        <v>2271</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>2381</v>
+        <v>2371</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>2382</v>
+        <v>2372</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -15864,10 +15867,10 @@
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2" t="s">
-        <v>1972</v>
+        <v>1962</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>1973</v>
+        <v>1963</v>
       </c>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
@@ -15903,37 +15906,37 @@
         <v>33</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1879</v>
+        <v>1869</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>2099</v>
+        <v>2089</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>2100</v>
+        <v>2090</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>1718</v>
+        <v>1708</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>1816</v>
+        <v>1806</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>1815</v>
+        <v>1805</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>2214</v>
+        <v>2204</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>2215</v>
+        <v>2205</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>2283</v>
+        <v>2273</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>2383</v>
+        <v>2373</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>2384</v>
+        <v>2374</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -15941,10 +15944,10 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2" t="s">
-        <v>1977</v>
+        <v>1967</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>1978</v>
+        <v>1968</v>
       </c>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
@@ -15980,37 +15983,37 @@
         <v>34</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1880</v>
+        <v>1870</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>2101</v>
+        <v>2091</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>2102</v>
+        <v>2092</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>1719</v>
+        <v>1709</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>1817</v>
+        <v>1807</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>1818</v>
+        <v>1808</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>2216</v>
+        <v>2206</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>2217</v>
+        <v>2207</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>2284</v>
+        <v>2274</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>2387</v>
+        <v>2377</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>2388</v>
+        <v>2378</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -16018,10 +16021,10 @@
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2" t="s">
-        <v>1979</v>
+        <v>1969</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
@@ -16057,37 +16060,37 @@
         <v>35</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1881</v>
+        <v>1871</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>2103</v>
+        <v>2093</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>2104</v>
+        <v>2094</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>1720</v>
+        <v>1710</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>1819</v>
+        <v>1809</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>1820</v>
+        <v>1810</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>2218</v>
+        <v>2208</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>2219</v>
+        <v>2209</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>2285</v>
+        <v>2275</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>2385</v>
+        <v>2375</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>2386</v>
+        <v>2376</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -16095,10 +16098,10 @@
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2" t="s">
-        <v>1981</v>
+        <v>1971</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>1982</v>
+        <v>1972</v>
       </c>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
@@ -16134,37 +16137,37 @@
         <v>36</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1882</v>
+        <v>1872</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>2110</v>
+        <v>2100</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>2111</v>
+        <v>2101</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>1721</v>
+        <v>1711</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>1821</v>
+        <v>1811</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>1822</v>
+        <v>1812</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>2220</v>
+        <v>2210</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>2221</v>
+        <v>2211</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>2286</v>
+        <v>2276</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>2373</v>
+        <v>2363</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>2374</v>
+        <v>2364</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -16172,10 +16175,10 @@
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2" t="s">
-        <v>1983</v>
+        <v>1973</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>1984</v>
+        <v>1974</v>
       </c>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
@@ -16211,37 +16214,37 @@
         <v>37</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1883</v>
+        <v>1873</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>2112</v>
+        <v>2102</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>2113</v>
+        <v>2103</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>1722</v>
+        <v>1712</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>1823</v>
+        <v>1813</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>1824</v>
+        <v>1814</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>2222</v>
+        <v>2212</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>2223</v>
+        <v>2213</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>2287</v>
+        <v>2277</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>2389</v>
+        <v>2379</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>2390</v>
+        <v>2380</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -16249,10 +16252,10 @@
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2" t="s">
-        <v>1985</v>
+        <v>1975</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>1986</v>
+        <v>1976</v>
       </c>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
@@ -16285,40 +16288,40 @@
     </row>
     <row r="69" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>2277</v>
+        <v>2267</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>2114</v>
+        <v>2104</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>2115</v>
+        <v>2105</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>1835</v>
+        <v>1825</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>1825</v>
+        <v>1815</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>1826</v>
+        <v>1816</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>2224</v>
+        <v>2214</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>2225</v>
+        <v>2215</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>2276</v>
+        <v>2266</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>2391</v>
+        <v>2381</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>2392</v>
+        <v>2382</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -16326,10 +16329,10 @@
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="2" t="s">
-        <v>1987</v>
+        <v>1977</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>1988</v>
+        <v>1978</v>
       </c>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
@@ -16365,37 +16368,37 @@
         <v>38</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1884</v>
+        <v>1874</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>2116</v>
+        <v>2106</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1723</v>
+        <v>1713</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>1827</v>
+        <v>1817</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>1828</v>
+        <v>1818</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>2226</v>
+        <v>2216</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>2227</v>
+        <v>2217</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>2288</v>
+        <v>2278</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>2393</v>
+        <v>2383</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>2394</v>
+        <v>2384</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -16403,10 +16406,10 @@
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="2" t="s">
-        <v>1989</v>
+        <v>1979</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
@@ -16442,37 +16445,37 @@
         <v>39</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1885</v>
+        <v>1875</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>2118</v>
+        <v>2108</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>2119</v>
+        <v>2109</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1724</v>
+        <v>1714</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>2228</v>
+        <v>2218</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>2229</v>
+        <v>2219</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>2289</v>
+        <v>2279</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>2395</v>
+        <v>2385</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>2396</v>
+        <v>2386</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -16480,10 +16483,10 @@
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
@@ -16516,40 +16519,40 @@
     </row>
     <row r="72" spans="1:47" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1991</v>
+        <v>1981</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1886</v>
+        <v>1876</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1725</v>
+        <v>1715</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>1829</v>
+        <v>1819</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>1830</v>
+        <v>1820</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>2230</v>
+        <v>2220</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>2231</v>
+        <v>2221</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>2290</v>
+        <v>2280</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>2397</v>
+        <v>2387</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>2398</v>
+        <v>2388</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -16557,10 +16560,10 @@
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
       <c r="R72" s="2" t="s">
-        <v>1992</v>
+        <v>1982</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>1993</v>
+        <v>1983</v>
       </c>
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
@@ -16596,37 +16599,37 @@
         <v>40</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>2123</v>
+        <v>2113</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>1726</v>
+        <v>1716</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>1831</v>
+        <v>1821</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>1832</v>
+        <v>1822</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>2232</v>
+        <v>2222</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>2233</v>
+        <v>2223</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>2291</v>
+        <v>2281</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>2399</v>
+        <v>2389</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>2400</v>
+        <v>2390</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -16634,10 +16637,10 @@
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="2" t="s">
-        <v>1994</v>
+        <v>1984</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>1995</v>
+        <v>1985</v>
       </c>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
@@ -16673,37 +16676,37 @@
         <v>41</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1888</v>
+        <v>1878</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>2124</v>
+        <v>2114</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>2125</v>
+        <v>2115</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>1727</v>
+        <v>1717</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>1833</v>
+        <v>1823</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>1834</v>
+        <v>1824</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>2234</v>
+        <v>2224</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>2235</v>
+        <v>2225</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>2292</v>
+        <v>2282</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>2401</v>
+        <v>2391</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>2402</v>
+        <v>2392</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -16711,10 +16714,10 @@
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="2" t="s">
-        <v>1996</v>
+        <v>1986</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>1997</v>
+        <v>1987</v>
       </c>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
@@ -16807,12 +16810,12 @@
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>2027</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>2030</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
@@ -17074,7 +17077,7 @@
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>2106</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
@@ -17094,7 +17097,7 @@
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>2062</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
@@ -17114,7 +17117,7 @@
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
@@ -17249,7 +17252,7 @@
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>2105</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
@@ -17344,7 +17347,7 @@
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1670</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
@@ -17399,7 +17402,7 @@
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>2028</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
@@ -17419,7 +17422,7 @@
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
@@ -17469,7 +17472,7 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1671</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
@@ -17639,7 +17642,7 @@
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1728</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
@@ -17754,7 +17757,7 @@
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>2029</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
@@ -17789,7 +17792,7 @@
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>2061</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
@@ -18029,7 +18032,7 @@
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1669</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
@@ -18114,7 +18117,7 @@
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>1436</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
@@ -18259,7 +18262,7 @@
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>2026</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
@@ -18279,7 +18282,7 @@
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>2015</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
@@ -18729,7 +18732,7 @@
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>1667</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
@@ -18744,7 +18747,7 @@
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>2108</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
@@ -18774,7 +18777,7 @@
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>2107</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
@@ -18894,7 +18897,7 @@
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>2109</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
@@ -18939,7 +18942,7 @@
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>2014</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.2">
@@ -18969,7 +18972,7 @@
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>1668</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.2">

--- a/historical/data/data_strict.xlsx
+++ b/historical/data/data_strict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E956E3C8-7CBC-9847-BE40-4CB0F14A0A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95F0F14-2892-A443-A807-65394BA81BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46320" yWindow="-3100" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="2406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="2403">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -1516,9 +1516,6 @@
     <t>i turpëruar</t>
   </si>
   <si>
-    <t>krahu, krah</t>
-  </si>
-  <si>
     <t>shigjeta, shigjetë</t>
   </si>
   <si>
@@ -1528,21 +1525,12 @@
     <t>ash(es)</t>
   </si>
   <si>
-    <t>frashër</t>
-  </si>
-  <si>
-    <t>hiri, hi</t>
-  </si>
-  <si>
     <t>gomar, veshgjatë</t>
   </si>
   <si>
     <t>vjeshtë</t>
   </si>
   <si>
-    <t>zgjoj</t>
-  </si>
-  <si>
     <t>ArmenianTr</t>
   </si>
   <si>
@@ -2053,9 +2041,6 @@
     <t>posramljena, posramljen</t>
   </si>
   <si>
-    <t>pyesni, kërkoj, pyes</t>
-  </si>
-  <si>
     <t>probuditi</t>
   </si>
   <si>
@@ -2680,9 +2665,6 @@
     <t>i zemëruar</t>
   </si>
   <si>
-    <t>kafshë</t>
-  </si>
-  <si>
     <t>mollë</t>
   </si>
   <si>
@@ -2977,9 +2959,6 @@
     <t>avl, biz</t>
   </si>
   <si>
-    <t>fëndyrë, fëndyell</t>
-  </si>
-  <si>
     <t>hammer</t>
   </si>
   <si>
@@ -4577,9 +4556,6 @@
   </si>
   <si>
     <t>bız, biz</t>
-  </si>
-  <si>
-    <t>lis, lende</t>
   </si>
   <si>
     <t>կաղին</t>
@@ -7263,6 +7239,21 @@
   </si>
   <si>
     <t>Zhuīzi</t>
+  </si>
+  <si>
+    <t>lende</t>
+  </si>
+  <si>
+    <t>krah</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>pyesni, pyes</t>
+  </si>
+  <si>
+    <t>zgjohen</t>
   </si>
 </sst>
 </file>
@@ -8126,7 +8117,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8211,13 +8202,13 @@
         <v>471</v>
       </c>
       <c r="B1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E1" t="s">
         <v>486</v>
@@ -8226,211 +8217,211 @@
         <v>487</v>
       </c>
       <c r="G1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="I1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="J1" t="s">
+        <v>783</v>
+      </c>
+      <c r="K1" t="s">
+        <v>781</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="M1" t="s">
+        <v>574</v>
+      </c>
+      <c r="N1" t="s">
+        <v>575</v>
+      </c>
+      <c r="O1" t="s">
+        <v>602</v>
+      </c>
+      <c r="P1" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>619</v>
+      </c>
+      <c r="R1" t="s">
+        <v>544</v>
+      </c>
+      <c r="S1" t="s">
+        <v>545</v>
+      </c>
+      <c r="T1" t="s">
+        <v>663</v>
+      </c>
+      <c r="U1" t="s">
+        <v>670</v>
+      </c>
+      <c r="V1" t="s">
+        <v>683</v>
+      </c>
+      <c r="W1" t="s">
+        <v>697</v>
+      </c>
+      <c r="X1" t="s">
+        <v>709</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>725</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>766</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>767</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>768</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>769</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>770</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>771</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>772</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>773</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>978</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>774</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>775</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>776</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>777</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>778</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>779</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>780</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>782</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>784</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>785</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>786</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>787</v>
+      </c>
+      <c r="BE1" t="s">
         <v>788</v>
       </c>
-      <c r="K1" t="s">
-        <v>786</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="M1" t="s">
-        <v>578</v>
-      </c>
-      <c r="N1" t="s">
-        <v>579</v>
-      </c>
-      <c r="O1" t="s">
-        <v>606</v>
-      </c>
-      <c r="P1" t="s">
-        <v>621</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>623</v>
-      </c>
-      <c r="R1" t="s">
-        <v>548</v>
-      </c>
-      <c r="S1" t="s">
-        <v>549</v>
-      </c>
-      <c r="T1" t="s">
-        <v>667</v>
-      </c>
-      <c r="U1" t="s">
-        <v>675</v>
-      </c>
-      <c r="V1" t="s">
-        <v>688</v>
-      </c>
-      <c r="W1" t="s">
-        <v>702</v>
-      </c>
-      <c r="X1" t="s">
-        <v>714</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>730</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>770</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>771</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>772</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>773</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>774</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>775</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>776</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>777</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>778</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>985</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>779</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>780</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>781</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>782</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>783</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>784</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>1126</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>785</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>1155</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>787</v>
-      </c>
-      <c r="AZ1" t="s">
+      <c r="BF1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="BG1" t="s">
         <v>789</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BH1" t="s">
         <v>790</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BI1" t="s">
         <v>791</v>
       </c>
-      <c r="BC1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="BD1" t="s">
+      <c r="BJ1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="BK1" t="s">
         <v>792</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BL1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="BM1" t="s">
         <v>793</v>
       </c>
-      <c r="BF1" t="s">
-        <v>1306</v>
-      </c>
-      <c r="BG1" t="s">
+      <c r="BN1" t="s">
         <v>794</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BO1" t="s">
         <v>795</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BP1" t="s">
         <v>796</v>
       </c>
-      <c r="BJ1" t="s">
-        <v>1356</v>
-      </c>
-      <c r="BK1" t="s">
+      <c r="BQ1" t="s">
         <v>797</v>
       </c>
-      <c r="BL1" t="s">
-        <v>1378</v>
-      </c>
-      <c r="BM1" t="s">
+      <c r="BR1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="BS1" t="s">
         <v>798</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BT1" t="s">
         <v>799</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BU1" t="s">
         <v>800</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BV1" t="s">
         <v>801</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BW1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="BX1" t="s">
         <v>802</v>
       </c>
-      <c r="BR1" t="s">
-        <v>1459</v>
-      </c>
-      <c r="BS1" t="s">
+      <c r="BY1" t="s">
         <v>803</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BZ1" t="s">
         <v>804</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>805</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>806</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>1583</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>807</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>808</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="2" spans="1:78" x14ac:dyDescent="0.2">
@@ -8446,7 +8437,7 @@
       <c r="D2" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>488</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -8537,7 +8528,7 @@
         <v>488</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>488</v>
@@ -8549,7 +8540,7 @@
         <v>488</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="AN2" s="2" t="s">
         <v>488</v>
@@ -8662,223 +8653,223 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1501</v>
+        <v>1494</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2398</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1546</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>1518</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="V3" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="Z3" s="2" t="s">
         <v>1525</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>1516</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>1517</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>1531</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>1532</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>1554</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>1552</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>1534</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>1521</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>1522</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>1523</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>1519</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>1520</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>1521</v>
-      </c>
-      <c r="U3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>1526</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>1527</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>1528</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>1529</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>1530</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>1533</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>1534</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>1535</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>1536</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>1537</v>
       </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>1531</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>1533</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>1535</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="AP3" s="2" t="s">
         <v>1538</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>1539</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>1540</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>1541</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>1542</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>1543</v>
       </c>
-      <c r="AN3" s="2" t="s">
-        <v>1544</v>
-      </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AX3" t="s">
         <v>1545</v>
       </c>
-      <c r="AP3" s="2" t="s">
-        <v>1546</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AZ3" t="s">
         <v>1547</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="BA3" t="s">
         <v>1548</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="BB3" t="s">
         <v>1549</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="BC3" t="s">
         <v>1550</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="BD3" t="s">
         <v>1551</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="BE3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="BF3" t="s">
         <v>1553</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BG3" t="s">
+        <v>1554</v>
+      </c>
+      <c r="BH3" t="s">
         <v>1555</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BI3" t="s">
         <v>1556</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BJ3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>976</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>976</v>
+      </c>
+      <c r="BM3" t="s">
         <v>1557</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BN3" t="s">
         <v>1558</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BO3" t="s">
         <v>1559</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BP3" t="s">
         <v>1560</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BQ3" t="s">
         <v>1561</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BR3" t="s">
         <v>1562</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BS3" t="s">
         <v>1563</v>
       </c>
-      <c r="BI3" t="s">
-        <v>1564</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>1521</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>983</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>983</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>1565</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>1566</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>1567</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>1568</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>1569</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>1570</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>1571</v>
-      </c>
       <c r="BT3" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="BU3" t="s">
-        <v>1501</v>
+        <v>1494</v>
       </c>
       <c r="BV3" t="s">
-        <v>1585</v>
+        <v>1577</v>
       </c>
       <c r="BW3" t="s">
-        <v>1586</v>
+        <v>1578</v>
       </c>
       <c r="BX3" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="BY3" t="s">
-        <v>1624</v>
+        <v>1616</v>
       </c>
       <c r="BZ3" t="s">
-        <v>1640</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="4" spans="1:78" x14ac:dyDescent="0.2">
@@ -8886,226 +8877,226 @@
         <v>473</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="E4" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>489</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="AK4" s="2" t="s">
         <v>473</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="AO4" s="2" t="s">
         <v>473</v>
       </c>
       <c r="AP4" s="2" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="AQ4" s="2" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="AT4" s="2" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="AU4" s="2" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="AX4" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="AZ4" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="BA4" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="BB4" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="BC4" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="BD4" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="BE4" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="BF4" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="BG4" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="BH4" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="BI4" t="s">
-        <v>1357</v>
+        <v>1350</v>
       </c>
       <c r="BJ4" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="BK4" t="s">
-        <v>1377</v>
+        <v>1370</v>
       </c>
       <c r="BL4" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="BM4" t="s">
-        <v>1406</v>
+        <v>1399</v>
       </c>
       <c r="BN4" t="s">
-        <v>1406</v>
+        <v>1399</v>
       </c>
       <c r="BO4" t="s">
-        <v>1432</v>
+        <v>1425</v>
       </c>
       <c r="BP4" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="BQ4" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="BR4" t="s">
         <v>473</v>
       </c>
       <c r="BS4" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="BT4" t="s">
-        <v>1500</v>
+        <v>1493</v>
       </c>
       <c r="BU4" t="s">
         <v>473</v>
       </c>
       <c r="BV4" t="s">
-        <v>1582</v>
+        <v>1574</v>
       </c>
       <c r="BW4" t="s">
-        <v>1584</v>
+        <v>1576</v>
       </c>
       <c r="BX4" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="BY4" t="s">
-        <v>1625</v>
+        <v>1617</v>
       </c>
       <c r="BZ4" t="s">
-        <v>1641</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="5" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9113,226 +9104,226 @@
         <v>474</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2393</v>
+        <v>2385</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>2396</v>
+        <v>2388</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>2402</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>881</v>
+        <v>2394</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>876</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
       <c r="AS5" s="2" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
       <c r="AT5" s="2" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="AU5" s="2" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="AX5" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="AZ5" t="s">
-        <v>1234</v>
+        <v>1227</v>
       </c>
       <c r="BA5" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="BB5" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="BC5" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="BD5" t="s">
-        <v>1292</v>
+        <v>1285</v>
       </c>
       <c r="BE5" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="BF5" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="BG5" t="s">
-        <v>1333</v>
+        <v>1326</v>
       </c>
       <c r="BH5" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="BI5" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="BJ5" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="BK5" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="BL5" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="BM5" t="s">
-        <v>1407</v>
+        <v>1400</v>
       </c>
       <c r="BN5" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
       <c r="BO5" t="s">
-        <v>1433</v>
+        <v>1426</v>
       </c>
       <c r="BP5" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
       <c r="BQ5" t="s">
-        <v>1460</v>
+        <v>1453</v>
       </c>
       <c r="BR5" t="s">
-        <v>1461</v>
+        <v>1454</v>
       </c>
       <c r="BS5" t="s">
-        <v>1488</v>
+        <v>1481</v>
       </c>
       <c r="BT5" t="s">
-        <v>1503</v>
+        <v>1496</v>
       </c>
       <c r="BU5" t="s">
-        <v>1572</v>
+        <v>1564</v>
       </c>
       <c r="BV5" t="s">
-        <v>1587</v>
+        <v>1579</v>
       </c>
       <c r="BW5" t="s">
-        <v>1588</v>
+        <v>1580</v>
       </c>
       <c r="BX5" t="s">
-        <v>1612</v>
+        <v>1604</v>
       </c>
       <c r="BY5" t="s">
-        <v>1626</v>
+        <v>1618</v>
       </c>
       <c r="BZ5" t="s">
-        <v>1642</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="6" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9340,226 +9331,226 @@
         <v>475</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>882</v>
+        <v>652</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>976</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="AN6" s="2" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="AP6" s="2" t="s">
         <v>475</v>
       </c>
       <c r="AQ6" s="2" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="AR6" s="3" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="AS6" s="2" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="AT6" s="2" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="AU6" s="2" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="AX6" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="AZ6" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="BA6" t="s">
         <v>475</v>
       </c>
       <c r="BB6" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
       <c r="BC6" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
       <c r="BD6" t="s">
         <v>475</v>
       </c>
       <c r="BE6" t="s">
-        <v>1311</v>
+        <v>1304</v>
       </c>
       <c r="BF6" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="BG6" t="s">
-        <v>1334</v>
+        <v>1327</v>
       </c>
       <c r="BH6" t="s">
-        <v>1345</v>
+        <v>1338</v>
       </c>
       <c r="BI6" t="s">
-        <v>1360</v>
+        <v>1353</v>
       </c>
       <c r="BJ6" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="BK6" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="BL6" t="s">
-        <v>1383</v>
+        <v>1376</v>
       </c>
       <c r="BM6" t="s">
-        <v>1408</v>
+        <v>1401</v>
       </c>
       <c r="BN6" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
       <c r="BO6" t="s">
         <v>475</v>
       </c>
       <c r="BP6" t="s">
-        <v>1449</v>
+        <v>1442</v>
       </c>
       <c r="BQ6" t="s">
-        <v>1462</v>
+        <v>1455</v>
       </c>
       <c r="BR6" t="s">
-        <v>1463</v>
+        <v>1456</v>
       </c>
       <c r="BS6" t="s">
-        <v>1489</v>
+        <v>1482</v>
       </c>
       <c r="BT6" t="s">
-        <v>1504</v>
+        <v>1497</v>
       </c>
       <c r="BU6" t="s">
-        <v>1573</v>
+        <v>1565</v>
       </c>
       <c r="BV6" t="s">
-        <v>1589</v>
+        <v>1581</v>
       </c>
       <c r="BW6" t="s">
-        <v>1590</v>
+        <v>1582</v>
       </c>
       <c r="BX6" t="s">
-        <v>1613</v>
+        <v>1605</v>
       </c>
       <c r="BY6" t="s">
-        <v>1627</v>
+        <v>1619</v>
       </c>
       <c r="BZ6" t="s">
-        <v>1643</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="7" spans="1:78" x14ac:dyDescent="0.2">
@@ -9567,226 +9558,226 @@
         <v>476</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2397</v>
+        <v>2389</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>2403</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>2395</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>492</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="AF7" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="AG7" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="AG7" s="2" t="s">
-        <v>949</v>
-      </c>
       <c r="AH7" s="2" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="AQ7" s="2" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="AS7" s="2" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="AT7" s="2" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="AU7" s="2" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="AX7" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="AZ7" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="BA7" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="BB7" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="BC7" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="BD7" t="s">
-        <v>1293</v>
+        <v>1286</v>
       </c>
       <c r="BE7" t="s">
-        <v>1313</v>
+        <v>1306</v>
       </c>
       <c r="BF7" t="s">
-        <v>1314</v>
+        <v>1307</v>
       </c>
       <c r="BG7" t="s">
-        <v>1335</v>
+        <v>1328</v>
       </c>
       <c r="BH7" t="s">
-        <v>1346</v>
+        <v>1339</v>
       </c>
       <c r="BI7" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="BJ7" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="BK7" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="BL7" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
       <c r="BM7" t="s">
-        <v>1409</v>
+        <v>1402</v>
       </c>
       <c r="BN7" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
       <c r="BO7" t="s">
-        <v>1434</v>
+        <v>1427</v>
       </c>
       <c r="BP7" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="BQ7" t="s">
-        <v>1464</v>
+        <v>1457</v>
       </c>
       <c r="BR7" t="s">
-        <v>1465</v>
+        <v>1458</v>
       </c>
       <c r="BS7" t="s">
-        <v>1490</v>
+        <v>1483</v>
       </c>
       <c r="BT7" t="s">
-        <v>1505</v>
+        <v>1498</v>
       </c>
       <c r="BU7" t="s">
-        <v>1574</v>
+        <v>1566</v>
       </c>
       <c r="BV7" t="s">
-        <v>1591</v>
+        <v>1583</v>
       </c>
       <c r="BW7" t="s">
-        <v>1592</v>
+        <v>1584</v>
       </c>
       <c r="BX7" t="s">
-        <v>1614</v>
+        <v>1606</v>
       </c>
       <c r="BY7" t="s">
-        <v>1628</v>
+        <v>1620</v>
       </c>
       <c r="BZ7" t="s">
-        <v>1644</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="8" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9794,226 +9785,226 @@
         <v>477</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>560</v>
+        <v>654</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>556</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>1222</v>
+        <v>1215</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="AO8" s="2" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="AQ8" s="2" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="AR8" s="2" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
       <c r="AT8" s="2" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="AX8" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="AZ8" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="BA8" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="BB8" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="BC8" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="BD8" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="BE8" t="s">
-        <v>1315</v>
+        <v>1308</v>
       </c>
       <c r="BF8" t="s">
-        <v>1316</v>
+        <v>1309</v>
       </c>
       <c r="BG8" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="BH8" t="s">
-        <v>1347</v>
+        <v>1340</v>
       </c>
       <c r="BI8" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="BJ8" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="BK8" t="s">
-        <v>1386</v>
+        <v>1379</v>
       </c>
       <c r="BL8" t="s">
-        <v>1387</v>
+        <v>1380</v>
       </c>
       <c r="BM8" t="s">
-        <v>1410</v>
+        <v>1403</v>
       </c>
       <c r="BN8" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
       <c r="BO8" t="s">
-        <v>1435</v>
+        <v>1428</v>
       </c>
       <c r="BP8" t="s">
-        <v>1450</v>
+        <v>1443</v>
       </c>
       <c r="BQ8" s="1" t="s">
-        <v>1466</v>
+        <v>1459</v>
       </c>
       <c r="BR8" t="s">
-        <v>1467</v>
+        <v>1460</v>
       </c>
       <c r="BS8" t="s">
-        <v>1491</v>
+        <v>1484</v>
       </c>
       <c r="BT8" t="s">
-        <v>1506</v>
+        <v>1499</v>
       </c>
       <c r="BU8" t="s">
-        <v>1575</v>
+        <v>1567</v>
       </c>
       <c r="BV8" t="s">
-        <v>1593</v>
+        <v>1585</v>
       </c>
       <c r="BW8" t="s">
-        <v>1594</v>
+        <v>1586</v>
       </c>
       <c r="BX8" t="s">
-        <v>1615</v>
+        <v>1607</v>
       </c>
       <c r="BY8" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
       <c r="BZ8" t="s">
-        <v>1645</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="9" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10021,226 +10012,226 @@
         <v>478</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>898</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>883</v>
+        <v>892</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>877</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="AH9" s="3" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="AI9" s="2" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="AJ9" s="2" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="AK9" s="2" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="AL9" s="2" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="AM9" s="2" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="AN9" s="2" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="AO9" s="2" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="AP9" s="2" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="AQ9" s="2" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="AR9" s="2" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="AS9" s="2" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="AT9" s="2" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="AU9" s="2" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="AX9" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="AZ9" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="BA9" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="BB9" t="s">
-        <v>1274</v>
+        <v>1267</v>
       </c>
       <c r="BC9" t="s">
-        <v>1275</v>
+        <v>1268</v>
       </c>
       <c r="BD9" t="s">
-        <v>1295</v>
+        <v>1288</v>
       </c>
       <c r="BE9" t="s">
-        <v>1317</v>
+        <v>1310</v>
       </c>
       <c r="BF9" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
       <c r="BG9" t="s">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="BH9" t="s">
-        <v>1348</v>
+        <v>1341</v>
       </c>
       <c r="BI9" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="BJ9" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="BK9" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
       <c r="BL9" t="s">
-        <v>1389</v>
+        <v>1382</v>
       </c>
       <c r="BM9" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="BN9" t="s">
-        <v>1424</v>
+        <v>1417</v>
       </c>
       <c r="BO9" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="BP9" t="s">
-        <v>1451</v>
+        <v>1444</v>
       </c>
       <c r="BQ9" t="s">
-        <v>1468</v>
+        <v>1461</v>
       </c>
       <c r="BR9" t="s">
-        <v>1469</v>
+        <v>1462</v>
       </c>
       <c r="BS9" t="s">
-        <v>1492</v>
+        <v>1485</v>
       </c>
       <c r="BT9" t="s">
-        <v>1507</v>
+        <v>1500</v>
       </c>
       <c r="BU9" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="BV9" t="s">
-        <v>1595</v>
+        <v>1587</v>
       </c>
       <c r="BW9" t="s">
-        <v>1596</v>
+        <v>1588</v>
       </c>
       <c r="BX9" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
       <c r="BY9" t="s">
-        <v>1630</v>
+        <v>1622</v>
       </c>
       <c r="BZ9" t="s">
-        <v>1646</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.2">
@@ -10248,64 +10239,64 @@
         <v>479</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2394</v>
+        <v>2386</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>494</v>
+        <v>656</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>2399</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>479</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>479</v>
@@ -10314,160 +10305,160 @@
         <v>479</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="AI10" s="2" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="AL10" s="2" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="AM10" s="2" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="AN10" s="2" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="AO10" s="2" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="AP10" s="2" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="AQ10" s="2" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="AR10" s="2" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="AS10" s="2" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="AT10" s="2" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="AU10" s="2" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="AX10" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="AZ10" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="BA10" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="BB10" t="s">
-        <v>1276</v>
+        <v>1269</v>
       </c>
       <c r="BC10" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
       <c r="BD10" t="s">
-        <v>1296</v>
+        <v>1289</v>
       </c>
       <c r="BE10" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="BF10" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="BG10" t="s">
-        <v>1337</v>
+        <v>1330</v>
       </c>
       <c r="BH10" t="s">
-        <v>1349</v>
+        <v>1342</v>
       </c>
       <c r="BI10" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="BJ10" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="BK10" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
       <c r="BL10" t="s">
-        <v>1391</v>
+        <v>1384</v>
       </c>
       <c r="BM10" t="s">
-        <v>1411</v>
+        <v>1404</v>
       </c>
       <c r="BN10" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="BO10" t="s">
-        <v>1437</v>
+        <v>1430</v>
       </c>
       <c r="BP10" t="s">
-        <v>1452</v>
+        <v>1445</v>
       </c>
       <c r="BQ10" t="s">
-        <v>1470</v>
+        <v>1463</v>
       </c>
       <c r="BR10" t="s">
-        <v>1471</v>
+        <v>1464</v>
       </c>
       <c r="BS10" t="s">
-        <v>1493</v>
+        <v>1486</v>
       </c>
       <c r="BT10" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="BU10" t="s">
-        <v>1576</v>
+        <v>1568</v>
       </c>
       <c r="BV10" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="BW10" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="BX10" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="BY10" t="s">
-        <v>1631</v>
+        <v>1623</v>
       </c>
       <c r="BZ10" t="s">
-        <v>1647</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="11" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10475,680 +10466,680 @@
         <v>480</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>900</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>495</v>
+        <v>894</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>494</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="AH11" s="2" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="AI11" s="2" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="AM11" s="2" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="AN11" s="2" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="AO11" s="2" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="AP11" s="2" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="AQ11" s="2" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="AR11" s="2" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="AS11" s="2" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="AT11" s="2" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="AU11" s="2" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="AX11" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AZ11" t="s">
-        <v>1240</v>
+        <v>1233</v>
       </c>
       <c r="BA11" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="BB11" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="BC11" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="BD11" t="s">
-        <v>1297</v>
+        <v>1290</v>
       </c>
       <c r="BE11" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
       <c r="BF11" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
       <c r="BG11" t="s">
-        <v>1338</v>
+        <v>1331</v>
       </c>
       <c r="BH11" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="BI11" s="1" t="s">
-        <v>1365</v>
+        <v>1358</v>
       </c>
       <c r="BJ11" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="BK11" t="s">
-        <v>1392</v>
+        <v>1385</v>
       </c>
       <c r="BL11" t="s">
-        <v>1393</v>
+        <v>1386</v>
       </c>
       <c r="BM11" t="s">
-        <v>1412</v>
+        <v>1405</v>
       </c>
       <c r="BN11" t="s">
-        <v>1425</v>
+        <v>1418</v>
       </c>
       <c r="BO11" t="s">
-        <v>1439</v>
+        <v>1432</v>
       </c>
       <c r="BP11" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="BQ11" t="s">
-        <v>1472</v>
+        <v>1465</v>
       </c>
       <c r="BR11" t="s">
-        <v>1473</v>
+        <v>1466</v>
       </c>
       <c r="BS11" t="s">
-        <v>1494</v>
+        <v>1487</v>
       </c>
       <c r="BT11" t="s">
-        <v>1508</v>
+        <v>1501</v>
       </c>
       <c r="BU11" t="s">
-        <v>1508</v>
+        <v>1501</v>
       </c>
       <c r="BV11" t="s">
-        <v>1597</v>
+        <v>1589</v>
       </c>
       <c r="BW11" t="s">
-        <v>1598</v>
+        <v>1590</v>
       </c>
       <c r="BX11" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
       <c r="BY11" t="s">
-        <v>1632</v>
+        <v>1624</v>
       </c>
       <c r="BZ11" t="s">
-        <v>1648</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>2398</v>
+        <v>2390</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>2399</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>498</v>
+        <v>2391</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>976</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="AH12" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="AI12" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="AK12" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="AL12" s="2" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="AM12" s="2" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="AN12" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="AO12" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="AP12" s="2" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="AQ12" s="2" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="AR12" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="AS12" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="AT12" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="AU12" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="AX12" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="AZ12" t="s">
-        <v>1241</v>
+        <v>1234</v>
       </c>
       <c r="BA12" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="BB12" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="BC12" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="BD12" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="BE12" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="BF12" t="s">
-        <v>1321</v>
+        <v>1314</v>
       </c>
       <c r="BG12" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="BH12" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="BI12" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
       <c r="BJ12" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="BK12" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="BL12" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="BM12" t="s">
-        <v>1413</v>
+        <v>1406</v>
       </c>
       <c r="BN12" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="BO12" t="s">
-        <v>1438</v>
+        <v>1431</v>
       </c>
       <c r="BP12" t="s">
-        <v>1453</v>
+        <v>1446</v>
       </c>
       <c r="BQ12" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="BR12" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="BS12" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="BT12" t="s">
-        <v>1509</v>
+        <v>1502</v>
       </c>
       <c r="BU12" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="BV12" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="BW12" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="BX12" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="BY12" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="BZ12" t="s">
-        <v>1649</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="13" spans="1:78" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>499</v>
+        <v>896</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>2400</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="AH13" s="2" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="AI13" s="2" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="AJ13" s="2" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="AK13" s="2" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="AL13" s="2" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="AM13" s="2" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="AN13" s="2" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="AO13" s="2" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="AP13" s="2" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="AQ13" s="2" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="AR13" s="3" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="AS13" s="2" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="AT13" s="2" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="AU13" s="2" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="AX13" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="AZ13" t="s">
-        <v>1243</v>
+        <v>1236</v>
       </c>
       <c r="BA13" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
       <c r="BB13" t="s">
-        <v>1279</v>
+        <v>1272</v>
       </c>
       <c r="BC13" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="BD13" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="BE13" t="s">
-        <v>1322</v>
+        <v>1315</v>
       </c>
       <c r="BF13" t="s">
-        <v>1323</v>
+        <v>1316</v>
       </c>
       <c r="BG13" t="s">
-        <v>1339</v>
+        <v>1332</v>
       </c>
       <c r="BH13" t="s">
-        <v>1352</v>
+        <v>1345</v>
       </c>
       <c r="BI13" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="BJ13" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="BK13" t="s">
-        <v>1396</v>
+        <v>1389</v>
       </c>
       <c r="BL13" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="BM13" t="s">
-        <v>1415</v>
+        <v>1408</v>
       </c>
       <c r="BN13" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="BO13" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
       <c r="BP13" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="BQ13" t="s">
-        <v>1476</v>
+        <v>1469</v>
       </c>
       <c r="BR13" t="s">
-        <v>1477</v>
+        <v>1470</v>
       </c>
       <c r="BS13" t="s">
-        <v>1496</v>
+        <v>1489</v>
       </c>
       <c r="BT13" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="BU13" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="BV13" t="s">
-        <v>1599</v>
+        <v>1591</v>
       </c>
       <c r="BW13" t="s">
-        <v>1600</v>
+        <v>1592</v>
       </c>
       <c r="BX13" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="BY13" t="s">
-        <v>1633</v>
+        <v>1625</v>
       </c>
       <c r="BZ13" t="s">
-        <v>1650</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="14" spans="1:78" ht="34" x14ac:dyDescent="0.2">
@@ -11156,226 +11147,226 @@
         <v>481</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2395</v>
+        <v>2387</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="E14" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>493</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="AH14" s="3" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="AI14" s="2" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="AJ14" s="2" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="AK14" s="2" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="AL14" s="2" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="AM14" s="2" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="AN14" s="2" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="AO14" s="2" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="AP14" s="2" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="AQ14" s="2" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="AR14" s="3" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="AS14" s="2" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="AT14" s="2" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="AU14" s="2" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="AX14" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="AZ14" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="BA14" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="BB14" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
       <c r="BC14" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="BD14" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="BE14" t="s">
-        <v>1324</v>
+        <v>1317</v>
       </c>
       <c r="BF14" t="s">
-        <v>1325</v>
+        <v>1318</v>
       </c>
       <c r="BG14" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="BH14" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="BI14" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="BJ14" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="BK14" t="s">
-        <v>1394</v>
+        <v>1387</v>
       </c>
       <c r="BL14" t="s">
-        <v>1395</v>
+        <v>1388</v>
       </c>
       <c r="BM14" t="s">
-        <v>1414</v>
+        <v>1407</v>
       </c>
       <c r="BN14" t="s">
-        <v>1427</v>
+        <v>1420</v>
       </c>
       <c r="BO14" t="s">
-        <v>1440</v>
+        <v>1433</v>
       </c>
       <c r="BP14" t="s">
-        <v>1454</v>
+        <v>1447</v>
       </c>
       <c r="BQ14" t="s">
-        <v>1474</v>
+        <v>1467</v>
       </c>
       <c r="BR14" t="s">
-        <v>1475</v>
+        <v>1468</v>
       </c>
       <c r="BS14" t="s">
-        <v>1495</v>
+        <v>1488</v>
       </c>
       <c r="BT14" t="s">
-        <v>1510</v>
+        <v>1503</v>
       </c>
       <c r="BU14" t="s">
-        <v>1577</v>
+        <v>1569</v>
       </c>
       <c r="BV14" s="1" t="s">
-        <v>1601</v>
+        <v>1593</v>
       </c>
       <c r="BW14" t="s">
-        <v>1602</v>
+        <v>1594</v>
       </c>
       <c r="BX14" t="s">
-        <v>1619</v>
+        <v>1611</v>
       </c>
       <c r="BY14" t="s">
-        <v>1634</v>
+        <v>1626</v>
       </c>
       <c r="BZ14" t="s">
-        <v>1651</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="15" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -11383,453 +11374,453 @@
         <v>482</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>2400</v>
+        <v>2392</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>2393</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>2401</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>673</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="AI15" s="2" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" s="2" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="AK15" s="2" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="AL15" s="2" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="AM15" s="2" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="AN15" s="2" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="AO15" s="2" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="AP15" s="2" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="AQ15" s="2" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="AR15" s="3" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="AS15" s="2" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="AT15" s="2" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="AU15" s="2" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="AX15" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="AZ15" t="s">
-        <v>1244</v>
+        <v>1237</v>
       </c>
       <c r="BA15" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="BB15" t="s">
-        <v>1283</v>
+        <v>1276</v>
       </c>
       <c r="BC15" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="BD15" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="BE15" t="s">
-        <v>1326</v>
+        <v>1319</v>
       </c>
       <c r="BF15" t="s">
-        <v>1327</v>
+        <v>1320</v>
       </c>
       <c r="BG15" t="s">
-        <v>1340</v>
+        <v>1333</v>
       </c>
       <c r="BH15" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="BI15" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="BJ15" t="s">
-        <v>1372</v>
+        <v>1365</v>
       </c>
       <c r="BK15" t="s">
-        <v>1398</v>
+        <v>1391</v>
       </c>
       <c r="BL15" t="s">
-        <v>1399</v>
+        <v>1392</v>
       </c>
       <c r="BM15" s="1" t="s">
-        <v>1416</v>
+        <v>1409</v>
       </c>
       <c r="BN15" t="s">
-        <v>1428</v>
+        <v>1421</v>
       </c>
       <c r="BO15" t="s">
-        <v>1442</v>
+        <v>1435</v>
       </c>
       <c r="BP15" t="s">
-        <v>1455</v>
+        <v>1448</v>
       </c>
       <c r="BQ15" t="s">
-        <v>1478</v>
+        <v>1471</v>
       </c>
       <c r="BR15" t="s">
-        <v>1479</v>
+        <v>1472</v>
       </c>
       <c r="BS15" t="s">
-        <v>1497</v>
+        <v>1490</v>
       </c>
       <c r="BT15" t="s">
-        <v>1511</v>
+        <v>1504</v>
       </c>
       <c r="BU15" t="s">
-        <v>1578</v>
+        <v>1570</v>
       </c>
       <c r="BV15" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
       <c r="BW15" t="s">
-        <v>1604</v>
+        <v>1596</v>
       </c>
       <c r="BX15" t="s">
-        <v>1620</v>
+        <v>1612</v>
       </c>
       <c r="BY15" t="s">
-        <v>1635</v>
+        <v>1627</v>
       </c>
       <c r="BZ15" t="s">
-        <v>1652</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>501</v>
+        <v>660</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>498</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="AH16" s="2" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="AI16" s="2" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="AJ16" s="2" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="AK16" s="2" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="AL16" s="2" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="AM16" s="2" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="AN16" s="2" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="AO16" s="2" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="AP16" s="2" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="AQ16" s="2" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="AR16" s="2" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="AS16" s="2" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="AT16" s="2" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="AU16" s="2" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="AX16" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
       <c r="AZ16" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="BA16" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
       <c r="BB16" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="BC16" t="s">
-        <v>1286</v>
+        <v>1279</v>
       </c>
       <c r="BD16" t="s">
-        <v>1302</v>
+        <v>1295</v>
       </c>
       <c r="BE16" t="s">
-        <v>1328</v>
+        <v>1321</v>
       </c>
       <c r="BF16" t="s">
-        <v>1329</v>
+        <v>1322</v>
       </c>
       <c r="BG16" t="s">
-        <v>1341</v>
+        <v>1334</v>
       </c>
       <c r="BH16" t="s">
-        <v>1354</v>
+        <v>1347</v>
       </c>
       <c r="BI16" t="s">
-        <v>1373</v>
+        <v>1366</v>
       </c>
       <c r="BJ16" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="BK16" t="s">
-        <v>1400</v>
+        <v>1393</v>
       </c>
       <c r="BL16" t="s">
-        <v>1401</v>
+        <v>1394</v>
       </c>
       <c r="BM16" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="BN16" t="s">
-        <v>1429</v>
+        <v>1422</v>
       </c>
       <c r="BO16" t="s">
-        <v>1443</v>
+        <v>1436</v>
       </c>
       <c r="BP16" t="s">
-        <v>1456</v>
+        <v>1449</v>
       </c>
       <c r="BQ16" t="s">
-        <v>1480</v>
+        <v>1473</v>
       </c>
       <c r="BR16" t="s">
-        <v>1481</v>
+        <v>1474</v>
       </c>
       <c r="BS16" t="s">
-        <v>1498</v>
+        <v>1491</v>
       </c>
       <c r="BT16" t="s">
-        <v>1512</v>
+        <v>1505</v>
       </c>
       <c r="BU16" t="s">
-        <v>1579</v>
+        <v>1571</v>
       </c>
       <c r="BV16" t="s">
-        <v>1605</v>
+        <v>1597</v>
       </c>
       <c r="BW16" t="s">
-        <v>1606</v>
+        <v>1598</v>
       </c>
       <c r="BX16" t="s">
-        <v>1621</v>
+        <v>1613</v>
       </c>
       <c r="BY16" t="s">
-        <v>1636</v>
+        <v>1628</v>
       </c>
       <c r="BZ16" t="s">
-        <v>1653</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="17" spans="1:78" x14ac:dyDescent="0.2">
@@ -11837,453 +11828,453 @@
         <v>483</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>502</v>
+        <v>662</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>2402</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="AF17" s="2" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="AH17" s="2" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="AI17" s="2" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="AJ17" s="2" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="AK17" s="2" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="AL17" s="2" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="AM17" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="AN17" s="2" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="AO17" s="2" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="AP17" s="2" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="AQ17" s="2" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="AR17" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AS17" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AT17" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="AS17" s="2" t="s">
+      <c r="AU17" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="AT17" s="2" t="s">
-        <v>1157</v>
-      </c>
-      <c r="AU17" s="2" t="s">
-        <v>1158</v>
-      </c>
       <c r="AX17" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="AZ17" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="BA17" t="s">
-        <v>1263</v>
+        <v>1256</v>
       </c>
       <c r="BB17" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="BC17" t="s">
-        <v>1288</v>
+        <v>1281</v>
       </c>
       <c r="BD17" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
       <c r="BE17" t="s">
-        <v>1330</v>
+        <v>1323</v>
       </c>
       <c r="BF17" t="s">
-        <v>1331</v>
+        <v>1324</v>
       </c>
       <c r="BG17" t="s">
-        <v>1342</v>
+        <v>1335</v>
       </c>
       <c r="BH17" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="BI17" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="BJ17" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="BK17" t="s">
-        <v>1402</v>
+        <v>1395</v>
       </c>
       <c r="BL17" t="s">
-        <v>1403</v>
+        <v>1396</v>
       </c>
       <c r="BM17" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="BN17" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
       <c r="BO17" t="s">
-        <v>1444</v>
+        <v>1437</v>
       </c>
       <c r="BP17" t="s">
-        <v>1457</v>
+        <v>1450</v>
       </c>
       <c r="BQ17" t="s">
-        <v>1482</v>
+        <v>1475</v>
       </c>
       <c r="BR17" t="s">
-        <v>1483</v>
+        <v>1476</v>
       </c>
       <c r="BS17" t="s">
-        <v>1499</v>
+        <v>1492</v>
       </c>
       <c r="BT17" t="s">
-        <v>1513</v>
+        <v>1506</v>
       </c>
       <c r="BU17" t="s">
-        <v>1580</v>
+        <v>1572</v>
       </c>
       <c r="BV17" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
       <c r="BW17" t="s">
-        <v>1608</v>
+        <v>1600</v>
       </c>
       <c r="BX17" t="s">
-        <v>1622</v>
+        <v>1614</v>
       </c>
       <c r="BY17" t="s">
-        <v>1637</v>
+        <v>1629</v>
       </c>
       <c r="BZ17" t="s">
-        <v>1654</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="18" spans="1:78" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>955</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>2396</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>2397</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>983</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>2404</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>2405</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>981</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>979</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>980</v>
-      </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="T18" s="2" t="s">
         <v>967</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="U18" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="AF18" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="AG18" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="AH18" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AI18" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AJ18" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="AL18" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AN18" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="AO18" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="AP18" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AR18" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="AS18" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="AT18" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="AU18" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>957</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>1240</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>1257</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>976</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>976</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>1297</v>
+      </c>
+      <c r="BE18" t="s">
         <v>968</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>1231</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="O18" s="3" t="s">
+      <c r="BF18" t="s">
+        <v>969</v>
+      </c>
+      <c r="BG18" t="s">
         <v>976</v>
       </c>
-      <c r="P18" s="2" t="s">
-        <v>974</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>975</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>977</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>978</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>973</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>971</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>970</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="Z18" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="AB18" s="2" t="s">
-        <v>965</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="AD18" s="2" t="s">
-        <v>964</v>
-      </c>
-      <c r="AE18" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="AF18" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="AG18" s="2" t="s">
-        <v>962</v>
-      </c>
-      <c r="AH18" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="AI18" s="2" t="s">
-        <v>1013</v>
-      </c>
-      <c r="AJ18" s="2" t="s">
-        <v>1043</v>
-      </c>
-      <c r="AK18" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="AL18" s="2" t="s">
-        <v>1045</v>
-      </c>
-      <c r="AM18" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AN18" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="AO18" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="AP18" s="2" t="s">
-        <v>1108</v>
-      </c>
-      <c r="AQ18" s="2" t="s">
-        <v>1109</v>
-      </c>
-      <c r="AR18" s="3" t="s">
-        <v>983</v>
-      </c>
-      <c r="AS18" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="AT18" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="AU18" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>963</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>1247</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>1264</v>
-      </c>
-      <c r="BB18" t="s">
-        <v>983</v>
-      </c>
-      <c r="BC18" t="s">
-        <v>983</v>
-      </c>
-      <c r="BD18" t="s">
-        <v>1304</v>
-      </c>
-      <c r="BE18" t="s">
-        <v>974</v>
-      </c>
-      <c r="BF18" t="s">
-        <v>975</v>
-      </c>
-      <c r="BG18" t="s">
-        <v>983</v>
-      </c>
       <c r="BH18" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="BI18" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="BJ18" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="BK18" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="BL18" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="BM18" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
       <c r="BN18" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="BO18" t="s">
-        <v>1445</v>
+        <v>1438</v>
       </c>
       <c r="BP18" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="BQ18" t="s">
-        <v>1484</v>
+        <v>1477</v>
       </c>
       <c r="BR18" t="s">
-        <v>1485</v>
+        <v>1478</v>
       </c>
       <c r="BS18" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="BT18" t="s">
-        <v>1514</v>
+        <v>1507</v>
       </c>
       <c r="BU18" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="BV18" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="BW18" t="s">
-        <v>1609</v>
+        <v>1601</v>
       </c>
       <c r="BX18" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="BY18" s="1" t="s">
-        <v>1638</v>
+        <v>1630</v>
       </c>
       <c r="BZ18" t="s">
-        <v>1655</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="19" spans="1:78" x14ac:dyDescent="0.2">
@@ -12291,226 +12282,226 @@
         <v>484</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>880</v>
+        <v>647</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>875</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="AF19" s="2" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="AG19" s="2" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="AH19" s="2" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="AI19" s="2" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="AJ19" s="2" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="AK19" s="2" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="AL19" s="2" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="AM19" s="2" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="AN19" s="2" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="AO19" s="2" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="AP19" s="2" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="AQ19" s="2" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="AR19" s="2" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="AS19" s="2" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="AT19" s="2" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="AU19" s="2" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="AX19" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="AZ19" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="BA19" t="s">
-        <v>1265</v>
+        <v>1258</v>
       </c>
       <c r="BB19" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
       <c r="BC19" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="BD19" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="BE19" t="s">
-        <v>1332</v>
+        <v>1325</v>
       </c>
       <c r="BF19" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="BG19" t="s">
-        <v>1343</v>
+        <v>1336</v>
       </c>
       <c r="BH19" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="BI19" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="BJ19" t="s">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="BK19" t="s">
-        <v>1404</v>
+        <v>1397</v>
       </c>
       <c r="BL19" t="s">
-        <v>1405</v>
+        <v>1398</v>
       </c>
       <c r="BM19" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="BN19" t="s">
-        <v>1431</v>
+        <v>1424</v>
       </c>
       <c r="BO19" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
       <c r="BP19" t="s">
-        <v>1458</v>
+        <v>1451</v>
       </c>
       <c r="BQ19" t="s">
-        <v>1486</v>
+        <v>1479</v>
       </c>
       <c r="BR19" t="s">
-        <v>1487</v>
+        <v>1480</v>
       </c>
       <c r="BS19" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="BT19" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="BU19" t="s">
-        <v>1581</v>
+        <v>1573</v>
       </c>
       <c r="BV19" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
       <c r="BW19" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
       <c r="BX19" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
       <c r="BY19" t="s">
-        <v>1639</v>
+        <v>1631</v>
       </c>
       <c r="BZ19" t="s">
-        <v>1656</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="20" spans="1:78" x14ac:dyDescent="0.2">
@@ -12518,37 +12509,37 @@
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1826</v>
+        <v>1818</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1992</v>
+        <v>1984</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1993</v>
+        <v>1985</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>1662</v>
+        <v>1654</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>1719</v>
+        <v>1711</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>1720</v>
+        <v>1712</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>2116</v>
+        <v>2108</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>2117</v>
+        <v>2109</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>2227</v>
+        <v>2219</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>2301</v>
+        <v>2293</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>2302</v>
+        <v>2294</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -12556,10 +12547,10 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2" t="s">
-        <v>1879</v>
+        <v>1871</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>1880</v>
+        <v>1872</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -12595,37 +12586,37 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1827</v>
+        <v>1819</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1994</v>
+        <v>1986</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1995</v>
+        <v>1987</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1663</v>
+        <v>1655</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>1721</v>
+        <v>1713</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>1722</v>
+        <v>1714</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>2118</v>
+        <v>2110</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>2119</v>
+        <v>2111</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>2228</v>
+        <v>2220</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>2299</v>
+        <v>2291</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>2300</v>
+        <v>2292</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -12633,10 +12624,10 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2" t="s">
-        <v>1881</v>
+        <v>1873</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>1882</v>
+        <v>1874</v>
       </c>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -12672,37 +12663,37 @@
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1831</v>
+        <v>1823</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1996</v>
+        <v>1988</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1997</v>
+        <v>1989</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1664</v>
+        <v>1656</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>1723</v>
+        <v>1715</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>1724</v>
+        <v>1716</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>2120</v>
+        <v>2112</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>2121</v>
+        <v>2113</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>2229</v>
+        <v>2221</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>2297</v>
+        <v>2289</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>2298</v>
+        <v>2290</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -12710,10 +12701,10 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2" t="s">
-        <v>1883</v>
+        <v>1875</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>1884</v>
+        <v>1876</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -12749,37 +12740,37 @@
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1830</v>
+        <v>1822</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1998</v>
+        <v>1990</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1999</v>
+        <v>1991</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1665</v>
+        <v>1657</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>1725</v>
+        <v>1717</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>1726</v>
+        <v>1718</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>2122</v>
+        <v>2114</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>2123</v>
+        <v>2115</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>2230</v>
+        <v>2222</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>2295</v>
+        <v>2287</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>2296</v>
+        <v>2288</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -12787,10 +12778,10 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2" t="s">
-        <v>1885</v>
+        <v>1877</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>1726</v>
+        <v>1718</v>
       </c>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -12826,37 +12817,37 @@
         <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1828</v>
+        <v>1820</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1666</v>
+        <v>1658</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>1727</v>
+        <v>1719</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>1728</v>
+        <v>1720</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>2124</v>
+        <v>2116</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>2125</v>
+        <v>2117</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>2231</v>
+        <v>2223</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>2293</v>
+        <v>2285</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>2294</v>
+        <v>2286</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -12864,10 +12855,10 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2" t="s">
-        <v>1886</v>
+        <v>1878</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>1887</v>
+        <v>1879</v>
       </c>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -12903,37 +12894,37 @@
         <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1829</v>
+        <v>1821</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>2002</v>
+        <v>1994</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>2003</v>
+        <v>1995</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1667</v>
+        <v>1659</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>1729</v>
+        <v>1721</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>1730</v>
+        <v>1722</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>2126</v>
+        <v>2118</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>2127</v>
+        <v>2119</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>2232</v>
+        <v>2224</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>2291</v>
+        <v>2283</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>2292</v>
+        <v>2284</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -12941,10 +12932,10 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2" t="s">
-        <v>1888</v>
+        <v>1880</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>1889</v>
+        <v>1881</v>
       </c>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -12980,37 +12971,37 @@
         <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1832</v>
+        <v>1824</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>2006</v>
+        <v>1998</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1668</v>
+        <v>1660</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>1731</v>
+        <v>1723</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>1732</v>
+        <v>1724</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>2128</v>
+        <v>2120</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>2129</v>
+        <v>2121</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>2233</v>
+        <v>2225</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>2289</v>
+        <v>2281</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>2290</v>
+        <v>2282</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -13018,10 +13009,10 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2" t="s">
-        <v>1890</v>
+        <v>1882</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>1891</v>
+        <v>1883</v>
       </c>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -13057,37 +13048,37 @@
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1833</v>
+        <v>1825</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1669</v>
+        <v>1661</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>1733</v>
+        <v>1725</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>1734</v>
+        <v>1726</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>2130</v>
+        <v>2122</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>2131</v>
+        <v>2123</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>2234</v>
+        <v>2226</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>2287</v>
+        <v>2279</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>2288</v>
+        <v>2280</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -13095,10 +13086,10 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2" t="s">
-        <v>1892</v>
+        <v>1884</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>1893</v>
+        <v>1885</v>
       </c>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -13131,40 +13122,40 @@
     </row>
     <row r="28" spans="1:78" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1834</v>
+        <v>1826</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1670</v>
+        <v>1662</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>1735</v>
+        <v>1727</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>1736</v>
+        <v>1728</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>2132</v>
+        <v>2124</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>2133</v>
+        <v>2125</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>2235</v>
+        <v>2227</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>2286</v>
+        <v>2278</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>2285</v>
+        <v>2277</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -13172,10 +13163,10 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2" t="s">
-        <v>1894</v>
+        <v>1886</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>1895</v>
+        <v>1887</v>
       </c>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -13208,40 +13199,40 @@
     </row>
     <row r="29" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1964</v>
+        <v>1956</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1991</v>
+        <v>1983</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1988</v>
+        <v>1980</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>1989</v>
+        <v>1981</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>1990</v>
+        <v>1982</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>2134</v>
+        <v>2126</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>2135</v>
+        <v>2127</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>2226</v>
+        <v>2218</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>2283</v>
+        <v>2275</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>2284</v>
+        <v>2276</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -13249,10 +13240,10 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2" t="s">
-        <v>1965</v>
+        <v>1957</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>1966</v>
+        <v>1958</v>
       </c>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -13288,37 +13279,37 @@
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1835</v>
+        <v>1827</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1671</v>
+        <v>1663</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1737</v>
+        <v>1729</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1738</v>
+        <v>1730</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>2136</v>
+        <v>2128</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>2137</v>
+        <v>2129</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>2237</v>
+        <v>2229</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>2305</v>
+        <v>2297</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>2306</v>
+        <v>2298</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -13326,10 +13317,10 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2" t="s">
-        <v>1896</v>
+        <v>1888</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>1897</v>
+        <v>1889</v>
       </c>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
@@ -13365,37 +13356,37 @@
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1836</v>
+        <v>1828</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>2022</v>
+        <v>2014</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1672</v>
+        <v>1664</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>1739</v>
+        <v>1731</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>1740</v>
+        <v>1732</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>2138</v>
+        <v>2130</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>2238</v>
+        <v>2230</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>2309</v>
+        <v>2301</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>2310</v>
+        <v>2302</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -13403,10 +13394,10 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2" t="s">
-        <v>1899</v>
+        <v>1891</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>1898</v>
+        <v>1890</v>
       </c>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
@@ -13442,37 +13433,37 @@
         <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1837</v>
+        <v>1829</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1673</v>
+        <v>1665</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>1741</v>
+        <v>1733</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>1742</v>
+        <v>1734</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>2140</v>
+        <v>2132</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>2141</v>
+        <v>2133</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>2239</v>
+        <v>2231</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>2307</v>
+        <v>2299</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>2308</v>
+        <v>2300</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -13480,10 +13471,10 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2" t="s">
-        <v>1900</v>
+        <v>1892</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>1901</v>
+        <v>1893</v>
       </c>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
@@ -13519,37 +13510,37 @@
         <v>11</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1838</v>
+        <v>1830</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>2025</v>
+        <v>2017</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>2026</v>
+        <v>2018</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>1674</v>
+        <v>1666</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>1743</v>
+        <v>1735</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>1744</v>
+        <v>1736</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>2142</v>
+        <v>2134</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>2143</v>
+        <v>2135</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>2240</v>
+        <v>2232</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>2311</v>
+        <v>2303</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>2312</v>
+        <v>2304</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -13557,10 +13548,10 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2" t="s">
-        <v>1902</v>
+        <v>1894</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>1903</v>
+        <v>1895</v>
       </c>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
@@ -13596,37 +13587,37 @@
         <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1839</v>
+        <v>1831</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>2027</v>
+        <v>2019</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>2028</v>
+        <v>2020</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>1745</v>
+        <v>1737</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>1746</v>
+        <v>1738</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>2144</v>
+        <v>2136</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>2145</v>
+        <v>2137</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>2241</v>
+        <v>2233</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>2313</v>
+        <v>2305</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>2348</v>
+        <v>2340</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -13634,10 +13625,10 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2" t="s">
-        <v>1904</v>
+        <v>1896</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>1905</v>
+        <v>1897</v>
       </c>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
@@ -13673,37 +13664,37 @@
         <v>13</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1840</v>
+        <v>1832</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>2029</v>
+        <v>2021</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>2030</v>
+        <v>2022</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1676</v>
+        <v>1668</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>1747</v>
+        <v>1739</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>1748</v>
+        <v>1740</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>2146</v>
+        <v>2138</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>2147</v>
+        <v>2139</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>2242</v>
+        <v>2234</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>2314</v>
+        <v>2306</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>2315</v>
+        <v>2307</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -13711,10 +13702,10 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2" t="s">
-        <v>1906</v>
+        <v>1898</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>1907</v>
+        <v>1899</v>
       </c>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
@@ -13747,40 +13738,40 @@
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1841</v>
+        <v>1833</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>2031</v>
+        <v>2023</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2032</v>
+        <v>2024</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1677</v>
+        <v>1669</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>1749</v>
+        <v>1741</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>1750</v>
+        <v>1742</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>2148</v>
+        <v>2140</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>2149</v>
+        <v>2141</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>2243</v>
+        <v>2235</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>2316</v>
+        <v>2308</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>2317</v>
+        <v>2309</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -13788,10 +13779,10 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2" t="s">
-        <v>1908</v>
+        <v>1900</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>1909</v>
+        <v>1901</v>
       </c>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
@@ -13824,40 +13815,40 @@
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1842</v>
+        <v>1834</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>2033</v>
+        <v>2025</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>2034</v>
+        <v>2026</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1678</v>
+        <v>1670</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>1751</v>
+        <v>1743</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>1752</v>
+        <v>1744</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>2150</v>
+        <v>2142</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>2151</v>
+        <v>2143</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>2244</v>
+        <v>2236</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>2318</v>
+        <v>2310</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>2319</v>
+        <v>2311</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -13865,10 +13856,10 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2" t="s">
-        <v>1910</v>
+        <v>1902</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>1911</v>
+        <v>1903</v>
       </c>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
@@ -13904,37 +13895,37 @@
         <v>14</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1843</v>
+        <v>1835</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>2035</v>
+        <v>2027</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>2036</v>
+        <v>2028</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1679</v>
+        <v>1671</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>1753</v>
+        <v>1745</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>1754</v>
+        <v>1746</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>2152</v>
+        <v>2144</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>2153</v>
+        <v>2145</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>2245</v>
+        <v>2237</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>2320</v>
+        <v>2312</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>2321</v>
+        <v>2313</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -13942,10 +13933,10 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2" t="s">
-        <v>1912</v>
+        <v>1904</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>1913</v>
+        <v>1905</v>
       </c>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
@@ -13981,37 +13972,37 @@
         <v>15</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1844</v>
+        <v>1836</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>2037</v>
+        <v>2029</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>2038</v>
+        <v>2030</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>1680</v>
+        <v>1672</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>1755</v>
+        <v>1747</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>1756</v>
+        <v>1748</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>2154</v>
+        <v>2146</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>2155</v>
+        <v>2147</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>2236</v>
+        <v>2228</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>2303</v>
+        <v>2295</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>2304</v>
+        <v>2296</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -14019,10 +14010,10 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2" t="s">
-        <v>1915</v>
+        <v>1907</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>1914</v>
+        <v>1906</v>
       </c>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
@@ -14058,37 +14049,37 @@
         <v>16</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1845</v>
+        <v>1837</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>2039</v>
+        <v>2031</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>2040</v>
+        <v>2032</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1681</v>
+        <v>1673</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>1757</v>
+        <v>1749</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>1758</v>
+        <v>1750</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>2156</v>
+        <v>2148</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>2157</v>
+        <v>2149</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>2247</v>
+        <v>2239</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>2324</v>
+        <v>2316</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>2325</v>
+        <v>2317</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -14096,10 +14087,10 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2" t="s">
-        <v>1916</v>
+        <v>1908</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>1917</v>
+        <v>1909</v>
       </c>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
@@ -14135,37 +14126,37 @@
         <v>17</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1846</v>
+        <v>1838</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>2041</v>
+        <v>2033</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>2042</v>
+        <v>2034</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>1682</v>
+        <v>1674</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>1759</v>
+        <v>1751</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>1760</v>
+        <v>1752</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>2158</v>
+        <v>2150</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>2159</v>
+        <v>2151</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>2248</v>
+        <v>2240</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>2326</v>
+        <v>2318</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>2327</v>
+        <v>2319</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -14173,10 +14164,10 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2" t="s">
-        <v>1918</v>
+        <v>1910</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>1919</v>
+        <v>1911</v>
       </c>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
@@ -14212,37 +14203,37 @@
         <v>18</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1847</v>
+        <v>1839</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>2043</v>
+        <v>2035</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>2044</v>
+        <v>2036</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>1683</v>
+        <v>1675</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>1761</v>
+        <v>1753</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>1762</v>
+        <v>1754</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>2160</v>
+        <v>2152</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>2161</v>
+        <v>2153</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>2249</v>
+        <v>2241</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>2328</v>
+        <v>2320</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>2329</v>
+        <v>2321</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -14250,10 +14241,10 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2" t="s">
-        <v>1920</v>
+        <v>1912</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>1921</v>
+        <v>1913</v>
       </c>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
@@ -14289,37 +14280,37 @@
         <v>490</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1848</v>
+        <v>1840</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>2046</v>
+        <v>2038</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>1684</v>
+        <v>1676</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>1763</v>
+        <v>1755</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>1764</v>
+        <v>1756</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>2162</v>
+        <v>2154</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>2163</v>
+        <v>2155</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>2250</v>
+        <v>2242</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>2330</v>
+        <v>2322</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>2331</v>
+        <v>2323</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -14327,10 +14318,10 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2" t="s">
-        <v>1922</v>
+        <v>1914</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>1923</v>
+        <v>1915</v>
       </c>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
@@ -14366,37 +14357,37 @@
         <v>19</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1849</v>
+        <v>1841</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>2047</v>
+        <v>2039</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>2048</v>
+        <v>2040</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>1685</v>
+        <v>1677</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>1765</v>
+        <v>1757</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>1766</v>
+        <v>1758</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>2164</v>
+        <v>2156</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>2165</v>
+        <v>2157</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>2251</v>
+        <v>2243</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>2334</v>
+        <v>2326</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>2335</v>
+        <v>2327</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -14404,10 +14395,10 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2" t="s">
-        <v>1924</v>
+        <v>1916</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>1925</v>
+        <v>1917</v>
       </c>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
@@ -14440,40 +14431,40 @@
     </row>
     <row r="45" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1686</v>
+        <v>1678</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1850</v>
+        <v>1842</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>2049</v>
+        <v>2041</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>2050</v>
+        <v>2042</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>1687</v>
+        <v>1679</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>1767</v>
+        <v>1759</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>1768</v>
+        <v>1760</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>2166</v>
+        <v>2158</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>2167</v>
+        <v>2159</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>2252</v>
+        <v>2244</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>2332</v>
+        <v>2324</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>2333</v>
+        <v>2325</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -14481,10 +14472,10 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2" t="s">
-        <v>1926</v>
+        <v>1918</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>1927</v>
+        <v>1919</v>
       </c>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
@@ -14520,37 +14511,37 @@
         <v>20</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1851</v>
+        <v>1843</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>2053</v>
+        <v>2045</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>2054</v>
+        <v>2046</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>1688</v>
+        <v>1680</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>1769</v>
+        <v>1761</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>1770</v>
+        <v>1762</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>2168</v>
+        <v>2160</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>2169</v>
+        <v>2161</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>2253</v>
+        <v>2245</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>2336</v>
+        <v>2328</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>2337</v>
+        <v>2329</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -14558,10 +14549,10 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2" t="s">
-        <v>1928</v>
+        <v>1920</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>1929</v>
+        <v>1921</v>
       </c>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
@@ -14597,37 +14588,37 @@
         <v>21</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1852</v>
+        <v>1844</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>2055</v>
+        <v>2047</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>2056</v>
+        <v>2048</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>1689</v>
+        <v>1681</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>1771</v>
+        <v>1763</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>1772</v>
+        <v>1764</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>2170</v>
+        <v>2162</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>2171</v>
+        <v>2163</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>2254</v>
+        <v>2246</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>2338</v>
+        <v>2330</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>2339</v>
+        <v>2331</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -14635,10 +14626,10 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2" t="s">
-        <v>1930</v>
+        <v>1922</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>1931</v>
+        <v>1923</v>
       </c>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
@@ -14671,40 +14662,40 @@
     </row>
     <row r="48" spans="1:47" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1853</v>
+        <v>1845</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>2057</v>
+        <v>2049</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>2058</v>
+        <v>2050</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>1690</v>
+        <v>1682</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>1773</v>
+        <v>1765</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>1774</v>
+        <v>1766</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>2172</v>
+        <v>2164</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>2173</v>
+        <v>2165</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>2255</v>
+        <v>2247</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>2340</v>
+        <v>2332</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>2341</v>
+        <v>2333</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -14712,10 +14703,10 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="3" t="s">
-        <v>1932</v>
+        <v>1924</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>1933</v>
+        <v>1925</v>
       </c>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
@@ -14751,37 +14742,37 @@
         <v>22</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1854</v>
+        <v>1846</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>2059</v>
+        <v>2051</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>2060</v>
+        <v>2052</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>1691</v>
+        <v>1683</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>1775</v>
+        <v>1767</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>2175</v>
+        <v>2167</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>2174</v>
+        <v>2166</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>2246</v>
+        <v>2238</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>2322</v>
+        <v>2314</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>2323</v>
+        <v>2315</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -14789,10 +14780,10 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2" t="s">
-        <v>1934</v>
+        <v>1926</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>1935</v>
+        <v>1927</v>
       </c>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
@@ -14828,37 +14819,37 @@
         <v>23</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1855</v>
+        <v>1847</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>2061</v>
+        <v>2053</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>2062</v>
+        <v>2054</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>1692</v>
+        <v>1684</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>2176</v>
+        <v>2168</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>2177</v>
+        <v>2169</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>2257</v>
+        <v>2249</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>2344</v>
+        <v>2336</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>2345</v>
+        <v>2337</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -14866,10 +14857,10 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2" t="s">
-        <v>1936</v>
+        <v>1928</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>1937</v>
+        <v>1929</v>
       </c>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
@@ -14902,40 +14893,40 @@
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1693</v>
+        <v>1685</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1856</v>
+        <v>1848</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>2063</v>
+        <v>2055</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>2064</v>
+        <v>2056</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>1694</v>
+        <v>1686</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>1780</v>
+        <v>1772</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>2178</v>
+        <v>2170</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>2179</v>
+        <v>2171</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>2258</v>
+        <v>2250</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>2346</v>
+        <v>2338</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>2347</v>
+        <v>2339</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -14943,10 +14934,10 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2" t="s">
-        <v>1938</v>
+        <v>1930</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>1939</v>
+        <v>1931</v>
       </c>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
@@ -14982,37 +14973,37 @@
         <v>24</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1857</v>
+        <v>1849</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>2065</v>
+        <v>2057</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>2066</v>
+        <v>2058</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>1695</v>
+        <v>1687</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>1782</v>
+        <v>1774</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>2180</v>
+        <v>2172</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>2181</v>
+        <v>2173</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>2259</v>
+        <v>2251</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>2350</v>
+        <v>2342</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>2349</v>
+        <v>2341</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -15020,10 +15011,10 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2" t="s">
-        <v>1940</v>
+        <v>1932</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>1941</v>
+        <v>1933</v>
       </c>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
@@ -15056,40 +15047,40 @@
     </row>
     <row r="53" spans="1:47" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1696</v>
+        <v>1688</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1858</v>
+        <v>1850</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>2067</v>
+        <v>2059</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>2068</v>
+        <v>2060</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>1697</v>
+        <v>1689</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>1783</v>
+        <v>1775</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>1784</v>
+        <v>1776</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>2182</v>
+        <v>2174</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>2183</v>
+        <v>2175</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>2260</v>
+        <v>2252</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>2351</v>
+        <v>2343</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>2352</v>
+        <v>2344</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -15097,10 +15088,10 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="3" t="s">
-        <v>1942</v>
+        <v>1934</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>1943</v>
+        <v>1935</v>
       </c>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
@@ -15136,37 +15127,37 @@
         <v>25</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1859</v>
+        <v>1851</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>2069</v>
+        <v>2061</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>2070</v>
+        <v>2062</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>1698</v>
+        <v>1690</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>1785</v>
+        <v>1777</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>1786</v>
+        <v>1778</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>2184</v>
+        <v>2176</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>2185</v>
+        <v>2177</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>2261</v>
+        <v>2253</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>2353</v>
+        <v>2345</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>2354</v>
+        <v>2346</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -15174,10 +15165,10 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2" t="s">
-        <v>1944</v>
+        <v>1936</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>1945</v>
+        <v>1937</v>
       </c>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
@@ -15213,37 +15204,37 @@
         <v>491</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1860</v>
+        <v>1852</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>2071</v>
+        <v>2063</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>2072</v>
+        <v>2064</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>1699</v>
+        <v>1691</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>1787</v>
+        <v>1779</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>1788</v>
+        <v>1780</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>2186</v>
+        <v>2178</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>2187</v>
+        <v>2179</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>2262</v>
+        <v>2254</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>2355</v>
+        <v>2347</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>2356</v>
+        <v>2348</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -15251,10 +15242,10 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2" t="s">
-        <v>1946</v>
+        <v>1938</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>1947</v>
+        <v>1939</v>
       </c>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
@@ -15290,37 +15281,37 @@
         <v>26</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1861</v>
+        <v>1853</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>2073</v>
+        <v>2065</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>2074</v>
+        <v>2066</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>1700</v>
+        <v>1692</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>1789</v>
+        <v>1781</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>1790</v>
+        <v>1782</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>2188</v>
+        <v>2180</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>2189</v>
+        <v>2181</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>2263</v>
+        <v>2255</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>2359</v>
+        <v>2351</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>2360</v>
+        <v>2352</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -15328,10 +15319,10 @@
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2" t="s">
-        <v>1948</v>
+        <v>1940</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>1949</v>
+        <v>1941</v>
       </c>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
@@ -15367,37 +15358,37 @@
         <v>27</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1862</v>
+        <v>1854</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>2075</v>
+        <v>2067</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>2076</v>
+        <v>2068</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>1701</v>
+        <v>1693</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>1791</v>
+        <v>1783</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>1792</v>
+        <v>1784</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>2190</v>
+        <v>2182</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>2191</v>
+        <v>2183</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>2264</v>
+        <v>2256</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>2357</v>
+        <v>2349</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>2358</v>
+        <v>2350</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -15405,10 +15396,10 @@
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2" t="s">
-        <v>1950</v>
+        <v>1942</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>1951</v>
+        <v>1943</v>
       </c>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
@@ -15444,37 +15435,37 @@
         <v>28</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1863</v>
+        <v>1855</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>2077</v>
+        <v>2069</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>2078</v>
+        <v>2070</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>1702</v>
+        <v>1694</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>1793</v>
+        <v>1785</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>1794</v>
+        <v>1786</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>2192</v>
+        <v>2184</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>2193</v>
+        <v>2185</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>2265</v>
+        <v>2257</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>2361</v>
+        <v>2353</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>2362</v>
+        <v>2354</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -15482,10 +15473,10 @@
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2" t="s">
-        <v>1952</v>
+        <v>1944</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>1953</v>
+        <v>1945</v>
       </c>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
@@ -15521,37 +15512,37 @@
         <v>29</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1864</v>
+        <v>1856</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>2079</v>
+        <v>2071</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>2080</v>
+        <v>2072</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>1703</v>
+        <v>1695</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>1795</v>
+        <v>1787</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>1796</v>
+        <v>1788</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>2194</v>
+        <v>2186</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>2195</v>
+        <v>2187</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>2256</v>
+        <v>2248</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>2342</v>
+        <v>2334</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>2343</v>
+        <v>2335</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -15559,10 +15550,10 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2" t="s">
-        <v>1954</v>
+        <v>1946</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>1955</v>
+        <v>1947</v>
       </c>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
@@ -15598,37 +15589,37 @@
         <v>30</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1865</v>
+        <v>1857</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>2081</v>
+        <v>2073</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>2082</v>
+        <v>2074</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>1704</v>
+        <v>1696</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>1797</v>
+        <v>1789</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>1798</v>
+        <v>1790</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>2196</v>
+        <v>2188</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>2197</v>
+        <v>2189</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>2268</v>
+        <v>2260</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>2366</v>
+        <v>2358</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>2365</v>
+        <v>2357</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -15636,10 +15627,10 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2" t="s">
-        <v>1956</v>
+        <v>1948</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>1957</v>
+        <v>1949</v>
       </c>
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
@@ -15675,37 +15666,37 @@
         <v>31</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1866</v>
+        <v>1858</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>2083</v>
+        <v>2075</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>2084</v>
+        <v>2076</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>1705</v>
+        <v>1697</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>1800</v>
+        <v>1792</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>1799</v>
+        <v>1791</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>2198</v>
+        <v>2190</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>2199</v>
+        <v>2191</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>2269</v>
+        <v>2261</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>2367</v>
+        <v>2359</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>2368</v>
+        <v>2360</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -15713,10 +15704,10 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="3" t="s">
-        <v>1958</v>
+        <v>1950</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>1959</v>
+        <v>1951</v>
       </c>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
@@ -15752,37 +15743,37 @@
         <v>32</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1867</v>
+        <v>1859</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>2085</v>
+        <v>2077</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>2086</v>
+        <v>2078</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>1706</v>
+        <v>1698</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>1801</v>
+        <v>1793</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>1802</v>
+        <v>1794</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>2200</v>
+        <v>2192</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>2201</v>
+        <v>2193</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>2270</v>
+        <v>2262</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>2369</v>
+        <v>2361</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>2370</v>
+        <v>2362</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -15790,10 +15781,10 @@
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2" t="s">
-        <v>1960</v>
+        <v>1952</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>1961</v>
+        <v>1953</v>
       </c>
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
@@ -15826,40 +15817,40 @@
     </row>
     <row r="63" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>2272</v>
+        <v>2264</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1868</v>
+        <v>1860</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>2087</v>
+        <v>2079</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>2088</v>
+        <v>2080</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>1707</v>
+        <v>1699</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>1803</v>
+        <v>1795</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>1804</v>
+        <v>1796</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>2202</v>
+        <v>2194</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>2203</v>
+        <v>2195</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>2271</v>
+        <v>2263</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>2371</v>
+        <v>2363</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>2372</v>
+        <v>2364</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -15867,10 +15858,10 @@
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2" t="s">
-        <v>1962</v>
+        <v>1954</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>1963</v>
+        <v>1955</v>
       </c>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
@@ -15906,37 +15897,37 @@
         <v>33</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1869</v>
+        <v>1861</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>2089</v>
+        <v>2081</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>2090</v>
+        <v>2082</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>1708</v>
+        <v>1700</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>1806</v>
+        <v>1798</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>1805</v>
+        <v>1797</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>2204</v>
+        <v>2196</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>2205</v>
+        <v>2197</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>2273</v>
+        <v>2265</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>2373</v>
+        <v>2365</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>2374</v>
+        <v>2366</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -15944,10 +15935,10 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2" t="s">
-        <v>1967</v>
+        <v>1959</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>1968</v>
+        <v>1960</v>
       </c>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
@@ -15983,37 +15974,37 @@
         <v>34</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1870</v>
+        <v>1862</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>2091</v>
+        <v>2083</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>2092</v>
+        <v>2084</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>1709</v>
+        <v>1701</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>1807</v>
+        <v>1799</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>1808</v>
+        <v>1800</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>2206</v>
+        <v>2198</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>2207</v>
+        <v>2199</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>2274</v>
+        <v>2266</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>2377</v>
+        <v>2369</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>2378</v>
+        <v>2370</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -16021,10 +16012,10 @@
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2" t="s">
-        <v>1969</v>
+        <v>1961</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>1970</v>
+        <v>1962</v>
       </c>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
@@ -16060,37 +16051,37 @@
         <v>35</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1871</v>
+        <v>1863</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>2093</v>
+        <v>2085</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>2094</v>
+        <v>2086</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>1710</v>
+        <v>1702</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>1809</v>
+        <v>1801</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>1810</v>
+        <v>1802</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>2208</v>
+        <v>2200</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>2209</v>
+        <v>2201</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>2275</v>
+        <v>2267</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>2375</v>
+        <v>2367</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>2376</v>
+        <v>2368</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -16098,10 +16089,10 @@
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2" t="s">
-        <v>1971</v>
+        <v>1963</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>1972</v>
+        <v>1964</v>
       </c>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
@@ -16137,37 +16128,37 @@
         <v>36</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1872</v>
+        <v>1864</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>2100</v>
+        <v>2092</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>2101</v>
+        <v>2093</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>1711</v>
+        <v>1703</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>1811</v>
+        <v>1803</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>1812</v>
+        <v>1804</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>2210</v>
+        <v>2202</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>2211</v>
+        <v>2203</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>2276</v>
+        <v>2268</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>2363</v>
+        <v>2355</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>2364</v>
+        <v>2356</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -16175,10 +16166,10 @@
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2" t="s">
-        <v>1973</v>
+        <v>1965</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>1974</v>
+        <v>1966</v>
       </c>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
@@ -16214,37 +16205,37 @@
         <v>37</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1873</v>
+        <v>1865</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>2102</v>
+        <v>2094</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>2103</v>
+        <v>2095</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>1712</v>
+        <v>1704</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>1813</v>
+        <v>1805</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>1814</v>
+        <v>1806</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>2212</v>
+        <v>2204</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>2213</v>
+        <v>2205</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>2277</v>
+        <v>2269</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>2379</v>
+        <v>2371</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>2380</v>
+        <v>2372</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -16252,10 +16243,10 @@
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2" t="s">
-        <v>1975</v>
+        <v>1967</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>1976</v>
+        <v>1968</v>
       </c>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
@@ -16288,40 +16279,40 @@
     </row>
     <row r="69" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>2267</v>
+        <v>2259</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>2104</v>
+        <v>2096</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>2105</v>
+        <v>2097</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>1825</v>
+        <v>1817</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>1815</v>
+        <v>1807</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>1816</v>
+        <v>1808</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>2214</v>
+        <v>2206</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>2215</v>
+        <v>2207</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>2266</v>
+        <v>2258</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>2381</v>
+        <v>2373</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>2382</v>
+        <v>2374</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -16329,10 +16320,10 @@
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="2" t="s">
-        <v>1977</v>
+        <v>1969</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>1978</v>
+        <v>1970</v>
       </c>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
@@ -16368,37 +16359,37 @@
         <v>38</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1874</v>
+        <v>1866</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>2106</v>
+        <v>2098</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>2107</v>
+        <v>2099</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1713</v>
+        <v>1705</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>1818</v>
+        <v>1810</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>2216</v>
+        <v>2208</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>2217</v>
+        <v>2209</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>2278</v>
+        <v>2270</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>2383</v>
+        <v>2375</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>2384</v>
+        <v>2376</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -16406,10 +16397,10 @@
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="2" t="s">
-        <v>1979</v>
+        <v>1971</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>1980</v>
+        <v>1972</v>
       </c>
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
@@ -16445,37 +16436,37 @@
         <v>39</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1875</v>
+        <v>1867</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>2108</v>
+        <v>2100</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>2109</v>
+        <v>2101</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1714</v>
+        <v>1706</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>2218</v>
+        <v>2210</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>2219</v>
+        <v>2211</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>2279</v>
+        <v>2271</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>2385</v>
+        <v>2377</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>2386</v>
+        <v>2378</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -16483,10 +16474,10 @@
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
@@ -16519,40 +16510,40 @@
     </row>
     <row r="72" spans="1:47" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1981</v>
+        <v>1973</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1876</v>
+        <v>1868</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>2110</v>
+        <v>2102</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>2111</v>
+        <v>2103</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>1819</v>
+        <v>1811</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>1820</v>
+        <v>1812</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>2220</v>
+        <v>2212</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>2221</v>
+        <v>2213</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>2280</v>
+        <v>2272</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>2387</v>
+        <v>2379</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>2388</v>
+        <v>2380</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -16560,10 +16551,10 @@
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
       <c r="R72" s="2" t="s">
-        <v>1982</v>
+        <v>1974</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>1983</v>
+        <v>1975</v>
       </c>
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
@@ -16599,37 +16590,37 @@
         <v>40</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1877</v>
+        <v>1869</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>2112</v>
+        <v>2104</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>2113</v>
+        <v>2105</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>1716</v>
+        <v>1708</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>1821</v>
+        <v>1813</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>1822</v>
+        <v>1814</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>2222</v>
+        <v>2214</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>2223</v>
+        <v>2215</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>2281</v>
+        <v>2273</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>2389</v>
+        <v>2381</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>2390</v>
+        <v>2382</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -16637,10 +16628,10 @@
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="2" t="s">
-        <v>1984</v>
+        <v>1976</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>1985</v>
+        <v>1977</v>
       </c>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
@@ -16676,37 +16667,37 @@
         <v>41</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1878</v>
+        <v>1870</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>2114</v>
+        <v>2106</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>2115</v>
+        <v>2107</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>1717</v>
+        <v>1709</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>1823</v>
+        <v>1815</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>1824</v>
+        <v>1816</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>2224</v>
+        <v>2216</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>2225</v>
+        <v>2217</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>2282</v>
+        <v>2274</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>2391</v>
+        <v>2383</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>2392</v>
+        <v>2384</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -16714,10 +16705,10 @@
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="2" t="s">
-        <v>1986</v>
+        <v>1978</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>1987</v>
+        <v>1979</v>
       </c>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
@@ -16805,17 +16796,17 @@
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>2017</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>2020</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
@@ -16990,19 +16981,19 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B123" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E123" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F123" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G123" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -17077,7 +17068,7 @@
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>2096</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
@@ -17097,7 +17088,7 @@
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>2052</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
@@ -17117,7 +17108,7 @@
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
@@ -17252,7 +17243,7 @@
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>2095</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
@@ -17347,7 +17338,7 @@
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1660</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
@@ -17402,7 +17393,7 @@
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>2018</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
@@ -17422,7 +17413,7 @@
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
@@ -17472,7 +17463,7 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1661</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
@@ -17642,7 +17633,7 @@
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1718</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
@@ -17677,7 +17668,7 @@
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
@@ -17757,7 +17748,7 @@
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>2019</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
@@ -17792,7 +17783,7 @@
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>2051</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
@@ -18032,7 +18023,7 @@
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1659</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
@@ -18117,7 +18108,7 @@
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>1426</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
@@ -18262,7 +18253,7 @@
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>2016</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
@@ -18282,7 +18273,7 @@
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>2005</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
@@ -18317,7 +18308,7 @@
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
@@ -18402,7 +18393,7 @@
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.2">
@@ -18732,7 +18723,7 @@
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>1657</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
@@ -18747,7 +18738,7 @@
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>2098</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
@@ -18777,7 +18768,7 @@
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>2097</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
@@ -18897,7 +18888,7 @@
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>2099</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
@@ -18942,7 +18933,7 @@
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>2004</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.2">
@@ -18972,7 +18963,7 @@
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>1658</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.2">

--- a/historical/data/data_strict.xlsx
+++ b/historical/data/data_strict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95F0F14-2892-A443-A807-65394BA81BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B413E6-6250-9545-A3FE-0DEBDA16A7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46320" yWindow="-3100" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="2403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="2399">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -1549,18 +1549,6 @@
     <t>zayrats'ats</t>
   </si>
   <si>
-    <t>կենդանի</t>
-  </si>
-  <si>
-    <t>kendani</t>
-  </si>
-  <si>
-    <t>պատասխանել</t>
-  </si>
-  <si>
-    <t>pataskhanel</t>
-  </si>
-  <si>
     <t>մրջյուն</t>
   </si>
   <si>
@@ -1582,12 +1570,6 @@
     <t>slak'</t>
   </si>
   <si>
-    <t>ամաչելով, ամոթահար</t>
-  </si>
-  <si>
-    <t>amach'elov, amot'ahar</t>
-  </si>
-  <si>
     <t>մոխիր</t>
   </si>
   <si>
@@ -1606,12 +1588,6 @@
     <t>esh</t>
   </si>
   <si>
-    <t>աշուն, աշնանային</t>
-  </si>
-  <si>
-    <t>ashun, ashnanayin</t>
-  </si>
-  <si>
     <t>արթնանալ, արթնացնել</t>
   </si>
   <si>
@@ -2951,12 +2927,6 @@
   </si>
   <si>
     <t>šyla</t>
-  </si>
-  <si>
-    <t>ավլ, բիզ</t>
-  </si>
-  <si>
-    <t>avl, biz</t>
   </si>
   <si>
     <t>hammer</t>
@@ -7254,6 +7224,24 @@
   </si>
   <si>
     <t>zgjohen</t>
+  </si>
+  <si>
+    <t>պատասխան</t>
+  </si>
+  <si>
+    <t>pataskhan</t>
+  </si>
+  <si>
+    <t>ամաչելով</t>
+  </si>
+  <si>
+    <t>amach'elov</t>
+  </si>
+  <si>
+    <t>աշուն</t>
+  </si>
+  <si>
+    <t>ashun</t>
   </si>
 </sst>
 </file>
@@ -8117,7 +8105,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8202,13 +8190,13 @@
         <v>471</v>
       </c>
       <c r="B1" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C1" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="D1" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="E1" t="s">
         <v>486</v>
@@ -8220,208 +8208,208 @@
         <v>499</v>
       </c>
       <c r="H1" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="I1" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="J1" t="s">
+        <v>775</v>
+      </c>
+      <c r="K1" t="s">
+        <v>773</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="M1" t="s">
+        <v>566</v>
+      </c>
+      <c r="N1" t="s">
+        <v>567</v>
+      </c>
+      <c r="O1" t="s">
+        <v>594</v>
+      </c>
+      <c r="P1" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>611</v>
+      </c>
+      <c r="R1" t="s">
+        <v>536</v>
+      </c>
+      <c r="S1" t="s">
+        <v>537</v>
+      </c>
+      <c r="T1" t="s">
+        <v>655</v>
+      </c>
+      <c r="U1" t="s">
+        <v>662</v>
+      </c>
+      <c r="V1" t="s">
+        <v>675</v>
+      </c>
+      <c r="W1" t="s">
+        <v>689</v>
+      </c>
+      <c r="X1" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>717</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>757</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>758</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>759</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>760</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>761</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>762</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>763</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>764</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>765</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>968</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>766</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>767</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>768</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>769</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>770</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>771</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>772</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>774</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>776</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>777</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>778</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>779</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>780</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>781</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>782</v>
+      </c>
+      <c r="BI1" t="s">
         <v>783</v>
       </c>
-      <c r="K1" t="s">
-        <v>781</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="M1" t="s">
-        <v>574</v>
-      </c>
-      <c r="N1" t="s">
-        <v>575</v>
-      </c>
-      <c r="O1" t="s">
-        <v>602</v>
-      </c>
-      <c r="P1" t="s">
-        <v>617</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>619</v>
-      </c>
-      <c r="R1" t="s">
-        <v>544</v>
-      </c>
-      <c r="S1" t="s">
-        <v>545</v>
-      </c>
-      <c r="T1" t="s">
-        <v>663</v>
-      </c>
-      <c r="U1" t="s">
-        <v>670</v>
-      </c>
-      <c r="V1" t="s">
-        <v>683</v>
-      </c>
-      <c r="W1" t="s">
-        <v>697</v>
-      </c>
-      <c r="X1" t="s">
-        <v>709</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>725</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>765</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>766</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>767</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>768</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>769</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>770</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>771</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>772</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>773</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>978</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>774</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>775</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>776</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>1070</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>777</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>778</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>779</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>1119</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>780</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>782</v>
-      </c>
-      <c r="AZ1" t="s">
+      <c r="BJ1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="BK1" t="s">
         <v>784</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BL1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="BM1" t="s">
         <v>785</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BN1" t="s">
         <v>786</v>
       </c>
-      <c r="BC1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="BD1" t="s">
+      <c r="BO1" t="s">
         <v>787</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BP1" t="s">
         <v>788</v>
       </c>
-      <c r="BF1" t="s">
-        <v>1299</v>
-      </c>
-      <c r="BG1" t="s">
+      <c r="BQ1" t="s">
         <v>789</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BR1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="BS1" t="s">
         <v>790</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BT1" t="s">
         <v>791</v>
       </c>
-      <c r="BJ1" t="s">
-        <v>1349</v>
-      </c>
-      <c r="BK1" t="s">
+      <c r="BU1" t="s">
         <v>792</v>
       </c>
-      <c r="BL1" t="s">
-        <v>1371</v>
-      </c>
-      <c r="BM1" t="s">
+      <c r="BV1" t="s">
         <v>793</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BW1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="BX1" t="s">
         <v>794</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BY1" t="s">
         <v>795</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BZ1" t="s">
         <v>796</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>797</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>1452</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>798</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>799</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>800</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>801</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>1575</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>802</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>803</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="2" spans="1:78" x14ac:dyDescent="0.2">
@@ -8440,10 +8428,10 @@
       <c r="E2" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>488</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -8528,7 +8516,7 @@
         <v>488</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>488</v>
@@ -8540,7 +8528,7 @@
         <v>488</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="AN2" s="2" t="s">
         <v>488</v>
@@ -8653,223 +8641,223 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1494</v>
+        <v>1484</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2388</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>1498</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>1499</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>1510</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="X3" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>1516</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="AB3" s="2" t="s">
         <v>1517</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>2398</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>1508</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>1509</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>1523</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>1524</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>1546</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>1544</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>1526</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>1513</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>1514</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>1515</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>1511</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>1512</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>1513</v>
-      </c>
-      <c r="U3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>1518</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>1519</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>1520</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>1521</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>1522</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>1525</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>1526</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>1527</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>1528</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>1529</v>
       </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="AR3" s="2" t="s">
         <v>1530</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>1531</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>1532</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>1533</v>
       </c>
-      <c r="AL3" s="2" t="s">
-        <v>1534</v>
-      </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AX3" t="s">
         <v>1535</v>
       </c>
-      <c r="AN3" s="2" t="s">
-        <v>1536</v>
-      </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AZ3" t="s">
         <v>1537</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="BA3" t="s">
         <v>1538</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="BB3" t="s">
         <v>1539</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="BC3" t="s">
         <v>1540</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="BD3" t="s">
         <v>1541</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="BE3" t="s">
         <v>1542</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="BF3" t="s">
         <v>1543</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="BG3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="BH3" t="s">
         <v>1545</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BI3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>1503</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>966</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>966</v>
+      </c>
+      <c r="BM3" t="s">
         <v>1547</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BN3" t="s">
         <v>1548</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BO3" t="s">
         <v>1549</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BP3" t="s">
         <v>1550</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BQ3" t="s">
         <v>1551</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BR3" t="s">
         <v>1552</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BS3" t="s">
         <v>1553</v>
       </c>
-      <c r="BG3" t="s">
-        <v>1554</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>1555</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>1556</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>1513</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>976</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>976</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>1557</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>1558</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>1559</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>1560</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>1561</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>1562</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>1563</v>
-      </c>
       <c r="BT3" t="s">
-        <v>1495</v>
+        <v>1485</v>
       </c>
       <c r="BU3" t="s">
-        <v>1494</v>
+        <v>1484</v>
       </c>
       <c r="BV3" t="s">
-        <v>1577</v>
+        <v>1567</v>
       </c>
       <c r="BW3" t="s">
-        <v>1578</v>
+        <v>1568</v>
       </c>
       <c r="BX3" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="BY3" t="s">
-        <v>1616</v>
+        <v>1606</v>
       </c>
       <c r="BZ3" t="s">
-        <v>1632</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="4" spans="1:78" x14ac:dyDescent="0.2">
@@ -8877,226 +8865,226 @@
         <v>473</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>501</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>1211</v>
+        <v>1201</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="T4" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="U4" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="U4" s="2" t="s">
-        <v>672</v>
-      </c>
       <c r="V4" s="2" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="AK4" s="2" t="s">
         <v>473</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="AO4" s="2" t="s">
         <v>473</v>
       </c>
       <c r="AP4" s="2" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="AQ4" s="2" t="s">
-        <v>1103</v>
+        <v>1093</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
       <c r="AT4" s="2" t="s">
-        <v>1174</v>
+        <v>1164</v>
       </c>
       <c r="AU4" s="2" t="s">
-        <v>1175</v>
+        <v>1165</v>
       </c>
       <c r="AX4" t="s">
-        <v>1202</v>
+        <v>1192</v>
       </c>
       <c r="AZ4" t="s">
-        <v>1226</v>
+        <v>1216</v>
       </c>
       <c r="BA4" t="s">
-        <v>1242</v>
+        <v>1232</v>
       </c>
       <c r="BB4" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="BC4" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="BD4" t="s">
-        <v>1284</v>
+        <v>1274</v>
       </c>
       <c r="BE4" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="BF4" t="s">
-        <v>1301</v>
+        <v>1291</v>
       </c>
       <c r="BG4" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="BH4" t="s">
-        <v>1337</v>
+        <v>1327</v>
       </c>
       <c r="BI4" t="s">
-        <v>1350</v>
+        <v>1340</v>
       </c>
       <c r="BJ4" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="BK4" t="s">
-        <v>1370</v>
+        <v>1360</v>
       </c>
       <c r="BL4" t="s">
-        <v>1372</v>
+        <v>1362</v>
       </c>
       <c r="BM4" t="s">
-        <v>1399</v>
+        <v>1389</v>
       </c>
       <c r="BN4" t="s">
-        <v>1399</v>
+        <v>1389</v>
       </c>
       <c r="BO4" t="s">
-        <v>1425</v>
+        <v>1415</v>
       </c>
       <c r="BP4" t="s">
-        <v>1440</v>
+        <v>1430</v>
       </c>
       <c r="BQ4" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="BR4" t="s">
         <v>473</v>
       </c>
       <c r="BS4" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="BT4" t="s">
-        <v>1493</v>
+        <v>1483</v>
       </c>
       <c r="BU4" t="s">
         <v>473</v>
       </c>
       <c r="BV4" t="s">
-        <v>1574</v>
+        <v>1564</v>
       </c>
       <c r="BW4" t="s">
-        <v>1576</v>
+        <v>1566</v>
       </c>
       <c r="BX4" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="BY4" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
       <c r="BZ4" t="s">
-        <v>1633</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="5" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9104,226 +9092,226 @@
         <v>474</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2385</v>
+        <v>2375</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>2388</v>
+        <v>2378</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>2394</v>
+        <v>2384</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>876</v>
-      </c>
-      <c r="F5" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="4" t="s">
         <v>504</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>1212</v>
+        <v>1202</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>1177</v>
+        <v>1167</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>1178</v>
+        <v>1168</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
       <c r="AS5" s="2" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
       <c r="AT5" s="2" t="s">
-        <v>1172</v>
+        <v>1162</v>
       </c>
       <c r="AU5" s="2" t="s">
-        <v>1173</v>
+        <v>1163</v>
       </c>
       <c r="AX5" t="s">
-        <v>1203</v>
+        <v>1193</v>
       </c>
       <c r="AZ5" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
       <c r="BA5" t="s">
-        <v>1243</v>
+        <v>1233</v>
       </c>
       <c r="BB5" t="s">
-        <v>1260</v>
+        <v>1250</v>
       </c>
       <c r="BC5" t="s">
-        <v>1261</v>
+        <v>1251</v>
       </c>
       <c r="BD5" t="s">
-        <v>1285</v>
+        <v>1275</v>
       </c>
       <c r="BE5" t="s">
-        <v>1302</v>
+        <v>1292</v>
       </c>
       <c r="BF5" t="s">
-        <v>1303</v>
+        <v>1293</v>
       </c>
       <c r="BG5" t="s">
-        <v>1326</v>
+        <v>1316</v>
       </c>
       <c r="BH5" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="BI5" t="s">
-        <v>1351</v>
+        <v>1341</v>
       </c>
       <c r="BJ5" t="s">
-        <v>1352</v>
+        <v>1342</v>
       </c>
       <c r="BK5" t="s">
-        <v>1373</v>
+        <v>1363</v>
       </c>
       <c r="BL5" t="s">
-        <v>1374</v>
+        <v>1364</v>
       </c>
       <c r="BM5" t="s">
-        <v>1400</v>
+        <v>1390</v>
       </c>
       <c r="BN5" t="s">
-        <v>1413</v>
+        <v>1403</v>
       </c>
       <c r="BO5" t="s">
-        <v>1426</v>
+        <v>1416</v>
       </c>
       <c r="BP5" t="s">
-        <v>1441</v>
+        <v>1431</v>
       </c>
       <c r="BQ5" t="s">
-        <v>1453</v>
+        <v>1443</v>
       </c>
       <c r="BR5" t="s">
-        <v>1454</v>
+        <v>1444</v>
       </c>
       <c r="BS5" t="s">
-        <v>1481</v>
+        <v>1471</v>
       </c>
       <c r="BT5" t="s">
-        <v>1496</v>
+        <v>1486</v>
       </c>
       <c r="BU5" t="s">
-        <v>1564</v>
+        <v>1554</v>
       </c>
       <c r="BV5" t="s">
-        <v>1579</v>
+        <v>1569</v>
       </c>
       <c r="BW5" t="s">
-        <v>1580</v>
+        <v>1570</v>
       </c>
       <c r="BX5" t="s">
-        <v>1604</v>
+        <v>1594</v>
       </c>
       <c r="BY5" t="s">
-        <v>1618</v>
+        <v>1608</v>
       </c>
       <c r="BZ5" t="s">
-        <v>1634</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="6" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9331,226 +9319,226 @@
         <v>475</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>976</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>506</v>
+        <v>966</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>966</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>1213</v>
+        <v>1203</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>1179</v>
+        <v>1169</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>1180</v>
+        <v>1170</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="AN6" s="2" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
       <c r="AP6" s="2" t="s">
         <v>475</v>
       </c>
       <c r="AQ6" s="2" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
       <c r="AR6" s="3" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="AS6" s="2" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="AT6" s="2" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="AU6" s="2" t="s">
-        <v>1171</v>
+        <v>1161</v>
       </c>
       <c r="AX6" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="AZ6" t="s">
-        <v>1228</v>
+        <v>1218</v>
       </c>
       <c r="BA6" t="s">
         <v>475</v>
       </c>
       <c r="BB6" t="s">
-        <v>1262</v>
+        <v>1252</v>
       </c>
       <c r="BC6" t="s">
-        <v>1263</v>
+        <v>1253</v>
       </c>
       <c r="BD6" t="s">
         <v>475</v>
       </c>
       <c r="BE6" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="BF6" t="s">
-        <v>1305</v>
+        <v>1295</v>
       </c>
       <c r="BG6" t="s">
-        <v>1327</v>
+        <v>1317</v>
       </c>
       <c r="BH6" t="s">
-        <v>1338</v>
+        <v>1328</v>
       </c>
       <c r="BI6" t="s">
-        <v>1353</v>
+        <v>1343</v>
       </c>
       <c r="BJ6" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="BK6" t="s">
-        <v>1375</v>
+        <v>1365</v>
       </c>
       <c r="BL6" t="s">
-        <v>1376</v>
+        <v>1366</v>
       </c>
       <c r="BM6" t="s">
-        <v>1401</v>
+        <v>1391</v>
       </c>
       <c r="BN6" t="s">
-        <v>1414</v>
+        <v>1404</v>
       </c>
       <c r="BO6" t="s">
         <v>475</v>
       </c>
       <c r="BP6" t="s">
-        <v>1442</v>
+        <v>1432</v>
       </c>
       <c r="BQ6" t="s">
-        <v>1455</v>
+        <v>1445</v>
       </c>
       <c r="BR6" t="s">
-        <v>1456</v>
+        <v>1446</v>
       </c>
       <c r="BS6" t="s">
-        <v>1482</v>
+        <v>1472</v>
       </c>
       <c r="BT6" t="s">
-        <v>1497</v>
+        <v>1487</v>
       </c>
       <c r="BU6" t="s">
-        <v>1565</v>
+        <v>1555</v>
       </c>
       <c r="BV6" t="s">
-        <v>1581</v>
+        <v>1571</v>
       </c>
       <c r="BW6" t="s">
-        <v>1582</v>
+        <v>1572</v>
       </c>
       <c r="BX6" t="s">
-        <v>1605</v>
+        <v>1595</v>
       </c>
       <c r="BY6" t="s">
-        <v>1619</v>
+        <v>1609</v>
       </c>
       <c r="BZ6" t="s">
-        <v>1635</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="7" spans="1:78" x14ac:dyDescent="0.2">
@@ -9558,226 +9546,226 @@
         <v>476</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2389</v>
+        <v>2379</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>2395</v>
+        <v>2385</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>508</v>
+      <c r="F7" s="4" t="s">
+        <v>2393</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>2394</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>1214</v>
+        <v>1204</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1181</v>
+        <v>1171</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>1182</v>
+        <v>1172</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="AQ7" s="2" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>1125</v>
+        <v>1115</v>
       </c>
       <c r="AS7" s="2" t="s">
-        <v>1126</v>
+        <v>1116</v>
       </c>
       <c r="AT7" s="2" t="s">
-        <v>1168</v>
+        <v>1158</v>
       </c>
       <c r="AU7" s="2" t="s">
-        <v>1169</v>
+        <v>1159</v>
       </c>
       <c r="AX7" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="AZ7" t="s">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="BA7" t="s">
-        <v>1244</v>
+        <v>1234</v>
       </c>
       <c r="BB7" t="s">
-        <v>1264</v>
+        <v>1254</v>
       </c>
       <c r="BC7" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="BD7" t="s">
-        <v>1286</v>
+        <v>1276</v>
       </c>
       <c r="BE7" t="s">
-        <v>1306</v>
+        <v>1296</v>
       </c>
       <c r="BF7" t="s">
-        <v>1307</v>
+        <v>1297</v>
       </c>
       <c r="BG7" t="s">
-        <v>1328</v>
+        <v>1318</v>
       </c>
       <c r="BH7" t="s">
-        <v>1339</v>
+        <v>1329</v>
       </c>
       <c r="BI7" t="s">
-        <v>1354</v>
+        <v>1344</v>
       </c>
       <c r="BJ7" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="BK7" t="s">
-        <v>1377</v>
+        <v>1367</v>
       </c>
       <c r="BL7" t="s">
-        <v>1378</v>
+        <v>1368</v>
       </c>
       <c r="BM7" t="s">
-        <v>1402</v>
+        <v>1392</v>
       </c>
       <c r="BN7" t="s">
-        <v>1415</v>
+        <v>1405</v>
       </c>
       <c r="BO7" t="s">
-        <v>1427</v>
+        <v>1417</v>
       </c>
       <c r="BP7" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="BQ7" t="s">
-        <v>1457</v>
+        <v>1447</v>
       </c>
       <c r="BR7" t="s">
-        <v>1458</v>
+        <v>1448</v>
       </c>
       <c r="BS7" t="s">
-        <v>1483</v>
+        <v>1473</v>
       </c>
       <c r="BT7" t="s">
-        <v>1498</v>
+        <v>1488</v>
       </c>
       <c r="BU7" t="s">
-        <v>1566</v>
+        <v>1556</v>
       </c>
       <c r="BV7" t="s">
-        <v>1583</v>
+        <v>1573</v>
       </c>
       <c r="BW7" t="s">
-        <v>1584</v>
+        <v>1574</v>
       </c>
       <c r="BX7" t="s">
-        <v>1606</v>
+        <v>1596</v>
       </c>
       <c r="BY7" t="s">
-        <v>1620</v>
+        <v>1610</v>
       </c>
       <c r="BZ7" t="s">
-        <v>1636</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="8" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9785,226 +9773,226 @@
         <v>477</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>510</v>
+        <v>548</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>506</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="AE8" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>1215</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>1183</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="AC8" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="AD8" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="AE8" s="2" t="s">
-        <v>916</v>
-      </c>
       <c r="AF8" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="AG8" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="AG8" s="2" t="s">
-        <v>944</v>
-      </c>
       <c r="AH8" s="2" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="AO8" s="2" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="AQ8" s="2" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
       <c r="AR8" s="2" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>1128</v>
+        <v>1118</v>
       </c>
       <c r="AT8" s="2" t="s">
-        <v>1166</v>
+        <v>1156</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="AX8" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="AZ8" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="BA8" t="s">
-        <v>1245</v>
+        <v>1235</v>
       </c>
       <c r="BB8" t="s">
-        <v>1265</v>
+        <v>1255</v>
       </c>
       <c r="BC8" t="s">
-        <v>1266</v>
+        <v>1256</v>
       </c>
       <c r="BD8" t="s">
-        <v>1287</v>
+        <v>1277</v>
       </c>
       <c r="BE8" t="s">
-        <v>1308</v>
+        <v>1298</v>
       </c>
       <c r="BF8" t="s">
-        <v>1309</v>
+        <v>1299</v>
       </c>
       <c r="BG8" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="BH8" t="s">
-        <v>1340</v>
+        <v>1330</v>
       </c>
       <c r="BI8" t="s">
-        <v>1355</v>
+        <v>1345</v>
       </c>
       <c r="BJ8" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="BK8" t="s">
-        <v>1379</v>
+        <v>1369</v>
       </c>
       <c r="BL8" t="s">
-        <v>1380</v>
+        <v>1370</v>
       </c>
       <c r="BM8" t="s">
-        <v>1403</v>
+        <v>1393</v>
       </c>
       <c r="BN8" t="s">
-        <v>1416</v>
+        <v>1406</v>
       </c>
       <c r="BO8" t="s">
-        <v>1428</v>
+        <v>1418</v>
       </c>
       <c r="BP8" t="s">
-        <v>1443</v>
+        <v>1433</v>
       </c>
       <c r="BQ8" s="1" t="s">
-        <v>1459</v>
+        <v>1449</v>
       </c>
       <c r="BR8" t="s">
-        <v>1460</v>
+        <v>1450</v>
       </c>
       <c r="BS8" t="s">
-        <v>1484</v>
+        <v>1474</v>
       </c>
       <c r="BT8" t="s">
-        <v>1499</v>
+        <v>1489</v>
       </c>
       <c r="BU8" t="s">
-        <v>1567</v>
+        <v>1557</v>
       </c>
       <c r="BV8" t="s">
-        <v>1585</v>
+        <v>1575</v>
       </c>
       <c r="BW8" t="s">
-        <v>1586</v>
+        <v>1576</v>
       </c>
       <c r="BX8" t="s">
-        <v>1607</v>
+        <v>1597</v>
       </c>
       <c r="BY8" t="s">
-        <v>1621</v>
+        <v>1611</v>
       </c>
       <c r="BZ8" t="s">
-        <v>1637</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="9" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10012,226 +10000,226 @@
         <v>478</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>877</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>512</v>
+        <v>869</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>508</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>1216</v>
+        <v>1206</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>1185</v>
+        <v>1175</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>1186</v>
+        <v>1176</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="AH9" s="3" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="AI9" s="2" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="AJ9" s="2" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="AK9" s="2" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="AL9" s="2" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="AM9" s="2" t="s">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="AN9" s="2" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="AO9" s="2" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="AP9" s="2" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
       <c r="AQ9" s="2" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
       <c r="AR9" s="2" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="AS9" s="2" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
       <c r="AT9" s="2" t="s">
-        <v>1164</v>
+        <v>1154</v>
       </c>
       <c r="AU9" s="2" t="s">
-        <v>1165</v>
+        <v>1155</v>
       </c>
       <c r="AX9" t="s">
-        <v>1204</v>
+        <v>1194</v>
       </c>
       <c r="AZ9" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="BA9" t="s">
-        <v>1246</v>
+        <v>1236</v>
       </c>
       <c r="BB9" t="s">
-        <v>1267</v>
+        <v>1257</v>
       </c>
       <c r="BC9" t="s">
-        <v>1268</v>
+        <v>1258</v>
       </c>
       <c r="BD9" t="s">
-        <v>1288</v>
+        <v>1278</v>
       </c>
       <c r="BE9" t="s">
-        <v>1310</v>
+        <v>1300</v>
       </c>
       <c r="BF9" t="s">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="BG9" t="s">
-        <v>1329</v>
+        <v>1319</v>
       </c>
       <c r="BH9" t="s">
-        <v>1341</v>
+        <v>1331</v>
       </c>
       <c r="BI9" t="s">
-        <v>1356</v>
+        <v>1346</v>
       </c>
       <c r="BJ9" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="BK9" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="BL9" t="s">
-        <v>1382</v>
+        <v>1372</v>
       </c>
       <c r="BM9" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="BN9" t="s">
-        <v>1417</v>
+        <v>1407</v>
       </c>
       <c r="BO9" t="s">
-        <v>1429</v>
+        <v>1419</v>
       </c>
       <c r="BP9" t="s">
-        <v>1444</v>
+        <v>1434</v>
       </c>
       <c r="BQ9" t="s">
-        <v>1461</v>
+        <v>1451</v>
       </c>
       <c r="BR9" t="s">
-        <v>1462</v>
+        <v>1452</v>
       </c>
       <c r="BS9" t="s">
-        <v>1485</v>
+        <v>1475</v>
       </c>
       <c r="BT9" t="s">
-        <v>1500</v>
+        <v>1490</v>
       </c>
       <c r="BU9" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="BV9" t="s">
-        <v>1587</v>
+        <v>1577</v>
       </c>
       <c r="BW9" t="s">
-        <v>1588</v>
+        <v>1578</v>
       </c>
       <c r="BX9" t="s">
-        <v>1608</v>
+        <v>1598</v>
       </c>
       <c r="BY9" t="s">
-        <v>1622</v>
+        <v>1612</v>
       </c>
       <c r="BZ9" t="s">
-        <v>1638</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.2">
@@ -10239,64 +10227,64 @@
         <v>479</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2386</v>
+        <v>2376</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>2399</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="G10" s="2" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>479</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>1187</v>
+        <v>1177</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>1188</v>
+        <v>1178</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>479</v>
@@ -10305,160 +10293,160 @@
         <v>479</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
       <c r="AI10" s="2" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="AL10" s="2" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="AM10" s="2" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="AN10" s="2" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="AO10" s="2" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="AP10" s="2" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
       <c r="AQ10" s="2" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
       <c r="AR10" s="2" t="s">
-        <v>1131</v>
+        <v>1121</v>
       </c>
       <c r="AS10" s="2" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="AT10" s="2" t="s">
-        <v>1162</v>
+        <v>1152</v>
       </c>
       <c r="AU10" s="2" t="s">
-        <v>1163</v>
+        <v>1153</v>
       </c>
       <c r="AX10" t="s">
-        <v>1205</v>
+        <v>1195</v>
       </c>
       <c r="AZ10" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="BA10" t="s">
-        <v>1247</v>
+        <v>1237</v>
       </c>
       <c r="BB10" t="s">
-        <v>1269</v>
+        <v>1259</v>
       </c>
       <c r="BC10" t="s">
-        <v>1270</v>
+        <v>1260</v>
       </c>
       <c r="BD10" t="s">
-        <v>1289</v>
+        <v>1279</v>
       </c>
       <c r="BE10" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="BF10" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="BG10" t="s">
-        <v>1330</v>
+        <v>1320</v>
       </c>
       <c r="BH10" t="s">
-        <v>1342</v>
+        <v>1332</v>
       </c>
       <c r="BI10" t="s">
-        <v>1357</v>
+        <v>1347</v>
       </c>
       <c r="BJ10" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="BK10" t="s">
-        <v>1383</v>
+        <v>1373</v>
       </c>
       <c r="BL10" t="s">
-        <v>1384</v>
+        <v>1374</v>
       </c>
       <c r="BM10" t="s">
-        <v>1404</v>
+        <v>1394</v>
       </c>
       <c r="BN10" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
       <c r="BO10" t="s">
-        <v>1430</v>
+        <v>1420</v>
       </c>
       <c r="BP10" t="s">
-        <v>1445</v>
+        <v>1435</v>
       </c>
       <c r="BQ10" t="s">
-        <v>1463</v>
+        <v>1453</v>
       </c>
       <c r="BR10" t="s">
-        <v>1464</v>
+        <v>1454</v>
       </c>
       <c r="BS10" t="s">
-        <v>1486</v>
+        <v>1476</v>
       </c>
       <c r="BT10" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="BU10" t="s">
-        <v>1568</v>
+        <v>1558</v>
       </c>
       <c r="BV10" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="BW10" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="BX10" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="BY10" t="s">
-        <v>1623</v>
+        <v>1613</v>
       </c>
       <c r="BZ10" t="s">
-        <v>1639</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="11" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10466,226 +10454,226 @@
         <v>480</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>515</v>
+      <c r="F11" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>511</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>1218</v>
+        <v>1208</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>1189</v>
+        <v>1179</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>1190</v>
+        <v>1180</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="AH11" s="2" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="AI11" s="2" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="AM11" s="2" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="AN11" s="2" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="AO11" s="2" t="s">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="AP11" s="2" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
       <c r="AQ11" s="2" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="AR11" s="2" t="s">
-        <v>1133</v>
+        <v>1123</v>
       </c>
       <c r="AS11" s="2" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
       <c r="AT11" s="2" t="s">
-        <v>1160</v>
+        <v>1150</v>
       </c>
       <c r="AU11" s="2" t="s">
-        <v>1161</v>
+        <v>1151</v>
       </c>
       <c r="AX11" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="AZ11" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="BA11" t="s">
-        <v>1248</v>
+        <v>1238</v>
       </c>
       <c r="BB11" t="s">
-        <v>1271</v>
+        <v>1261</v>
       </c>
       <c r="BC11" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="BD11" t="s">
-        <v>1290</v>
+        <v>1280</v>
       </c>
       <c r="BE11" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="BF11" t="s">
-        <v>1313</v>
+        <v>1303</v>
       </c>
       <c r="BG11" t="s">
-        <v>1331</v>
+        <v>1321</v>
       </c>
       <c r="BH11" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="BI11" s="1" t="s">
-        <v>1358</v>
+        <v>1348</v>
       </c>
       <c r="BJ11" t="s">
-        <v>1359</v>
+        <v>1349</v>
       </c>
       <c r="BK11" t="s">
-        <v>1385</v>
+        <v>1375</v>
       </c>
       <c r="BL11" t="s">
-        <v>1386</v>
+        <v>1376</v>
       </c>
       <c r="BM11" t="s">
-        <v>1405</v>
+        <v>1395</v>
       </c>
       <c r="BN11" t="s">
-        <v>1418</v>
+        <v>1408</v>
       </c>
       <c r="BO11" t="s">
-        <v>1432</v>
+        <v>1422</v>
       </c>
       <c r="BP11" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="BQ11" t="s">
-        <v>1465</v>
+        <v>1455</v>
       </c>
       <c r="BR11" t="s">
-        <v>1466</v>
+        <v>1456</v>
       </c>
       <c r="BS11" t="s">
-        <v>1487</v>
+        <v>1477</v>
       </c>
       <c r="BT11" t="s">
-        <v>1501</v>
+        <v>1491</v>
       </c>
       <c r="BU11" t="s">
-        <v>1501</v>
+        <v>1491</v>
       </c>
       <c r="BV11" t="s">
-        <v>1589</v>
+        <v>1579</v>
       </c>
       <c r="BW11" t="s">
-        <v>1590</v>
+        <v>1580</v>
       </c>
       <c r="BX11" t="s">
-        <v>1609</v>
+        <v>1599</v>
       </c>
       <c r="BY11" t="s">
-        <v>1624</v>
+        <v>1614</v>
       </c>
       <c r="BZ11" t="s">
-        <v>1640</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.2">
@@ -10693,226 +10681,226 @@
         <v>495</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>2390</v>
+        <v>2380</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>2391</v>
+        <v>2381</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>976</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>966</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="AH12" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="AI12" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="AK12" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="AL12" s="2" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="AM12" s="2" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="AN12" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="AO12" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="AP12" s="2" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
       <c r="AQ12" s="2" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
       <c r="AR12" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="AS12" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="AT12" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="AU12" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="AX12" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="AZ12" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="BA12" t="s">
-        <v>1249</v>
+        <v>1239</v>
       </c>
       <c r="BB12" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="BC12" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="BD12" t="s">
-        <v>1291</v>
+        <v>1281</v>
       </c>
       <c r="BE12" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="BF12" t="s">
-        <v>1314</v>
+        <v>1304</v>
       </c>
       <c r="BG12" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="BH12" t="s">
-        <v>1343</v>
+        <v>1333</v>
       </c>
       <c r="BI12" t="s">
-        <v>1360</v>
+        <v>1350</v>
       </c>
       <c r="BJ12" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="BK12" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="BL12" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="BM12" t="s">
-        <v>1406</v>
+        <v>1396</v>
       </c>
       <c r="BN12" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="BO12" t="s">
-        <v>1431</v>
+        <v>1421</v>
       </c>
       <c r="BP12" t="s">
-        <v>1446</v>
+        <v>1436</v>
       </c>
       <c r="BQ12" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="BR12" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="BS12" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="BT12" t="s">
-        <v>1502</v>
+        <v>1492</v>
       </c>
       <c r="BU12" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="BV12" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="BW12" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="BX12" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="BY12" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="BZ12" t="s">
-        <v>1641</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="13" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10920,226 +10908,226 @@
         <v>496</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>2400</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>519</v>
+        <v>2390</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>1192</v>
+        <v>1182</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>1193</v>
+        <v>1183</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="AH13" s="2" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="AI13" s="2" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="AJ13" s="2" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="AK13" s="2" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="AL13" s="2" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="AM13" s="2" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="AN13" s="2" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="AO13" s="2" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="AP13" s="2" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="AQ13" s="2" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="AR13" s="3" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
       <c r="AS13" s="2" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
       <c r="AT13" s="2" t="s">
-        <v>1156</v>
+        <v>1146</v>
       </c>
       <c r="AU13" s="2" t="s">
-        <v>1157</v>
+        <v>1147</v>
       </c>
       <c r="AX13" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="AZ13" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="BA13" t="s">
-        <v>1253</v>
+        <v>1243</v>
       </c>
       <c r="BB13" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="BC13" t="s">
-        <v>1273</v>
+        <v>1263</v>
       </c>
       <c r="BD13" t="s">
-        <v>1293</v>
+        <v>1283</v>
       </c>
       <c r="BE13" t="s">
-        <v>1315</v>
+        <v>1305</v>
       </c>
       <c r="BF13" t="s">
-        <v>1316</v>
+        <v>1306</v>
       </c>
       <c r="BG13" t="s">
-        <v>1332</v>
+        <v>1322</v>
       </c>
       <c r="BH13" t="s">
-        <v>1345</v>
+        <v>1335</v>
       </c>
       <c r="BI13" t="s">
-        <v>1363</v>
+        <v>1353</v>
       </c>
       <c r="BJ13" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="BK13" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
       <c r="BL13" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
       <c r="BM13" t="s">
-        <v>1408</v>
+        <v>1398</v>
       </c>
       <c r="BN13" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="BO13" t="s">
-        <v>1434</v>
+        <v>1424</v>
       </c>
       <c r="BP13" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="BQ13" t="s">
-        <v>1469</v>
+        <v>1459</v>
       </c>
       <c r="BR13" t="s">
-        <v>1470</v>
+        <v>1460</v>
       </c>
       <c r="BS13" t="s">
-        <v>1489</v>
+        <v>1479</v>
       </c>
       <c r="BT13" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="BU13" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="BV13" t="s">
-        <v>1591</v>
+        <v>1581</v>
       </c>
       <c r="BW13" t="s">
-        <v>1592</v>
+        <v>1582</v>
       </c>
       <c r="BX13" t="s">
-        <v>1610</v>
+        <v>1600</v>
       </c>
       <c r="BY13" t="s">
-        <v>1625</v>
+        <v>1615</v>
       </c>
       <c r="BZ13" t="s">
-        <v>1642</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="14" spans="1:78" ht="34" x14ac:dyDescent="0.2">
@@ -11147,226 +11135,226 @@
         <v>481</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2387</v>
+        <v>2377</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>517</v>
+      <c r="F14" s="4" t="s">
+        <v>2395</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>2396</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>1191</v>
+        <v>1181</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="AH14" s="3" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="AI14" s="2" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="AJ14" s="2" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="AK14" s="2" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="AL14" s="2" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="AM14" s="2" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="AN14" s="2" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
       <c r="AO14" s="2" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
       <c r="AP14" s="2" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="AQ14" s="2" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="AR14" s="3" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
       <c r="AS14" s="2" t="s">
-        <v>1136</v>
+        <v>1126</v>
       </c>
       <c r="AT14" s="2" t="s">
-        <v>1158</v>
+        <v>1148</v>
       </c>
       <c r="AU14" s="2" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="AX14" t="s">
-        <v>1206</v>
+        <v>1196</v>
       </c>
       <c r="AZ14" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="BA14" t="s">
-        <v>1252</v>
+        <v>1242</v>
       </c>
       <c r="BB14" t="s">
-        <v>1274</v>
+        <v>1264</v>
       </c>
       <c r="BC14" t="s">
-        <v>1275</v>
+        <v>1265</v>
       </c>
       <c r="BD14" t="s">
-        <v>1292</v>
+        <v>1282</v>
       </c>
       <c r="BE14" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="BF14" t="s">
-        <v>1318</v>
+        <v>1308</v>
       </c>
       <c r="BG14" t="s">
-        <v>1191</v>
+        <v>1181</v>
       </c>
       <c r="BH14" t="s">
-        <v>1344</v>
+        <v>1334</v>
       </c>
       <c r="BI14" t="s">
-        <v>1361</v>
+        <v>1351</v>
       </c>
       <c r="BJ14" t="s">
-        <v>1362</v>
+        <v>1352</v>
       </c>
       <c r="BK14" t="s">
-        <v>1387</v>
+        <v>1377</v>
       </c>
       <c r="BL14" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="BM14" t="s">
-        <v>1407</v>
+        <v>1397</v>
       </c>
       <c r="BN14" t="s">
-        <v>1420</v>
+        <v>1410</v>
       </c>
       <c r="BO14" t="s">
-        <v>1433</v>
+        <v>1423</v>
       </c>
       <c r="BP14" t="s">
-        <v>1447</v>
+        <v>1437</v>
       </c>
       <c r="BQ14" t="s">
-        <v>1467</v>
+        <v>1457</v>
       </c>
       <c r="BR14" t="s">
-        <v>1468</v>
+        <v>1458</v>
       </c>
       <c r="BS14" t="s">
-        <v>1488</v>
+        <v>1478</v>
       </c>
       <c r="BT14" t="s">
-        <v>1503</v>
+        <v>1493</v>
       </c>
       <c r="BU14" t="s">
-        <v>1569</v>
+        <v>1559</v>
       </c>
       <c r="BV14" s="1" t="s">
-        <v>1593</v>
+        <v>1583</v>
       </c>
       <c r="BW14" t="s">
-        <v>1594</v>
+        <v>1584</v>
       </c>
       <c r="BX14" t="s">
-        <v>1611</v>
+        <v>1601</v>
       </c>
       <c r="BY14" t="s">
-        <v>1626</v>
+        <v>1616</v>
       </c>
       <c r="BZ14" t="s">
-        <v>1643</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="15" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -11374,453 +11362,453 @@
         <v>482</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>2392</v>
+        <v>2382</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>2393</v>
+        <v>2383</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>2401</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>521</v>
+        <v>2391</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>515</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>1221</v>
+        <v>1211</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>1194</v>
+        <v>1184</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>1195</v>
+        <v>1185</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="T15" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="Y15" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="U15" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>905</v>
-      </c>
       <c r="Z15" s="2" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="AI15" s="2" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AJ15" s="2" t="s">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="AK15" s="2" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="AL15" s="2" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
       <c r="AM15" s="2" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
       <c r="AN15" s="2" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
       <c r="AO15" s="2" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="AP15" s="2" t="s">
-        <v>1097</v>
+        <v>1087</v>
       </c>
       <c r="AQ15" s="2" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="AR15" s="3" t="s">
-        <v>1139</v>
+        <v>1129</v>
       </c>
       <c r="AS15" s="2" t="s">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="AT15" s="2" t="s">
-        <v>1154</v>
+        <v>1144</v>
       </c>
       <c r="AU15" s="2" t="s">
-        <v>1155</v>
+        <v>1145</v>
       </c>
       <c r="AX15" t="s">
-        <v>1207</v>
+        <v>1197</v>
       </c>
       <c r="AZ15" t="s">
-        <v>1237</v>
+        <v>1227</v>
       </c>
       <c r="BA15" t="s">
-        <v>1254</v>
+        <v>1244</v>
       </c>
       <c r="BB15" t="s">
-        <v>1276</v>
+        <v>1266</v>
       </c>
       <c r="BC15" t="s">
-        <v>1277</v>
+        <v>1267</v>
       </c>
       <c r="BD15" t="s">
-        <v>1294</v>
+        <v>1284</v>
       </c>
       <c r="BE15" t="s">
-        <v>1319</v>
+        <v>1309</v>
       </c>
       <c r="BF15" t="s">
-        <v>1320</v>
+        <v>1310</v>
       </c>
       <c r="BG15" t="s">
-        <v>1333</v>
+        <v>1323</v>
       </c>
       <c r="BH15" t="s">
-        <v>1346</v>
+        <v>1336</v>
       </c>
       <c r="BI15" t="s">
-        <v>1364</v>
+        <v>1354</v>
       </c>
       <c r="BJ15" t="s">
-        <v>1365</v>
+        <v>1355</v>
       </c>
       <c r="BK15" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
       <c r="BL15" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
       <c r="BM15" s="1" t="s">
-        <v>1409</v>
+        <v>1399</v>
       </c>
       <c r="BN15" t="s">
-        <v>1421</v>
+        <v>1411</v>
       </c>
       <c r="BO15" t="s">
-        <v>1435</v>
+        <v>1425</v>
       </c>
       <c r="BP15" t="s">
-        <v>1448</v>
+        <v>1438</v>
       </c>
       <c r="BQ15" t="s">
-        <v>1471</v>
+        <v>1461</v>
       </c>
       <c r="BR15" t="s">
-        <v>1472</v>
+        <v>1462</v>
       </c>
       <c r="BS15" t="s">
-        <v>1490</v>
+        <v>1480</v>
       </c>
       <c r="BT15" t="s">
-        <v>1504</v>
+        <v>1494</v>
       </c>
       <c r="BU15" t="s">
-        <v>1570</v>
+        <v>1560</v>
       </c>
       <c r="BV15" t="s">
-        <v>1595</v>
+        <v>1585</v>
       </c>
       <c r="BW15" t="s">
-        <v>1596</v>
+        <v>1586</v>
       </c>
       <c r="BX15" t="s">
-        <v>1612</v>
+        <v>1602</v>
       </c>
       <c r="BY15" t="s">
-        <v>1627</v>
+        <v>1617</v>
       </c>
       <c r="BZ15" t="s">
-        <v>1644</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>525</v>
+      <c r="F16" s="4" t="s">
+        <v>2397</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>2398</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>1222</v>
+        <v>1212</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>1196</v>
+        <v>1186</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>1197</v>
+        <v>1187</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="AH16" s="2" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="AI16" s="2" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="AJ16" s="2" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="AK16" s="2" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="AL16" s="2" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="AM16" s="2" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="AN16" s="2" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="AO16" s="2" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="AP16" s="2" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="AQ16" s="2" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="AR16" s="2" t="s">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="AS16" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AT16" s="2" t="s">
         <v>1142</v>
       </c>
-      <c r="AT16" s="2" t="s">
-        <v>1152</v>
-      </c>
       <c r="AU16" s="2" t="s">
-        <v>1153</v>
+        <v>1143</v>
       </c>
       <c r="AX16" t="s">
-        <v>1208</v>
+        <v>1198</v>
       </c>
       <c r="AZ16" t="s">
-        <v>1238</v>
+        <v>1228</v>
       </c>
       <c r="BA16" t="s">
-        <v>1255</v>
+        <v>1245</v>
       </c>
       <c r="BB16" t="s">
-        <v>1278</v>
+        <v>1268</v>
       </c>
       <c r="BC16" t="s">
-        <v>1279</v>
+        <v>1269</v>
       </c>
       <c r="BD16" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="BE16" t="s">
-        <v>1321</v>
+        <v>1311</v>
       </c>
       <c r="BF16" t="s">
-        <v>1322</v>
+        <v>1312</v>
       </c>
       <c r="BG16" t="s">
-        <v>1334</v>
+        <v>1324</v>
       </c>
       <c r="BH16" t="s">
-        <v>1347</v>
+        <v>1337</v>
       </c>
       <c r="BI16" t="s">
-        <v>1366</v>
+        <v>1356</v>
       </c>
       <c r="BJ16" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="BK16" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
       <c r="BL16" t="s">
-        <v>1394</v>
+        <v>1384</v>
       </c>
       <c r="BM16" t="s">
-        <v>1410</v>
+        <v>1400</v>
       </c>
       <c r="BN16" t="s">
-        <v>1422</v>
+        <v>1412</v>
       </c>
       <c r="BO16" t="s">
-        <v>1436</v>
+        <v>1426</v>
       </c>
       <c r="BP16" t="s">
-        <v>1449</v>
+        <v>1439</v>
       </c>
       <c r="BQ16" t="s">
-        <v>1473</v>
+        <v>1463</v>
       </c>
       <c r="BR16" t="s">
-        <v>1474</v>
+        <v>1464</v>
       </c>
       <c r="BS16" t="s">
-        <v>1491</v>
+        <v>1481</v>
       </c>
       <c r="BT16" t="s">
-        <v>1505</v>
+        <v>1495</v>
       </c>
       <c r="BU16" t="s">
-        <v>1571</v>
+        <v>1561</v>
       </c>
       <c r="BV16" t="s">
-        <v>1597</v>
+        <v>1587</v>
       </c>
       <c r="BW16" t="s">
-        <v>1598</v>
+        <v>1588</v>
       </c>
       <c r="BX16" t="s">
-        <v>1613</v>
+        <v>1603</v>
       </c>
       <c r="BY16" t="s">
-        <v>1628</v>
+        <v>1618</v>
       </c>
       <c r="BZ16" t="s">
-        <v>1645</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="17" spans="1:78" x14ac:dyDescent="0.2">
@@ -11828,453 +11816,453 @@
         <v>483</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>2392</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="T17" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>2402</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>1223</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>1198</v>
-      </c>
-      <c r="L17" s="2" t="s">
+      <c r="U17" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="AG17" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="AH17" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="AI17" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="AJ17" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AK17" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AL17" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AM17" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AN17" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AO17" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AP17" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AQ17" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AR17" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AS17" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AT17" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AU17" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AX17" t="s">
         <v>1199</v>
       </c>
-      <c r="M17" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="Z17" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="AB17" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="AC17" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="AD17" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="AE17" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="AF17" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="AG17" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="AH17" s="2" t="s">
-        <v>1003</v>
-      </c>
-      <c r="AI17" s="2" t="s">
-        <v>1004</v>
-      </c>
-      <c r="AJ17" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="AK17" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="AL17" s="2" t="s">
-        <v>1066</v>
-      </c>
-      <c r="AM17" s="2" t="s">
-        <v>1067</v>
-      </c>
-      <c r="AN17" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="AO17" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AP17" s="2" t="s">
-        <v>1100</v>
-      </c>
-      <c r="AQ17" s="2" t="s">
-        <v>1116</v>
-      </c>
-      <c r="AR17" s="2" t="s">
-        <v>1143</v>
-      </c>
-      <c r="AS17" s="2" t="s">
-        <v>1144</v>
-      </c>
-      <c r="AT17" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="AU17" s="2" t="s">
-        <v>1151</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>1209</v>
-      </c>
       <c r="AZ17" t="s">
-        <v>1239</v>
+        <v>1229</v>
       </c>
       <c r="BA17" t="s">
-        <v>1256</v>
+        <v>1246</v>
       </c>
       <c r="BB17" t="s">
-        <v>1280</v>
+        <v>1270</v>
       </c>
       <c r="BC17" t="s">
-        <v>1281</v>
+        <v>1271</v>
       </c>
       <c r="BD17" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
       <c r="BE17" t="s">
-        <v>1323</v>
+        <v>1313</v>
       </c>
       <c r="BF17" t="s">
-        <v>1324</v>
+        <v>1314</v>
       </c>
       <c r="BG17" t="s">
-        <v>1335</v>
+        <v>1325</v>
       </c>
       <c r="BH17" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="BI17" t="s">
-        <v>1367</v>
+        <v>1357</v>
       </c>
       <c r="BJ17" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="BK17" t="s">
-        <v>1395</v>
+        <v>1385</v>
       </c>
       <c r="BL17" t="s">
-        <v>1396</v>
+        <v>1386</v>
       </c>
       <c r="BM17" t="s">
-        <v>1411</v>
+        <v>1401</v>
       </c>
       <c r="BN17" t="s">
-        <v>1423</v>
+        <v>1413</v>
       </c>
       <c r="BO17" t="s">
-        <v>1437</v>
+        <v>1427</v>
       </c>
       <c r="BP17" t="s">
-        <v>1450</v>
+        <v>1440</v>
       </c>
       <c r="BQ17" t="s">
-        <v>1475</v>
+        <v>1465</v>
       </c>
       <c r="BR17" t="s">
-        <v>1476</v>
+        <v>1466</v>
       </c>
       <c r="BS17" t="s">
-        <v>1492</v>
+        <v>1482</v>
       </c>
       <c r="BT17" t="s">
-        <v>1506</v>
+        <v>1496</v>
       </c>
       <c r="BU17" t="s">
-        <v>1572</v>
+        <v>1562</v>
       </c>
       <c r="BV17" t="s">
-        <v>1599</v>
+        <v>1589</v>
       </c>
       <c r="BW17" t="s">
-        <v>1600</v>
+        <v>1590</v>
       </c>
       <c r="BX17" t="s">
-        <v>1614</v>
+        <v>1604</v>
       </c>
       <c r="BY17" t="s">
-        <v>1629</v>
+        <v>1619</v>
       </c>
       <c r="BZ17" t="s">
-        <v>1646</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="18" spans="1:78" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>947</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>2386</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>2387</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="Y18" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>976</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>2396</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>2397</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>976</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>973</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>974</v>
-      </c>
-      <c r="H18" s="2" t="s">
+      <c r="Z18" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="AF18" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="AG18" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="AH18" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="AI18" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="AJ18" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="AL18" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AN18" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="AO18" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="AP18" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AR18" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="AS18" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="AT18" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="AU18" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>949</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>1230</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>1247</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>966</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>966</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>1287</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>960</v>
+      </c>
+      <c r="BF18" t="s">
         <v>961</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>962</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>1224</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>970</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>968</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>971</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="U18" s="2" t="s">
+      <c r="BG18" t="s">
         <v>966</v>
       </c>
-      <c r="V18" s="2" t="s">
-        <v>957</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>965</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>964</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="Z18" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="AB18" s="2" t="s">
+      <c r="BH18" t="s">
+        <v>966</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>960</v>
+      </c>
+      <c r="BJ18" t="s">
         <v>959</v>
       </c>
-      <c r="AC18" s="2" t="s">
+      <c r="BK18" t="s">
+        <v>966</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>966</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>1402</v>
+      </c>
+      <c r="BN18" t="s">
+        <v>959</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>1428</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>949</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>1467</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>1468</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>966</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>1497</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>947</v>
+      </c>
+      <c r="BV18" t="s">
         <v>960</v>
       </c>
-      <c r="AD18" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="AE18" s="2" t="s">
-        <v>957</v>
-      </c>
-      <c r="AF18" s="2" t="s">
-        <v>955</v>
-      </c>
-      <c r="AG18" s="2" t="s">
-        <v>956</v>
-      </c>
-      <c r="AH18" s="2" t="s">
-        <v>1005</v>
-      </c>
-      <c r="AI18" s="2" t="s">
-        <v>1006</v>
-      </c>
-      <c r="AJ18" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="AK18" s="2" t="s">
-        <v>955</v>
-      </c>
-      <c r="AL18" s="2" t="s">
-        <v>1038</v>
-      </c>
-      <c r="AM18" s="2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="AN18" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="AO18" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="AP18" s="2" t="s">
-        <v>1101</v>
-      </c>
-      <c r="AQ18" s="2" t="s">
-        <v>1102</v>
-      </c>
-      <c r="AR18" s="3" t="s">
-        <v>976</v>
-      </c>
-      <c r="AS18" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="AT18" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="AU18" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>957</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>1240</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>1257</v>
-      </c>
-      <c r="BB18" t="s">
-        <v>976</v>
-      </c>
-      <c r="BC18" t="s">
-        <v>976</v>
-      </c>
-      <c r="BD18" t="s">
-        <v>1297</v>
-      </c>
-      <c r="BE18" t="s">
-        <v>968</v>
-      </c>
-      <c r="BF18" t="s">
-        <v>969</v>
-      </c>
-      <c r="BG18" t="s">
-        <v>976</v>
-      </c>
-      <c r="BH18" t="s">
-        <v>976</v>
-      </c>
-      <c r="BI18" t="s">
-        <v>968</v>
-      </c>
-      <c r="BJ18" t="s">
-        <v>967</v>
-      </c>
-      <c r="BK18" t="s">
-        <v>976</v>
-      </c>
-      <c r="BL18" t="s">
-        <v>976</v>
-      </c>
-      <c r="BM18" t="s">
-        <v>1412</v>
-      </c>
-      <c r="BN18" t="s">
-        <v>967</v>
-      </c>
-      <c r="BO18" t="s">
-        <v>1438</v>
-      </c>
-      <c r="BP18" t="s">
-        <v>957</v>
-      </c>
-      <c r="BQ18" t="s">
-        <v>1477</v>
-      </c>
-      <c r="BR18" t="s">
-        <v>1478</v>
-      </c>
-      <c r="BS18" t="s">
-        <v>976</v>
-      </c>
-      <c r="BT18" t="s">
-        <v>1507</v>
-      </c>
-      <c r="BU18" t="s">
-        <v>955</v>
-      </c>
-      <c r="BV18" t="s">
-        <v>968</v>
-      </c>
       <c r="BW18" t="s">
-        <v>1601</v>
+        <v>1591</v>
       </c>
       <c r="BX18" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="BY18" s="1" t="s">
-        <v>1630</v>
+        <v>1620</v>
       </c>
       <c r="BZ18" t="s">
-        <v>1647</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="19" spans="1:78" x14ac:dyDescent="0.2">
@@ -12282,226 +12270,226 @@
         <v>484</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>875</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>529</v>
+        <v>867</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>521</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
       <c r="K19" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="AD19" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="AE19" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="AF19" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="AG19" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="AH19" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="AI19" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="AJ19" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="AK19" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AL19" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AM19" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AN19" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="AO19" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AP19" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AQ19" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AR19" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AS19" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AT19" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AU19" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AX19" t="s">
         <v>1200</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>1201</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="Z19" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="AA19" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="AB19" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="AC19" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="AD19" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="AE19" s="2" t="s">
-        <v>926</v>
-      </c>
-      <c r="AF19" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="AG19" s="2" t="s">
-        <v>954</v>
-      </c>
-      <c r="AH19" s="2" t="s">
-        <v>1007</v>
-      </c>
-      <c r="AI19" s="2" t="s">
-        <v>1008</v>
-      </c>
-      <c r="AJ19" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="AK19" s="2" t="s">
-        <v>1010</v>
-      </c>
-      <c r="AL19" s="2" t="s">
-        <v>1068</v>
-      </c>
-      <c r="AM19" s="2" t="s">
-        <v>1069</v>
-      </c>
-      <c r="AN19" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="AO19" s="2" t="s">
-        <v>1010</v>
-      </c>
-      <c r="AP19" s="2" t="s">
-        <v>1087</v>
-      </c>
-      <c r="AQ19" s="2" t="s">
-        <v>1117</v>
-      </c>
-      <c r="AR19" s="2" t="s">
-        <v>1145</v>
-      </c>
-      <c r="AS19" s="2" t="s">
-        <v>1146</v>
-      </c>
-      <c r="AT19" s="2" t="s">
-        <v>1147</v>
-      </c>
-      <c r="AU19" s="2" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AX19" t="s">
-        <v>1210</v>
-      </c>
       <c r="AZ19" t="s">
-        <v>1241</v>
+        <v>1231</v>
       </c>
       <c r="BA19" t="s">
-        <v>1258</v>
+        <v>1248</v>
       </c>
       <c r="BB19" t="s">
-        <v>1282</v>
+        <v>1272</v>
       </c>
       <c r="BC19" t="s">
-        <v>1283</v>
+        <v>1273</v>
       </c>
       <c r="BD19" t="s">
-        <v>1298</v>
+        <v>1288</v>
       </c>
       <c r="BE19" t="s">
-        <v>1325</v>
+        <v>1315</v>
       </c>
       <c r="BF19" t="s">
-        <v>1298</v>
+        <v>1288</v>
       </c>
       <c r="BG19" t="s">
-        <v>1336</v>
+        <v>1326</v>
       </c>
       <c r="BH19" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="BI19" t="s">
-        <v>1368</v>
+        <v>1358</v>
       </c>
       <c r="BJ19" t="s">
-        <v>1369</v>
+        <v>1359</v>
       </c>
       <c r="BK19" t="s">
-        <v>1397</v>
+        <v>1387</v>
       </c>
       <c r="BL19" t="s">
-        <v>1398</v>
+        <v>1388</v>
       </c>
       <c r="BM19" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="BN19" t="s">
-        <v>1424</v>
+        <v>1414</v>
       </c>
       <c r="BO19" t="s">
-        <v>1439</v>
+        <v>1429</v>
       </c>
       <c r="BP19" t="s">
-        <v>1451</v>
+        <v>1441</v>
       </c>
       <c r="BQ19" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
       <c r="BR19" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
       <c r="BS19" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="BT19" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="BU19" t="s">
-        <v>1573</v>
+        <v>1563</v>
       </c>
       <c r="BV19" t="s">
-        <v>1602</v>
+        <v>1592</v>
       </c>
       <c r="BW19" t="s">
-        <v>1603</v>
+        <v>1593</v>
       </c>
       <c r="BX19" t="s">
-        <v>1615</v>
+        <v>1605</v>
       </c>
       <c r="BY19" t="s">
-        <v>1631</v>
+        <v>1621</v>
       </c>
       <c r="BZ19" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="20" spans="1:78" x14ac:dyDescent="0.2">
@@ -12509,37 +12497,37 @@
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1818</v>
+        <v>1808</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1984</v>
+        <v>1974</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1985</v>
+        <v>1975</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>1654</v>
+        <v>1644</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>1711</v>
+        <v>1701</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>1712</v>
+        <v>1702</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>2108</v>
+        <v>2098</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>2109</v>
+        <v>2099</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>2219</v>
+        <v>2209</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>2293</v>
+        <v>2283</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>2294</v>
+        <v>2284</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -12547,10 +12535,10 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2" t="s">
-        <v>1871</v>
+        <v>1861</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>1872</v>
+        <v>1862</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -12586,37 +12574,37 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1819</v>
+        <v>1809</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1986</v>
+        <v>1976</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1987</v>
+        <v>1977</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1655</v>
+        <v>1645</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>1713</v>
+        <v>1703</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>1714</v>
+        <v>1704</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>2110</v>
+        <v>2100</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>2111</v>
+        <v>2101</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>2220</v>
+        <v>2210</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>2291</v>
+        <v>2281</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>2292</v>
+        <v>2282</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -12624,10 +12612,10 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2" t="s">
-        <v>1873</v>
+        <v>1863</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>1874</v>
+        <v>1864</v>
       </c>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -12663,37 +12651,37 @@
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1823</v>
+        <v>1813</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1988</v>
+        <v>1978</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1989</v>
+        <v>1979</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1656</v>
+        <v>1646</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>1715</v>
+        <v>1705</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>1716</v>
+        <v>1706</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>2112</v>
+        <v>2102</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>2113</v>
+        <v>2103</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>2221</v>
+        <v>2211</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>2289</v>
+        <v>2279</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>2290</v>
+        <v>2280</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -12701,10 +12689,10 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2" t="s">
-        <v>1875</v>
+        <v>1865</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>1876</v>
+        <v>1866</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -12740,37 +12728,37 @@
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1822</v>
+        <v>1812</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1991</v>
+        <v>1981</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1657</v>
+        <v>1647</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>1717</v>
+        <v>1707</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>1718</v>
+        <v>1708</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>2114</v>
+        <v>2104</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>2115</v>
+        <v>2105</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>2222</v>
+        <v>2212</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>2287</v>
+        <v>2277</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>2288</v>
+        <v>2278</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -12778,10 +12766,10 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2" t="s">
-        <v>1877</v>
+        <v>1867</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>1718</v>
+        <v>1708</v>
       </c>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -12817,37 +12805,37 @@
         <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1820</v>
+        <v>1810</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1992</v>
+        <v>1982</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1993</v>
+        <v>1983</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1658</v>
+        <v>1648</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>1719</v>
+        <v>1709</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>1720</v>
+        <v>1710</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>2116</v>
+        <v>2106</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>2223</v>
+        <v>2213</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>2285</v>
+        <v>2275</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>2286</v>
+        <v>2276</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -12855,10 +12843,10 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2" t="s">
-        <v>1878</v>
+        <v>1868</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>1879</v>
+        <v>1869</v>
       </c>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -12894,37 +12882,37 @@
         <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1821</v>
+        <v>1811</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1994</v>
+        <v>1984</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1995</v>
+        <v>1985</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1659</v>
+        <v>1649</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>1721</v>
+        <v>1711</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>1722</v>
+        <v>1712</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>2118</v>
+        <v>2108</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>2119</v>
+        <v>2109</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>2224</v>
+        <v>2214</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>2283</v>
+        <v>2273</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>2284</v>
+        <v>2274</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -12932,10 +12920,10 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2" t="s">
-        <v>1880</v>
+        <v>1870</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>1881</v>
+        <v>1871</v>
       </c>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -12971,37 +12959,37 @@
         <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1824</v>
+        <v>1814</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1998</v>
+        <v>1988</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1999</v>
+        <v>1989</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1660</v>
+        <v>1650</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>1723</v>
+        <v>1713</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>1724</v>
+        <v>1714</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>2225</v>
+        <v>2215</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>2281</v>
+        <v>2271</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>2282</v>
+        <v>2272</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -13009,10 +12997,10 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2" t="s">
-        <v>1882</v>
+        <v>1872</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>1883</v>
+        <v>1873</v>
       </c>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -13048,37 +13036,37 @@
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1825</v>
+        <v>1815</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>2001</v>
+        <v>1991</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1661</v>
+        <v>1651</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>1725</v>
+        <v>1715</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>1726</v>
+        <v>1716</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>2123</v>
+        <v>2113</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>2226</v>
+        <v>2216</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>2279</v>
+        <v>2269</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>2280</v>
+        <v>2270</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -13086,10 +13074,10 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2" t="s">
-        <v>1884</v>
+        <v>1874</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>1885</v>
+        <v>1875</v>
       </c>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -13122,40 +13110,40 @@
     </row>
     <row r="28" spans="1:78" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1251</v>
+        <v>1241</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1826</v>
+        <v>1816</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>2002</v>
+        <v>1992</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>2003</v>
+        <v>1993</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1662</v>
+        <v>1652</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>1727</v>
+        <v>1717</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>1728</v>
+        <v>1718</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>2124</v>
+        <v>2114</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>2125</v>
+        <v>2115</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>2227</v>
+        <v>2217</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>2278</v>
+        <v>2268</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>2277</v>
+        <v>2267</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -13163,10 +13151,10 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2" t="s">
-        <v>1886</v>
+        <v>1876</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -13199,40 +13187,40 @@
     </row>
     <row r="29" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1956</v>
+        <v>1946</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1983</v>
+        <v>1973</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>2004</v>
+        <v>1994</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>2005</v>
+        <v>1995</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>1981</v>
+        <v>1971</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>1982</v>
+        <v>1972</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>2126</v>
+        <v>2116</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>2127</v>
+        <v>2117</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>2218</v>
+        <v>2208</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>2275</v>
+        <v>2265</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>2276</v>
+        <v>2266</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -13240,10 +13228,10 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2" t="s">
-        <v>1957</v>
+        <v>1947</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>1958</v>
+        <v>1948</v>
       </c>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -13279,37 +13267,37 @@
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1827</v>
+        <v>1817</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>2006</v>
+        <v>1996</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>2007</v>
+        <v>1997</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1663</v>
+        <v>1653</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1729</v>
+        <v>1719</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1730</v>
+        <v>1720</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>2128</v>
+        <v>2118</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>2129</v>
+        <v>2119</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>2229</v>
+        <v>2219</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>2297</v>
+        <v>2287</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>2298</v>
+        <v>2288</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -13317,10 +13305,10 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2" t="s">
-        <v>1888</v>
+        <v>1878</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>1889</v>
+        <v>1879</v>
       </c>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
@@ -13356,37 +13344,37 @@
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1828</v>
+        <v>1818</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1664</v>
+        <v>1654</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>1731</v>
+        <v>1721</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>2130</v>
+        <v>2120</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>2131</v>
+        <v>2121</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>2230</v>
+        <v>2220</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>2301</v>
+        <v>2291</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>2302</v>
+        <v>2292</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -13394,10 +13382,10 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2" t="s">
-        <v>1891</v>
+        <v>1881</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>1890</v>
+        <v>1880</v>
       </c>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
@@ -13433,37 +13421,37 @@
         <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1829</v>
+        <v>1819</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>2016</v>
+        <v>2006</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1665</v>
+        <v>1655</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>1733</v>
+        <v>1723</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>1734</v>
+        <v>1724</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>2132</v>
+        <v>2122</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>2133</v>
+        <v>2123</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>2231</v>
+        <v>2221</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>2299</v>
+        <v>2289</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>2300</v>
+        <v>2290</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -13471,10 +13459,10 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2" t="s">
-        <v>1892</v>
+        <v>1882</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>1893</v>
+        <v>1883</v>
       </c>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
@@ -13510,37 +13498,37 @@
         <v>11</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1830</v>
+        <v>1820</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>2017</v>
+        <v>2007</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>1666</v>
+        <v>1656</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>1735</v>
+        <v>1725</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>1736</v>
+        <v>1726</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>2134</v>
+        <v>2124</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>2135</v>
+        <v>2125</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>2232</v>
+        <v>2222</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>2303</v>
+        <v>2293</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>2304</v>
+        <v>2294</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -13548,10 +13536,10 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2" t="s">
-        <v>1894</v>
+        <v>1884</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>1895</v>
+        <v>1885</v>
       </c>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
@@ -13587,37 +13575,37 @@
         <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1831</v>
+        <v>1821</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1667</v>
+        <v>1657</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>1737</v>
+        <v>1727</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>1738</v>
+        <v>1728</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>2136</v>
+        <v>2126</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>2137</v>
+        <v>2127</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>2233</v>
+        <v>2223</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>2305</v>
+        <v>2295</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>2340</v>
+        <v>2330</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -13625,10 +13613,10 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2" t="s">
-        <v>1896</v>
+        <v>1886</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>1897</v>
+        <v>1887</v>
       </c>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
@@ -13664,37 +13652,37 @@
         <v>13</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1832</v>
+        <v>1822</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>2022</v>
+        <v>2012</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1668</v>
+        <v>1658</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>1739</v>
+        <v>1729</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>1740</v>
+        <v>1730</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>2138</v>
+        <v>2128</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>2139</v>
+        <v>2129</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>2234</v>
+        <v>2224</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>2306</v>
+        <v>2296</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>2307</v>
+        <v>2297</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -13702,10 +13690,10 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2" t="s">
-        <v>1898</v>
+        <v>1888</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>1899</v>
+        <v>1889</v>
       </c>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
@@ -13738,40 +13726,40 @@
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1250</v>
+        <v>1240</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1833</v>
+        <v>1823</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2024</v>
+        <v>2014</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1669</v>
+        <v>1659</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>1741</v>
+        <v>1731</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>1742</v>
+        <v>1732</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>2140</v>
+        <v>2130</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>2141</v>
+        <v>2131</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>2235</v>
+        <v>2225</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>2308</v>
+        <v>2298</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>2309</v>
+        <v>2299</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -13779,10 +13767,10 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2" t="s">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>1901</v>
+        <v>1891</v>
       </c>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
@@ -13818,37 +13806,37 @@
         <v>502</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1834</v>
+        <v>1824</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>2025</v>
+        <v>2015</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>2026</v>
+        <v>2016</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1670</v>
+        <v>1660</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>1743</v>
+        <v>1733</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>1744</v>
+        <v>1734</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>2142</v>
+        <v>2132</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>2143</v>
+        <v>2133</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>2236</v>
+        <v>2226</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>2311</v>
+        <v>2301</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -13856,10 +13844,10 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2" t="s">
-        <v>1902</v>
+        <v>1892</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>1903</v>
+        <v>1893</v>
       </c>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
@@ -13895,37 +13883,37 @@
         <v>14</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1835</v>
+        <v>1825</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>2027</v>
+        <v>2017</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>2028</v>
+        <v>2018</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1671</v>
+        <v>1661</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>1745</v>
+        <v>1735</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>1746</v>
+        <v>1736</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>2144</v>
+        <v>2134</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>2145</v>
+        <v>2135</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>2237</v>
+        <v>2227</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>2312</v>
+        <v>2302</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>2313</v>
+        <v>2303</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -13933,10 +13921,10 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2" t="s">
-        <v>1904</v>
+        <v>1894</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>1905</v>
+        <v>1895</v>
       </c>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
@@ -13972,37 +13960,37 @@
         <v>15</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1836</v>
+        <v>1826</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>2029</v>
+        <v>2019</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>1672</v>
+        <v>1662</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>1747</v>
+        <v>1737</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>1748</v>
+        <v>1738</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>2146</v>
+        <v>2136</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>2147</v>
+        <v>2137</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>2228</v>
+        <v>2218</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>2295</v>
+        <v>2285</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>2296</v>
+        <v>2286</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -14010,10 +13998,10 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2" t="s">
-        <v>1907</v>
+        <v>1897</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>1906</v>
+        <v>1896</v>
       </c>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
@@ -14049,37 +14037,37 @@
         <v>16</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1837</v>
+        <v>1827</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>2031</v>
+        <v>2021</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>2032</v>
+        <v>2022</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1673</v>
+        <v>1663</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>1749</v>
+        <v>1739</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>1750</v>
+        <v>1740</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>2148</v>
+        <v>2138</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>2149</v>
+        <v>2139</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>2239</v>
+        <v>2229</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>2316</v>
+        <v>2306</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>2317</v>
+        <v>2307</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -14087,10 +14075,10 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2" t="s">
-        <v>1908</v>
+        <v>1898</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>1909</v>
+        <v>1899</v>
       </c>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
@@ -14126,37 +14114,37 @@
         <v>17</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1838</v>
+        <v>1828</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>2033</v>
+        <v>2023</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>2034</v>
+        <v>2024</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>1674</v>
+        <v>1664</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>1751</v>
+        <v>1741</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>1752</v>
+        <v>1742</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>2150</v>
+        <v>2140</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>2151</v>
+        <v>2141</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>2240</v>
+        <v>2230</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>2318</v>
+        <v>2308</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>2319</v>
+        <v>2309</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -14164,10 +14152,10 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2" t="s">
-        <v>1910</v>
+        <v>1900</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>1911</v>
+        <v>1901</v>
       </c>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
@@ -14203,37 +14191,37 @@
         <v>18</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1839</v>
+        <v>1829</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>2035</v>
+        <v>2025</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>2036</v>
+        <v>2026</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>1675</v>
+        <v>1665</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>1753</v>
+        <v>1743</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>1754</v>
+        <v>1744</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>2152</v>
+        <v>2142</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>2153</v>
+        <v>2143</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>2241</v>
+        <v>2231</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -14241,10 +14229,10 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2" t="s">
-        <v>1912</v>
+        <v>1902</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>1913</v>
+        <v>1903</v>
       </c>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
@@ -14280,37 +14268,37 @@
         <v>490</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1840</v>
+        <v>1830</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>2038</v>
+        <v>2028</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>2037</v>
+        <v>2027</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>1676</v>
+        <v>1666</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>1755</v>
+        <v>1745</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>1756</v>
+        <v>1746</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>2154</v>
+        <v>2144</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>2155</v>
+        <v>2145</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>2242</v>
+        <v>2232</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>2322</v>
+        <v>2312</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>2323</v>
+        <v>2313</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -14318,10 +14306,10 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2" t="s">
-        <v>1914</v>
+        <v>1904</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>1915</v>
+        <v>1905</v>
       </c>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
@@ -14357,37 +14345,37 @@
         <v>19</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1841</v>
+        <v>1831</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>2039</v>
+        <v>2029</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>1677</v>
+        <v>1667</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>1757</v>
+        <v>1747</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>2156</v>
+        <v>2146</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>2157</v>
+        <v>2147</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>2243</v>
+        <v>2233</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>2326</v>
+        <v>2316</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>2327</v>
+        <v>2317</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -14395,10 +14383,10 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2" t="s">
-        <v>1916</v>
+        <v>1906</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>1917</v>
+        <v>1907</v>
       </c>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
@@ -14431,40 +14419,40 @@
     </row>
     <row r="45" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1678</v>
+        <v>1668</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1842</v>
+        <v>1832</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>2041</v>
+        <v>2031</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>2042</v>
+        <v>2032</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>1679</v>
+        <v>1669</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>2158</v>
+        <v>2148</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>2159</v>
+        <v>2149</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>2244</v>
+        <v>2234</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>2324</v>
+        <v>2314</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>2325</v>
+        <v>2315</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -14472,10 +14460,10 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2" t="s">
-        <v>1918</v>
+        <v>1908</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>1919</v>
+        <v>1909</v>
       </c>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
@@ -14511,37 +14499,37 @@
         <v>20</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1843</v>
+        <v>1833</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>2045</v>
+        <v>2035</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>2046</v>
+        <v>2036</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>1680</v>
+        <v>1670</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>1762</v>
+        <v>1752</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>2160</v>
+        <v>2150</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>2161</v>
+        <v>2151</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>2245</v>
+        <v>2235</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>2328</v>
+        <v>2318</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>2329</v>
+        <v>2319</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -14549,10 +14537,10 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2" t="s">
-        <v>1920</v>
+        <v>1910</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>1921</v>
+        <v>1911</v>
       </c>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
@@ -14588,37 +14576,37 @@
         <v>21</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1844</v>
+        <v>1834</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>2047</v>
+        <v>2037</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>2048</v>
+        <v>2038</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>1681</v>
+        <v>1671</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>1764</v>
+        <v>1754</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>2162</v>
+        <v>2152</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>2163</v>
+        <v>2153</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>2246</v>
+        <v>2236</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>2330</v>
+        <v>2320</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>2331</v>
+        <v>2321</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -14626,10 +14614,10 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2" t="s">
-        <v>1922</v>
+        <v>1912</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>1923</v>
+        <v>1913</v>
       </c>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
@@ -14662,40 +14650,40 @@
     </row>
     <row r="48" spans="1:47" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1845</v>
+        <v>1835</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>2049</v>
+        <v>2039</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>1682</v>
+        <v>1672</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>1766</v>
+        <v>1756</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>2164</v>
+        <v>2154</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>2165</v>
+        <v>2155</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>2247</v>
+        <v>2237</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>2332</v>
+        <v>2322</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>2333</v>
+        <v>2323</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -14703,10 +14691,10 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="3" t="s">
-        <v>1924</v>
+        <v>1914</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>1925</v>
+        <v>1915</v>
       </c>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
@@ -14742,37 +14730,37 @@
         <v>22</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1846</v>
+        <v>1836</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>2051</v>
+        <v>2041</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>2052</v>
+        <v>2042</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>1683</v>
+        <v>1673</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>1767</v>
+        <v>1757</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>1768</v>
+        <v>1758</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>2167</v>
+        <v>2157</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>2166</v>
+        <v>2156</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>2238</v>
+        <v>2228</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>2314</v>
+        <v>2304</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>2315</v>
+        <v>2305</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -14780,10 +14768,10 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2" t="s">
-        <v>1926</v>
+        <v>1916</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>1927</v>
+        <v>1917</v>
       </c>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
@@ -14819,37 +14807,37 @@
         <v>23</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1847</v>
+        <v>1837</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>2053</v>
+        <v>2043</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>2054</v>
+        <v>2044</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>1684</v>
+        <v>1674</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>1769</v>
+        <v>1759</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>1770</v>
+        <v>1760</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>2168</v>
+        <v>2158</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>2169</v>
+        <v>2159</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>2249</v>
+        <v>2239</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>2336</v>
+        <v>2326</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>2337</v>
+        <v>2327</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -14857,10 +14845,10 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2" t="s">
-        <v>1928</v>
+        <v>1918</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>1929</v>
+        <v>1919</v>
       </c>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
@@ -14893,40 +14881,40 @@
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1685</v>
+        <v>1675</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1848</v>
+        <v>1838</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>2055</v>
+        <v>2045</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>2056</v>
+        <v>2046</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>1686</v>
+        <v>1676</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>1772</v>
+        <v>1762</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>1771</v>
+        <v>1761</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>2170</v>
+        <v>2160</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>2171</v>
+        <v>2161</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>2250</v>
+        <v>2240</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>2338</v>
+        <v>2328</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>2339</v>
+        <v>2329</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -14934,10 +14922,10 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2" t="s">
-        <v>1930</v>
+        <v>1920</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>1931</v>
+        <v>1921</v>
       </c>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
@@ -14973,37 +14961,37 @@
         <v>24</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1849</v>
+        <v>1839</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>2057</v>
+        <v>2047</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>2058</v>
+        <v>2048</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>1687</v>
+        <v>1677</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>1773</v>
+        <v>1763</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>1774</v>
+        <v>1764</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>2172</v>
+        <v>2162</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>2173</v>
+        <v>2163</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>2251</v>
+        <v>2241</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>2342</v>
+        <v>2332</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>2341</v>
+        <v>2331</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -15011,10 +14999,10 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2" t="s">
-        <v>1932</v>
+        <v>1922</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>1933</v>
+        <v>1923</v>
       </c>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
@@ -15047,40 +15035,40 @@
     </row>
     <row r="53" spans="1:47" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1688</v>
+        <v>1678</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1850</v>
+        <v>1840</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>2059</v>
+        <v>2049</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>2060</v>
+        <v>2050</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>1689</v>
+        <v>1679</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>1775</v>
+        <v>1765</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>1776</v>
+        <v>1766</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>2174</v>
+        <v>2164</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>2175</v>
+        <v>2165</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>2252</v>
+        <v>2242</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>2343</v>
+        <v>2333</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>2344</v>
+        <v>2334</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -15088,10 +15076,10 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="3" t="s">
-        <v>1934</v>
+        <v>1924</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>1935</v>
+        <v>1925</v>
       </c>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
@@ -15127,37 +15115,37 @@
         <v>25</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1851</v>
+        <v>1841</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>2061</v>
+        <v>2051</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>2062</v>
+        <v>2052</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>1690</v>
+        <v>1680</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>1777</v>
+        <v>1767</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>1778</v>
+        <v>1768</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>2176</v>
+        <v>2166</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>2177</v>
+        <v>2167</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>2253</v>
+        <v>2243</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>2345</v>
+        <v>2335</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>2346</v>
+        <v>2336</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -15165,10 +15153,10 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2" t="s">
-        <v>1936</v>
+        <v>1926</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>1937</v>
+        <v>1927</v>
       </c>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
@@ -15204,37 +15192,37 @@
         <v>491</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1852</v>
+        <v>1842</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>2063</v>
+        <v>2053</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>2064</v>
+        <v>2054</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>1691</v>
+        <v>1681</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>1779</v>
+        <v>1769</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>1780</v>
+        <v>1770</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>2178</v>
+        <v>2168</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>2179</v>
+        <v>2169</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>2254</v>
+        <v>2244</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>2347</v>
+        <v>2337</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>2348</v>
+        <v>2338</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -15242,10 +15230,10 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2" t="s">
-        <v>1938</v>
+        <v>1928</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>1939</v>
+        <v>1929</v>
       </c>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
@@ -15281,37 +15269,37 @@
         <v>26</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1853</v>
+        <v>1843</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>2065</v>
+        <v>2055</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>2066</v>
+        <v>2056</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>1692</v>
+        <v>1682</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>1781</v>
+        <v>1771</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>1782</v>
+        <v>1772</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>2180</v>
+        <v>2170</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>2181</v>
+        <v>2171</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>2255</v>
+        <v>2245</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>2351</v>
+        <v>2341</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>2352</v>
+        <v>2342</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -15319,10 +15307,10 @@
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2" t="s">
-        <v>1940</v>
+        <v>1930</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>1941</v>
+        <v>1931</v>
       </c>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
@@ -15358,37 +15346,37 @@
         <v>27</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1854</v>
+        <v>1844</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>2067</v>
+        <v>2057</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>2068</v>
+        <v>2058</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>1693</v>
+        <v>1683</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>1783</v>
+        <v>1773</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>1784</v>
+        <v>1774</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>2182</v>
+        <v>2172</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>2183</v>
+        <v>2173</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>2256</v>
+        <v>2246</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>2349</v>
+        <v>2339</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>2350</v>
+        <v>2340</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -15396,10 +15384,10 @@
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2" t="s">
-        <v>1942</v>
+        <v>1932</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>1943</v>
+        <v>1933</v>
       </c>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
@@ -15435,37 +15423,37 @@
         <v>28</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1855</v>
+        <v>1845</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>2069</v>
+        <v>2059</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>2070</v>
+        <v>2060</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>1785</v>
+        <v>1775</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>1786</v>
+        <v>1776</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>2184</v>
+        <v>2174</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>2185</v>
+        <v>2175</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>2257</v>
+        <v>2247</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>2353</v>
+        <v>2343</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>2354</v>
+        <v>2344</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -15473,10 +15461,10 @@
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2" t="s">
-        <v>1944</v>
+        <v>1934</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>1945</v>
+        <v>1935</v>
       </c>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
@@ -15512,37 +15500,37 @@
         <v>29</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1856</v>
+        <v>1846</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>2071</v>
+        <v>2061</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>2072</v>
+        <v>2062</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>1787</v>
+        <v>1777</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>1788</v>
+        <v>1778</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>2186</v>
+        <v>2176</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>2187</v>
+        <v>2177</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>2248</v>
+        <v>2238</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>2334</v>
+        <v>2324</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>2335</v>
+        <v>2325</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -15550,10 +15538,10 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2" t="s">
-        <v>1946</v>
+        <v>1936</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>1947</v>
+        <v>1937</v>
       </c>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
@@ -15589,37 +15577,37 @@
         <v>30</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1857</v>
+        <v>1847</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>2073</v>
+        <v>2063</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>2074</v>
+        <v>2064</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>1789</v>
+        <v>1779</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>1790</v>
+        <v>1780</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>2188</v>
+        <v>2178</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>2189</v>
+        <v>2179</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>2260</v>
+        <v>2250</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>2358</v>
+        <v>2348</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>2357</v>
+        <v>2347</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -15627,10 +15615,10 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2" t="s">
-        <v>1948</v>
+        <v>1938</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>1949</v>
+        <v>1939</v>
       </c>
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
@@ -15666,37 +15654,37 @@
         <v>31</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1858</v>
+        <v>1848</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>2075</v>
+        <v>2065</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>2076</v>
+        <v>2066</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>1697</v>
+        <v>1687</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>1792</v>
+        <v>1782</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>1791</v>
+        <v>1781</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>2190</v>
+        <v>2180</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>2191</v>
+        <v>2181</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>2261</v>
+        <v>2251</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>2359</v>
+        <v>2349</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>2360</v>
+        <v>2350</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -15704,10 +15692,10 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="3" t="s">
-        <v>1950</v>
+        <v>1940</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>1951</v>
+        <v>1941</v>
       </c>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
@@ -15743,37 +15731,37 @@
         <v>32</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1859</v>
+        <v>1849</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>2077</v>
+        <v>2067</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>2078</v>
+        <v>2068</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>1698</v>
+        <v>1688</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>1793</v>
+        <v>1783</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>1794</v>
+        <v>1784</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>2192</v>
+        <v>2182</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>2193</v>
+        <v>2183</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>2262</v>
+        <v>2252</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>2361</v>
+        <v>2351</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>2362</v>
+        <v>2352</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -15781,10 +15769,10 @@
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2" t="s">
-        <v>1952</v>
+        <v>1942</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>1953</v>
+        <v>1943</v>
       </c>
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
@@ -15817,40 +15805,40 @@
     </row>
     <row r="63" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>2264</v>
+        <v>2254</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1860</v>
+        <v>1850</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>2079</v>
+        <v>2069</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>2080</v>
+        <v>2070</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>1699</v>
+        <v>1689</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>1795</v>
+        <v>1785</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>1796</v>
+        <v>1786</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>2194</v>
+        <v>2184</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>2195</v>
+        <v>2185</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>2263</v>
+        <v>2253</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>2363</v>
+        <v>2353</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>2364</v>
+        <v>2354</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -15858,10 +15846,10 @@
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2" t="s">
-        <v>1954</v>
+        <v>1944</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>1955</v>
+        <v>1945</v>
       </c>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
@@ -15897,37 +15885,37 @@
         <v>33</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1861</v>
+        <v>1851</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>2081</v>
+        <v>2071</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>2082</v>
+        <v>2072</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>1700</v>
+        <v>1690</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>1798</v>
+        <v>1788</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>1797</v>
+        <v>1787</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>2196</v>
+        <v>2186</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>2197</v>
+        <v>2187</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>2265</v>
+        <v>2255</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>2365</v>
+        <v>2355</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>2366</v>
+        <v>2356</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -15935,10 +15923,10 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2" t="s">
-        <v>1959</v>
+        <v>1949</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>1960</v>
+        <v>1950</v>
       </c>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
@@ -15974,37 +15962,37 @@
         <v>34</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1862</v>
+        <v>1852</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>2083</v>
+        <v>2073</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>2084</v>
+        <v>2074</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>1701</v>
+        <v>1691</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>1799</v>
+        <v>1789</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>1800</v>
+        <v>1790</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>2198</v>
+        <v>2188</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>2199</v>
+        <v>2189</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>2266</v>
+        <v>2256</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>2369</v>
+        <v>2359</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>2370</v>
+        <v>2360</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -16012,10 +16000,10 @@
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2" t="s">
-        <v>1961</v>
+        <v>1951</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>1962</v>
+        <v>1952</v>
       </c>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
@@ -16051,37 +16039,37 @@
         <v>35</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1863</v>
+        <v>1853</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>2085</v>
+        <v>2075</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>2086</v>
+        <v>2076</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>1702</v>
+        <v>1692</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>1801</v>
+        <v>1791</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>1802</v>
+        <v>1792</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>2200</v>
+        <v>2190</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>2201</v>
+        <v>2191</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>2267</v>
+        <v>2257</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>2367</v>
+        <v>2357</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>2368</v>
+        <v>2358</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -16089,10 +16077,10 @@
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2" t="s">
-        <v>1963</v>
+        <v>1953</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>1964</v>
+        <v>1954</v>
       </c>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
@@ -16128,37 +16116,37 @@
         <v>36</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1864</v>
+        <v>1854</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>2092</v>
+        <v>2082</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>2093</v>
+        <v>2083</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>1703</v>
+        <v>1693</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>1803</v>
+        <v>1793</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>1804</v>
+        <v>1794</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>2202</v>
+        <v>2192</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>2203</v>
+        <v>2193</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>2268</v>
+        <v>2258</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>2355</v>
+        <v>2345</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>2356</v>
+        <v>2346</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -16166,10 +16154,10 @@
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2" t="s">
-        <v>1965</v>
+        <v>1955</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>1966</v>
+        <v>1956</v>
       </c>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
@@ -16205,37 +16193,37 @@
         <v>37</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1865</v>
+        <v>1855</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>2094</v>
+        <v>2084</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>2095</v>
+        <v>2085</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>1805</v>
+        <v>1795</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>1806</v>
+        <v>1796</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>2204</v>
+        <v>2194</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>2205</v>
+        <v>2195</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>2269</v>
+        <v>2259</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>2371</v>
+        <v>2361</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>2372</v>
+        <v>2362</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -16243,10 +16231,10 @@
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2" t="s">
-        <v>1967</v>
+        <v>1957</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>1968</v>
+        <v>1958</v>
       </c>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
@@ -16279,40 +16267,40 @@
     </row>
     <row r="69" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>2259</v>
+        <v>2249</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>2096</v>
+        <v>2086</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>2097</v>
+        <v>2087</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>1817</v>
+        <v>1807</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>1807</v>
+        <v>1797</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>1808</v>
+        <v>1798</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>2206</v>
+        <v>2196</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>2207</v>
+        <v>2197</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>2258</v>
+        <v>2248</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>2373</v>
+        <v>2363</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>2374</v>
+        <v>2364</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -16320,10 +16308,10 @@
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="2" t="s">
-        <v>1969</v>
+        <v>1959</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
@@ -16359,37 +16347,37 @@
         <v>38</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1866</v>
+        <v>1856</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>2098</v>
+        <v>2088</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>2099</v>
+        <v>2089</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1705</v>
+        <v>1695</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>1809</v>
+        <v>1799</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>1810</v>
+        <v>1800</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>2208</v>
+        <v>2198</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>2209</v>
+        <v>2199</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>2270</v>
+        <v>2260</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>2375</v>
+        <v>2365</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>2376</v>
+        <v>2366</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -16397,10 +16385,10 @@
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="2" t="s">
-        <v>1971</v>
+        <v>1961</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>1972</v>
+        <v>1962</v>
       </c>
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
@@ -16436,37 +16424,37 @@
         <v>39</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1867</v>
+        <v>1857</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>2100</v>
+        <v>2090</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>2101</v>
+        <v>2091</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>2210</v>
+        <v>2200</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>2211</v>
+        <v>2201</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>2271</v>
+        <v>2261</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>2377</v>
+        <v>2367</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>2378</v>
+        <v>2368</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -16474,10 +16462,10 @@
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
@@ -16510,40 +16498,40 @@
     </row>
     <row r="72" spans="1:47" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1973</v>
+        <v>1963</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1868</v>
+        <v>1858</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>2102</v>
+        <v>2092</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>2103</v>
+        <v>2093</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1707</v>
+        <v>1697</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>1811</v>
+        <v>1801</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>1812</v>
+        <v>1802</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>2212</v>
+        <v>2202</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>2213</v>
+        <v>2203</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>2272</v>
+        <v>2262</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>2379</v>
+        <v>2369</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>2380</v>
+        <v>2370</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -16551,10 +16539,10 @@
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
       <c r="R72" s="2" t="s">
-        <v>1974</v>
+        <v>1964</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>1975</v>
+        <v>1965</v>
       </c>
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
@@ -16590,37 +16578,37 @@
         <v>40</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1869</v>
+        <v>1859</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>2104</v>
+        <v>2094</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>2105</v>
+        <v>2095</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>1708</v>
+        <v>1698</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>1813</v>
+        <v>1803</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>1814</v>
+        <v>1804</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>2214</v>
+        <v>2204</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>2215</v>
+        <v>2205</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>2273</v>
+        <v>2263</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>2381</v>
+        <v>2371</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>2382</v>
+        <v>2372</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -16628,10 +16616,10 @@
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="2" t="s">
-        <v>1976</v>
+        <v>1966</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>1977</v>
+        <v>1967</v>
       </c>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
@@ -16667,37 +16655,37 @@
         <v>41</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1870</v>
+        <v>1860</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>2106</v>
+        <v>2096</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>2107</v>
+        <v>2097</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>1709</v>
+        <v>1699</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>1815</v>
+        <v>1805</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>1816</v>
+        <v>1806</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>2216</v>
+        <v>2206</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>2217</v>
+        <v>2207</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>2274</v>
+        <v>2264</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>2383</v>
+        <v>2373</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>2384</v>
+        <v>2374</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -16705,10 +16693,10 @@
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="2" t="s">
-        <v>1978</v>
+        <v>1968</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>1979</v>
+        <v>1969</v>
       </c>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
@@ -16796,17 +16784,17 @@
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>2009</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>2012</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
@@ -16981,19 +16969,19 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="B123" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="E123" t="s">
         <v>497</v>
       </c>
       <c r="F123" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G123" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -17068,7 +17056,7 @@
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>2088</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
@@ -17088,7 +17076,7 @@
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>2044</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
@@ -17108,7 +17096,7 @@
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
@@ -17243,7 +17231,7 @@
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>2087</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
@@ -17338,7 +17326,7 @@
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1652</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
@@ -17393,7 +17381,7 @@
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>2010</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
@@ -17413,7 +17401,7 @@
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
@@ -17463,7 +17451,7 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1653</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
@@ -17633,7 +17621,7 @@
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1710</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
@@ -17668,7 +17656,7 @@
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
@@ -17748,7 +17736,7 @@
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>2011</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
@@ -17783,7 +17771,7 @@
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>2043</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
@@ -18023,7 +18011,7 @@
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1651</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
@@ -18108,7 +18096,7 @@
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>1419</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
@@ -18253,7 +18241,7 @@
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>2008</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
@@ -18273,7 +18261,7 @@
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>1997</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
@@ -18308,7 +18296,7 @@
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
@@ -18393,7 +18381,7 @@
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.2">
@@ -18723,7 +18711,7 @@
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>1649</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
@@ -18738,7 +18726,7 @@
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>2090</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
@@ -18768,7 +18756,7 @@
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>2089</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
@@ -18888,7 +18876,7 @@
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>2091</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
@@ -18933,7 +18921,7 @@
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>1996</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.2">
@@ -18963,7 +18951,7 @@
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>1650</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.2">

--- a/historical/data/data_strict.xlsx
+++ b/historical/data/data_strict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B413E6-6250-9545-A3FE-0DEBDA16A7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C1FF57-C2C7-BD45-9639-A54775E2029F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46320" yWindow="-3100" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46300" yWindow="-3100" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="2399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="2397">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -2248,24 +2248,15 @@
     <t>βέλος</t>
   </si>
   <si>
-    <t>φλαμουριά</t>
-  </si>
-  <si>
     <t>elm</t>
   </si>
   <si>
     <t>ντροπιασμένος</t>
   </si>
   <si>
-    <t>παρακαλώ, ζητώ</t>
-  </si>
-  <si>
     <t>φθινόπωρο</t>
   </si>
   <si>
-    <t>αφυπνίζω</t>
-  </si>
-  <si>
     <t>GkTr</t>
   </si>
   <si>
@@ -2290,19 +2281,10 @@
     <t>velos</t>
   </si>
   <si>
-    <t>flamouria</t>
-  </si>
-  <si>
     <t>ndropiasmenos</t>
   </si>
   <si>
-    <t>parakalo, zito</t>
-  </si>
-  <si>
     <t>fthinoporo</t>
-  </si>
-  <si>
-    <t>afypnizo</t>
   </si>
   <si>
     <t>Gujarati</t>
@@ -7242,6 +7224,18 @@
   </si>
   <si>
     <t>ashun</t>
+  </si>
+  <si>
+    <t>ρωτήσω, ζητώ</t>
+  </si>
+  <si>
+    <t>rotíso, zito</t>
+  </si>
+  <si>
+    <t>ξυπνήσει, αφυπνίζω, ξυπνώ</t>
+  </si>
+  <si>
+    <t>xypnísei, afypnizo, xypnó</t>
   </si>
 </sst>
 </file>
@@ -8105,7 +8099,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8117,7 +8111,7 @@
     <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31.5" customWidth="1"/>
@@ -8211,16 +8205,16 @@
         <v>730</v>
       </c>
       <c r="I1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="J1" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="K1" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="L1" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="M1" t="s">
         <v>566</v>
@@ -8262,154 +8256,154 @@
         <v>717</v>
       </c>
       <c r="Z1" t="s">
+        <v>751</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>752</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>753</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>754</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>755</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>756</v>
+      </c>
+      <c r="AF1" t="s">
         <v>757</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AG1" t="s">
         <v>758</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AH1" t="s">
         <v>759</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AI1" t="s">
+        <v>962</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>760</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AK1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AL1" t="s">
         <v>761</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AM1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AN1" t="s">
         <v>762</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AO1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AP1" t="s">
         <v>763</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AQ1" t="s">
         <v>764</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AR1" t="s">
         <v>765</v>
       </c>
-      <c r="AI1" t="s">
-        <v>968</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="AS1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AT1" t="s">
         <v>766</v>
       </c>
-      <c r="AK1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>767</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="AN1" t="s">
+      <c r="AU1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AX1" t="s">
         <v>768</v>
       </c>
-      <c r="AO1" t="s">
-        <v>1060</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>769</v>
-      </c>
-      <c r="AQ1" t="s">
+      <c r="AZ1" t="s">
         <v>770</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="BA1" t="s">
         <v>771</v>
       </c>
-      <c r="AS1" t="s">
-        <v>1109</v>
-      </c>
-      <c r="AT1" t="s">
+      <c r="BB1" t="s">
         <v>772</v>
       </c>
-      <c r="AU1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="AX1" t="s">
+      <c r="BC1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>773</v>
+      </c>
+      <c r="BE1" t="s">
         <v>774</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BF1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>775</v>
+      </c>
+      <c r="BH1" t="s">
         <v>776</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BI1" t="s">
         <v>777</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BJ1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="BK1" t="s">
         <v>778</v>
       </c>
-      <c r="BC1" t="s">
-        <v>1249</v>
-      </c>
-      <c r="BD1" t="s">
+      <c r="BL1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="BM1" t="s">
         <v>779</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BN1" t="s">
         <v>780</v>
       </c>
-      <c r="BF1" t="s">
-        <v>1289</v>
-      </c>
-      <c r="BG1" t="s">
+      <c r="BO1" t="s">
         <v>781</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BP1" t="s">
         <v>782</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BQ1" t="s">
         <v>783</v>
       </c>
-      <c r="BJ1" t="s">
-        <v>1339</v>
-      </c>
-      <c r="BK1" t="s">
+      <c r="BR1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="BS1" t="s">
         <v>784</v>
       </c>
-      <c r="BL1" t="s">
-        <v>1361</v>
-      </c>
-      <c r="BM1" t="s">
+      <c r="BT1" t="s">
         <v>785</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BU1" t="s">
         <v>786</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BV1" t="s">
         <v>787</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BW1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="BX1" t="s">
         <v>788</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BY1" t="s">
         <v>789</v>
       </c>
-      <c r="BR1" t="s">
-        <v>1442</v>
-      </c>
-      <c r="BS1" t="s">
+      <c r="BZ1" t="s">
         <v>790</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>791</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>792</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>793</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>1565</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>794</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>795</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="2" spans="1:78" x14ac:dyDescent="0.2">
@@ -8434,10 +8428,10 @@
       <c r="G2" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>488</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -8516,7 +8510,7 @@
         <v>488</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>488</v>
@@ -8528,7 +8522,7 @@
         <v>488</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="AN2" s="2" t="s">
         <v>488</v>
@@ -8641,223 +8635,223 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>1500</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2382</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>1493</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>1507</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>1508</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>1506</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>1507</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>2388</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>1498</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>1499</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="AD3" s="2" t="s">
         <v>1513</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>1514</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>1536</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>1534</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>1516</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>1503</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>1504</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>1505</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>1501</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>1502</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>1503</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>1508</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>1509</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>1510</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>1511</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>1512</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>1515</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>1516</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>1517</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>1518</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>1519</v>
       </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="AN3" s="2" t="s">
         <v>1520</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>1521</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>1522</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>1523</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>1524</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>1525</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>1526</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>1527</v>
       </c>
-      <c r="AP3" s="2" t="s">
-        <v>1528</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AX3" t="s">
         <v>1529</v>
       </c>
-      <c r="AR3" s="2" t="s">
-        <v>1530</v>
-      </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AZ3" t="s">
         <v>1531</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="BA3" t="s">
         <v>1532</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="BB3" t="s">
         <v>1533</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="BC3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="BD3" t="s">
         <v>1535</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BE3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="BF3" t="s">
         <v>1537</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BG3" t="s">
         <v>1538</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BH3" t="s">
         <v>1539</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BI3" t="s">
         <v>1540</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BJ3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>960</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>960</v>
+      </c>
+      <c r="BM3" t="s">
         <v>1541</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BN3" t="s">
         <v>1542</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BO3" t="s">
         <v>1543</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BP3" t="s">
         <v>1544</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BQ3" t="s">
         <v>1545</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BR3" t="s">
         <v>1546</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>1503</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>966</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>966</v>
-      </c>
-      <c r="BM3" t="s">
+      <c r="BS3" t="s">
         <v>1547</v>
       </c>
-      <c r="BN3" t="s">
-        <v>1548</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>1549</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>1550</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>1551</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>1552</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>1553</v>
-      </c>
       <c r="BT3" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="BU3" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="BV3" t="s">
-        <v>1567</v>
+        <v>1561</v>
       </c>
       <c r="BW3" t="s">
-        <v>1568</v>
+        <v>1562</v>
       </c>
       <c r="BX3" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="BY3" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="BZ3" t="s">
-        <v>1622</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="4" spans="1:78" x14ac:dyDescent="0.2">
@@ -8882,26 +8876,26 @@
       <c r="G4" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>745</v>
+      <c r="I4" s="4" t="s">
+        <v>742</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>595</v>
@@ -8928,7 +8922,7 @@
         <v>677</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="X4" s="2" t="s">
         <v>704</v>
@@ -8937,154 +8931,154 @@
         <v>718</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="AK4" s="2" t="s">
         <v>473</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="AO4" s="2" t="s">
         <v>473</v>
       </c>
       <c r="AP4" s="2" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="AQ4" s="2" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="AT4" s="2" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="AU4" s="2" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="AX4" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="AZ4" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="BA4" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="BB4" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="BC4" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="BD4" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="BE4" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="BF4" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="BG4" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="BH4" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="BI4" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="BJ4" t="s">
         <v>595</v>
       </c>
       <c r="BK4" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="BL4" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="BM4" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="BN4" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="BO4" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="BP4" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="BQ4" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="BR4" t="s">
         <v>473</v>
       </c>
       <c r="BS4" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="BT4" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="BU4" t="s">
         <v>473</v>
       </c>
       <c r="BV4" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="BW4" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="BX4" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="BY4" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
       <c r="BZ4" t="s">
-        <v>1623</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="5" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9092,16 +9086,16 @@
         <v>474</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2375</v>
+        <v>2369</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>2378</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>2384</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>503</v>
@@ -9109,20 +9103,20 @@
       <c r="G5" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>748</v>
+      <c r="I5" s="4" t="s">
+        <v>745</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>568</v>
@@ -9131,7 +9125,7 @@
         <v>569</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>613</v>
@@ -9146,16 +9140,16 @@
         <v>541</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="V5" s="2" t="s">
         <v>678</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="X5" s="2" t="s">
         <v>705</v>
@@ -9164,154 +9158,154 @@
         <v>719</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="AS5" s="2" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="AT5" s="2" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="AU5" s="2" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="AX5" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="AZ5" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="BA5" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="BB5" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="BC5" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="BD5" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="BE5" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="BF5" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="BG5" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="BH5" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="BI5" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="BJ5" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="BK5" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="BL5" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="BM5" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="BN5" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="BO5" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="BP5" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="BQ5" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="BR5" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="BS5" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="BT5" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
       <c r="BU5" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="BV5" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
       <c r="BW5" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="BX5" t="s">
-        <v>1594</v>
+        <v>1588</v>
       </c>
       <c r="BY5" t="s">
-        <v>1608</v>
+        <v>1602</v>
       </c>
       <c r="BZ5" t="s">
-        <v>1624</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="6" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9328,28 +9322,28 @@
         <v>644</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>966</v>
-      </c>
-      <c r="H6" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>746</v>
+      <c r="I6" s="4" t="s">
+        <v>743</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>570</v>
@@ -9391,154 +9385,154 @@
         <v>720</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="AG6" s="2" t="s">
         <v>706</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="AN6" s="2" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="AP6" s="2" t="s">
         <v>475</v>
       </c>
       <c r="AQ6" s="2" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="AR6" s="3" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="AS6" s="2" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="AT6" s="2" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="AU6" s="2" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="AX6" t="s">
         <v>679</v>
       </c>
       <c r="AZ6" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="BA6" t="s">
         <v>475</v>
       </c>
       <c r="BB6" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="BC6" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="BD6" t="s">
         <v>475</v>
       </c>
       <c r="BE6" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="BF6" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="BG6" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="BH6" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="BI6" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="BJ6" t="s">
         <v>596</v>
       </c>
       <c r="BK6" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="BL6" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="BM6" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="BN6" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="BO6" t="s">
         <v>475</v>
       </c>
       <c r="BP6" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="BQ6" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="BR6" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="BS6" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="BT6" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="BU6" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="BV6" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
       <c r="BW6" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="BX6" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="BY6" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
       <c r="BZ6" t="s">
-        <v>1625</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="7" spans="1:78" x14ac:dyDescent="0.2">
@@ -9549,34 +9543,34 @@
         <v>525</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>2373</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>2379</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>2385</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>492</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>2393</v>
+        <v>2387</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>2394</v>
-      </c>
-      <c r="H7" s="2" t="s">
+        <v>2388</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>747</v>
+      <c r="I7" s="4" t="s">
+        <v>744</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>572</v>
@@ -9603,169 +9597,169 @@
         <v>657</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>680</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>707</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="AE7" s="2" t="s">
         <v>680</v>
       </c>
       <c r="AF7" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="AG7" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="AG7" s="2" t="s">
-        <v>935</v>
-      </c>
       <c r="AH7" s="2" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="AQ7" s="2" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="AS7" s="2" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="AT7" s="2" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="AU7" s="2" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="AX7" t="s">
         <v>680</v>
       </c>
       <c r="AZ7" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="BA7" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="BB7" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="BC7" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="BD7" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="BE7" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="BF7" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="BG7" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="BH7" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="BI7" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="BJ7" t="s">
         <v>657</v>
       </c>
       <c r="BK7" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="BL7" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="BM7" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="BN7" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="BO7" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="BP7" t="s">
         <v>680</v>
       </c>
       <c r="BQ7" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
       <c r="BR7" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="BS7" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="BT7" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="BU7" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="BV7" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="BW7" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="BX7" t="s">
-        <v>1596</v>
+        <v>1590</v>
       </c>
       <c r="BY7" t="s">
-        <v>1610</v>
+        <v>1604</v>
       </c>
       <c r="BZ7" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="8" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9790,20 +9784,20 @@
       <c r="G8" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>900</v>
+      <c r="H8" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>894</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>574</v>
@@ -9845,154 +9839,154 @@
         <v>721</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="AO8" s="2" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="AQ8" s="2" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="AR8" s="2" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="AT8" s="2" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="AX8" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="AZ8" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="BA8" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="BB8" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="BC8" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="BD8" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="BE8" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="BF8" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="BG8" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="BH8" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="BI8" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="BJ8" t="s">
         <v>598</v>
       </c>
       <c r="BK8" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="BL8" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="BM8" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="BN8" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="BO8" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="BP8" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="BQ8" s="1" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="BR8" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="BS8" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="BT8" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="BU8" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="BV8" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="BW8" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="BX8" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
       <c r="BY8" t="s">
-        <v>1611</v>
+        <v>1605</v>
       </c>
       <c r="BZ8" t="s">
-        <v>1627</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="9" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10003,13 +9997,13 @@
         <v>527</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>507</v>
@@ -10017,20 +10011,20 @@
       <c r="G9" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>749</v>
+      <c r="I9" s="4" t="s">
+        <v>746</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>576</v>
@@ -10072,154 +10066,154 @@
         <v>722</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="AH9" s="3" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="AI9" s="2" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="AJ9" s="2" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="AK9" s="2" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="AL9" s="2" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="AM9" s="2" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="AN9" s="2" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="AO9" s="2" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="AP9" s="2" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="AQ9" s="2" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="AR9" s="2" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="AS9" s="2" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="AT9" s="2" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="AU9" s="2" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="AX9" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="AZ9" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="BA9" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="BB9" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="BC9" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="BD9" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="BE9" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="BF9" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="BG9" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="BH9" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="BI9" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="BJ9" t="s">
         <v>599</v>
       </c>
       <c r="BK9" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="BL9" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="BM9" t="s">
         <v>667</v>
       </c>
       <c r="BN9" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="BO9" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="BP9" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="BQ9" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="BR9" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="BS9" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="BT9" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="BU9" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="BV9" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="BW9" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="BX9" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="BY9" t="s">
-        <v>1612</v>
+        <v>1606</v>
       </c>
       <c r="BZ9" t="s">
-        <v>1628</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.2">
@@ -10227,7 +10221,7 @@
         <v>479</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2376</v>
+        <v>2370</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>647</v>
@@ -10236,7 +10230,7 @@
         <v>648</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>2389</v>
+        <v>2383</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>509</v>
@@ -10244,20 +10238,20 @@
       <c r="G10" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>750</v>
+      <c r="I10" s="4" t="s">
+        <v>747</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>578</v>
@@ -10299,88 +10293,88 @@
         <v>723</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="AI10" s="2" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="AL10" s="2" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="AM10" s="2" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="AN10" s="2" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="AO10" s="2" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="AP10" s="2" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="AQ10" s="2" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="AR10" s="2" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="AS10" s="2" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="AT10" s="2" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="AU10" s="2" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="AX10" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="AZ10" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="BA10" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="BB10" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="BC10" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="BD10" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="BE10" t="s">
         <v>551</v>
@@ -10389,49 +10383,49 @@
         <v>552</v>
       </c>
       <c r="BG10" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="BH10" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="BI10" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="BJ10" t="s">
         <v>600</v>
       </c>
       <c r="BK10" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="BL10" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="BM10" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="BN10" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="BO10" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="BP10" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="BQ10" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="BR10" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="BS10" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="BT10" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="BU10" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="BV10" t="s">
         <v>551</v>
@@ -10440,13 +10434,13 @@
         <v>552</v>
       </c>
       <c r="BX10" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="BY10" t="s">
-        <v>1613</v>
+        <v>1607</v>
       </c>
       <c r="BZ10" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="11" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10457,10 +10451,10 @@
         <v>528</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>494</v>
@@ -10471,20 +10465,20 @@
       <c r="G11" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>751</v>
+      <c r="I11" s="4" t="s">
+        <v>748</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>580</v>
@@ -10502,7 +10496,7 @@
         <v>626</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>626</v>
@@ -10526,154 +10520,154 @@
         <v>724</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="AA11" s="2" t="s">
         <v>581</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="AH11" s="2" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="AI11" s="2" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="AM11" s="2" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="AN11" s="2" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="AO11" s="2" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="AP11" s="2" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="AQ11" s="2" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="AR11" s="2" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="AS11" s="2" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="AT11" s="2" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="AU11" s="2" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="AX11" t="s">
         <v>683</v>
       </c>
       <c r="AZ11" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="BA11" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="BB11" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="BC11" t="s">
         <v>581</v>
       </c>
       <c r="BD11" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="BE11" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="BF11" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="BG11" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="BH11" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="BI11" s="1" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="BJ11" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="BK11" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="BL11" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="BM11" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="BN11" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="BO11" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="BP11" t="s">
         <v>683</v>
       </c>
       <c r="BQ11" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="BR11" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="BS11" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="BT11" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="BU11" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="BV11" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="BW11" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="BX11" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
       <c r="BY11" t="s">
-        <v>1614</v>
+        <v>1608</v>
       </c>
       <c r="BZ11" t="s">
-        <v>1630</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.2">
@@ -10684,40 +10678,40 @@
         <v>529</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>2380</v>
+        <v>2374</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>2381</v>
+        <v>2375</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>966</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>752</v>
+        <v>960</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>960</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>601</v>
@@ -10741,7 +10735,7 @@
         <v>670</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="W12" s="2" t="s">
         <v>695</v>
@@ -10753,139 +10747,139 @@
         <v>725</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="AH12" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="AI12" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="AK12" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="AL12" s="2" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="AM12" s="2" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="AN12" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="AO12" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="AP12" s="2" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="AQ12" s="2" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="AR12" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="AS12" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="AT12" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="AU12" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="AX12" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="AZ12" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="BA12" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="BB12" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="BC12" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="BD12" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="BE12" t="s">
         <v>553</v>
       </c>
       <c r="BF12" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="BG12" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="BH12" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="BI12" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="BJ12" t="s">
         <v>601</v>
       </c>
       <c r="BK12" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="BL12" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="BM12" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="BN12" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="BO12" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="BP12" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
       <c r="BQ12" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="BR12" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="BS12" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="BT12" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="BU12" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="BV12" t="s">
         <v>627</v>
@@ -10894,13 +10888,13 @@
         <v>628</v>
       </c>
       <c r="BX12" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="BY12" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="BZ12" t="s">
-        <v>1631</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="13" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10911,13 +10905,13 @@
         <v>530</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>2390</v>
+        <v>2384</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>512</v>
@@ -10925,20 +10919,20 @@
       <c r="G13" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>902</v>
+      <c r="H13" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>896</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>584</v>
@@ -10956,10 +10950,10 @@
         <v>632</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>605</v>
@@ -10980,154 +10974,154 @@
         <v>727</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="AH13" s="2" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="AI13" s="2" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="AJ13" s="2" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="AK13" s="2" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="AL13" s="2" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="AM13" s="2" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="AN13" s="2" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="AO13" s="2" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="AP13" s="2" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="AQ13" s="2" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="AR13" s="3" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="AS13" s="2" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="AT13" s="2" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="AU13" s="2" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="AX13" t="s">
         <v>685</v>
       </c>
       <c r="AZ13" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="BA13" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="BB13" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="BC13" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="BD13" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="BE13" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="BF13" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="BG13" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="BH13" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="BI13" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="BJ13" t="s">
         <v>605</v>
       </c>
       <c r="BK13" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="BL13" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="BM13" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="BN13" t="s">
         <v>632</v>
       </c>
       <c r="BO13" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="BP13" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="BQ13" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="BR13" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
       <c r="BS13" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="BT13" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="BU13" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="BV13" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
       <c r="BW13" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="BX13" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="BY13" t="s">
-        <v>1615</v>
+        <v>1609</v>
       </c>
       <c r="BZ13" t="s">
-        <v>1632</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="14" spans="1:78" ht="34" x14ac:dyDescent="0.2">
@@ -11135,7 +11129,7 @@
         <v>481</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2377</v>
+        <v>2371</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>650</v>
@@ -11147,22 +11141,22 @@
         <v>493</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>2395</v>
+        <v>2389</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>2396</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>753</v>
+        <v>2390</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>749</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>583</v>
@@ -11183,10 +11177,10 @@
         <v>630</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>660</v>
@@ -11207,154 +11201,154 @@
         <v>726</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="AH14" s="3" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="AI14" s="2" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="AJ14" s="2" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="AK14" s="2" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="AL14" s="2" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="AM14" s="2" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="AN14" s="2" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="AO14" s="2" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="AP14" s="2" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="AQ14" s="2" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="AR14" s="3" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="AS14" s="2" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="AT14" s="2" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="AU14" s="2" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="AX14" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="AZ14" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="BA14" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="BB14" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="BC14" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="BD14" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="BE14" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="BF14" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="BG14" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="BH14" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="BI14" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="BJ14" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="BK14" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="BL14" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="BM14" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="BN14" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="BO14" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="BP14" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="BQ14" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="BR14" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="BS14" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="BT14" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="BU14" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="BV14" s="1" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
       <c r="BW14" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="BX14" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
       <c r="BY14" t="s">
-        <v>1616</v>
+        <v>1610</v>
       </c>
       <c r="BZ14" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="15" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -11365,13 +11359,13 @@
         <v>531</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>2382</v>
+        <v>2376</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>2383</v>
+        <v>2377</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>2391</v>
+        <v>2385</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>514</v>
@@ -11379,20 +11373,20 @@
       <c r="G15" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>754</v>
+      <c r="H15" s="4" t="s">
+        <v>2393</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>2394</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>586</v>
@@ -11401,25 +11395,25 @@
         <v>587</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="V15" s="2" t="s">
         <v>686</v>
@@ -11431,162 +11425,162 @@
         <v>715</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="AI15" s="2" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="AJ15" s="2" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="AK15" s="2" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="AL15" s="2" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="AM15" s="2" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="AN15" s="2" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="AO15" s="2" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="AP15" s="2" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="AQ15" s="2" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="AR15" s="3" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="AS15" s="2" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="AT15" s="2" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="AU15" s="2" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="AX15" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="AZ15" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="BA15" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="BB15" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="BC15" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="BD15" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="BE15" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="BF15" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="BG15" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="BH15" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="BI15" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="BJ15" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
       <c r="BK15" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="BL15" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="BM15" s="1" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="BN15" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="BO15" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="BP15" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="BQ15" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="BR15" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="BS15" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="BT15" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="BU15" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="BV15" t="s">
-        <v>1585</v>
+        <v>1579</v>
       </c>
       <c r="BW15" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="BX15" t="s">
-        <v>1602</v>
+        <v>1596</v>
       </c>
       <c r="BY15" t="s">
-        <v>1617</v>
+        <v>1611</v>
       </c>
       <c r="BZ15" t="s">
-        <v>1634</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>533</v>
@@ -11601,25 +11595,25 @@
         <v>498</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>2397</v>
+        <v>2391</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>2398</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>755</v>
+        <v>2392</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>750</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>588</v>
@@ -11658,157 +11652,157 @@
         <v>716</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="AH16" s="2" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="AI16" s="2" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="AJ16" s="2" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="AK16" s="2" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="AL16" s="2" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="AM16" s="2" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="AN16" s="2" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="AO16" s="2" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="AP16" s="2" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="AQ16" s="2" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="AR16" s="2" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="AS16" s="2" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="AT16" s="2" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="AU16" s="2" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="AX16" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="AZ16" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="BA16" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="BB16" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="BC16" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="BD16" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="BE16" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="BF16" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="BG16" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="BH16" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="BI16" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="BJ16" t="s">
         <v>606</v>
       </c>
       <c r="BK16" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
       <c r="BL16" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="BM16" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="BN16" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="BO16" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="BP16" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
       <c r="BQ16" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="BR16" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="BS16" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
       <c r="BT16" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="BU16" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="BV16" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
       <c r="BW16" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="BX16" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
       <c r="BY16" t="s">
-        <v>1618</v>
+        <v>1612</v>
       </c>
       <c r="BZ16" t="s">
-        <v>1635</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="17" spans="1:78" x14ac:dyDescent="0.2">
@@ -11825,7 +11819,7 @@
         <v>654</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>2392</v>
+        <v>2386</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>518</v>
@@ -11833,20 +11827,20 @@
       <c r="G17" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>756</v>
+      <c r="H17" s="4" t="s">
+        <v>2395</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>2396</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>590</v>
@@ -11858,10 +11852,10 @@
         <v>607</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>558</v>
@@ -11888,381 +11882,381 @@
         <v>728</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="AF17" s="2" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="AH17" s="2" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="AI17" s="2" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="AJ17" s="2" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="AK17" s="2" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="AL17" s="2" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="AM17" s="2" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="AN17" s="2" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="AO17" s="2" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="AP17" s="2" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="AQ17" s="2" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="AR17" s="2" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="AS17" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AT17" s="2" t="s">
         <v>1134</v>
       </c>
-      <c r="AT17" s="2" t="s">
-        <v>1140</v>
-      </c>
       <c r="AU17" s="2" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="AX17" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="AZ17" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="BA17" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="BB17" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="BC17" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="BD17" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="BE17" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="BF17" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="BG17" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="BH17" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="BI17" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="BJ17" t="s">
         <v>661</v>
       </c>
       <c r="BK17" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="BL17" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="BM17" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="BN17" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="BO17" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="BP17" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="BQ17" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="BR17" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
       <c r="BS17" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="BT17" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="BU17" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="BV17" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
       <c r="BW17" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="BX17" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="BY17" t="s">
-        <v>1619</v>
+        <v>1613</v>
       </c>
       <c r="BZ17" t="s">
-        <v>1636</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="18" spans="1:78" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>941</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>2380</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>2381</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>947</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>966</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>2386</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>2387</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>966</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>966</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>966</v>
-      </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="T18" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="U18" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="AF18" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="AG18" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="AH18" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="AI18" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="AJ18" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="AL18" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AN18" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="AO18" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="AP18" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AR18" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="AS18" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="AT18" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="AU18" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>943</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>1224</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>1241</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>960</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>960</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>1281</v>
+      </c>
+      <c r="BE18" t="s">
         <v>954</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>1214</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>962</v>
-      </c>
-      <c r="P18" s="2" t="s">
+      <c r="BF18" t="s">
+        <v>955</v>
+      </c>
+      <c r="BG18" t="s">
         <v>960</v>
       </c>
-      <c r="Q18" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>964</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>959</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>949</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>957</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>956</v>
-      </c>
-      <c r="Y18" s="2" t="s">
-        <v>955</v>
-      </c>
-      <c r="Z18" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="AB18" s="2" t="s">
-        <v>951</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="AD18" s="2" t="s">
-        <v>950</v>
-      </c>
-      <c r="AE18" s="2" t="s">
-        <v>949</v>
-      </c>
-      <c r="AF18" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="AG18" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="AH18" s="2" t="s">
-        <v>995</v>
-      </c>
-      <c r="AI18" s="2" t="s">
-        <v>996</v>
-      </c>
-      <c r="AJ18" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="AK18" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="AL18" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="AM18" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="AN18" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="AO18" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="AP18" s="2" t="s">
-        <v>1091</v>
-      </c>
-      <c r="AQ18" s="2" t="s">
-        <v>1092</v>
-      </c>
-      <c r="AR18" s="3" t="s">
-        <v>966</v>
-      </c>
-      <c r="AS18" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="AT18" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="AU18" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>949</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>1230</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>1247</v>
-      </c>
-      <c r="BB18" t="s">
-        <v>966</v>
-      </c>
-      <c r="BC18" t="s">
-        <v>966</v>
-      </c>
-      <c r="BD18" t="s">
-        <v>1287</v>
-      </c>
-      <c r="BE18" t="s">
+      <c r="BH18" t="s">
         <v>960</v>
       </c>
-      <c r="BF18" t="s">
-        <v>961</v>
-      </c>
-      <c r="BG18" t="s">
-        <v>966</v>
-      </c>
-      <c r="BH18" t="s">
-        <v>966</v>
-      </c>
       <c r="BI18" t="s">
+        <v>954</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>953</v>
+      </c>
+      <c r="BK18" t="s">
         <v>960</v>
       </c>
-      <c r="BJ18" t="s">
-        <v>959</v>
-      </c>
-      <c r="BK18" t="s">
-        <v>966</v>
-      </c>
       <c r="BL18" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="BM18" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
       <c r="BN18" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="BO18" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="BP18" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="BQ18" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="BR18" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="BS18" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="BT18" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="BU18" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="BV18" t="s">
+        <v>954</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>1585</v>
+      </c>
+      <c r="BX18" t="s">
         <v>960</v>
       </c>
-      <c r="BW18" t="s">
-        <v>1591</v>
-      </c>
-      <c r="BX18" t="s">
-        <v>966</v>
-      </c>
       <c r="BY18" s="1" t="s">
-        <v>1620</v>
+        <v>1614</v>
       </c>
       <c r="BZ18" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="19" spans="1:78" x14ac:dyDescent="0.2">
@@ -12279,7 +12273,7 @@
         <v>639</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>520</v>
@@ -12287,20 +12281,20 @@
       <c r="G19" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>903</v>
+      <c r="H19" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>897</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>592</v>
@@ -12342,154 +12336,154 @@
         <v>729</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="AF19" s="2" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="AG19" s="2" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="AH19" s="2" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="AI19" s="2" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="AJ19" s="2" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="AK19" s="2" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="AL19" s="2" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="AM19" s="2" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="AN19" s="2" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="AO19" s="2" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="AP19" s="2" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="AQ19" s="2" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="AR19" s="2" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="AS19" s="2" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="AT19" s="2" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="AU19" s="2" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="AX19" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="AZ19" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="BA19" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="BB19" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="BC19" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="BD19" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="BE19" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="BF19" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="BG19" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="BH19" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="BI19" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="BJ19" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="BK19" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="BL19" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="BM19" t="s">
         <v>663</v>
       </c>
       <c r="BN19" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="BO19" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="BP19" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="BQ19" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
       <c r="BR19" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="BS19" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="BT19" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="BU19" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
       <c r="BV19" t="s">
-        <v>1592</v>
+        <v>1586</v>
       </c>
       <c r="BW19" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
       <c r="BX19" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
       <c r="BY19" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
       <c r="BZ19" t="s">
-        <v>1638</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="20" spans="1:78" x14ac:dyDescent="0.2">
@@ -12497,37 +12491,37 @@
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1808</v>
+        <v>1802</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1974</v>
+        <v>1968</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1975</v>
+        <v>1969</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>1644</v>
+        <v>1638</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>1701</v>
+        <v>1695</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>2098</v>
+        <v>2092</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>2099</v>
+        <v>2093</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>2209</v>
+        <v>2203</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>2283</v>
+        <v>2277</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>2284</v>
+        <v>2278</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -12535,10 +12529,10 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2" t="s">
-        <v>1861</v>
+        <v>1855</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>1862</v>
+        <v>1856</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -12574,37 +12568,37 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1809</v>
+        <v>1803</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1976</v>
+        <v>1970</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1977</v>
+        <v>1971</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1645</v>
+        <v>1639</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>1703</v>
+        <v>1697</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>1704</v>
+        <v>1698</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>2100</v>
+        <v>2094</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>2101</v>
+        <v>2095</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>2210</v>
+        <v>2204</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>2281</v>
+        <v>2275</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>2282</v>
+        <v>2276</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -12612,10 +12606,10 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2" t="s">
-        <v>1863</v>
+        <v>1857</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>1864</v>
+        <v>1858</v>
       </c>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -12651,37 +12645,37 @@
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1813</v>
+        <v>1807</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1978</v>
+        <v>1972</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1979</v>
+        <v>1973</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>1705</v>
+        <v>1699</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>2102</v>
+        <v>2096</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>2103</v>
+        <v>2097</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>2211</v>
+        <v>2205</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>2279</v>
+        <v>2273</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>2280</v>
+        <v>2274</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -12689,10 +12683,10 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2" t="s">
-        <v>1865</v>
+        <v>1859</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -12728,37 +12722,37 @@
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1812</v>
+        <v>1806</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1980</v>
+        <v>1974</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1981</v>
+        <v>1975</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>1707</v>
+        <v>1701</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>1708</v>
+        <v>1702</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>2104</v>
+        <v>2098</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>2105</v>
+        <v>2099</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>2212</v>
+        <v>2206</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>2277</v>
+        <v>2271</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>2278</v>
+        <v>2272</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -12766,10 +12760,10 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2" t="s">
-        <v>1867</v>
+        <v>1861</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>1708</v>
+        <v>1702</v>
       </c>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -12805,37 +12799,37 @@
         <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1810</v>
+        <v>1804</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1982</v>
+        <v>1976</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1983</v>
+        <v>1977</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>1709</v>
+        <v>1703</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>1710</v>
+        <v>1704</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>2106</v>
+        <v>2100</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>2107</v>
+        <v>2101</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>2213</v>
+        <v>2207</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>2275</v>
+        <v>2269</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>2276</v>
+        <v>2270</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -12843,10 +12837,10 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2" t="s">
-        <v>1868</v>
+        <v>1862</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -12882,37 +12876,37 @@
         <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1811</v>
+        <v>1805</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1984</v>
+        <v>1978</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1985</v>
+        <v>1979</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1649</v>
+        <v>1643</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>1711</v>
+        <v>1705</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>1712</v>
+        <v>1706</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>2108</v>
+        <v>2102</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>2109</v>
+        <v>2103</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>2214</v>
+        <v>2208</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>2273</v>
+        <v>2267</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>2274</v>
+        <v>2268</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -12920,10 +12914,10 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2" t="s">
-        <v>1870</v>
+        <v>1864</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -12959,37 +12953,37 @@
         <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1814</v>
+        <v>1808</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1988</v>
+        <v>1982</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1989</v>
+        <v>1983</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>1713</v>
+        <v>1707</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>1714</v>
+        <v>1708</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>2110</v>
+        <v>2104</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>2111</v>
+        <v>2105</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>2215</v>
+        <v>2209</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>2271</v>
+        <v>2265</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>2272</v>
+        <v>2266</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -12997,10 +12991,10 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2" t="s">
-        <v>1872</v>
+        <v>1866</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>1873</v>
+        <v>1867</v>
       </c>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -13036,37 +13030,37 @@
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1815</v>
+        <v>1809</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1990</v>
+        <v>1984</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1991</v>
+        <v>1985</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1651</v>
+        <v>1645</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>1715</v>
+        <v>1709</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>1716</v>
+        <v>1710</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>2112</v>
+        <v>2106</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>2113</v>
+        <v>2107</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>2216</v>
+        <v>2210</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>2269</v>
+        <v>2263</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>2270</v>
+        <v>2264</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -13074,10 +13068,10 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -13110,40 +13104,40 @@
     </row>
     <row r="28" spans="1:78" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1816</v>
+        <v>1810</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1993</v>
+        <v>1987</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1652</v>
+        <v>1646</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>1718</v>
+        <v>1712</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>2114</v>
+        <v>2108</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>2115</v>
+        <v>2109</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>2217</v>
+        <v>2211</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>2268</v>
+        <v>2262</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>2267</v>
+        <v>2261</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -13151,10 +13145,10 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -13187,40 +13181,40 @@
     </row>
     <row r="29" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1946</v>
+        <v>1940</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1973</v>
+        <v>1967</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1994</v>
+        <v>1988</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1995</v>
+        <v>1989</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1970</v>
+        <v>1964</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>1971</v>
+        <v>1965</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>2116</v>
+        <v>2110</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>2117</v>
+        <v>2111</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>2208</v>
+        <v>2202</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>2265</v>
+        <v>2259</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>2266</v>
+        <v>2260</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -13228,10 +13222,10 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2" t="s">
-        <v>1947</v>
+        <v>1941</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>1948</v>
+        <v>1942</v>
       </c>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -13267,37 +13261,37 @@
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1817</v>
+        <v>1811</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1996</v>
+        <v>1990</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1997</v>
+        <v>1991</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1719</v>
+        <v>1713</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1720</v>
+        <v>1714</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>2118</v>
+        <v>2112</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>2119</v>
+        <v>2113</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>2219</v>
+        <v>2213</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>2287</v>
+        <v>2281</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>2288</v>
+        <v>2282</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -13305,10 +13299,10 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
@@ -13344,37 +13338,37 @@
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1818</v>
+        <v>1812</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>1721</v>
+        <v>1715</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>2120</v>
+        <v>2114</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>2121</v>
+        <v>2115</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>2220</v>
+        <v>2214</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>2291</v>
+        <v>2285</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>2292</v>
+        <v>2286</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -13382,10 +13376,10 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2" t="s">
-        <v>1881</v>
+        <v>1875</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>1880</v>
+        <v>1874</v>
       </c>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
@@ -13421,37 +13415,37 @@
         <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1819</v>
+        <v>1813</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>1724</v>
+        <v>1718</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>2122</v>
+        <v>2116</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>2123</v>
+        <v>2117</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>2221</v>
+        <v>2215</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>2289</v>
+        <v>2283</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>2290</v>
+        <v>2284</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -13459,10 +13453,10 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2" t="s">
-        <v>1882</v>
+        <v>1876</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>1883</v>
+        <v>1877</v>
       </c>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
@@ -13498,37 +13492,37 @@
         <v>11</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>1656</v>
+        <v>1650</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>2124</v>
+        <v>2118</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>2125</v>
+        <v>2119</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>2222</v>
+        <v>2216</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>2293</v>
+        <v>2287</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>2294</v>
+        <v>2288</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -13536,10 +13530,10 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2" t="s">
-        <v>1884</v>
+        <v>1878</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>1885</v>
+        <v>1879</v>
       </c>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
@@ -13575,37 +13569,37 @@
         <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1821</v>
+        <v>1815</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>1727</v>
+        <v>1721</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>1728</v>
+        <v>1722</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>2126</v>
+        <v>2120</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>2127</v>
+        <v>2121</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>2223</v>
+        <v>2217</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>2295</v>
+        <v>2289</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>2330</v>
+        <v>2324</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -13613,10 +13607,10 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2" t="s">
-        <v>1886</v>
+        <v>1880</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>1887</v>
+        <v>1881</v>
       </c>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
@@ -13652,37 +13646,37 @@
         <v>13</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1822</v>
+        <v>1816</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>1730</v>
+        <v>1724</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>2128</v>
+        <v>2122</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>2129</v>
+        <v>2123</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>2224</v>
+        <v>2218</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>2296</v>
+        <v>2290</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>2297</v>
+        <v>2291</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -13690,10 +13684,10 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2" t="s">
-        <v>1888</v>
+        <v>1882</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>1889</v>
+        <v>1883</v>
       </c>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
@@ -13726,40 +13720,40 @@
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1823</v>
+        <v>1817</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>2130</v>
+        <v>2124</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>2131</v>
+        <v>2125</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>2225</v>
+        <v>2219</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>2298</v>
+        <v>2292</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>2299</v>
+        <v>2293</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -13767,10 +13761,10 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2" t="s">
-        <v>1890</v>
+        <v>1884</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>1891</v>
+        <v>1885</v>
       </c>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
@@ -13806,37 +13800,37 @@
         <v>502</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1824</v>
+        <v>1818</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1660</v>
+        <v>1654</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>2132</v>
+        <v>2126</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>2133</v>
+        <v>2127</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>2226</v>
+        <v>2220</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>2300</v>
+        <v>2294</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>2301</v>
+        <v>2295</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -13844,10 +13838,10 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2" t="s">
-        <v>1892</v>
+        <v>1886</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>1893</v>
+        <v>1887</v>
       </c>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
@@ -13883,37 +13877,37 @@
         <v>14</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1825</v>
+        <v>1819</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1661</v>
+        <v>1655</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>1736</v>
+        <v>1730</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>2134</v>
+        <v>2128</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>2135</v>
+        <v>2129</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>2227</v>
+        <v>2221</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>2302</v>
+        <v>2296</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>2303</v>
+        <v>2297</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -13921,10 +13915,10 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2" t="s">
-        <v>1894</v>
+        <v>1888</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>1895</v>
+        <v>1889</v>
       </c>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
@@ -13960,37 +13954,37 @@
         <v>15</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1826</v>
+        <v>1820</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>2136</v>
+        <v>2130</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>2137</v>
+        <v>2131</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>2218</v>
+        <v>2212</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>2285</v>
+        <v>2279</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>2286</v>
+        <v>2280</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -13998,10 +13992,10 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2" t="s">
-        <v>1897</v>
+        <v>1891</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>1896</v>
+        <v>1890</v>
       </c>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
@@ -14037,37 +14031,37 @@
         <v>16</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>2138</v>
+        <v>2132</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>2139</v>
+        <v>2133</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>2229</v>
+        <v>2223</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>2306</v>
+        <v>2300</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>2307</v>
+        <v>2301</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -14075,10 +14069,10 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2" t="s">
-        <v>1898</v>
+        <v>1892</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>1899</v>
+        <v>1893</v>
       </c>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
@@ -14114,37 +14108,37 @@
         <v>17</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1828</v>
+        <v>1822</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>2140</v>
+        <v>2134</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>2141</v>
+        <v>2135</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>2308</v>
+        <v>2302</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>2309</v>
+        <v>2303</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -14152,10 +14146,10 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2" t="s">
-        <v>1900</v>
+        <v>1894</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>1901</v>
+        <v>1895</v>
       </c>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
@@ -14191,37 +14185,37 @@
         <v>18</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1829</v>
+        <v>1823</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>2025</v>
+        <v>2019</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>2026</v>
+        <v>2020</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>1743</v>
+        <v>1737</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>2142</v>
+        <v>2136</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>2143</v>
+        <v>2137</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>2231</v>
+        <v>2225</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>2310</v>
+        <v>2304</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>2311</v>
+        <v>2305</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -14229,10 +14223,10 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2" t="s">
-        <v>1902</v>
+        <v>1896</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>1903</v>
+        <v>1897</v>
       </c>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
@@ -14268,37 +14262,37 @@
         <v>490</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1830</v>
+        <v>1824</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>2028</v>
+        <v>2022</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>2027</v>
+        <v>2021</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>1745</v>
+        <v>1739</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>1746</v>
+        <v>1740</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>2144</v>
+        <v>2138</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>2145</v>
+        <v>2139</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>2232</v>
+        <v>2226</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>2312</v>
+        <v>2306</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>2313</v>
+        <v>2307</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -14306,10 +14300,10 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2" t="s">
-        <v>1904</v>
+        <v>1898</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>1905</v>
+        <v>1899</v>
       </c>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
@@ -14345,37 +14339,37 @@
         <v>19</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1831</v>
+        <v>1825</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>2029</v>
+        <v>2023</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>2030</v>
+        <v>2024</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>1747</v>
+        <v>1741</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>2146</v>
+        <v>2140</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>2147</v>
+        <v>2141</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>2233</v>
+        <v>2227</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>2316</v>
+        <v>2310</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>2317</v>
+        <v>2311</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -14383,10 +14377,10 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2" t="s">
-        <v>1906</v>
+        <v>1900</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>1907</v>
+        <v>1901</v>
       </c>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
@@ -14419,40 +14413,40 @@
     </row>
     <row r="45" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1668</v>
+        <v>1662</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1832</v>
+        <v>1826</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>2031</v>
+        <v>2025</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>2032</v>
+        <v>2026</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>1669</v>
+        <v>1663</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>1750</v>
+        <v>1744</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>2148</v>
+        <v>2142</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>2149</v>
+        <v>2143</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>2234</v>
+        <v>2228</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>2314</v>
+        <v>2308</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>2315</v>
+        <v>2309</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -14460,10 +14454,10 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2" t="s">
-        <v>1908</v>
+        <v>1902</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>1909</v>
+        <v>1903</v>
       </c>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
@@ -14499,37 +14493,37 @@
         <v>20</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1833</v>
+        <v>1827</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>2035</v>
+        <v>2029</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>2036</v>
+        <v>2030</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>1670</v>
+        <v>1664</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>2150</v>
+        <v>2144</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>2151</v>
+        <v>2145</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>2235</v>
+        <v>2229</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>2318</v>
+        <v>2312</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>2319</v>
+        <v>2313</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -14537,10 +14531,10 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2" t="s">
-        <v>1910</v>
+        <v>1904</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>1911</v>
+        <v>1905</v>
       </c>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
@@ -14576,37 +14570,37 @@
         <v>21</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1834</v>
+        <v>1828</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>2037</v>
+        <v>2031</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>2038</v>
+        <v>2032</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>1753</v>
+        <v>1747</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>1754</v>
+        <v>1748</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>2152</v>
+        <v>2146</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>2153</v>
+        <v>2147</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>2236</v>
+        <v>2230</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>2320</v>
+        <v>2314</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>2321</v>
+        <v>2315</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -14614,10 +14608,10 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2" t="s">
-        <v>1912</v>
+        <v>1906</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>1913</v>
+        <v>1907</v>
       </c>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
@@ -14653,37 +14647,37 @@
         <v>565</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1835</v>
+        <v>1829</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>2039</v>
+        <v>2033</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>2040</v>
+        <v>2034</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>1755</v>
+        <v>1749</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>1756</v>
+        <v>1750</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>2154</v>
+        <v>2148</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>2155</v>
+        <v>2149</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>2237</v>
+        <v>2231</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>2322</v>
+        <v>2316</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>2323</v>
+        <v>2317</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -14691,10 +14685,10 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="3" t="s">
-        <v>1914</v>
+        <v>1908</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>1915</v>
+        <v>1909</v>
       </c>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
@@ -14730,37 +14724,37 @@
         <v>22</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1836</v>
+        <v>1830</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>2041</v>
+        <v>2035</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>2042</v>
+        <v>2036</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>1757</v>
+        <v>1751</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>1758</v>
+        <v>1752</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>2157</v>
+        <v>2151</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>2156</v>
+        <v>2150</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>2228</v>
+        <v>2222</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>2304</v>
+        <v>2298</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>2305</v>
+        <v>2299</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -14768,10 +14762,10 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2" t="s">
-        <v>1916</v>
+        <v>1910</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>1917</v>
+        <v>1911</v>
       </c>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
@@ -14807,37 +14801,37 @@
         <v>23</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1837</v>
+        <v>1831</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>2043</v>
+        <v>2037</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>2044</v>
+        <v>2038</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>1674</v>
+        <v>1668</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>1759</v>
+        <v>1753</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>1760</v>
+        <v>1754</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>2158</v>
+        <v>2152</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>2159</v>
+        <v>2153</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>2239</v>
+        <v>2233</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>2326</v>
+        <v>2320</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>2327</v>
+        <v>2321</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -14845,10 +14839,10 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2" t="s">
-        <v>1918</v>
+        <v>1912</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>1919</v>
+        <v>1913</v>
       </c>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
@@ -14881,40 +14875,40 @@
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1675</v>
+        <v>1669</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1838</v>
+        <v>1832</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>2045</v>
+        <v>2039</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>2046</v>
+        <v>2040</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>1761</v>
+        <v>1755</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>2160</v>
+        <v>2154</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>2161</v>
+        <v>2155</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>2240</v>
+        <v>2234</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>2328</v>
+        <v>2322</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>2329</v>
+        <v>2323</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -14922,10 +14916,10 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2" t="s">
-        <v>1920</v>
+        <v>1914</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>1921</v>
+        <v>1915</v>
       </c>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
@@ -14961,37 +14955,37 @@
         <v>24</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1839</v>
+        <v>1833</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>2047</v>
+        <v>2041</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>2048</v>
+        <v>2042</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>1763</v>
+        <v>1757</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>1764</v>
+        <v>1758</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>2162</v>
+        <v>2156</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>2163</v>
+        <v>2157</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>2241</v>
+        <v>2235</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>2332</v>
+        <v>2326</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>2331</v>
+        <v>2325</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -14999,10 +14993,10 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2" t="s">
-        <v>1922</v>
+        <v>1916</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>1923</v>
+        <v>1917</v>
       </c>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
@@ -15035,40 +15029,40 @@
     </row>
     <row r="53" spans="1:47" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1678</v>
+        <v>1672</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1840</v>
+        <v>1834</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>2049</v>
+        <v>2043</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>2050</v>
+        <v>2044</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>1679</v>
+        <v>1673</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>1765</v>
+        <v>1759</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>1766</v>
+        <v>1760</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>2164</v>
+        <v>2158</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>2165</v>
+        <v>2159</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>2242</v>
+        <v>2236</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>2333</v>
+        <v>2327</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -15076,10 +15070,10 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="3" t="s">
-        <v>1924</v>
+        <v>1918</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>1925</v>
+        <v>1919</v>
       </c>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
@@ -15115,37 +15109,37 @@
         <v>25</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1841</v>
+        <v>1835</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>2051</v>
+        <v>2045</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>2052</v>
+        <v>2046</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>1767</v>
+        <v>1761</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>1768</v>
+        <v>1762</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>2166</v>
+        <v>2160</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>2167</v>
+        <v>2161</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>2243</v>
+        <v>2237</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>2335</v>
+        <v>2329</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>2336</v>
+        <v>2330</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -15153,10 +15147,10 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2" t="s">
-        <v>1926</v>
+        <v>1920</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>1927</v>
+        <v>1921</v>
       </c>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
@@ -15192,37 +15186,37 @@
         <v>491</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1842</v>
+        <v>1836</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>2053</v>
+        <v>2047</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>2054</v>
+        <v>2048</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>1681</v>
+        <v>1675</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>1769</v>
+        <v>1763</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>1770</v>
+        <v>1764</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>2168</v>
+        <v>2162</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>2169</v>
+        <v>2163</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>2244</v>
+        <v>2238</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>2337</v>
+        <v>2331</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>2338</v>
+        <v>2332</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -15230,10 +15224,10 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2" t="s">
-        <v>1928</v>
+        <v>1922</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>1929</v>
+        <v>1923</v>
       </c>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
@@ -15269,37 +15263,37 @@
         <v>26</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1843</v>
+        <v>1837</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>2055</v>
+        <v>2049</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>2056</v>
+        <v>2050</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>1682</v>
+        <v>1676</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>1771</v>
+        <v>1765</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>1772</v>
+        <v>1766</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>2170</v>
+        <v>2164</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>2171</v>
+        <v>2165</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>2245</v>
+        <v>2239</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>2341</v>
+        <v>2335</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>2342</v>
+        <v>2336</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -15307,10 +15301,10 @@
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2" t="s">
-        <v>1930</v>
+        <v>1924</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>1931</v>
+        <v>1925</v>
       </c>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
@@ -15346,37 +15340,37 @@
         <v>27</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1844</v>
+        <v>1838</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>2057</v>
+        <v>2051</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>2058</v>
+        <v>2052</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>1683</v>
+        <v>1677</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>1773</v>
+        <v>1767</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>1774</v>
+        <v>1768</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>2172</v>
+        <v>2166</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>2173</v>
+        <v>2167</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>2246</v>
+        <v>2240</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>2339</v>
+        <v>2333</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>2340</v>
+        <v>2334</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -15384,10 +15378,10 @@
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2" t="s">
-        <v>1932</v>
+        <v>1926</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>1933</v>
+        <v>1927</v>
       </c>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
@@ -15423,37 +15417,37 @@
         <v>28</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1845</v>
+        <v>1839</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>2059</v>
+        <v>2053</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>2060</v>
+        <v>2054</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>1684</v>
+        <v>1678</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>1775</v>
+        <v>1769</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>1776</v>
+        <v>1770</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>2174</v>
+        <v>2168</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>2175</v>
+        <v>2169</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>2247</v>
+        <v>2241</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>2343</v>
+        <v>2337</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>2344</v>
+        <v>2338</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -15461,10 +15455,10 @@
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2" t="s">
-        <v>1934</v>
+        <v>1928</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>1935</v>
+        <v>1929</v>
       </c>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
@@ -15500,37 +15494,37 @@
         <v>29</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1846</v>
+        <v>1840</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>2061</v>
+        <v>2055</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>2062</v>
+        <v>2056</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>1777</v>
+        <v>1771</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>1778</v>
+        <v>1772</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>2176</v>
+        <v>2170</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>2177</v>
+        <v>2171</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>2238</v>
+        <v>2232</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>2324</v>
+        <v>2318</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>2325</v>
+        <v>2319</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -15538,10 +15532,10 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2" t="s">
-        <v>1936</v>
+        <v>1930</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>1937</v>
+        <v>1931</v>
       </c>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
@@ -15577,37 +15571,37 @@
         <v>30</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1847</v>
+        <v>1841</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>2063</v>
+        <v>2057</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>2064</v>
+        <v>2058</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>1779</v>
+        <v>1773</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>1780</v>
+        <v>1774</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>2178</v>
+        <v>2172</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>2179</v>
+        <v>2173</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>2250</v>
+        <v>2244</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>2348</v>
+        <v>2342</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>2347</v>
+        <v>2341</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -15615,10 +15609,10 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2" t="s">
-        <v>1938</v>
+        <v>1932</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>1939</v>
+        <v>1933</v>
       </c>
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
@@ -15654,37 +15648,37 @@
         <v>31</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1848</v>
+        <v>1842</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>2065</v>
+        <v>2059</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>2066</v>
+        <v>2060</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>1687</v>
+        <v>1681</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>1782</v>
+        <v>1776</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>1781</v>
+        <v>1775</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>2180</v>
+        <v>2174</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>2181</v>
+        <v>2175</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>2251</v>
+        <v>2245</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>2349</v>
+        <v>2343</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>2350</v>
+        <v>2344</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -15692,10 +15686,10 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="3" t="s">
-        <v>1940</v>
+        <v>1934</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>1941</v>
+        <v>1935</v>
       </c>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
@@ -15731,37 +15725,37 @@
         <v>32</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1849</v>
+        <v>1843</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>2067</v>
+        <v>2061</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>2068</v>
+        <v>2062</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>1688</v>
+        <v>1682</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>1783</v>
+        <v>1777</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>1784</v>
+        <v>1778</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>2182</v>
+        <v>2176</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>2183</v>
+        <v>2177</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>2252</v>
+        <v>2246</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>2351</v>
+        <v>2345</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>2352</v>
+        <v>2346</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -15769,10 +15763,10 @@
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2" t="s">
-        <v>1942</v>
+        <v>1936</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>1943</v>
+        <v>1937</v>
       </c>
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
@@ -15805,40 +15799,40 @@
     </row>
     <row r="63" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>2254</v>
+        <v>2248</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1850</v>
+        <v>1844</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>2069</v>
+        <v>2063</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>2070</v>
+        <v>2064</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>1689</v>
+        <v>1683</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>1785</v>
+        <v>1779</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>1786</v>
+        <v>1780</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>2184</v>
+        <v>2178</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>2185</v>
+        <v>2179</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>2253</v>
+        <v>2247</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>2353</v>
+        <v>2347</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -15846,10 +15840,10 @@
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2" t="s">
-        <v>1944</v>
+        <v>1938</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>1945</v>
+        <v>1939</v>
       </c>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
@@ -15885,37 +15879,37 @@
         <v>33</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1851</v>
+        <v>1845</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>2071</v>
+        <v>2065</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>2072</v>
+        <v>2066</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>1788</v>
+        <v>1782</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>1787</v>
+        <v>1781</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>2186</v>
+        <v>2180</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>2187</v>
+        <v>2181</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>2255</v>
+        <v>2249</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>2355</v>
+        <v>2349</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>2356</v>
+        <v>2350</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -15923,10 +15917,10 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2" t="s">
-        <v>1949</v>
+        <v>1943</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>1950</v>
+        <v>1944</v>
       </c>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
@@ -15962,37 +15956,37 @@
         <v>34</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1852</v>
+        <v>1846</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>2073</v>
+        <v>2067</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>2074</v>
+        <v>2068</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>1691</v>
+        <v>1685</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>1789</v>
+        <v>1783</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>1790</v>
+        <v>1784</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>2188</v>
+        <v>2182</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>2189</v>
+        <v>2183</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>2256</v>
+        <v>2250</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>2359</v>
+        <v>2353</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>2360</v>
+        <v>2354</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -16000,10 +15994,10 @@
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2" t="s">
-        <v>1951</v>
+        <v>1945</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>1952</v>
+        <v>1946</v>
       </c>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
@@ -16039,37 +16033,37 @@
         <v>35</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1853</v>
+        <v>1847</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>2075</v>
+        <v>2069</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>2076</v>
+        <v>2070</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>1692</v>
+        <v>1686</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>1791</v>
+        <v>1785</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>1792</v>
+        <v>1786</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>2190</v>
+        <v>2184</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>2191</v>
+        <v>2185</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>2257</v>
+        <v>2251</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>2357</v>
+        <v>2351</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>2358</v>
+        <v>2352</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -16077,10 +16071,10 @@
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2" t="s">
-        <v>1953</v>
+        <v>1947</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>1954</v>
+        <v>1948</v>
       </c>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
@@ -16116,37 +16110,37 @@
         <v>36</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1854</v>
+        <v>1848</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>2082</v>
+        <v>2076</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>2083</v>
+        <v>2077</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>1693</v>
+        <v>1687</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>1793</v>
+        <v>1787</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>1794</v>
+        <v>1788</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>2193</v>
+        <v>2187</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>2258</v>
+        <v>2252</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>2345</v>
+        <v>2339</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>2346</v>
+        <v>2340</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -16154,10 +16148,10 @@
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2" t="s">
-        <v>1955</v>
+        <v>1949</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>1956</v>
+        <v>1950</v>
       </c>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
@@ -16193,37 +16187,37 @@
         <v>37</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>2084</v>
+        <v>2078</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>2085</v>
+        <v>2079</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>1694</v>
+        <v>1688</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>1795</v>
+        <v>1789</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>1796</v>
+        <v>1790</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>2195</v>
+        <v>2189</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>2259</v>
+        <v>2253</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>2361</v>
+        <v>2355</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>2362</v>
+        <v>2356</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -16231,10 +16225,10 @@
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2" t="s">
-        <v>1957</v>
+        <v>1951</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>1958</v>
+        <v>1952</v>
       </c>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
@@ -16267,40 +16261,40 @@
     </row>
     <row r="69" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>2249</v>
+        <v>2243</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>2086</v>
+        <v>2080</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>2087</v>
+        <v>2081</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>1807</v>
+        <v>1801</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>1797</v>
+        <v>1791</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>1798</v>
+        <v>1792</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>2196</v>
+        <v>2190</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>2197</v>
+        <v>2191</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>2248</v>
+        <v>2242</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>2363</v>
+        <v>2357</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>2364</v>
+        <v>2358</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -16308,10 +16302,10 @@
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="2" t="s">
-        <v>1959</v>
+        <v>1953</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>1960</v>
+        <v>1954</v>
       </c>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
@@ -16347,37 +16341,37 @@
         <v>38</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>2088</v>
+        <v>2082</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1695</v>
+        <v>1689</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>1799</v>
+        <v>1793</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>1800</v>
+        <v>1794</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>2198</v>
+        <v>2192</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>2199</v>
+        <v>2193</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>2260</v>
+        <v>2254</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>2365</v>
+        <v>2359</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>2366</v>
+        <v>2360</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -16385,10 +16379,10 @@
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="2" t="s">
-        <v>1961</v>
+        <v>1955</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>1962</v>
+        <v>1956</v>
       </c>
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
@@ -16424,37 +16418,37 @@
         <v>39</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>2090</v>
+        <v>2084</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>2091</v>
+        <v>2085</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1696</v>
+        <v>1690</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>2200</v>
+        <v>2194</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>2201</v>
+        <v>2195</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>2261</v>
+        <v>2255</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>2367</v>
+        <v>2361</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>2368</v>
+        <v>2362</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -16462,10 +16456,10 @@
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
@@ -16498,40 +16492,40 @@
     </row>
     <row r="72" spans="1:47" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1963</v>
+        <v>1957</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1858</v>
+        <v>1852</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>2092</v>
+        <v>2086</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>2093</v>
+        <v>2087</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1697</v>
+        <v>1691</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>1801</v>
+        <v>1795</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>1802</v>
+        <v>1796</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>2202</v>
+        <v>2196</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>2203</v>
+        <v>2197</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>2262</v>
+        <v>2256</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>2369</v>
+        <v>2363</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>2370</v>
+        <v>2364</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -16539,10 +16533,10 @@
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
       <c r="R72" s="2" t="s">
-        <v>1964</v>
+        <v>1958</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>1965</v>
+        <v>1959</v>
       </c>
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
@@ -16578,37 +16572,37 @@
         <v>40</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1859</v>
+        <v>1853</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>2094</v>
+        <v>2088</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>2095</v>
+        <v>2089</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>1698</v>
+        <v>1692</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>1803</v>
+        <v>1797</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>1804</v>
+        <v>1798</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>2204</v>
+        <v>2198</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>2263</v>
+        <v>2257</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>2371</v>
+        <v>2365</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>2372</v>
+        <v>2366</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -16616,10 +16610,10 @@
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="2" t="s">
-        <v>1966</v>
+        <v>1960</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>1967</v>
+        <v>1961</v>
       </c>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
@@ -16655,37 +16649,37 @@
         <v>41</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1860</v>
+        <v>1854</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>2096</v>
+        <v>2090</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>2097</v>
+        <v>2091</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>1699</v>
+        <v>1693</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>1805</v>
+        <v>1799</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>1806</v>
+        <v>1800</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>2206</v>
+        <v>2200</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>2207</v>
+        <v>2201</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>2264</v>
+        <v>2258</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>2373</v>
+        <v>2367</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>2374</v>
+        <v>2368</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -16693,10 +16687,10 @@
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="2" t="s">
-        <v>1968</v>
+        <v>1962</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>1969</v>
+        <v>1963</v>
       </c>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
@@ -16789,12 +16783,12 @@
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1999</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>2002</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
@@ -17056,7 +17050,7 @@
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>2078</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
@@ -17076,7 +17070,7 @@
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>2034</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
@@ -17096,7 +17090,7 @@
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
@@ -17231,7 +17225,7 @@
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>2077</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
@@ -17326,7 +17320,7 @@
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1642</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
@@ -17381,7 +17375,7 @@
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>2000</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
@@ -17401,7 +17395,7 @@
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
@@ -17451,7 +17445,7 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1643</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
@@ -17621,7 +17615,7 @@
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1700</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
@@ -17736,7 +17730,7 @@
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>2001</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
@@ -17771,7 +17765,7 @@
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>2033</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
@@ -18011,7 +18005,7 @@
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1641</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
@@ -18096,7 +18090,7 @@
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
@@ -18241,7 +18235,7 @@
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>1998</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
@@ -18261,7 +18255,7 @@
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>1987</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
@@ -18711,7 +18705,7 @@
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>1639</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
@@ -18726,7 +18720,7 @@
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>2080</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
@@ -18756,7 +18750,7 @@
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>2079</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
@@ -18876,7 +18870,7 @@
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>2081</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
@@ -18921,7 +18915,7 @@
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>1986</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.2">
@@ -18951,7 +18945,7 @@
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>1640</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.2">

--- a/historical/data/data_strict.xlsx
+++ b/historical/data/data_strict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C1FF57-C2C7-BD45-9639-A54775E2029F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F5401A-B503-2942-85AF-E9856CD32388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46300" yWindow="-3100" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="2397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="2395">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -3658,9 +3658,6 @@
     <t>بیدار کردن</t>
   </si>
   <si>
-    <t>سوله, درفش, سوراخ کن</t>
-  </si>
-  <si>
     <t>تبر</t>
   </si>
   <si>
@@ -4622,9 +4619,6 @@
   </si>
   <si>
     <t>eikenøtt</t>
-  </si>
-  <si>
-    <t>بلوط</t>
   </si>
   <si>
     <t>żołądź</t>
@@ -8099,7 +8093,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8334,7 +8328,7 @@
         <v>772</v>
       </c>
       <c r="BC1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="BD1" t="s">
         <v>773</v>
@@ -8343,7 +8337,7 @@
         <v>774</v>
       </c>
       <c r="BF1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="BG1" t="s">
         <v>775</v>
@@ -8355,13 +8349,13 @@
         <v>777</v>
       </c>
       <c r="BJ1" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="BK1" t="s">
         <v>778</v>
       </c>
       <c r="BL1" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="BM1" t="s">
         <v>779</v>
@@ -8379,7 +8373,7 @@
         <v>783</v>
       </c>
       <c r="BR1" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="BS1" t="s">
         <v>784</v>
@@ -8394,7 +8388,7 @@
         <v>787</v>
       </c>
       <c r="BW1" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="BX1" t="s">
         <v>788</v>
@@ -8434,7 +8428,7 @@
       <c r="I2" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>488</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -8635,40 +8629,40 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>1500</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>1501</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>1491</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>1492</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>1493</v>
-      </c>
       <c r="H3" s="4" t="s">
+        <v>1506</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>1507</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>1508</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>1530</v>
+      <c r="J3" s="4" t="s">
+        <v>960</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>960</v>
@@ -8677,133 +8671,133 @@
         <v>960</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>1497</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>1498</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>1499</v>
-      </c>
       <c r="R3" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>1495</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>1496</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>1497</v>
-      </c>
       <c r="U3" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>1502</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>1503</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>1504</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>1505</v>
       </c>
-      <c r="Y3" s="2" t="s">
-        <v>1506</v>
-      </c>
       <c r="Z3" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>1509</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>1510</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>1511</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>1512</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>1513</v>
       </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="AI3" s="2" t="s">
         <v>1514</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>1515</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>1516</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>1517</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>1518</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>1519</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>1520</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>1521</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>1522</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>1523</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>1524</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>1525</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>1526</v>
       </c>
-      <c r="AU3" s="2" t="s">
-        <v>1527</v>
-      </c>
       <c r="AX3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="AZ3" t="s">
         <v>1529</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BA3" t="s">
+        <v>1530</v>
+      </c>
+      <c r="BB3" t="s">
         <v>1531</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BC3" t="s">
         <v>1532</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BD3" t="s">
         <v>1533</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BE3" t="s">
         <v>1534</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BF3" t="s">
         <v>1535</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BG3" t="s">
         <v>1536</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BH3" t="s">
         <v>1537</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BI3" t="s">
         <v>1538</v>
       </c>
-      <c r="BH3" t="s">
-        <v>1539</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>1540</v>
-      </c>
       <c r="BJ3" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="BK3" t="s">
         <v>960</v>
@@ -8812,46 +8806,46 @@
         <v>960</v>
       </c>
       <c r="BM3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="BO3" t="s">
         <v>1541</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="BP3" t="s">
         <v>1542</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="BQ3" t="s">
         <v>1543</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BR3" t="s">
         <v>1544</v>
       </c>
-      <c r="BQ3" t="s">
+      <c r="BS3" t="s">
         <v>1545</v>
       </c>
-      <c r="BR3" t="s">
-        <v>1546</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>1547</v>
-      </c>
       <c r="BT3" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="BU3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="BV3" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="BW3" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="BX3" t="s">
         <v>960</v>
       </c>
       <c r="BY3" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="BZ3" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="4" spans="1:78" x14ac:dyDescent="0.2">
@@ -8882,7 +8876,7 @@
       <c r="I4" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="4" t="s">
         <v>1195</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -9000,10 +8994,10 @@
         <v>1186</v>
       </c>
       <c r="AZ4" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="BA4" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="BB4" t="s">
         <v>960</v>
@@ -9012,43 +9006,43 @@
         <v>960</v>
       </c>
       <c r="BD4" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="BE4" t="s">
+        <v>1283</v>
+      </c>
+      <c r="BF4" t="s">
         <v>1284</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>1285</v>
       </c>
       <c r="BG4" t="s">
         <v>960</v>
       </c>
       <c r="BH4" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="BI4" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="BJ4" t="s">
         <v>595</v>
       </c>
       <c r="BK4" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="BL4" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="BM4" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="BN4" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="BO4" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="BP4" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="BQ4" t="s">
         <v>995</v>
@@ -9060,25 +9054,25 @@
         <v>995</v>
       </c>
       <c r="BT4" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="BU4" t="s">
         <v>473</v>
       </c>
       <c r="BV4" t="s">
+        <v>1556</v>
+      </c>
+      <c r="BW4" t="s">
         <v>1558</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>1560</v>
       </c>
       <c r="BX4" t="s">
         <v>960</v>
       </c>
       <c r="BY4" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="BZ4" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="5" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9086,13 +9080,13 @@
         <v>474</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>862</v>
@@ -9109,7 +9103,7 @@
       <c r="I5" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="4" t="s">
         <v>1196</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -9227,85 +9221,85 @@
         <v>1187</v>
       </c>
       <c r="AZ5" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="BA5" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="BB5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BC5" t="s">
         <v>1244</v>
       </c>
-      <c r="BC5" t="s">
-        <v>1245</v>
-      </c>
       <c r="BD5" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="BE5" t="s">
+        <v>1285</v>
+      </c>
+      <c r="BF5" t="s">
         <v>1286</v>
       </c>
-      <c r="BF5" t="s">
-        <v>1287</v>
-      </c>
       <c r="BG5" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="BH5" t="s">
         <v>925</v>
       </c>
       <c r="BI5" t="s">
+        <v>1334</v>
+      </c>
+      <c r="BJ5" t="s">
         <v>1335</v>
       </c>
-      <c r="BJ5" t="s">
-        <v>1336</v>
-      </c>
       <c r="BK5" t="s">
+        <v>1356</v>
+      </c>
+      <c r="BL5" t="s">
         <v>1357</v>
       </c>
-      <c r="BL5" t="s">
-        <v>1358</v>
-      </c>
       <c r="BM5" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="BN5" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="BO5" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="BP5" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="BQ5" t="s">
+        <v>1436</v>
+      </c>
+      <c r="BR5" t="s">
         <v>1437</v>
       </c>
-      <c r="BR5" t="s">
-        <v>1438</v>
-      </c>
       <c r="BS5" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="BT5" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="BU5" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="BV5" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="BW5" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="BX5" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="BY5" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="BZ5" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="6" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9336,7 +9330,7 @@
       <c r="I6" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="4" t="s">
         <v>1197</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -9454,85 +9448,85 @@
         <v>679</v>
       </c>
       <c r="AZ6" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="BA6" t="s">
         <v>475</v>
       </c>
       <c r="BB6" t="s">
+        <v>1245</v>
+      </c>
+      <c r="BC6" t="s">
         <v>1246</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>1247</v>
       </c>
       <c r="BD6" t="s">
         <v>475</v>
       </c>
       <c r="BE6" t="s">
+        <v>1287</v>
+      </c>
+      <c r="BF6" t="s">
         <v>1288</v>
       </c>
-      <c r="BF6" t="s">
-        <v>1289</v>
-      </c>
       <c r="BG6" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="BH6" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="BI6" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="BJ6" t="s">
         <v>596</v>
       </c>
       <c r="BK6" t="s">
+        <v>1358</v>
+      </c>
+      <c r="BL6" t="s">
         <v>1359</v>
       </c>
-      <c r="BL6" t="s">
-        <v>1360</v>
-      </c>
       <c r="BM6" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="BN6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="BO6" t="s">
         <v>475</v>
       </c>
       <c r="BP6" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="BQ6" t="s">
+        <v>1438</v>
+      </c>
+      <c r="BR6" t="s">
         <v>1439</v>
       </c>
-      <c r="BR6" t="s">
-        <v>1440</v>
-      </c>
       <c r="BS6" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="BT6" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="BU6" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="BV6" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="BW6" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="BX6" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="BY6" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="BZ6" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="7" spans="1:78" x14ac:dyDescent="0.2">
@@ -9543,19 +9537,19 @@
         <v>525</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>492</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>734</v>
@@ -9563,7 +9557,7 @@
       <c r="I7" s="4" t="s">
         <v>744</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="4" t="s">
         <v>1198</v>
       </c>
       <c r="K7" s="2" t="s">
@@ -9681,85 +9675,85 @@
         <v>680</v>
       </c>
       <c r="AZ7" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="BA7" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="BB7" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="BC7" t="s">
         <v>798</v>
       </c>
       <c r="BD7" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="BE7" t="s">
+        <v>1289</v>
+      </c>
+      <c r="BF7" t="s">
         <v>1290</v>
       </c>
-      <c r="BF7" t="s">
-        <v>1291</v>
-      </c>
       <c r="BG7" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="BH7" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="BI7" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="BJ7" t="s">
         <v>657</v>
       </c>
       <c r="BK7" t="s">
+        <v>1360</v>
+      </c>
+      <c r="BL7" t="s">
         <v>1361</v>
       </c>
-      <c r="BL7" t="s">
-        <v>1362</v>
-      </c>
       <c r="BM7" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="BN7" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="BO7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="BP7" t="s">
         <v>680</v>
       </c>
       <c r="BQ7" t="s">
+        <v>1440</v>
+      </c>
+      <c r="BR7" t="s">
         <v>1441</v>
       </c>
-      <c r="BR7" t="s">
-        <v>1442</v>
-      </c>
       <c r="BS7" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="BT7" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="BU7" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="BV7" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="BW7" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="BX7" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="BY7" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="BZ7" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="8" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9790,7 +9784,7 @@
       <c r="I8" s="4" t="s">
         <v>894</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="4" t="s">
         <v>1199</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -9908,85 +9902,85 @@
         <v>902</v>
       </c>
       <c r="AZ8" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="BA8" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="BB8" t="s">
+        <v>1248</v>
+      </c>
+      <c r="BC8" t="s">
         <v>1249</v>
       </c>
-      <c r="BC8" t="s">
-        <v>1250</v>
-      </c>
       <c r="BD8" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="BE8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="BF8" t="s">
         <v>1292</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>1293</v>
       </c>
       <c r="BG8" t="s">
         <v>960</v>
       </c>
       <c r="BH8" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="BI8" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="BJ8" t="s">
         <v>598</v>
       </c>
       <c r="BK8" t="s">
+        <v>1362</v>
+      </c>
+      <c r="BL8" t="s">
         <v>1363</v>
       </c>
-      <c r="BL8" t="s">
-        <v>1364</v>
-      </c>
       <c r="BM8" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="BN8" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="BO8" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="BP8" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="BQ8" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="BR8" t="s">
         <v>1443</v>
       </c>
-      <c r="BR8" t="s">
-        <v>1444</v>
-      </c>
       <c r="BS8" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="BT8" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="BU8" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="BV8" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="BW8" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="BX8" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="BY8" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="BZ8" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="9" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10017,7 +10011,7 @@
       <c r="I9" s="4" t="s">
         <v>746</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="4" t="s">
         <v>1200</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -10135,85 +10129,85 @@
         <v>1188</v>
       </c>
       <c r="AZ9" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="BA9" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="BB9" t="s">
+        <v>1250</v>
+      </c>
+      <c r="BC9" t="s">
         <v>1251</v>
       </c>
-      <c r="BC9" t="s">
-        <v>1252</v>
-      </c>
       <c r="BD9" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="BE9" t="s">
+        <v>1293</v>
+      </c>
+      <c r="BF9" t="s">
         <v>1294</v>
       </c>
-      <c r="BF9" t="s">
-        <v>1295</v>
-      </c>
       <c r="BG9" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="BH9" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="BI9" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="BJ9" t="s">
         <v>599</v>
       </c>
       <c r="BK9" t="s">
+        <v>1364</v>
+      </c>
+      <c r="BL9" t="s">
         <v>1365</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>1366</v>
       </c>
       <c r="BM9" t="s">
         <v>667</v>
       </c>
       <c r="BN9" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="BO9" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="BP9" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="BQ9" t="s">
+        <v>1444</v>
+      </c>
+      <c r="BR9" t="s">
         <v>1445</v>
       </c>
-      <c r="BR9" t="s">
-        <v>1446</v>
-      </c>
       <c r="BS9" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="BT9" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="BU9" t="s">
         <v>851</v>
       </c>
       <c r="BV9" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="BW9" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="BX9" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="BY9" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="BZ9" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.2">
@@ -10221,7 +10215,7 @@
         <v>479</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>647</v>
@@ -10230,7 +10224,7 @@
         <v>648</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>509</v>
@@ -10244,7 +10238,7 @@
       <c r="I10" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="4" t="s">
         <v>1201</v>
       </c>
       <c r="K10" s="2" t="s">
@@ -10362,19 +10356,19 @@
         <v>1189</v>
       </c>
       <c r="AZ10" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="BA10" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="BB10" t="s">
+        <v>1252</v>
+      </c>
+      <c r="BC10" t="s">
         <v>1253</v>
       </c>
-      <c r="BC10" t="s">
-        <v>1254</v>
-      </c>
       <c r="BD10" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="BE10" t="s">
         <v>551</v>
@@ -10383,49 +10377,49 @@
         <v>552</v>
       </c>
       <c r="BG10" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="BH10" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="BI10" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="BJ10" t="s">
         <v>600</v>
       </c>
       <c r="BK10" t="s">
+        <v>1366</v>
+      </c>
+      <c r="BL10" t="s">
         <v>1367</v>
       </c>
-      <c r="BL10" t="s">
-        <v>1368</v>
-      </c>
       <c r="BM10" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="BN10" t="s">
         <v>1093</v>
       </c>
       <c r="BO10" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="BP10" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="BQ10" t="s">
+        <v>1446</v>
+      </c>
+      <c r="BR10" t="s">
         <v>1447</v>
       </c>
-      <c r="BR10" t="s">
-        <v>1448</v>
-      </c>
       <c r="BS10" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="BT10" t="s">
         <v>1064</v>
       </c>
       <c r="BU10" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="BV10" t="s">
         <v>551</v>
@@ -10437,10 +10431,10 @@
         <v>960</v>
       </c>
       <c r="BY10" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="BZ10" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="11" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10471,7 +10465,7 @@
       <c r="I11" s="4" t="s">
         <v>748</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="4" t="s">
         <v>1202</v>
       </c>
       <c r="K11" s="2" t="s">
@@ -10589,85 +10583,85 @@
         <v>683</v>
       </c>
       <c r="AZ11" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="BA11" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="BB11" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="BC11" t="s">
         <v>581</v>
       </c>
       <c r="BD11" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="BE11" t="s">
+        <v>1295</v>
+      </c>
+      <c r="BF11" t="s">
         <v>1296</v>
       </c>
-      <c r="BF11" t="s">
-        <v>1297</v>
-      </c>
       <c r="BG11" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="BH11" t="s">
         <v>919</v>
       </c>
       <c r="BI11" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="BJ11" t="s">
         <v>1342</v>
       </c>
-      <c r="BJ11" t="s">
-        <v>1343</v>
-      </c>
       <c r="BK11" t="s">
+        <v>1368</v>
+      </c>
+      <c r="BL11" t="s">
         <v>1369</v>
       </c>
-      <c r="BL11" t="s">
-        <v>1370</v>
-      </c>
       <c r="BM11" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="BN11" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="BO11" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="BP11" t="s">
         <v>683</v>
       </c>
       <c r="BQ11" t="s">
+        <v>1448</v>
+      </c>
+      <c r="BR11" t="s">
         <v>1449</v>
       </c>
-      <c r="BR11" t="s">
-        <v>1450</v>
-      </c>
       <c r="BS11" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="BT11" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="BU11" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="BV11" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="BW11" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="BX11" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="BY11" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="BZ11" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.2">
@@ -10678,10 +10672,10 @@
         <v>529</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>960</v>
@@ -10698,7 +10692,7 @@
       <c r="I12" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="4" t="s">
         <v>960</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -10816,10 +10810,10 @@
         <v>960</v>
       </c>
       <c r="AZ12" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="BA12" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="BB12" t="s">
         <v>960</v>
@@ -10828,22 +10822,22 @@
         <v>960</v>
       </c>
       <c r="BD12" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="BE12" t="s">
         <v>553</v>
       </c>
       <c r="BF12" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="BG12" t="s">
         <v>960</v>
       </c>
       <c r="BH12" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="BI12" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="BJ12" t="s">
         <v>601</v>
@@ -10855,16 +10849,16 @@
         <v>960</v>
       </c>
       <c r="BM12" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="BN12" t="s">
         <v>960</v>
       </c>
       <c r="BO12" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="BP12" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="BQ12" t="s">
         <v>960</v>
@@ -10876,7 +10870,7 @@
         <v>960</v>
       </c>
       <c r="BT12" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="BU12" t="s">
         <v>960</v>
@@ -10894,7 +10888,7 @@
         <v>960</v>
       </c>
       <c r="BZ12" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="13" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10911,7 +10905,7 @@
         <v>882</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>512</v>
@@ -10925,7 +10919,7 @@
       <c r="I13" s="4" t="s">
         <v>896</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="4" t="s">
         <v>1204</v>
       </c>
       <c r="K13" s="2" t="s">
@@ -11043,64 +11037,64 @@
         <v>685</v>
       </c>
       <c r="AZ13" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="BA13" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="BB13" t="s">
+        <v>1255</v>
+      </c>
+      <c r="BC13" t="s">
         <v>1256</v>
       </c>
-      <c r="BC13" t="s">
-        <v>1257</v>
-      </c>
       <c r="BD13" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="BE13" t="s">
+        <v>1298</v>
+      </c>
+      <c r="BF13" t="s">
         <v>1299</v>
       </c>
-      <c r="BF13" t="s">
-        <v>1300</v>
-      </c>
       <c r="BG13" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="BH13" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="BI13" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="BJ13" t="s">
         <v>605</v>
       </c>
       <c r="BK13" t="s">
+        <v>1372</v>
+      </c>
+      <c r="BL13" t="s">
         <v>1373</v>
       </c>
-      <c r="BL13" t="s">
-        <v>1374</v>
-      </c>
       <c r="BM13" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="BN13" t="s">
         <v>632</v>
       </c>
       <c r="BO13" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="BP13" t="s">
         <v>908</v>
       </c>
       <c r="BQ13" t="s">
+        <v>1452</v>
+      </c>
+      <c r="BR13" t="s">
         <v>1453</v>
       </c>
-      <c r="BR13" t="s">
-        <v>1454</v>
-      </c>
       <c r="BS13" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="BT13" t="s">
         <v>1013</v>
@@ -11109,19 +11103,19 @@
         <v>1013</v>
       </c>
       <c r="BV13" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="BW13" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="BX13" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="BY13" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="BZ13" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="14" spans="1:78" ht="34" x14ac:dyDescent="0.2">
@@ -11129,7 +11123,7 @@
         <v>481</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>650</v>
@@ -11141,10 +11135,10 @@
         <v>493</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>739</v>
@@ -11152,7 +11146,7 @@
       <c r="I14" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="4" t="s">
         <v>1203</v>
       </c>
       <c r="K14" s="2" t="s">
@@ -11270,85 +11264,85 @@
         <v>1190</v>
       </c>
       <c r="AZ14" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="BA14" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="BB14" t="s">
+        <v>1257</v>
+      </c>
+      <c r="BC14" t="s">
         <v>1258</v>
       </c>
-      <c r="BC14" t="s">
-        <v>1259</v>
-      </c>
       <c r="BD14" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="BE14" t="s">
+        <v>1300</v>
+      </c>
+      <c r="BF14" t="s">
         <v>1301</v>
-      </c>
-      <c r="BF14" t="s">
-        <v>1302</v>
       </c>
       <c r="BG14" t="s">
         <v>1175</v>
       </c>
       <c r="BH14" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="BI14" t="s">
+        <v>1344</v>
+      </c>
+      <c r="BJ14" t="s">
         <v>1345</v>
       </c>
-      <c r="BJ14" t="s">
-        <v>1346</v>
-      </c>
       <c r="BK14" t="s">
+        <v>1370</v>
+      </c>
+      <c r="BL14" t="s">
         <v>1371</v>
       </c>
-      <c r="BL14" t="s">
-        <v>1372</v>
-      </c>
       <c r="BM14" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="BN14" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="BO14" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="BP14" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="BQ14" t="s">
+        <v>1450</v>
+      </c>
+      <c r="BR14" t="s">
         <v>1451</v>
       </c>
-      <c r="BR14" t="s">
-        <v>1452</v>
-      </c>
       <c r="BS14" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="BT14" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="BU14" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="BV14" s="1" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="BW14" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="BX14" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="BY14" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="BZ14" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="15" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -11359,13 +11353,13 @@
         <v>531</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>514</v>
@@ -11374,12 +11368,12 @@
         <v>515</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>2394</v>
-      </c>
-      <c r="J15" s="2" t="s">
+        <v>2392</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>1205</v>
       </c>
       <c r="K15" s="2" t="s">
@@ -11497,85 +11491,85 @@
         <v>1191</v>
       </c>
       <c r="AZ15" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="BA15" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="BB15" t="s">
+        <v>1259</v>
+      </c>
+      <c r="BC15" t="s">
         <v>1260</v>
       </c>
-      <c r="BC15" t="s">
-        <v>1261</v>
-      </c>
       <c r="BD15" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="BE15" t="s">
+        <v>1302</v>
+      </c>
+      <c r="BF15" t="s">
         <v>1303</v>
       </c>
-      <c r="BF15" t="s">
-        <v>1304</v>
-      </c>
       <c r="BG15" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="BH15" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="BI15" t="s">
+        <v>1347</v>
+      </c>
+      <c r="BJ15" t="s">
         <v>1348</v>
       </c>
-      <c r="BJ15" t="s">
-        <v>1349</v>
-      </c>
       <c r="BK15" t="s">
+        <v>1374</v>
+      </c>
+      <c r="BL15" t="s">
         <v>1375</v>
       </c>
-      <c r="BL15" t="s">
-        <v>1376</v>
-      </c>
       <c r="BM15" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="BN15" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="BO15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="BP15" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="BQ15" t="s">
+        <v>1454</v>
+      </c>
+      <c r="BR15" t="s">
         <v>1455</v>
       </c>
-      <c r="BR15" t="s">
-        <v>1456</v>
-      </c>
       <c r="BS15" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="BT15" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="BU15" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="BV15" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="BW15" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="BX15" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="BY15" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="BZ15" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.2">
@@ -11595,10 +11589,10 @@
         <v>498</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>740</v>
@@ -11606,7 +11600,7 @@
       <c r="I16" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="4" t="s">
         <v>1206</v>
       </c>
       <c r="K16" s="2" t="s">
@@ -11724,85 +11718,85 @@
         <v>1192</v>
       </c>
       <c r="AZ16" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="BA16" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="BB16" t="s">
+        <v>1261</v>
+      </c>
+      <c r="BC16" t="s">
         <v>1262</v>
       </c>
-      <c r="BC16" t="s">
-        <v>1263</v>
-      </c>
       <c r="BD16" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="BE16" t="s">
+        <v>1304</v>
+      </c>
+      <c r="BF16" t="s">
         <v>1305</v>
       </c>
-      <c r="BF16" t="s">
-        <v>1306</v>
-      </c>
       <c r="BG16" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="BH16" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="BI16" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="BJ16" t="s">
         <v>606</v>
       </c>
       <c r="BK16" t="s">
+        <v>1376</v>
+      </c>
+      <c r="BL16" t="s">
         <v>1377</v>
       </c>
-      <c r="BL16" t="s">
-        <v>1378</v>
-      </c>
       <c r="BM16" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="BN16" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="BO16" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="BP16" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="BQ16" t="s">
+        <v>1456</v>
+      </c>
+      <c r="BR16" t="s">
         <v>1457</v>
       </c>
-      <c r="BR16" t="s">
-        <v>1458</v>
-      </c>
       <c r="BS16" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="BT16" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="BU16" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="BV16" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="BW16" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="BX16" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="BY16" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="BZ16" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="17" spans="1:78" x14ac:dyDescent="0.2">
@@ -11819,7 +11813,7 @@
         <v>654</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>518</v>
@@ -11828,12 +11822,12 @@
         <v>519</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>2396</v>
-      </c>
-      <c r="J17" s="2" t="s">
+        <v>2394</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>1207</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -11951,85 +11945,85 @@
         <v>1193</v>
       </c>
       <c r="AZ17" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="BA17" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="BB17" t="s">
+        <v>1263</v>
+      </c>
+      <c r="BC17" t="s">
         <v>1264</v>
       </c>
-      <c r="BC17" t="s">
-        <v>1265</v>
-      </c>
       <c r="BD17" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="BE17" t="s">
+        <v>1306</v>
+      </c>
+      <c r="BF17" t="s">
         <v>1307</v>
       </c>
-      <c r="BF17" t="s">
-        <v>1308</v>
-      </c>
       <c r="BG17" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="BH17" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="BI17" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="BJ17" t="s">
         <v>661</v>
       </c>
       <c r="BK17" t="s">
+        <v>1378</v>
+      </c>
+      <c r="BL17" t="s">
         <v>1379</v>
       </c>
-      <c r="BL17" t="s">
-        <v>1380</v>
-      </c>
       <c r="BM17" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="BN17" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="BO17" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="BP17" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="BQ17" t="s">
+        <v>1458</v>
+      </c>
+      <c r="BR17" t="s">
         <v>1459</v>
       </c>
-      <c r="BR17" t="s">
-        <v>1460</v>
-      </c>
       <c r="BS17" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="BT17" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="BU17" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="BV17" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="BW17" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="BX17" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="BY17" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="BZ17" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="18" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -12040,10 +12034,10 @@
         <v>960</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>960</v>
@@ -12060,8 +12054,8 @@
       <c r="I18" s="4" t="s">
         <v>948</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>1208</v>
+      <c r="J18" s="4" t="s">
+        <v>960</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>960</v>
@@ -12178,10 +12172,10 @@
         <v>943</v>
       </c>
       <c r="AZ18" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="BA18" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="BB18" t="s">
         <v>960</v>
@@ -12190,7 +12184,7 @@
         <v>960</v>
       </c>
       <c r="BD18" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="BE18" t="s">
         <v>954</v>
@@ -12217,28 +12211,28 @@
         <v>960</v>
       </c>
       <c r="BM18" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="BN18" t="s">
         <v>953</v>
       </c>
       <c r="BO18" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="BP18" t="s">
         <v>943</v>
       </c>
       <c r="BQ18" t="s">
+        <v>1460</v>
+      </c>
+      <c r="BR18" t="s">
         <v>1461</v>
-      </c>
-      <c r="BR18" t="s">
-        <v>1462</v>
       </c>
       <c r="BS18" t="s">
         <v>960</v>
       </c>
       <c r="BT18" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="BU18" t="s">
         <v>941</v>
@@ -12247,16 +12241,16 @@
         <v>954</v>
       </c>
       <c r="BW18" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="BX18" t="s">
         <v>960</v>
       </c>
       <c r="BY18" s="1" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="BZ18" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="19" spans="1:78" x14ac:dyDescent="0.2">
@@ -12287,8 +12281,8 @@
       <c r="I19" s="4" t="s">
         <v>897</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>1209</v>
+      <c r="J19" s="4" t="s">
+        <v>1208</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>1184</v>
@@ -12405,61 +12399,61 @@
         <v>1194</v>
       </c>
       <c r="AZ19" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="BA19" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="BB19" t="s">
+        <v>1265</v>
+      </c>
+      <c r="BC19" t="s">
         <v>1266</v>
       </c>
-      <c r="BC19" t="s">
-        <v>1267</v>
-      </c>
       <c r="BD19" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="BE19" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="BF19" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="BG19" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="BH19" t="s">
         <v>913</v>
       </c>
       <c r="BI19" t="s">
+        <v>1351</v>
+      </c>
+      <c r="BJ19" t="s">
         <v>1352</v>
       </c>
-      <c r="BJ19" t="s">
-        <v>1353</v>
-      </c>
       <c r="BK19" t="s">
+        <v>1380</v>
+      </c>
+      <c r="BL19" t="s">
         <v>1381</v>
-      </c>
-      <c r="BL19" t="s">
-        <v>1382</v>
       </c>
       <c r="BM19" t="s">
         <v>663</v>
       </c>
       <c r="BN19" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="BO19" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="BP19" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="BQ19" t="s">
+        <v>1462</v>
+      </c>
+      <c r="BR19" t="s">
         <v>1463</v>
-      </c>
-      <c r="BR19" t="s">
-        <v>1464</v>
       </c>
       <c r="BS19" t="s">
         <v>993</v>
@@ -12468,22 +12462,22 @@
         <v>994</v>
       </c>
       <c r="BU19" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="BV19" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="BW19" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="BX19" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="BY19" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="BZ19" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="20" spans="1:78" x14ac:dyDescent="0.2">
@@ -12491,37 +12485,37 @@
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -12529,10 +12523,10 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -12568,37 +12562,37 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -12606,10 +12600,10 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -12645,37 +12639,37 @@
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -12683,10 +12677,10 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -12722,37 +12716,37 @@
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -12760,10 +12754,10 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -12799,37 +12793,37 @@
         <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -12837,10 +12831,10 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -12876,37 +12870,37 @@
         <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -12914,10 +12908,10 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -12953,37 +12947,37 @@
         <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -12991,10 +12985,10 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -13030,37 +13024,37 @@
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -13068,10 +13062,10 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -13104,40 +13098,40 @@
     </row>
     <row r="28" spans="1:78" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -13145,10 +13139,10 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -13181,40 +13175,40 @@
     </row>
     <row r="29" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>1962</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>1963</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>1964</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>1965</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>1966</v>
-      </c>
       <c r="H29" s="2" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -13222,10 +13216,10 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -13261,37 +13255,37 @@
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -13299,10 +13293,10 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
@@ -13338,37 +13332,37 @@
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -13376,10 +13370,10 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
@@ -13415,37 +13409,37 @@
         <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -13453,10 +13447,10 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
@@ -13492,37 +13486,37 @@
         <v>11</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -13530,10 +13524,10 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
@@ -13569,37 +13563,37 @@
         <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -13607,10 +13601,10 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
@@ -13646,37 +13640,37 @@
         <v>13</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -13684,10 +13678,10 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
@@ -13720,40 +13714,40 @@
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -13761,10 +13755,10 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
@@ -13800,37 +13794,37 @@
         <v>502</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -13838,10 +13832,10 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
@@ -13877,37 +13871,37 @@
         <v>14</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -13915,10 +13909,10 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
@@ -13954,37 +13948,37 @@
         <v>15</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -13992,10 +13986,10 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
@@ -14031,37 +14025,37 @@
         <v>16</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -14069,10 +14063,10 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
@@ -14108,37 +14102,37 @@
         <v>17</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -14146,10 +14140,10 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
@@ -14185,37 +14179,37 @@
         <v>18</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -14223,10 +14217,10 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
@@ -14262,37 +14256,37 @@
         <v>490</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -14300,10 +14294,10 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
@@ -14339,37 +14333,37 @@
         <v>19</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -14377,10 +14371,10 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
@@ -14413,40 +14407,40 @@
     </row>
     <row r="45" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -14454,10 +14448,10 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
@@ -14493,37 +14487,37 @@
         <v>20</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -14531,10 +14525,10 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
@@ -14570,37 +14564,37 @@
         <v>21</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -14608,10 +14602,10 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
@@ -14647,37 +14641,37 @@
         <v>565</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -14685,10 +14679,10 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="3" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
@@ -14724,37 +14718,37 @@
         <v>22</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -14762,10 +14756,10 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
@@ -14801,37 +14795,37 @@
         <v>23</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -14839,10 +14833,10 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
@@ -14875,40 +14869,40 @@
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -14916,10 +14910,10 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
@@ -14955,37 +14949,37 @@
         <v>24</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -14993,10 +14987,10 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
@@ -15029,40 +15023,40 @@
     </row>
     <row r="53" spans="1:47" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -15070,10 +15064,10 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="3" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
@@ -15109,37 +15103,37 @@
         <v>25</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -15147,10 +15141,10 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
@@ -15186,37 +15180,37 @@
         <v>491</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -15224,10 +15218,10 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
@@ -15263,37 +15257,37 @@
         <v>26</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -15301,10 +15295,10 @@
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
@@ -15340,37 +15334,37 @@
         <v>27</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -15378,10 +15372,10 @@
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
@@ -15417,37 +15411,37 @@
         <v>28</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -15455,10 +15449,10 @@
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
@@ -15494,37 +15488,37 @@
         <v>29</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -15532,10 +15526,10 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
@@ -15571,37 +15565,37 @@
         <v>30</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -15609,10 +15603,10 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
@@ -15648,37 +15642,37 @@
         <v>31</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -15686,10 +15680,10 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="3" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
@@ -15725,37 +15719,37 @@
         <v>32</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -15763,10 +15757,10 @@
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
@@ -15799,40 +15793,40 @@
     </row>
     <row r="63" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -15840,10 +15834,10 @@
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
@@ -15879,37 +15873,37 @@
         <v>33</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -15917,10 +15911,10 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
@@ -15956,37 +15950,37 @@
         <v>34</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -15994,10 +15988,10 @@
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
@@ -16033,37 +16027,37 @@
         <v>35</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -16071,10 +16065,10 @@
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
@@ -16110,37 +16104,37 @@
         <v>36</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -16148,10 +16142,10 @@
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
@@ -16187,37 +16181,37 @@
         <v>37</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -16225,10 +16219,10 @@
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
@@ -16261,40 +16255,40 @@
     </row>
     <row r="69" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>960</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -16302,10 +16296,10 @@
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="2" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
@@ -16341,37 +16335,37 @@
         <v>38</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -16379,10 +16373,10 @@
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="2" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
@@ -16418,16 +16412,16 @@
         <v>39</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>960</v>
@@ -16436,19 +16430,19 @@
         <v>960</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -16492,40 +16486,40 @@
     </row>
     <row r="72" spans="1:47" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -16533,10 +16527,10 @@
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
       <c r="R72" s="2" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
@@ -16572,37 +16566,37 @@
         <v>40</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -16610,10 +16604,10 @@
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="2" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
@@ -16649,37 +16643,37 @@
         <v>41</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -16687,10 +16681,10 @@
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="2" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
@@ -16783,12 +16777,12 @@
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
@@ -17050,7 +17044,7 @@
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
@@ -17070,7 +17064,7 @@
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
@@ -17225,7 +17219,7 @@
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
@@ -17320,7 +17314,7 @@
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
@@ -17375,7 +17369,7 @@
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
@@ -17445,7 +17439,7 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
@@ -17615,7 +17609,7 @@
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
@@ -17730,7 +17724,7 @@
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
@@ -17765,7 +17759,7 @@
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
@@ -18005,7 +17999,7 @@
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
@@ -18090,7 +18084,7 @@
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
@@ -18235,7 +18229,7 @@
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
@@ -18255,7 +18249,7 @@
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
@@ -18705,7 +18699,7 @@
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
@@ -18720,7 +18714,7 @@
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
@@ -18750,7 +18744,7 @@
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
@@ -18870,7 +18864,7 @@
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
@@ -18915,7 +18909,7 @@
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.2">
@@ -18945,7 +18939,7 @@
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.2">

--- a/historical/data/data_strict.xlsx
+++ b/historical/data/data_strict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F5401A-B503-2942-85AF-E9856CD32388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA90C31-94AE-D34F-BB5C-8FE4D369537C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46300" yWindow="-3100" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46220" yWindow="-3100" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -3517,24 +3517,12 @@
     <t>NepTr</t>
   </si>
   <si>
-    <t>क्रोधित, क्रोधित</t>
-  </si>
-  <si>
-    <t>Krōdhita, Rīsa</t>
-  </si>
-  <si>
     <t>जनावर,  पशु</t>
   </si>
   <si>
     <t>Janāvara,  Paśu</t>
   </si>
   <si>
-    <t>जवाफ, जवाफ, समाघान</t>
-  </si>
-  <si>
-    <t>Javāpha, Uttara, Samaghan</t>
-  </si>
-  <si>
     <t>कमिला</t>
   </si>
   <si>
@@ -3545,12 +3533,6 @@
   </si>
   <si>
     <t>Syā'ū</t>
-  </si>
-  <si>
-    <t>हात, पाखुरा, बाहु</t>
-  </si>
-  <si>
-    <t>Hāta, Pākhurā, Bāhu</t>
   </si>
   <si>
     <t>तीर, वाण</t>
@@ -7230,6 +7212,24 @@
   </si>
   <si>
     <t>xypnísei, afypnizo, xypnó</t>
+  </si>
+  <si>
+    <t>क्रोधित</t>
+  </si>
+  <si>
+    <t>जवाफ, जवाफ</t>
+  </si>
+  <si>
+    <t>Krōdhita</t>
+  </si>
+  <si>
+    <t>Javāpha, Uttara</t>
+  </si>
+  <si>
+    <t>पाखुरा, बाहु</t>
+  </si>
+  <si>
+    <t>Pākhurā, Bāhu</t>
   </si>
 </sst>
 </file>
@@ -8093,7 +8093,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8328,7 +8328,7 @@
         <v>772</v>
       </c>
       <c r="BC1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="BD1" t="s">
         <v>773</v>
@@ -8337,7 +8337,7 @@
         <v>774</v>
       </c>
       <c r="BF1" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="BG1" t="s">
         <v>775</v>
@@ -8349,13 +8349,13 @@
         <v>777</v>
       </c>
       <c r="BJ1" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="BK1" t="s">
         <v>778</v>
       </c>
       <c r="BL1" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="BM1" t="s">
         <v>779</v>
@@ -8373,7 +8373,7 @@
         <v>783</v>
       </c>
       <c r="BR1" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="BS1" t="s">
         <v>784</v>
@@ -8388,7 +8388,7 @@
         <v>787</v>
       </c>
       <c r="BW1" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="BX1" t="s">
         <v>788</v>
@@ -8431,10 +8431,10 @@
       <c r="J2" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>488</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -8629,40 +8629,40 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>1493</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>1499</v>
-      </c>
       <c r="D3" s="4" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2374</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>1486</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>1500</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>2380</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>1491</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>1492</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>1506</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>1527</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>1509</v>
+      <c r="K3" s="4" t="s">
+        <v>1521</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>1503</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>960</v>
@@ -8671,133 +8671,133 @@
         <v>960</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>1496</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>1497</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>1498</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>1494</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>1495</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>1496</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>1501</v>
-      </c>
-      <c r="V3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="Z3" s="2" t="s">
         <v>1502</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>1503</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>1504</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>1505</v>
       </c>
-      <c r="Z3" s="2" t="s">
-        <v>1508</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>1509</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>1510</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>1511</v>
-      </c>
       <c r="AD3" s="2" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="AN3" s="2" t="s">
         <v>1513</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>1514</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>1515</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>1516</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>1517</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>1518</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>1519</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>1520</v>
       </c>
-      <c r="AP3" s="2" t="s">
-        <v>1521</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AX3" t="s">
         <v>1522</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AZ3" t="s">
         <v>1523</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="BA3" t="s">
         <v>1524</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="BB3" t="s">
         <v>1525</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="BC3" t="s">
         <v>1526</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="BD3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="BE3" t="s">
         <v>1528</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BF3" t="s">
         <v>1529</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BG3" t="s">
         <v>1530</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BH3" t="s">
         <v>1531</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BI3" t="s">
         <v>1532</v>
       </c>
-      <c r="BD3" t="s">
-        <v>1533</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>1534</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>1535</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>1536</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>1537</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>1538</v>
-      </c>
       <c r="BJ3" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="BK3" t="s">
         <v>960</v>
@@ -8806,46 +8806,46 @@
         <v>960</v>
       </c>
       <c r="BM3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="BS3" t="s">
         <v>1539</v>
       </c>
-      <c r="BN3" t="s">
-        <v>1540</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>1541</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>1542</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>1543</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>1544</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>1545</v>
-      </c>
       <c r="BT3" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="BU3" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="BV3" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="BW3" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="BX3" t="s">
         <v>960</v>
       </c>
       <c r="BY3" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="BZ3" t="s">
-        <v>1614</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="4" spans="1:78" x14ac:dyDescent="0.2">
@@ -8877,12 +8877,12 @@
         <v>742</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>1195</v>
-      </c>
-      <c r="K4" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="4" t="s">
         <v>960</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -8991,13 +8991,13 @@
         <v>1159</v>
       </c>
       <c r="AX4" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="AZ4" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="BA4" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="BB4" t="s">
         <v>960</v>
@@ -9006,43 +9006,43 @@
         <v>960</v>
       </c>
       <c r="BD4" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="BE4" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="BF4" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="BG4" t="s">
         <v>960</v>
       </c>
       <c r="BH4" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="BI4" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="BJ4" t="s">
         <v>595</v>
       </c>
       <c r="BK4" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="BL4" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
       <c r="BM4" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="BN4" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="BO4" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="BP4" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="BQ4" t="s">
         <v>995</v>
@@ -9054,25 +9054,25 @@
         <v>995</v>
       </c>
       <c r="BT4" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="BU4" t="s">
         <v>473</v>
       </c>
       <c r="BV4" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="BW4" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="BX4" t="s">
         <v>960</v>
       </c>
       <c r="BY4" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
       <c r="BZ4" t="s">
-        <v>1615</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="5" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9080,13 +9080,13 @@
         <v>474</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2367</v>
+        <v>2361</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>2364</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>2370</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>2376</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>862</v>
@@ -9104,13 +9104,13 @@
         <v>745</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>1196</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>1161</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>1162</v>
+        <v>1190</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>2389</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>2391</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>568</v>
@@ -9218,88 +9218,88 @@
         <v>1157</v>
       </c>
       <c r="AX5" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="AZ5" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="BA5" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="BB5" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="BC5" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="BD5" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="BE5" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="BF5" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="BG5" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="BH5" t="s">
         <v>925</v>
       </c>
       <c r="BI5" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="BJ5" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="BK5" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="BL5" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="BM5" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
       <c r="BN5" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="BO5" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="BP5" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="BQ5" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
       <c r="BR5" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="BS5" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="BT5" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="BU5" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="BV5" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="BW5" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="BX5" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="BY5" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="BZ5" t="s">
-        <v>1616</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="6" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9331,13 +9331,13 @@
         <v>743</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>1163</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>1164</v>
+        <v>1191</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>1162</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>570</v>
@@ -9448,85 +9448,85 @@
         <v>679</v>
       </c>
       <c r="AZ6" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="BA6" t="s">
         <v>475</v>
       </c>
       <c r="BB6" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="BC6" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="BD6" t="s">
         <v>475</v>
       </c>
       <c r="BE6" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="BF6" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="BG6" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="BH6" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="BI6" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="BJ6" t="s">
         <v>596</v>
       </c>
       <c r="BK6" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="BL6" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="BM6" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="BN6" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="BO6" t="s">
         <v>475</v>
       </c>
       <c r="BP6" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="BQ6" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="BR6" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
       <c r="BS6" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="BT6" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="BU6" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="BV6" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
       <c r="BW6" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="BX6" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
       <c r="BY6" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
       <c r="BZ6" t="s">
-        <v>1617</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="7" spans="1:78" x14ac:dyDescent="0.2">
@@ -9537,19 +9537,19 @@
         <v>525</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>2365</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>2371</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>2377</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>492</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>2385</v>
+        <v>2379</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>2386</v>
+        <v>2380</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>734</v>
@@ -9558,13 +9558,13 @@
         <v>744</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>1165</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>1166</v>
+        <v>1192</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>2390</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>2392</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>572</v>
@@ -9675,85 +9675,85 @@
         <v>680</v>
       </c>
       <c r="AZ7" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="BA7" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="BB7" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="BC7" t="s">
         <v>798</v>
       </c>
       <c r="BD7" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="BE7" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="BF7" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="BG7" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="BH7" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="BI7" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="BJ7" t="s">
         <v>657</v>
       </c>
       <c r="BK7" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="BL7" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="BM7" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="BN7" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="BO7" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="BP7" t="s">
         <v>680</v>
       </c>
       <c r="BQ7" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="BR7" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="BS7" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
       <c r="BT7" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
       <c r="BU7" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="BV7" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="BW7" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="BX7" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="BY7" t="s">
-        <v>1602</v>
+        <v>1596</v>
       </c>
       <c r="BZ7" t="s">
-        <v>1618</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="8" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9785,13 +9785,13 @@
         <v>894</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>1199</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>1167</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>1168</v>
+        <v>1193</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>1164</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>574</v>
@@ -9902,85 +9902,85 @@
         <v>902</v>
       </c>
       <c r="AZ8" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="BA8" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="BB8" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="BC8" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="BD8" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="BE8" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="BF8" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="BG8" t="s">
         <v>960</v>
       </c>
       <c r="BH8" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="BI8" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="BJ8" t="s">
         <v>598</v>
       </c>
       <c r="BK8" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="BL8" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="BM8" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="BN8" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="BO8" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="BP8" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="BQ8" s="1" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
       <c r="BR8" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="BS8" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="BT8" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="BU8" t="s">
-        <v>1549</v>
+        <v>1543</v>
       </c>
       <c r="BV8" t="s">
-        <v>1567</v>
+        <v>1561</v>
       </c>
       <c r="BW8" t="s">
-        <v>1568</v>
+        <v>1562</v>
       </c>
       <c r="BX8" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
       <c r="BY8" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
       <c r="BZ8" t="s">
-        <v>1619</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="9" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10012,13 +10012,13 @@
         <v>746</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>1200</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>1169</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>1170</v>
+        <v>1194</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>1166</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>576</v>
@@ -10126,88 +10126,88 @@
         <v>1149</v>
       </c>
       <c r="AX9" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="AZ9" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="BA9" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="BB9" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="BC9" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="BD9" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="BE9" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="BF9" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="BG9" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="BH9" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="BI9" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="BJ9" t="s">
         <v>599</v>
       </c>
       <c r="BK9" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="BL9" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="BM9" t="s">
         <v>667</v>
       </c>
       <c r="BN9" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="BO9" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="BP9" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="BQ9" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="BR9" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="BS9" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="BT9" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="BU9" t="s">
         <v>851</v>
       </c>
       <c r="BV9" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
       <c r="BW9" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="BX9" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="BY9" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="BZ9" t="s">
-        <v>1620</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.2">
@@ -10215,7 +10215,7 @@
         <v>479</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2368</v>
+        <v>2362</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>647</v>
@@ -10224,7 +10224,7 @@
         <v>648</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>2381</v>
+        <v>2375</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>509</v>
@@ -10239,13 +10239,13 @@
         <v>747</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>1201</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>1171</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>1172</v>
+        <v>1195</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>2393</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>2394</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>578</v>
@@ -10353,22 +10353,22 @@
         <v>1147</v>
       </c>
       <c r="AX10" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="AZ10" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="BA10" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="BB10" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="BC10" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="BD10" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="BE10" t="s">
         <v>551</v>
@@ -10377,49 +10377,49 @@
         <v>552</v>
       </c>
       <c r="BG10" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="BH10" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="BI10" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="BJ10" t="s">
         <v>600</v>
       </c>
       <c r="BK10" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="BL10" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="BM10" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="BN10" t="s">
         <v>1093</v>
       </c>
       <c r="BO10" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="BP10" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="BQ10" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="BR10" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
       <c r="BS10" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
       <c r="BT10" t="s">
         <v>1064</v>
       </c>
       <c r="BU10" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="BV10" t="s">
         <v>551</v>
@@ -10431,10 +10431,10 @@
         <v>960</v>
       </c>
       <c r="BY10" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
       <c r="BZ10" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="11" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10466,13 +10466,13 @@
         <v>748</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>1202</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>1173</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>1174</v>
+        <v>1196</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>1168</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>580</v>
@@ -10583,85 +10583,85 @@
         <v>683</v>
       </c>
       <c r="AZ11" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="BA11" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="BB11" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="BC11" t="s">
         <v>581</v>
       </c>
       <c r="BD11" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="BE11" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="BF11" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="BG11" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="BH11" t="s">
         <v>919</v>
       </c>
       <c r="BI11" s="1" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="BJ11" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="BK11" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="BL11" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="BM11" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="BN11" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="BO11" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="BP11" t="s">
         <v>683</v>
       </c>
       <c r="BQ11" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="BR11" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="BS11" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="BT11" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="BU11" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="BV11" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
       <c r="BW11" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="BX11" t="s">
-        <v>1591</v>
+        <v>1585</v>
       </c>
       <c r="BY11" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="BZ11" t="s">
-        <v>1622</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.2">
@@ -10672,10 +10672,10 @@
         <v>529</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>2372</v>
+        <v>2366</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>2373</v>
+        <v>2367</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>960</v>
@@ -10695,10 +10695,10 @@
       <c r="J12" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="4" t="s">
         <v>960</v>
       </c>
       <c r="M12" s="2" t="s">
@@ -10810,10 +10810,10 @@
         <v>960</v>
       </c>
       <c r="AZ12" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="BA12" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="BB12" t="s">
         <v>960</v>
@@ -10822,22 +10822,22 @@
         <v>960</v>
       </c>
       <c r="BD12" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="BE12" t="s">
         <v>553</v>
       </c>
       <c r="BF12" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="BG12" t="s">
         <v>960</v>
       </c>
       <c r="BH12" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="BI12" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="BJ12" t="s">
         <v>601</v>
@@ -10849,16 +10849,16 @@
         <v>960</v>
       </c>
       <c r="BM12" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="BN12" t="s">
         <v>960</v>
       </c>
       <c r="BO12" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="BP12" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="BQ12" t="s">
         <v>960</v>
@@ -10870,7 +10870,7 @@
         <v>960</v>
       </c>
       <c r="BT12" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="BU12" t="s">
         <v>960</v>
@@ -10888,7 +10888,7 @@
         <v>960</v>
       </c>
       <c r="BZ12" t="s">
-        <v>1623</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="13" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10905,7 +10905,7 @@
         <v>882</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>2382</v>
+        <v>2376</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>512</v>
@@ -10920,13 +10920,13 @@
         <v>896</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>1204</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>1176</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>1177</v>
+        <v>1198</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>1171</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>584</v>
@@ -11037,64 +11037,64 @@
         <v>685</v>
       </c>
       <c r="AZ13" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="BA13" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="BB13" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="BC13" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="BD13" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="BE13" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="BF13" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="BG13" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="BH13" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="BI13" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="BJ13" t="s">
         <v>605</v>
       </c>
       <c r="BK13" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="BL13" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="BM13" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="BN13" t="s">
         <v>632</v>
       </c>
       <c r="BO13" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="BP13" t="s">
         <v>908</v>
       </c>
       <c r="BQ13" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="BR13" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="BS13" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="BT13" t="s">
         <v>1013</v>
@@ -11103,19 +11103,19 @@
         <v>1013</v>
       </c>
       <c r="BV13" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="BW13" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="BX13" t="s">
-        <v>1592</v>
+        <v>1586</v>
       </c>
       <c r="BY13" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
       <c r="BZ13" t="s">
-        <v>1624</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="14" spans="1:78" ht="34" x14ac:dyDescent="0.2">
@@ -11123,7 +11123,7 @@
         <v>481</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2369</v>
+        <v>2363</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>650</v>
@@ -11135,10 +11135,10 @@
         <v>493</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>2387</v>
+        <v>2381</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>2388</v>
+        <v>2382</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>739</v>
@@ -11147,12 +11147,12 @@
         <v>749</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>1203</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>1175</v>
-      </c>
-      <c r="L14" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>583</v>
       </c>
       <c r="M14" s="2" t="s">
@@ -11261,88 +11261,88 @@
         <v>1143</v>
       </c>
       <c r="AX14" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="AZ14" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="BA14" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="BB14" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="BC14" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="BD14" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="BE14" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="BF14" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="BG14" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="BH14" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="BI14" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="BJ14" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="BK14" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="BL14" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="BM14" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="BN14" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="BO14" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="BP14" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="BQ14" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="BR14" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="BS14" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="BT14" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
       <c r="BU14" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="BV14" s="1" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="BW14" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="BX14" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
       <c r="BY14" t="s">
-        <v>1608</v>
+        <v>1602</v>
       </c>
       <c r="BZ14" t="s">
-        <v>1625</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="15" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -11353,13 +11353,13 @@
         <v>531</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>2374</v>
+        <v>2368</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>2375</v>
+        <v>2369</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>2383</v>
+        <v>2377</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>514</v>
@@ -11368,19 +11368,19 @@
         <v>515</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>2391</v>
+        <v>2385</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>2392</v>
+        <v>2386</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>1205</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>1178</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>1179</v>
+        <v>1199</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>1173</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>586</v>
@@ -11488,88 +11488,88 @@
         <v>1139</v>
       </c>
       <c r="AX15" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="AZ15" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="BA15" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="BB15" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="BC15" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="BD15" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="BE15" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="BF15" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="BG15" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="BH15" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="BI15" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="BJ15" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="BK15" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="BL15" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="BM15" s="1" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="BN15" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="BO15" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="BP15" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="BQ15" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="BR15" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="BS15" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="BT15" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="BU15" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="BV15" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="BW15" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="BX15" t="s">
-        <v>1594</v>
+        <v>1588</v>
       </c>
       <c r="BY15" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
       <c r="BZ15" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.2">
@@ -11589,10 +11589,10 @@
         <v>498</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>2389</v>
+        <v>2383</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>2390</v>
+        <v>2384</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>740</v>
@@ -11601,13 +11601,13 @@
         <v>750</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>1206</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>1180</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>1181</v>
+        <v>1200</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>1175</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>588</v>
@@ -11715,88 +11715,88 @@
         <v>1137</v>
       </c>
       <c r="AX16" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="AZ16" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="BA16" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="BB16" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="BC16" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="BD16" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="BE16" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="BF16" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="BG16" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="BH16" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="BI16" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="BJ16" t="s">
         <v>606</v>
       </c>
       <c r="BK16" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="BL16" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="BM16" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="BN16" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="BO16" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="BP16" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="BQ16" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="BR16" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="BS16" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="BT16" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="BU16" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="BV16" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="BW16" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="BX16" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="BY16" t="s">
-        <v>1610</v>
+        <v>1604</v>
       </c>
       <c r="BZ16" t="s">
-        <v>1627</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="17" spans="1:78" x14ac:dyDescent="0.2">
@@ -11813,7 +11813,7 @@
         <v>654</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>2384</v>
+        <v>2378</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>518</v>
@@ -11822,19 +11822,19 @@
         <v>519</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>2393</v>
+        <v>2387</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>2394</v>
+        <v>2388</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>1207</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>1182</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>1183</v>
+        <v>1201</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>1177</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>590</v>
@@ -11942,88 +11942,88 @@
         <v>1135</v>
       </c>
       <c r="AX17" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="AZ17" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="BA17" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="BB17" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="BC17" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="BD17" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="BE17" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="BF17" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="BG17" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="BH17" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="BI17" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="BJ17" t="s">
         <v>661</v>
       </c>
       <c r="BK17" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="BL17" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="BM17" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="BN17" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="BO17" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="BP17" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="BQ17" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="BR17" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="BS17" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="BT17" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="BU17" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="BV17" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
       <c r="BW17" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="BX17" t="s">
-        <v>1596</v>
+        <v>1590</v>
       </c>
       <c r="BY17" t="s">
-        <v>1611</v>
+        <v>1605</v>
       </c>
       <c r="BZ17" t="s">
-        <v>1628</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="18" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -12034,10 +12034,10 @@
         <v>960</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>2378</v>
+        <v>2372</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>2379</v>
+        <v>2373</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>960</v>
@@ -12057,10 +12057,10 @@
       <c r="J18" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="4" t="s">
         <v>960</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="4" t="s">
         <v>960</v>
       </c>
       <c r="M18" s="2" t="s">
@@ -12172,10 +12172,10 @@
         <v>943</v>
       </c>
       <c r="AZ18" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="BA18" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="BB18" t="s">
         <v>960</v>
@@ -12184,7 +12184,7 @@
         <v>960</v>
       </c>
       <c r="BD18" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="BE18" t="s">
         <v>954</v>
@@ -12211,28 +12211,28 @@
         <v>960</v>
       </c>
       <c r="BM18" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="BN18" t="s">
         <v>953</v>
       </c>
       <c r="BO18" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="BP18" t="s">
         <v>943</v>
       </c>
       <c r="BQ18" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
       <c r="BR18" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="BS18" t="s">
         <v>960</v>
       </c>
       <c r="BT18" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="BU18" t="s">
         <v>941</v>
@@ -12241,16 +12241,16 @@
         <v>954</v>
       </c>
       <c r="BW18" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
       <c r="BX18" t="s">
         <v>960</v>
       </c>
       <c r="BY18" s="1" t="s">
-        <v>1612</v>
+        <v>1606</v>
       </c>
       <c r="BZ18" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="19" spans="1:78" x14ac:dyDescent="0.2">
@@ -12282,13 +12282,13 @@
         <v>897</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>1208</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>1185</v>
+        <v>1202</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>1179</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>592</v>
@@ -12396,64 +12396,64 @@
         <v>1133</v>
       </c>
       <c r="AX19" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="AZ19" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="BA19" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="BB19" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="BC19" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="BD19" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="BE19" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="BF19" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="BG19" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="BH19" t="s">
         <v>913</v>
       </c>
       <c r="BI19" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="BJ19" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="BK19" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="BL19" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="BM19" t="s">
         <v>663</v>
       </c>
       <c r="BN19" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="BO19" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="BP19" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="BQ19" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="BR19" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="BS19" t="s">
         <v>993</v>
@@ -12462,22 +12462,22 @@
         <v>994</v>
       </c>
       <c r="BU19" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="BV19" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="BW19" t="s">
-        <v>1585</v>
+        <v>1579</v>
       </c>
       <c r="BX19" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
       <c r="BY19" t="s">
-        <v>1613</v>
+        <v>1607</v>
       </c>
       <c r="BZ19" t="s">
-        <v>1630</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="20" spans="1:78" x14ac:dyDescent="0.2">
@@ -12485,37 +12485,37 @@
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1800</v>
+        <v>1794</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1966</v>
+        <v>1960</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1967</v>
+        <v>1961</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>1636</v>
+        <v>1630</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>1693</v>
+        <v>1687</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>1694</v>
+        <v>1688</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>2090</v>
+        <v>2084</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>2091</v>
+        <v>2085</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>2201</v>
+        <v>2195</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>2275</v>
+        <v>2269</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>2276</v>
+        <v>2270</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -12523,10 +12523,10 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2" t="s">
-        <v>1853</v>
+        <v>1847</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>1854</v>
+        <v>1848</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -12562,37 +12562,37 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1801</v>
+        <v>1795</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1968</v>
+        <v>1962</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1969</v>
+        <v>1963</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>1695</v>
+        <v>1689</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>1696</v>
+        <v>1690</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>2092</v>
+        <v>2086</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>2093</v>
+        <v>2087</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>2202</v>
+        <v>2196</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>2273</v>
+        <v>2267</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>2274</v>
+        <v>2268</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -12600,10 +12600,10 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2" t="s">
-        <v>1855</v>
+        <v>1849</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>1856</v>
+        <v>1850</v>
       </c>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -12639,37 +12639,37 @@
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1805</v>
+        <v>1799</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1970</v>
+        <v>1964</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1971</v>
+        <v>1965</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1638</v>
+        <v>1632</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>1697</v>
+        <v>1691</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>1698</v>
+        <v>1692</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>2094</v>
+        <v>2088</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>2095</v>
+        <v>2089</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>2203</v>
+        <v>2197</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>2271</v>
+        <v>2265</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>2272</v>
+        <v>2266</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -12677,10 +12677,10 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2" t="s">
-        <v>1857</v>
+        <v>1851</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>1858</v>
+        <v>1852</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -12716,37 +12716,37 @@
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1804</v>
+        <v>1798</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1973</v>
+        <v>1967</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1639</v>
+        <v>1633</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>1699</v>
+        <v>1693</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>1700</v>
+        <v>1694</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>2096</v>
+        <v>2090</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>2097</v>
+        <v>2091</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>2204</v>
+        <v>2198</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>2269</v>
+        <v>2263</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>2270</v>
+        <v>2264</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -12754,10 +12754,10 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2" t="s">
-        <v>1859</v>
+        <v>1853</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>1700</v>
+        <v>1694</v>
       </c>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -12793,37 +12793,37 @@
         <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1802</v>
+        <v>1796</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1974</v>
+        <v>1968</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1975</v>
+        <v>1969</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1640</v>
+        <v>1634</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>1701</v>
+        <v>1695</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>2098</v>
+        <v>2092</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>2099</v>
+        <v>2093</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>2267</v>
+        <v>2261</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>2268</v>
+        <v>2262</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -12831,10 +12831,10 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2" t="s">
-        <v>1860</v>
+        <v>1854</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>1861</v>
+        <v>1855</v>
       </c>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -12870,37 +12870,37 @@
         <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1803</v>
+        <v>1797</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1976</v>
+        <v>1970</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1977</v>
+        <v>1971</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1641</v>
+        <v>1635</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>1703</v>
+        <v>1697</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>1704</v>
+        <v>1698</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>2100</v>
+        <v>2094</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>2101</v>
+        <v>2095</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>2206</v>
+        <v>2200</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>2265</v>
+        <v>2259</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>2266</v>
+        <v>2260</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -12908,10 +12908,10 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2" t="s">
-        <v>1862</v>
+        <v>1856</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>1863</v>
+        <v>1857</v>
       </c>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -12947,37 +12947,37 @@
         <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1806</v>
+        <v>1800</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1980</v>
+        <v>1974</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1981</v>
+        <v>1975</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1642</v>
+        <v>1636</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>1705</v>
+        <v>1699</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>2102</v>
+        <v>2096</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>2103</v>
+        <v>2097</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>2207</v>
+        <v>2201</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>2263</v>
+        <v>2257</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>2264</v>
+        <v>2258</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -12985,10 +12985,10 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2" t="s">
-        <v>1864</v>
+        <v>1858</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>1865</v>
+        <v>1859</v>
       </c>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -13024,37 +13024,37 @@
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1807</v>
+        <v>1801</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1982</v>
+        <v>1976</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1983</v>
+        <v>1977</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1643</v>
+        <v>1637</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>1707</v>
+        <v>1701</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>1708</v>
+        <v>1702</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>2104</v>
+        <v>2098</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>2105</v>
+        <v>2099</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>2208</v>
+        <v>2202</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>2261</v>
+        <v>2255</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>2262</v>
+        <v>2256</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -13062,10 +13062,10 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2" t="s">
-        <v>1866</v>
+        <v>1860</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>1867</v>
+        <v>1861</v>
       </c>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -13098,40 +13098,40 @@
     </row>
     <row r="28" spans="1:78" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1808</v>
+        <v>1802</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1984</v>
+        <v>1978</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1985</v>
+        <v>1979</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1644</v>
+        <v>1638</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>1709</v>
+        <v>1703</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>1710</v>
+        <v>1704</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>2106</v>
+        <v>2100</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>2107</v>
+        <v>2101</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>2209</v>
+        <v>2203</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>2260</v>
+        <v>2254</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>2259</v>
+        <v>2253</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -13139,10 +13139,10 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2" t="s">
-        <v>1868</v>
+        <v>1862</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>1869</v>
+        <v>1863</v>
       </c>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -13175,40 +13175,40 @@
     </row>
     <row r="29" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1938</v>
+        <v>1932</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1965</v>
+        <v>1959</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1986</v>
+        <v>1980</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1987</v>
+        <v>1981</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1962</v>
+        <v>1956</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>1963</v>
+        <v>1957</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>1964</v>
+        <v>1958</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>2108</v>
+        <v>2102</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>2109</v>
+        <v>2103</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>2200</v>
+        <v>2194</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>2257</v>
+        <v>2251</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>2258</v>
+        <v>2252</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -13216,10 +13216,10 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2" t="s">
-        <v>1939</v>
+        <v>1933</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>1940</v>
+        <v>1934</v>
       </c>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -13255,37 +13255,37 @@
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1809</v>
+        <v>1803</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1988</v>
+        <v>1982</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1989</v>
+        <v>1983</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1645</v>
+        <v>1639</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1711</v>
+        <v>1705</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1712</v>
+        <v>1706</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>2110</v>
+        <v>2104</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>2111</v>
+        <v>2105</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>2211</v>
+        <v>2205</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>2279</v>
+        <v>2273</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>2280</v>
+        <v>2274</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -13293,10 +13293,10 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2" t="s">
-        <v>1870</v>
+        <v>1864</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
@@ -13332,37 +13332,37 @@
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1810</v>
+        <v>1804</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1995</v>
+        <v>1989</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1996</v>
+        <v>1990</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>1713</v>
+        <v>1707</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>1714</v>
+        <v>1708</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>2112</v>
+        <v>2106</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>2113</v>
+        <v>2107</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>2212</v>
+        <v>2206</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>2283</v>
+        <v>2277</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>2284</v>
+        <v>2278</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -13370,10 +13370,10 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2" t="s">
-        <v>1873</v>
+        <v>1867</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>1872</v>
+        <v>1866</v>
       </c>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
@@ -13409,37 +13409,37 @@
         <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1811</v>
+        <v>1805</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>1997</v>
+        <v>1991</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>1998</v>
+        <v>1992</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>1715</v>
+        <v>1709</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>1716</v>
+        <v>1710</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>2114</v>
+        <v>2108</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>2115</v>
+        <v>2109</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>2213</v>
+        <v>2207</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>2281</v>
+        <v>2275</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>2282</v>
+        <v>2276</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -13447,10 +13447,10 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2" t="s">
-        <v>1874</v>
+        <v>1868</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>1875</v>
+        <v>1869</v>
       </c>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
@@ -13486,37 +13486,37 @@
         <v>11</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1812</v>
+        <v>1806</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>1999</v>
+        <v>1993</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>1718</v>
+        <v>1712</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>2116</v>
+        <v>2110</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>2117</v>
+        <v>2111</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>2214</v>
+        <v>2208</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>2285</v>
+        <v>2279</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>2286</v>
+        <v>2280</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -13524,10 +13524,10 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2" t="s">
-        <v>1876</v>
+        <v>1870</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>1877</v>
+        <v>1871</v>
       </c>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
@@ -13563,37 +13563,37 @@
         <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1813</v>
+        <v>1807</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>2001</v>
+        <v>1995</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1649</v>
+        <v>1643</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>1719</v>
+        <v>1713</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>1720</v>
+        <v>1714</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>2118</v>
+        <v>2112</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>2119</v>
+        <v>2113</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>2215</v>
+        <v>2209</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>2287</v>
+        <v>2281</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>2322</v>
+        <v>2316</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -13601,10 +13601,10 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>1879</v>
+        <v>1873</v>
       </c>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
@@ -13640,37 +13640,37 @@
         <v>13</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1814</v>
+        <v>1808</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>1721</v>
+        <v>1715</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>2120</v>
+        <v>2114</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>2121</v>
+        <v>2115</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>2216</v>
+        <v>2210</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>2288</v>
+        <v>2282</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>2289</v>
+        <v>2283</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -13678,10 +13678,10 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2" t="s">
-        <v>1880</v>
+        <v>1874</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>1881</v>
+        <v>1875</v>
       </c>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
@@ -13714,40 +13714,40 @@
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1815</v>
+        <v>1809</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1651</v>
+        <v>1645</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>1724</v>
+        <v>1718</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>2122</v>
+        <v>2116</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>2123</v>
+        <v>2117</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>2217</v>
+        <v>2211</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>2290</v>
+        <v>2284</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>2291</v>
+        <v>2285</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -13755,10 +13755,10 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2" t="s">
-        <v>1882</v>
+        <v>1876</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>1883</v>
+        <v>1877</v>
       </c>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
@@ -13794,37 +13794,37 @@
         <v>502</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1816</v>
+        <v>1810</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1652</v>
+        <v>1646</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>2124</v>
+        <v>2118</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>2125</v>
+        <v>2119</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>2218</v>
+        <v>2212</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>2292</v>
+        <v>2286</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>2293</v>
+        <v>2287</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -13832,10 +13832,10 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2" t="s">
-        <v>1884</v>
+        <v>1878</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>1885</v>
+        <v>1879</v>
       </c>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
@@ -13871,37 +13871,37 @@
         <v>14</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1817</v>
+        <v>1811</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>1727</v>
+        <v>1721</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>1728</v>
+        <v>1722</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>2126</v>
+        <v>2120</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>2127</v>
+        <v>2121</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>2219</v>
+        <v>2213</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>2294</v>
+        <v>2288</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>2295</v>
+        <v>2289</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -13909,10 +13909,10 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2" t="s">
-        <v>1886</v>
+        <v>1880</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>1887</v>
+        <v>1881</v>
       </c>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
@@ -13948,37 +13948,37 @@
         <v>15</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1818</v>
+        <v>1812</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>1730</v>
+        <v>1724</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>2128</v>
+        <v>2122</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>2129</v>
+        <v>2123</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>2210</v>
+        <v>2204</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>2277</v>
+        <v>2271</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>2278</v>
+        <v>2272</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -13986,10 +13986,10 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2" t="s">
-        <v>1889</v>
+        <v>1883</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>1888</v>
+        <v>1882</v>
       </c>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
@@ -14025,37 +14025,37 @@
         <v>16</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1819</v>
+        <v>1813</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>2130</v>
+        <v>2124</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>2131</v>
+        <v>2125</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>2221</v>
+        <v>2215</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>2298</v>
+        <v>2292</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>2299</v>
+        <v>2293</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -14063,10 +14063,10 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2" t="s">
-        <v>1890</v>
+        <v>1884</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>1891</v>
+        <v>1885</v>
       </c>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
@@ -14102,37 +14102,37 @@
         <v>17</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>1656</v>
+        <v>1650</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>2132</v>
+        <v>2126</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>2133</v>
+        <v>2127</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>2222</v>
+        <v>2216</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>2300</v>
+        <v>2294</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>2301</v>
+        <v>2295</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -14140,10 +14140,10 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2" t="s">
-        <v>1892</v>
+        <v>1886</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>1893</v>
+        <v>1887</v>
       </c>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
@@ -14179,37 +14179,37 @@
         <v>18</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1821</v>
+        <v>1815</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>1736</v>
+        <v>1730</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>2134</v>
+        <v>2128</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>2135</v>
+        <v>2129</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>2223</v>
+        <v>2217</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>2302</v>
+        <v>2296</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>2303</v>
+        <v>2297</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -14217,10 +14217,10 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2" t="s">
-        <v>1894</v>
+        <v>1888</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>1895</v>
+        <v>1889</v>
       </c>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
@@ -14256,37 +14256,37 @@
         <v>490</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1822</v>
+        <v>1816</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>2136</v>
+        <v>2130</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>2137</v>
+        <v>2131</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>2224</v>
+        <v>2218</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>2304</v>
+        <v>2298</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>2305</v>
+        <v>2299</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -14294,10 +14294,10 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2" t="s">
-        <v>1896</v>
+        <v>1890</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>1897</v>
+        <v>1891</v>
       </c>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
@@ -14333,37 +14333,37 @@
         <v>19</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1823</v>
+        <v>1817</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>2138</v>
+        <v>2132</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>2139</v>
+        <v>2133</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>2225</v>
+        <v>2219</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>2308</v>
+        <v>2302</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>2309</v>
+        <v>2303</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -14371,10 +14371,10 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2" t="s">
-        <v>1898</v>
+        <v>1892</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>1899</v>
+        <v>1893</v>
       </c>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
@@ -14407,40 +14407,40 @@
     </row>
     <row r="45" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1660</v>
+        <v>1654</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1824</v>
+        <v>1818</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>1661</v>
+        <v>1655</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>2140</v>
+        <v>2134</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>2141</v>
+        <v>2135</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>2226</v>
+        <v>2220</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>2306</v>
+        <v>2300</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>2307</v>
+        <v>2301</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -14448,10 +14448,10 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2" t="s">
-        <v>1900</v>
+        <v>1894</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>1901</v>
+        <v>1895</v>
       </c>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
@@ -14487,37 +14487,37 @@
         <v>20</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1825</v>
+        <v>1819</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>2027</v>
+        <v>2021</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>2028</v>
+        <v>2022</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>1743</v>
+        <v>1737</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>2142</v>
+        <v>2136</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>2143</v>
+        <v>2137</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>2227</v>
+        <v>2221</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>2310</v>
+        <v>2304</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>2311</v>
+        <v>2305</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -14525,10 +14525,10 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2" t="s">
-        <v>1902</v>
+        <v>1896</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>1903</v>
+        <v>1897</v>
       </c>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
@@ -14564,37 +14564,37 @@
         <v>21</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1826</v>
+        <v>1820</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>2029</v>
+        <v>2023</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>2030</v>
+        <v>2024</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>1745</v>
+        <v>1739</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>1746</v>
+        <v>1740</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>2144</v>
+        <v>2138</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>2145</v>
+        <v>2139</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>2228</v>
+        <v>2222</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>2312</v>
+        <v>2306</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>2313</v>
+        <v>2307</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -14602,10 +14602,10 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2" t="s">
-        <v>1904</v>
+        <v>1898</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>1905</v>
+        <v>1899</v>
       </c>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
@@ -14641,37 +14641,37 @@
         <v>565</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>2031</v>
+        <v>2025</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>2032</v>
+        <v>2026</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>1747</v>
+        <v>1741</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>2146</v>
+        <v>2140</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>2147</v>
+        <v>2141</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>2229</v>
+        <v>2223</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>2314</v>
+        <v>2308</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>2315</v>
+        <v>2309</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -14679,10 +14679,10 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="3" t="s">
-        <v>1906</v>
+        <v>1900</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>1907</v>
+        <v>1901</v>
       </c>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
@@ -14718,37 +14718,37 @@
         <v>22</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1828</v>
+        <v>1822</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>2033</v>
+        <v>2027</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>2034</v>
+        <v>2028</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>1750</v>
+        <v>1744</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>2149</v>
+        <v>2143</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>2148</v>
+        <v>2142</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>2220</v>
+        <v>2214</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>2296</v>
+        <v>2290</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>2297</v>
+        <v>2291</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -14756,10 +14756,10 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2" t="s">
-        <v>1908</v>
+        <v>1902</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>1909</v>
+        <v>1903</v>
       </c>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
@@ -14795,37 +14795,37 @@
         <v>23</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1829</v>
+        <v>1823</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>2035</v>
+        <v>2029</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>2036</v>
+        <v>2030</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>2150</v>
+        <v>2144</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>2151</v>
+        <v>2145</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>2231</v>
+        <v>2225</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>2318</v>
+        <v>2312</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>2319</v>
+        <v>2313</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -14833,10 +14833,10 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2" t="s">
-        <v>1910</v>
+        <v>1904</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>1911</v>
+        <v>1905</v>
       </c>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
@@ -14869,40 +14869,40 @@
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1830</v>
+        <v>1824</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>2037</v>
+        <v>2031</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>2038</v>
+        <v>2032</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>1668</v>
+        <v>1662</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>1754</v>
+        <v>1748</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>1753</v>
+        <v>1747</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>2152</v>
+        <v>2146</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>2153</v>
+        <v>2147</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>2232</v>
+        <v>2226</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>2320</v>
+        <v>2314</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>2321</v>
+        <v>2315</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -14910,10 +14910,10 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2" t="s">
-        <v>1912</v>
+        <v>1906</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>1913</v>
+        <v>1907</v>
       </c>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
@@ -14949,37 +14949,37 @@
         <v>24</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1831</v>
+        <v>1825</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>2039</v>
+        <v>2033</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>2040</v>
+        <v>2034</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>1669</v>
+        <v>1663</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>1755</v>
+        <v>1749</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>1756</v>
+        <v>1750</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>2154</v>
+        <v>2148</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>2155</v>
+        <v>2149</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>2233</v>
+        <v>2227</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>2324</v>
+        <v>2318</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>2323</v>
+        <v>2317</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -14987,10 +14987,10 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2" t="s">
-        <v>1914</v>
+        <v>1908</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>1915</v>
+        <v>1909</v>
       </c>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
@@ -15023,40 +15023,40 @@
     </row>
     <row r="53" spans="1:47" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1670</v>
+        <v>1664</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1832</v>
+        <v>1826</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>2041</v>
+        <v>2035</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>2042</v>
+        <v>2036</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>1757</v>
+        <v>1751</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>1758</v>
+        <v>1752</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>2156</v>
+        <v>2150</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>2157</v>
+        <v>2151</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>2234</v>
+        <v>2228</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>2325</v>
+        <v>2319</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>2326</v>
+        <v>2320</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -15064,10 +15064,10 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="3" t="s">
-        <v>1916</v>
+        <v>1910</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>1917</v>
+        <v>1911</v>
       </c>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
@@ -15103,37 +15103,37 @@
         <v>25</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1833</v>
+        <v>1827</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>2043</v>
+        <v>2037</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>2044</v>
+        <v>2038</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>1759</v>
+        <v>1753</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>1760</v>
+        <v>1754</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>2158</v>
+        <v>2152</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>2159</v>
+        <v>2153</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>2235</v>
+        <v>2229</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>2327</v>
+        <v>2321</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>2328</v>
+        <v>2322</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -15141,10 +15141,10 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2" t="s">
-        <v>1918</v>
+        <v>1912</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>1919</v>
+        <v>1913</v>
       </c>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
@@ -15180,37 +15180,37 @@
         <v>491</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1834</v>
+        <v>1828</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>2045</v>
+        <v>2039</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>2046</v>
+        <v>2040</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>1761</v>
+        <v>1755</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>2160</v>
+        <v>2154</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>2161</v>
+        <v>2155</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>2236</v>
+        <v>2230</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>2329</v>
+        <v>2323</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>2330</v>
+        <v>2324</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -15218,10 +15218,10 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2" t="s">
-        <v>1920</v>
+        <v>1914</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>1921</v>
+        <v>1915</v>
       </c>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
@@ -15257,37 +15257,37 @@
         <v>26</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1835</v>
+        <v>1829</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>2047</v>
+        <v>2041</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>2048</v>
+        <v>2042</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>1674</v>
+        <v>1668</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>1763</v>
+        <v>1757</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>1764</v>
+        <v>1758</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>2162</v>
+        <v>2156</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>2163</v>
+        <v>2157</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>2237</v>
+        <v>2231</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>2333</v>
+        <v>2327</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>2334</v>
+        <v>2328</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -15295,10 +15295,10 @@
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2" t="s">
-        <v>1922</v>
+        <v>1916</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>1923</v>
+        <v>1917</v>
       </c>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
@@ -15334,37 +15334,37 @@
         <v>27</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1836</v>
+        <v>1830</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>2049</v>
+        <v>2043</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>2050</v>
+        <v>2044</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>1675</v>
+        <v>1669</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>1765</v>
+        <v>1759</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>1766</v>
+        <v>1760</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>2164</v>
+        <v>2158</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>2165</v>
+        <v>2159</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>2238</v>
+        <v>2232</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>2331</v>
+        <v>2325</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>2332</v>
+        <v>2326</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -15372,10 +15372,10 @@
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2" t="s">
-        <v>1924</v>
+        <v>1918</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>1925</v>
+        <v>1919</v>
       </c>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
@@ -15411,37 +15411,37 @@
         <v>28</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1837</v>
+        <v>1831</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>2051</v>
+        <v>2045</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>2052</v>
+        <v>2046</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>1767</v>
+        <v>1761</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>1768</v>
+        <v>1762</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>2166</v>
+        <v>2160</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>2167</v>
+        <v>2161</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>2239</v>
+        <v>2233</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>2335</v>
+        <v>2329</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>2336</v>
+        <v>2330</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -15449,10 +15449,10 @@
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2" t="s">
-        <v>1926</v>
+        <v>1920</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>1927</v>
+        <v>1921</v>
       </c>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
@@ -15488,37 +15488,37 @@
         <v>29</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1838</v>
+        <v>1832</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>2053</v>
+        <v>2047</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>2054</v>
+        <v>2048</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>1769</v>
+        <v>1763</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>1770</v>
+        <v>1764</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>2168</v>
+        <v>2162</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>2169</v>
+        <v>2163</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>2316</v>
+        <v>2310</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>2317</v>
+        <v>2311</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -15526,10 +15526,10 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2" t="s">
-        <v>1928</v>
+        <v>1922</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>1929</v>
+        <v>1923</v>
       </c>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
@@ -15565,37 +15565,37 @@
         <v>30</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1839</v>
+        <v>1833</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>2055</v>
+        <v>2049</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>2056</v>
+        <v>2050</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>1678</v>
+        <v>1672</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>1771</v>
+        <v>1765</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>1772</v>
+        <v>1766</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>2170</v>
+        <v>2164</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>2171</v>
+        <v>2165</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>2242</v>
+        <v>2236</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>2340</v>
+        <v>2334</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>2339</v>
+        <v>2333</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -15603,10 +15603,10 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2" t="s">
-        <v>1930</v>
+        <v>1924</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>1931</v>
+        <v>1925</v>
       </c>
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
@@ -15642,37 +15642,37 @@
         <v>31</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1840</v>
+        <v>1834</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>2057</v>
+        <v>2051</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>2058</v>
+        <v>2052</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>1679</v>
+        <v>1673</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>1774</v>
+        <v>1768</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>1773</v>
+        <v>1767</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>2172</v>
+        <v>2166</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>2173</v>
+        <v>2167</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>2243</v>
+        <v>2237</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>2341</v>
+        <v>2335</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>2342</v>
+        <v>2336</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -15680,10 +15680,10 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="3" t="s">
-        <v>1932</v>
+        <v>1926</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>1933</v>
+        <v>1927</v>
       </c>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
@@ -15719,37 +15719,37 @@
         <v>32</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1841</v>
+        <v>1835</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>2059</v>
+        <v>2053</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>2060</v>
+        <v>2054</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>1775</v>
+        <v>1769</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>1776</v>
+        <v>1770</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>2174</v>
+        <v>2168</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>2175</v>
+        <v>2169</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>2244</v>
+        <v>2238</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>2343</v>
+        <v>2337</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>2344</v>
+        <v>2338</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -15757,10 +15757,10 @@
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2" t="s">
-        <v>1934</v>
+        <v>1928</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>1935</v>
+        <v>1929</v>
       </c>
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
@@ -15793,40 +15793,40 @@
     </row>
     <row r="63" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>2246</v>
+        <v>2240</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1842</v>
+        <v>1836</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>2061</v>
+        <v>2055</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>2062</v>
+        <v>2056</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>1681</v>
+        <v>1675</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>1777</v>
+        <v>1771</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>1778</v>
+        <v>1772</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>2176</v>
+        <v>2170</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>2177</v>
+        <v>2171</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>2245</v>
+        <v>2239</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>2345</v>
+        <v>2339</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>2346</v>
+        <v>2340</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -15834,10 +15834,10 @@
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2" t="s">
-        <v>1936</v>
+        <v>1930</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>1937</v>
+        <v>1931</v>
       </c>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
@@ -15873,37 +15873,37 @@
         <v>33</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1843</v>
+        <v>1837</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>2063</v>
+        <v>2057</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>2064</v>
+        <v>2058</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>1682</v>
+        <v>1676</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>1780</v>
+        <v>1774</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>1779</v>
+        <v>1773</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>2178</v>
+        <v>2172</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>2179</v>
+        <v>2173</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>2247</v>
+        <v>2241</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>2347</v>
+        <v>2341</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>2348</v>
+        <v>2342</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -15911,10 +15911,10 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2" t="s">
-        <v>1941</v>
+        <v>1935</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>1942</v>
+        <v>1936</v>
       </c>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
@@ -15950,37 +15950,37 @@
         <v>34</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1844</v>
+        <v>1838</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>2065</v>
+        <v>2059</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>2066</v>
+        <v>2060</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>1683</v>
+        <v>1677</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>1781</v>
+        <v>1775</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>1782</v>
+        <v>1776</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>2180</v>
+        <v>2174</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>2181</v>
+        <v>2175</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>2248</v>
+        <v>2242</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>2351</v>
+        <v>2345</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>2352</v>
+        <v>2346</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -15988,10 +15988,10 @@
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2" t="s">
-        <v>1943</v>
+        <v>1937</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>1944</v>
+        <v>1938</v>
       </c>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
@@ -16027,37 +16027,37 @@
         <v>35</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1845</v>
+        <v>1839</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>2067</v>
+        <v>2061</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>2068</v>
+        <v>2062</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>1684</v>
+        <v>1678</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>1783</v>
+        <v>1777</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>1784</v>
+        <v>1778</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>2182</v>
+        <v>2176</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>2183</v>
+        <v>2177</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>2249</v>
+        <v>2243</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>2349</v>
+        <v>2343</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>2350</v>
+        <v>2344</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -16065,10 +16065,10 @@
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2" t="s">
-        <v>1945</v>
+        <v>1939</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>1946</v>
+        <v>1940</v>
       </c>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
@@ -16104,37 +16104,37 @@
         <v>36</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1846</v>
+        <v>1840</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>2074</v>
+        <v>2068</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>2075</v>
+        <v>2069</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>1785</v>
+        <v>1779</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>1786</v>
+        <v>1780</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>2184</v>
+        <v>2178</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>2185</v>
+        <v>2179</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>2250</v>
+        <v>2244</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>2337</v>
+        <v>2331</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>2338</v>
+        <v>2332</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -16142,10 +16142,10 @@
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2" t="s">
-        <v>1947</v>
+        <v>1941</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>1948</v>
+        <v>1942</v>
       </c>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
@@ -16181,37 +16181,37 @@
         <v>37</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1847</v>
+        <v>1841</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>2076</v>
+        <v>2070</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>2077</v>
+        <v>2071</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>1787</v>
+        <v>1781</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>1788</v>
+        <v>1782</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>2186</v>
+        <v>2180</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>2187</v>
+        <v>2181</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>2251</v>
+        <v>2245</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>2353</v>
+        <v>2347</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>2354</v>
+        <v>2348</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -16219,10 +16219,10 @@
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2" t="s">
-        <v>1949</v>
+        <v>1943</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>1950</v>
+        <v>1944</v>
       </c>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
@@ -16255,40 +16255,40 @@
     </row>
     <row r="69" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>2241</v>
+        <v>2235</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>960</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>2078</v>
+        <v>2072</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>2079</v>
+        <v>2073</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>1799</v>
+        <v>1793</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>1789</v>
+        <v>1783</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>1790</v>
+        <v>1784</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>2188</v>
+        <v>2182</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>2189</v>
+        <v>2183</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>2240</v>
+        <v>2234</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>2355</v>
+        <v>2349</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>2356</v>
+        <v>2350</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -16296,10 +16296,10 @@
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="2" t="s">
-        <v>1951</v>
+        <v>1945</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>1952</v>
+        <v>1946</v>
       </c>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
@@ -16335,37 +16335,37 @@
         <v>38</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1848</v>
+        <v>1842</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>2080</v>
+        <v>2074</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>2081</v>
+        <v>2075</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1687</v>
+        <v>1681</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>1791</v>
+        <v>1785</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>1792</v>
+        <v>1786</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>2190</v>
+        <v>2184</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>2191</v>
+        <v>2185</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>2252</v>
+        <v>2246</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>2357</v>
+        <v>2351</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>2358</v>
+        <v>2352</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -16373,10 +16373,10 @@
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="2" t="s">
-        <v>1953</v>
+        <v>1947</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>1954</v>
+        <v>1948</v>
       </c>
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
@@ -16412,16 +16412,16 @@
         <v>39</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1849</v>
+        <v>1843</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>2082</v>
+        <v>2076</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>2083</v>
+        <v>2077</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1688</v>
+        <v>1682</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>960</v>
@@ -16430,19 +16430,19 @@
         <v>960</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>2193</v>
+        <v>2187</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>2253</v>
+        <v>2247</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>2359</v>
+        <v>2353</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>2360</v>
+        <v>2354</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -16486,40 +16486,40 @@
     </row>
     <row r="72" spans="1:47" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1955</v>
+        <v>1949</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1850</v>
+        <v>1844</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>2084</v>
+        <v>2078</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>2085</v>
+        <v>2079</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1689</v>
+        <v>1683</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>1793</v>
+        <v>1787</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>1794</v>
+        <v>1788</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>2195</v>
+        <v>2189</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>2254</v>
+        <v>2248</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>2361</v>
+        <v>2355</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>2362</v>
+        <v>2356</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -16527,10 +16527,10 @@
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
       <c r="R72" s="2" t="s">
-        <v>1956</v>
+        <v>1950</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>1957</v>
+        <v>1951</v>
       </c>
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
@@ -16566,37 +16566,37 @@
         <v>40</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1851</v>
+        <v>1845</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>2086</v>
+        <v>2080</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>2087</v>
+        <v>2081</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>1795</v>
+        <v>1789</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>1796</v>
+        <v>1790</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>2196</v>
+        <v>2190</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>2197</v>
+        <v>2191</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>2255</v>
+        <v>2249</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>2363</v>
+        <v>2357</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>2364</v>
+        <v>2358</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -16604,10 +16604,10 @@
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="2" t="s">
-        <v>1958</v>
+        <v>1952</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>1959</v>
+        <v>1953</v>
       </c>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
@@ -16643,37 +16643,37 @@
         <v>41</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1852</v>
+        <v>1846</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>2088</v>
+        <v>2082</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>1691</v>
+        <v>1685</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>1797</v>
+        <v>1791</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>1798</v>
+        <v>1792</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>2198</v>
+        <v>2192</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>2199</v>
+        <v>2193</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>2256</v>
+        <v>2250</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>2365</v>
+        <v>2359</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>2366</v>
+        <v>2360</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -16681,10 +16681,10 @@
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="2" t="s">
-        <v>1960</v>
+        <v>1954</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>1961</v>
+        <v>1955</v>
       </c>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
@@ -16777,12 +16777,12 @@
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1991</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1994</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
@@ -17044,7 +17044,7 @@
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>2070</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
@@ -17064,7 +17064,7 @@
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>2026</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
@@ -17219,7 +17219,7 @@
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>2069</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
@@ -17314,7 +17314,7 @@
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1634</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
@@ -17369,7 +17369,7 @@
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1992</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
@@ -17439,7 +17439,7 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1635</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
@@ -17609,7 +17609,7 @@
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1692</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
@@ -17724,7 +17724,7 @@
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1993</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
@@ -17759,7 +17759,7 @@
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>2025</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
@@ -17999,7 +17999,7 @@
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
@@ -18084,7 +18084,7 @@
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
@@ -18229,7 +18229,7 @@
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>1990</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
@@ -18249,7 +18249,7 @@
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>1979</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
@@ -18699,7 +18699,7 @@
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>1631</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
@@ -18714,7 +18714,7 @@
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>2072</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
@@ -18744,7 +18744,7 @@
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>2071</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
@@ -18864,7 +18864,7 @@
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>2073</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
@@ -18909,7 +18909,7 @@
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>1978</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.2">
@@ -18939,7 +18939,7 @@
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>1632</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.2">

--- a/historical/data/data_strict.xlsx
+++ b/historical/data/data_strict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA90C31-94AE-D34F-BB5C-8FE4D369537C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA6F075-1E0E-3E4D-ADA0-FD4A0EC9168D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46220" yWindow="-3100" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="2395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="2392">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -1792,12 +1792,6 @@
     <t>Chā'i</t>
   </si>
   <si>
-    <t>জিজ্ঞাসা</t>
-  </si>
-  <si>
-    <t>Jijñāsā</t>
-  </si>
-  <si>
     <t>শরৎ</t>
   </si>
   <si>
@@ -1825,9 +1819,6 @@
     <t>životinja</t>
   </si>
   <si>
-    <t>odgovori</t>
-  </si>
-  <si>
     <t>ant, mrav</t>
   </si>
   <si>
@@ -1840,15 +1831,9 @@
     <t>jasen</t>
   </si>
   <si>
-    <t>strelica</t>
-  </si>
-  <si>
     <t>leather</t>
   </si>
   <si>
-    <t>stidim se, posramljen, postiđen</t>
-  </si>
-  <si>
     <t>pepeo</t>
   </si>
   <si>
@@ -2650,9 +2635,6 @@
     <t>ljut</t>
   </si>
   <si>
-    <t>pitaj, pitati</t>
-  </si>
-  <si>
     <t>питам</t>
   </si>
   <si>
@@ -2900,9 +2882,6 @@
   </si>
   <si>
     <t>shilo</t>
-  </si>
-  <si>
-    <t>awl, šilo</t>
   </si>
   <si>
     <t>шыла</t>
@@ -7230,6 +7209,18 @@
   </si>
   <si>
     <t>Pākhurā, Bāhu</t>
+  </si>
+  <si>
+    <t>জিজ্ঞাসা করা</t>
+  </si>
+  <si>
+    <t>Jijñāsā karā</t>
+  </si>
+  <si>
+    <t>strelica, strijela</t>
+  </si>
+  <si>
+    <t>stidim se</t>
   </si>
 </sst>
 </file>
@@ -8090,10 +8081,10 @@
   <dimension ref="A1:BZ532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8181,10 +8172,10 @@
         <v>522</v>
       </c>
       <c r="C1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D1" t="s">
         <v>637</v>
-      </c>
-      <c r="D1" t="s">
-        <v>642</v>
       </c>
       <c r="E1" t="s">
         <v>486</v>
@@ -8196,19 +8187,19 @@
         <v>499</v>
       </c>
       <c r="H1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="I1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="J1" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="K1" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="L1" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="M1" t="s">
         <v>566</v>
@@ -8216,14 +8207,14 @@
       <c r="N1" t="s">
         <v>567</v>
       </c>
-      <c r="O1" t="s">
-        <v>594</v>
+      <c r="O1" s="4" t="s">
+        <v>592</v>
       </c>
       <c r="P1" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="Q1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="R1" t="s">
         <v>536</v>
@@ -8232,172 +8223,172 @@
         <v>537</v>
       </c>
       <c r="T1" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="U1" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="V1" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="W1" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="X1" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="Y1" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="Z1" t="s">
+        <v>746</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>747</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>748</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>749</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>750</v>
+      </c>
+      <c r="AE1" t="s">
         <v>751</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AF1" t="s">
         <v>752</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AG1" t="s">
         <v>753</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AH1" t="s">
         <v>754</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AI1" t="s">
+        <v>955</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>755</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AK1" t="s">
+        <v>995</v>
+      </c>
+      <c r="AL1" t="s">
         <v>756</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AM1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AN1" t="s">
         <v>757</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AO1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AP1" t="s">
         <v>758</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AQ1" t="s">
         <v>759</v>
       </c>
-      <c r="AI1" t="s">
-        <v>962</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="AR1" t="s">
         <v>760</v>
       </c>
-      <c r="AK1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="AL1" t="s">
+      <c r="AS1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AT1" t="s">
         <v>761</v>
       </c>
-      <c r="AM1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>762</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="AP1" t="s">
+      <c r="AU1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AX1" t="s">
         <v>763</v>
       </c>
-      <c r="AQ1" t="s">
-        <v>764</v>
-      </c>
-      <c r="AR1" t="s">
+      <c r="AZ1" t="s">
         <v>765</v>
       </c>
-      <c r="AS1" t="s">
-        <v>1103</v>
-      </c>
-      <c r="AT1" t="s">
+      <c r="BA1" t="s">
         <v>766</v>
       </c>
-      <c r="AU1" t="s">
-        <v>1132</v>
-      </c>
-      <c r="AX1" t="s">
+      <c r="BB1" t="s">
+        <v>767</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="BD1" t="s">
         <v>768</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BE1" t="s">
+        <v>769</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="BG1" t="s">
         <v>770</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BH1" t="s">
         <v>771</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BI1" t="s">
         <v>772</v>
       </c>
-      <c r="BC1" t="s">
-        <v>1236</v>
-      </c>
-      <c r="BD1" t="s">
+      <c r="BJ1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="BK1" t="s">
         <v>773</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BL1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="BM1" t="s">
         <v>774</v>
       </c>
-      <c r="BF1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="BG1" t="s">
+      <c r="BN1" t="s">
         <v>775</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BO1" t="s">
         <v>776</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BP1" t="s">
         <v>777</v>
       </c>
-      <c r="BJ1" t="s">
-        <v>1326</v>
-      </c>
-      <c r="BK1" t="s">
+      <c r="BQ1" t="s">
         <v>778</v>
       </c>
-      <c r="BL1" t="s">
-        <v>1348</v>
-      </c>
-      <c r="BM1" t="s">
+      <c r="BR1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="BS1" t="s">
         <v>779</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BT1" t="s">
         <v>780</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BU1" t="s">
         <v>781</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BV1" t="s">
         <v>782</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BW1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="BX1" t="s">
         <v>783</v>
       </c>
-      <c r="BR1" t="s">
-        <v>1429</v>
-      </c>
-      <c r="BS1" t="s">
+      <c r="BY1" t="s">
         <v>784</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BZ1" t="s">
         <v>785</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>786</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>787</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>1551</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>788</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>789</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="2" spans="1:78" x14ac:dyDescent="0.2">
@@ -8437,13 +8428,13 @@
       <c r="L2" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="4" t="s">
         <v>488</v>
       </c>
       <c r="P2" s="2" t="s">
@@ -8504,7 +8495,7 @@
         <v>488</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>488</v>
@@ -8516,7 +8507,7 @@
         <v>488</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="AN2" s="2" t="s">
         <v>488</v>
@@ -8629,223 +8620,223 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1471</v>
+        <v>1464</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>1487</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
+        <v>2367</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>1478</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>1493</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>1494</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>2374</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="J3" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>1514</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>1496</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>1483</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>1485</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>1486</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>1500</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>1501</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>960</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>1521</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>1503</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="O3" s="2" t="s">
+      <c r="R3" s="2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>1490</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>1491</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>1492</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>1488</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>1489</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>1490</v>
-      </c>
-      <c r="U3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>1495</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>1496</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>1497</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>1498</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>1499</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>1502</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>1503</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>1504</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>1505</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>1506</v>
       </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="AO3" s="2" t="s">
         <v>1507</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>1508</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>1509</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>1510</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>1511</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>1512</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>1513</v>
       </c>
-      <c r="AO3" s="2" t="s">
-        <v>1514</v>
-      </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AX3" t="s">
         <v>1515</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AZ3" t="s">
         <v>1516</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="BA3" t="s">
         <v>1517</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="BB3" t="s">
         <v>1518</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="BC3" t="s">
         <v>1519</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="BD3" t="s">
         <v>1520</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="BE3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="BF3" t="s">
         <v>1522</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BG3" t="s">
         <v>1523</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BH3" t="s">
         <v>1524</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BI3" t="s">
         <v>1525</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BJ3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>953</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>953</v>
+      </c>
+      <c r="BM3" t="s">
         <v>1526</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BN3" t="s">
         <v>1527</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BO3" t="s">
         <v>1528</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BP3" t="s">
         <v>1529</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BQ3" t="s">
         <v>1530</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BR3" t="s">
         <v>1531</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BS3" t="s">
         <v>1532</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>1490</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>960</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>960</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>1533</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>1534</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>1535</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>1536</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>1537</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>1538</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>1539</v>
-      </c>
       <c r="BT3" t="s">
-        <v>1472</v>
+        <v>1465</v>
       </c>
       <c r="BU3" t="s">
-        <v>1471</v>
+        <v>1464</v>
       </c>
       <c r="BV3" t="s">
-        <v>1553</v>
+        <v>1546</v>
       </c>
       <c r="BW3" t="s">
-        <v>1554</v>
+        <v>1547</v>
       </c>
       <c r="BX3" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="BY3" t="s">
-        <v>1592</v>
+        <v>1585</v>
       </c>
       <c r="BZ3" t="s">
-        <v>1608</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="4" spans="1:78" x14ac:dyDescent="0.2">
@@ -8856,10 +8847,10 @@
         <v>523</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>489</v>
@@ -8871,34 +8862,34 @@
         <v>501</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>960</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>595</v>
+        <v>953</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>593</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>538</v>
@@ -8907,172 +8898,172 @@
         <v>539</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="AK4" s="2" t="s">
         <v>473</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="AO4" s="2" t="s">
         <v>473</v>
       </c>
       <c r="AP4" s="2" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="AQ4" s="2" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="AT4" s="2" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="AU4" s="2" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="AX4" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="AZ4" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="BA4" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="BB4" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="BC4" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="BD4" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="BE4" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
       <c r="BF4" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
       <c r="BG4" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="BH4" t="s">
-        <v>1314</v>
+        <v>1307</v>
       </c>
       <c r="BI4" t="s">
-        <v>1327</v>
+        <v>1320</v>
       </c>
       <c r="BJ4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="BK4" t="s">
-        <v>1347</v>
+        <v>1340</v>
       </c>
       <c r="BL4" t="s">
-        <v>1349</v>
+        <v>1342</v>
       </c>
       <c r="BM4" t="s">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="BN4" t="s">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="BO4" t="s">
-        <v>1402</v>
+        <v>1395</v>
       </c>
       <c r="BP4" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="BQ4" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="BR4" t="s">
         <v>473</v>
       </c>
       <c r="BS4" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="BT4" t="s">
-        <v>1470</v>
+        <v>1463</v>
       </c>
       <c r="BU4" t="s">
         <v>473</v>
       </c>
       <c r="BV4" t="s">
-        <v>1550</v>
+        <v>1543</v>
       </c>
       <c r="BW4" t="s">
-        <v>1552</v>
+        <v>1545</v>
       </c>
       <c r="BX4" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="BY4" t="s">
-        <v>1593</v>
+        <v>1586</v>
       </c>
       <c r="BZ4" t="s">
-        <v>1609</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="5" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9080,16 +9071,16 @@
         <v>474</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2361</v>
+        <v>2354</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>2364</v>
+        <v>2357</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>2370</v>
+        <v>2363</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>503</v>
@@ -9098,34 +9089,34 @@
         <v>504</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>2389</v>
+        <v>2382</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>2391</v>
-      </c>
-      <c r="M5" s="2" t="s">
+        <v>2384</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>871</v>
+      <c r="O5" s="4" t="s">
+        <v>866</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="R5" s="2" t="s">
         <v>540</v>
@@ -9134,172 +9125,172 @@
         <v>541</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="AS5" s="2" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="AT5" s="2" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="AU5" s="2" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="AX5" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="AZ5" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="BA5" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
       <c r="BB5" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
       <c r="BC5" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="BD5" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
       <c r="BE5" t="s">
-        <v>1279</v>
+        <v>1272</v>
       </c>
       <c r="BF5" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="BG5" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
       <c r="BH5" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="BI5" t="s">
-        <v>1328</v>
+        <v>1321</v>
       </c>
       <c r="BJ5" t="s">
-        <v>1329</v>
+        <v>1322</v>
       </c>
       <c r="BK5" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="BL5" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="BM5" t="s">
-        <v>1377</v>
+        <v>1370</v>
       </c>
       <c r="BN5" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
       <c r="BO5" t="s">
-        <v>1403</v>
+        <v>1396</v>
       </c>
       <c r="BP5" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="BQ5" t="s">
-        <v>1430</v>
+        <v>1423</v>
       </c>
       <c r="BR5" t="s">
-        <v>1431</v>
+        <v>1424</v>
       </c>
       <c r="BS5" t="s">
-        <v>1458</v>
+        <v>1451</v>
       </c>
       <c r="BT5" t="s">
-        <v>1473</v>
+        <v>1466</v>
       </c>
       <c r="BU5" t="s">
-        <v>1540</v>
+        <v>1533</v>
       </c>
       <c r="BV5" t="s">
-        <v>1555</v>
+        <v>1548</v>
       </c>
       <c r="BW5" t="s">
-        <v>1556</v>
+        <v>1549</v>
       </c>
       <c r="BX5" t="s">
-        <v>1580</v>
+        <v>1573</v>
       </c>
       <c r="BY5" t="s">
-        <v>1594</v>
+        <v>1587</v>
       </c>
       <c r="BZ5" t="s">
-        <v>1610</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="6" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9310,49 +9301,49 @@
         <v>524</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="M6" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>596</v>
+      <c r="O6" s="4" t="s">
+        <v>594</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>542</v>
@@ -9361,172 +9352,172 @@
         <v>543</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="AN6" s="2" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="AP6" s="2" t="s">
         <v>475</v>
       </c>
       <c r="AQ6" s="2" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="AR6" s="3" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="AS6" s="2" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="AT6" s="2" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="AU6" s="2" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="AX6" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AZ6" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="BA6" t="s">
         <v>475</v>
       </c>
       <c r="BB6" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="BC6" t="s">
-        <v>1240</v>
+        <v>1233</v>
       </c>
       <c r="BD6" t="s">
         <v>475</v>
       </c>
       <c r="BE6" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
       <c r="BF6" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="BG6" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="BH6" t="s">
-        <v>1315</v>
+        <v>1308</v>
       </c>
       <c r="BI6" t="s">
-        <v>1330</v>
+        <v>1323</v>
       </c>
       <c r="BJ6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="BK6" t="s">
-        <v>1352</v>
+        <v>1345</v>
       </c>
       <c r="BL6" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="BM6" t="s">
-        <v>1378</v>
+        <v>1371</v>
       </c>
       <c r="BN6" t="s">
-        <v>1391</v>
+        <v>1384</v>
       </c>
       <c r="BO6" t="s">
         <v>475</v>
       </c>
       <c r="BP6" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
       <c r="BQ6" t="s">
-        <v>1432</v>
+        <v>1425</v>
       </c>
       <c r="BR6" t="s">
-        <v>1433</v>
+        <v>1426</v>
       </c>
       <c r="BS6" t="s">
-        <v>1459</v>
+        <v>1452</v>
       </c>
       <c r="BT6" t="s">
-        <v>1474</v>
+        <v>1467</v>
       </c>
       <c r="BU6" t="s">
-        <v>1541</v>
+        <v>1534</v>
       </c>
       <c r="BV6" t="s">
-        <v>1557</v>
+        <v>1550</v>
       </c>
       <c r="BW6" t="s">
-        <v>1558</v>
+        <v>1551</v>
       </c>
       <c r="BX6" t="s">
-        <v>1581</v>
+        <v>1574</v>
       </c>
       <c r="BY6" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="BZ6" t="s">
-        <v>1611</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="7" spans="1:78" x14ac:dyDescent="0.2">
@@ -9537,49 +9528,49 @@
         <v>525</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2365</v>
+        <v>2358</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>2371</v>
+        <v>2364</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>492</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>2379</v>
+        <v>2372</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>2380</v>
+        <v>2373</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>2390</v>
+        <v>2383</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>2392</v>
-      </c>
-      <c r="M7" s="2" t="s">
+        <v>2385</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>597</v>
+      <c r="O7" s="4" t="s">
+        <v>652</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>544</v>
@@ -9588,172 +9579,172 @@
         <v>545</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AF7" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="AG7" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="AG7" s="2" t="s">
-        <v>929</v>
-      </c>
       <c r="AH7" s="2" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="AQ7" s="2" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="AS7" s="2" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="AT7" s="2" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="AU7" s="2" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="AX7" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="AZ7" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="BA7" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="BB7" t="s">
-        <v>1241</v>
+        <v>1234</v>
       </c>
       <c r="BC7" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="BD7" t="s">
-        <v>1263</v>
+        <v>1256</v>
       </c>
       <c r="BE7" t="s">
-        <v>1283</v>
+        <v>1276</v>
       </c>
       <c r="BF7" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="BG7" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="BH7" t="s">
-        <v>1316</v>
+        <v>1309</v>
       </c>
       <c r="BI7" t="s">
-        <v>1331</v>
+        <v>1324</v>
       </c>
       <c r="BJ7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="BK7" t="s">
-        <v>1354</v>
+        <v>1347</v>
       </c>
       <c r="BL7" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="BM7" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="BN7" t="s">
-        <v>1392</v>
+        <v>1385</v>
       </c>
       <c r="BO7" t="s">
-        <v>1404</v>
+        <v>1397</v>
       </c>
       <c r="BP7" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="BQ7" t="s">
-        <v>1434</v>
+        <v>1427</v>
       </c>
       <c r="BR7" t="s">
-        <v>1435</v>
+        <v>1428</v>
       </c>
       <c r="BS7" t="s">
-        <v>1460</v>
+        <v>1453</v>
       </c>
       <c r="BT7" t="s">
-        <v>1475</v>
+        <v>1468</v>
       </c>
       <c r="BU7" t="s">
-        <v>1542</v>
+        <v>1535</v>
       </c>
       <c r="BV7" t="s">
-        <v>1559</v>
+        <v>1552</v>
       </c>
       <c r="BW7" t="s">
-        <v>1560</v>
+        <v>1553</v>
       </c>
       <c r="BX7" t="s">
-        <v>1582</v>
+        <v>1575</v>
       </c>
       <c r="BY7" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="BZ7" t="s">
-        <v>1612</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="8" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9764,10 +9755,10 @@
         <v>526</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>548</v>
@@ -9779,34 +9770,34 @@
         <v>506</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M8" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>598</v>
+      <c r="O8" s="4" t="s">
+        <v>595</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>546</v>
@@ -9815,172 +9806,172 @@
         <v>547</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="AO8" s="2" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="AQ8" s="2" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="AR8" s="2" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="AT8" s="2" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="AX8" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="AZ8" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="BA8" t="s">
-        <v>1222</v>
+        <v>1215</v>
       </c>
       <c r="BB8" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="BC8" t="s">
-        <v>1243</v>
+        <v>1236</v>
       </c>
       <c r="BD8" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
       <c r="BE8" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="BF8" t="s">
-        <v>1286</v>
+        <v>1279</v>
       </c>
       <c r="BG8" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="BH8" t="s">
-        <v>1317</v>
+        <v>1310</v>
       </c>
       <c r="BI8" t="s">
-        <v>1332</v>
+        <v>1325</v>
       </c>
       <c r="BJ8" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="BK8" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="BL8" t="s">
-        <v>1357</v>
+        <v>1350</v>
       </c>
       <c r="BM8" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="BN8" t="s">
-        <v>1393</v>
+        <v>1386</v>
       </c>
       <c r="BO8" t="s">
-        <v>1405</v>
+        <v>1398</v>
       </c>
       <c r="BP8" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
       <c r="BQ8" s="1" t="s">
-        <v>1436</v>
+        <v>1429</v>
       </c>
       <c r="BR8" t="s">
-        <v>1437</v>
+        <v>1430</v>
       </c>
       <c r="BS8" t="s">
-        <v>1461</v>
+        <v>1454</v>
       </c>
       <c r="BT8" t="s">
-        <v>1476</v>
+        <v>1469</v>
       </c>
       <c r="BU8" t="s">
-        <v>1543</v>
+        <v>1536</v>
       </c>
       <c r="BV8" t="s">
-        <v>1561</v>
+        <v>1554</v>
       </c>
       <c r="BW8" t="s">
-        <v>1562</v>
+        <v>1555</v>
       </c>
       <c r="BX8" t="s">
-        <v>1583</v>
+        <v>1576</v>
       </c>
       <c r="BY8" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
       <c r="BZ8" t="s">
-        <v>1613</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="9" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9991,13 +9982,13 @@
         <v>527</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>507</v>
@@ -10006,34 +9997,34 @@
         <v>508</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>1166</v>
-      </c>
-      <c r="M9" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>599</v>
+      <c r="O9" s="4" t="s">
+        <v>596</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>549</v>
@@ -10042,172 +10033,172 @@
         <v>550</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="AH9" s="3" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="AI9" s="2" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="AJ9" s="2" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="AK9" s="2" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="AL9" s="2" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="AM9" s="2" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="AN9" s="2" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="AO9" s="2" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="AP9" s="2" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="AQ9" s="2" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="AR9" s="2" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="AS9" s="2" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="AT9" s="2" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="AU9" s="2" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="AX9" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="AZ9" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="BA9" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
       <c r="BB9" t="s">
-        <v>1244</v>
+        <v>1237</v>
       </c>
       <c r="BC9" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="BD9" t="s">
-        <v>1265</v>
+        <v>1258</v>
       </c>
       <c r="BE9" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="BF9" t="s">
-        <v>1288</v>
+        <v>1281</v>
       </c>
       <c r="BG9" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
       <c r="BH9" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
       <c r="BI9" t="s">
-        <v>1333</v>
+        <v>1326</v>
       </c>
       <c r="BJ9" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="BK9" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="BL9" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="BM9" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="BN9" t="s">
-        <v>1394</v>
+        <v>1387</v>
       </c>
       <c r="BO9" t="s">
-        <v>1406</v>
+        <v>1399</v>
       </c>
       <c r="BP9" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
       <c r="BQ9" t="s">
-        <v>1438</v>
+        <v>1431</v>
       </c>
       <c r="BR9" t="s">
-        <v>1439</v>
+        <v>1432</v>
       </c>
       <c r="BS9" t="s">
-        <v>1462</v>
+        <v>1455</v>
       </c>
       <c r="BT9" t="s">
-        <v>1477</v>
+        <v>1470</v>
       </c>
       <c r="BU9" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="BV9" t="s">
-        <v>1563</v>
+        <v>1556</v>
       </c>
       <c r="BW9" t="s">
-        <v>1564</v>
+        <v>1557</v>
       </c>
       <c r="BX9" t="s">
-        <v>1584</v>
+        <v>1577</v>
       </c>
       <c r="BY9" t="s">
-        <v>1598</v>
+        <v>1591</v>
       </c>
       <c r="BZ9" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.2">
@@ -10215,16 +10206,16 @@
         <v>479</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2362</v>
+        <v>2355</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>2375</v>
+        <v>2368</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>509</v>
@@ -10233,34 +10224,34 @@
         <v>479</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>2393</v>
+        <v>2386</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>2394</v>
-      </c>
-      <c r="M10" s="2" t="s">
+        <v>2387</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>600</v>
+      <c r="O10" s="4" t="s">
+        <v>953</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>551</v>
@@ -10272,7 +10263,7 @@
         <v>552</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>479</v>
@@ -10281,94 +10272,94 @@
         <v>479</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="AI10" s="2" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="AL10" s="2" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="AM10" s="2" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="AN10" s="2" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="AO10" s="2" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="AP10" s="2" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="AQ10" s="2" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="AR10" s="2" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="AS10" s="2" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="AT10" s="2" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="AU10" s="2" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="AX10" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="AZ10" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="BA10" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="BB10" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="BC10" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
       <c r="BD10" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="BE10" t="s">
         <v>551</v>
@@ -10377,49 +10368,49 @@
         <v>552</v>
       </c>
       <c r="BG10" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="BH10" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
       <c r="BI10" t="s">
-        <v>1334</v>
+        <v>1327</v>
       </c>
       <c r="BJ10" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="BK10" t="s">
-        <v>1360</v>
+        <v>1353</v>
       </c>
       <c r="BL10" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="BM10" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="BN10" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="BO10" t="s">
-        <v>1407</v>
+        <v>1400</v>
       </c>
       <c r="BP10" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
       <c r="BQ10" t="s">
-        <v>1440</v>
+        <v>1433</v>
       </c>
       <c r="BR10" t="s">
-        <v>1441</v>
+        <v>1434</v>
       </c>
       <c r="BS10" t="s">
-        <v>1463</v>
+        <v>1456</v>
       </c>
       <c r="BT10" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="BU10" t="s">
-        <v>1544</v>
+        <v>1537</v>
       </c>
       <c r="BV10" t="s">
         <v>551</v>
@@ -10428,13 +10419,13 @@
         <v>552</v>
       </c>
       <c r="BX10" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="BY10" t="s">
-        <v>1599</v>
+        <v>1592</v>
       </c>
       <c r="BZ10" t="s">
-        <v>1615</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="11" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10445,10 +10436,10 @@
         <v>528</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>494</v>
@@ -10460,208 +10451,208 @@
         <v>511</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>1168</v>
-      </c>
-      <c r="M11" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>602</v>
+      <c r="O11" s="4" t="s">
+        <v>2390</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="AA11" s="2" t="s">
         <v>581</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="AH11" s="2" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="AI11" s="2" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="AM11" s="2" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="AN11" s="2" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="AO11" s="2" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="AP11" s="2" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="AQ11" s="2" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="AR11" s="2" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="AS11" s="2" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="AT11" s="2" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="AU11" s="2" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="AX11" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="AZ11" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="BA11" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
       <c r="BB11" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="BC11" t="s">
         <v>581</v>
       </c>
       <c r="BD11" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="BE11" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
       <c r="BF11" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
       <c r="BG11" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="BH11" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="BI11" s="1" t="s">
-        <v>1335</v>
+        <v>1328</v>
       </c>
       <c r="BJ11" t="s">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="BK11" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="BL11" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="BM11" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="BN11" t="s">
-        <v>1395</v>
+        <v>1388</v>
       </c>
       <c r="BO11" t="s">
-        <v>1409</v>
+        <v>1402</v>
       </c>
       <c r="BP11" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="BQ11" t="s">
-        <v>1442</v>
+        <v>1435</v>
       </c>
       <c r="BR11" t="s">
-        <v>1443</v>
+        <v>1436</v>
       </c>
       <c r="BS11" t="s">
-        <v>1464</v>
+        <v>1457</v>
       </c>
       <c r="BT11" t="s">
-        <v>1478</v>
+        <v>1471</v>
       </c>
       <c r="BU11" t="s">
-        <v>1478</v>
+        <v>1471</v>
       </c>
       <c r="BV11" t="s">
-        <v>1565</v>
+        <v>1558</v>
       </c>
       <c r="BW11" t="s">
-        <v>1566</v>
+        <v>1559</v>
       </c>
       <c r="BX11" t="s">
-        <v>1585</v>
+        <v>1578</v>
       </c>
       <c r="BY11" t="s">
-        <v>1600</v>
+        <v>1593</v>
       </c>
       <c r="BZ11" t="s">
-        <v>1616</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.2">
@@ -10672,49 +10663,49 @@
         <v>529</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>2366</v>
+        <v>2359</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>2367</v>
+        <v>2360</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>960</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>601</v>
+        <v>953</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>598</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>553</v>
@@ -10723,172 +10714,172 @@
         <v>554</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="AH12" s="2" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="AI12" s="2" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="AK12" s="2" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="AL12" s="2" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="AM12" s="2" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="AN12" s="2" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="AO12" s="2" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="AP12" s="2" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="AQ12" s="2" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="AR12" s="2" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="AS12" s="2" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="AT12" s="2" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="AU12" s="2" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="AX12" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="AZ12" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="BA12" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="BB12" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="BC12" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="BD12" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="BE12" t="s">
         <v>553</v>
       </c>
       <c r="BF12" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="BG12" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="BH12" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
       <c r="BI12" t="s">
-        <v>1337</v>
+        <v>1330</v>
       </c>
       <c r="BJ12" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="BK12" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="BL12" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="BM12" t="s">
-        <v>1383</v>
+        <v>1376</v>
       </c>
       <c r="BN12" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="BO12" t="s">
-        <v>1408</v>
+        <v>1401</v>
       </c>
       <c r="BP12" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
       <c r="BQ12" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="BR12" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="BS12" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="BT12" t="s">
-        <v>1479</v>
+        <v>1472</v>
       </c>
       <c r="BU12" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="BV12" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="BW12" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="BX12" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="BY12" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="BZ12" t="s">
-        <v>1617</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="13" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10899,13 +10890,13 @@
         <v>530</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>2376</v>
+        <v>2369</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>512</v>
@@ -10914,208 +10905,208 @@
         <v>513</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>1171</v>
-      </c>
-      <c r="M13" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="M13" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N13" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="O13" s="2" t="s">
-        <v>605</v>
+      <c r="O13" s="4" t="s">
+        <v>600</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="AH13" s="2" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="AI13" s="2" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="AJ13" s="2" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="AK13" s="2" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="AL13" s="2" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="AM13" s="2" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="AN13" s="2" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="AO13" s="2" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="AP13" s="2" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="AQ13" s="2" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="AR13" s="3" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="AS13" s="2" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="AT13" s="2" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="AU13" s="2" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="AX13" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="AZ13" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="BA13" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="BB13" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="BC13" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
       <c r="BD13" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
       <c r="BE13" t="s">
-        <v>1292</v>
+        <v>1285</v>
       </c>
       <c r="BF13" t="s">
-        <v>1293</v>
+        <v>1286</v>
       </c>
       <c r="BG13" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="BH13" t="s">
-        <v>1322</v>
+        <v>1315</v>
       </c>
       <c r="BI13" t="s">
-        <v>1340</v>
+        <v>1333</v>
       </c>
       <c r="BJ13" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="BK13" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="BL13" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
       <c r="BM13" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
       <c r="BN13" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="BO13" t="s">
-        <v>1411</v>
+        <v>1404</v>
       </c>
       <c r="BP13" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="BQ13" t="s">
-        <v>1446</v>
+        <v>1439</v>
       </c>
       <c r="BR13" t="s">
-        <v>1447</v>
+        <v>1440</v>
       </c>
       <c r="BS13" t="s">
-        <v>1466</v>
+        <v>1459</v>
       </c>
       <c r="BT13" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="BU13" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="BV13" t="s">
-        <v>1567</v>
+        <v>1560</v>
       </c>
       <c r="BW13" t="s">
-        <v>1568</v>
+        <v>1561</v>
       </c>
       <c r="BX13" t="s">
-        <v>1586</v>
+        <v>1579</v>
       </c>
       <c r="BY13" t="s">
-        <v>1601</v>
+        <v>1594</v>
       </c>
       <c r="BZ13" t="s">
-        <v>1618</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="14" spans="1:78" ht="34" x14ac:dyDescent="0.2">
@@ -11123,226 +11114,226 @@
         <v>481</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2363</v>
+        <v>2356</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>493</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>2381</v>
+        <v>2374</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>2382</v>
+        <v>2375</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>604</v>
+      <c r="O14" s="4" t="s">
+        <v>2391</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="AH14" s="3" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="AI14" s="2" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="AJ14" s="2" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="AK14" s="2" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="AL14" s="2" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="AM14" s="2" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="AN14" s="2" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="AO14" s="2" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="AP14" s="2" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="AQ14" s="2" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="AR14" s="3" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="AS14" s="2" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="AT14" s="2" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="AU14" s="2" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="AX14" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="AZ14" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="BA14" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
       <c r="BB14" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="BC14" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="BD14" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
       <c r="BE14" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="BF14" t="s">
-        <v>1295</v>
+        <v>1288</v>
       </c>
       <c r="BG14" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="BH14" t="s">
-        <v>1321</v>
+        <v>1314</v>
       </c>
       <c r="BI14" t="s">
-        <v>1338</v>
+        <v>1331</v>
       </c>
       <c r="BJ14" t="s">
-        <v>1339</v>
+        <v>1332</v>
       </c>
       <c r="BK14" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="BL14" t="s">
-        <v>1365</v>
+        <v>1358</v>
       </c>
       <c r="BM14" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="BN14" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="BO14" t="s">
-        <v>1410</v>
+        <v>1403</v>
       </c>
       <c r="BP14" t="s">
-        <v>1424</v>
+        <v>1417</v>
       </c>
       <c r="BQ14" t="s">
-        <v>1444</v>
+        <v>1437</v>
       </c>
       <c r="BR14" t="s">
-        <v>1445</v>
+        <v>1438</v>
       </c>
       <c r="BS14" t="s">
-        <v>1465</v>
+        <v>1458</v>
       </c>
       <c r="BT14" t="s">
-        <v>1480</v>
+        <v>1473</v>
       </c>
       <c r="BU14" t="s">
-        <v>1545</v>
+        <v>1538</v>
       </c>
       <c r="BV14" s="1" t="s">
-        <v>1569</v>
+        <v>1562</v>
       </c>
       <c r="BW14" t="s">
-        <v>1570</v>
+        <v>1563</v>
       </c>
       <c r="BX14" t="s">
-        <v>1587</v>
+        <v>1580</v>
       </c>
       <c r="BY14" t="s">
-        <v>1602</v>
+        <v>1595</v>
       </c>
       <c r="BZ14" t="s">
-        <v>1619</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="15" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -11353,13 +11344,13 @@
         <v>531</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>2368</v>
+        <v>2361</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>2369</v>
+        <v>2362</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>2377</v>
+        <v>2370</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>514</v>
@@ -11368,261 +11359,261 @@
         <v>515</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>2385</v>
+        <v>2378</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>2386</v>
+        <v>2379</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>1173</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>872</v>
+        <v>1166</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>2388</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>2389</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>1335</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="AI15" s="2" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="AJ15" s="2" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="AK15" s="2" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="AL15" s="2" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="AM15" s="2" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="AN15" s="2" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="AO15" s="2" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="AP15" s="2" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="AQ15" s="2" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="AR15" s="3" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="AS15" s="2" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="AT15" s="2" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="AU15" s="2" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="AX15" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="AZ15" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="BA15" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="BB15" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="BC15" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="BD15" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="BE15" t="s">
-        <v>1296</v>
+        <v>1289</v>
       </c>
       <c r="BF15" t="s">
-        <v>1297</v>
+        <v>1290</v>
       </c>
       <c r="BG15" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="BH15" t="s">
-        <v>1323</v>
+        <v>1316</v>
       </c>
       <c r="BI15" t="s">
-        <v>1341</v>
+        <v>1334</v>
       </c>
       <c r="BJ15" t="s">
-        <v>1342</v>
+        <v>1335</v>
       </c>
       <c r="BK15" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="BL15" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="BM15" s="1" t="s">
-        <v>1386</v>
+        <v>1379</v>
       </c>
       <c r="BN15" t="s">
-        <v>1398</v>
+        <v>1391</v>
       </c>
       <c r="BO15" t="s">
-        <v>1412</v>
+        <v>1405</v>
       </c>
       <c r="BP15" t="s">
-        <v>1425</v>
+        <v>1418</v>
       </c>
       <c r="BQ15" t="s">
-        <v>1448</v>
+        <v>1441</v>
       </c>
       <c r="BR15" t="s">
-        <v>1449</v>
+        <v>1442</v>
       </c>
       <c r="BS15" t="s">
-        <v>1467</v>
+        <v>1460</v>
       </c>
       <c r="BT15" t="s">
-        <v>1481</v>
+        <v>1474</v>
       </c>
       <c r="BU15" t="s">
-        <v>1546</v>
+        <v>1539</v>
       </c>
       <c r="BV15" t="s">
-        <v>1571</v>
+        <v>1564</v>
       </c>
       <c r="BW15" t="s">
-        <v>1572</v>
+        <v>1565</v>
       </c>
       <c r="BX15" t="s">
-        <v>1588</v>
+        <v>1581</v>
       </c>
       <c r="BY15" t="s">
-        <v>1603</v>
+        <v>1596</v>
       </c>
       <c r="BZ15" t="s">
-        <v>1620</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>533</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>498</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>2383</v>
+        <v>2376</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>2384</v>
+        <v>2377</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>1175</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>606</v>
+        <v>1168</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>601</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="R16" s="2" t="s">
         <v>556</v>
@@ -11631,172 +11622,172 @@
         <v>557</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="AH16" s="2" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="AI16" s="2" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="AJ16" s="2" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="AK16" s="2" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="AL16" s="2" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="AM16" s="2" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="AN16" s="2" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="AO16" s="2" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="AP16" s="2" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="AQ16" s="2" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="AR16" s="2" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="AS16" s="2" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
       <c r="AT16" s="2" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="AU16" s="2" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="AX16" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="AZ16" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
       <c r="BA16" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="BB16" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="BC16" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="BD16" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="BE16" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="BF16" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="BG16" t="s">
-        <v>1311</v>
+        <v>1304</v>
       </c>
       <c r="BH16" t="s">
-        <v>1324</v>
+        <v>1317</v>
       </c>
       <c r="BI16" t="s">
-        <v>1343</v>
+        <v>1336</v>
       </c>
       <c r="BJ16" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="BK16" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="BL16" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="BM16" t="s">
-        <v>1387</v>
+        <v>1380</v>
       </c>
       <c r="BN16" t="s">
-        <v>1399</v>
+        <v>1392</v>
       </c>
       <c r="BO16" t="s">
-        <v>1413</v>
+        <v>1406</v>
       </c>
       <c r="BP16" t="s">
-        <v>1426</v>
+        <v>1419</v>
       </c>
       <c r="BQ16" t="s">
-        <v>1450</v>
+        <v>1443</v>
       </c>
       <c r="BR16" t="s">
-        <v>1451</v>
+        <v>1444</v>
       </c>
       <c r="BS16" t="s">
-        <v>1468</v>
+        <v>1461</v>
       </c>
       <c r="BT16" t="s">
-        <v>1482</v>
+        <v>1475</v>
       </c>
       <c r="BU16" t="s">
-        <v>1547</v>
+        <v>1540</v>
       </c>
       <c r="BV16" t="s">
-        <v>1573</v>
+        <v>1566</v>
       </c>
       <c r="BW16" t="s">
-        <v>1574</v>
+        <v>1567</v>
       </c>
       <c r="BX16" t="s">
-        <v>1589</v>
+        <v>1582</v>
       </c>
       <c r="BY16" t="s">
-        <v>1604</v>
+        <v>1597</v>
       </c>
       <c r="BZ16" t="s">
-        <v>1621</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="17" spans="1:78" x14ac:dyDescent="0.2">
@@ -11807,13 +11798,13 @@
         <v>534</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>2378</v>
+        <v>2371</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>518</v>
@@ -11822,34 +11813,34 @@
         <v>519</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>2387</v>
+        <v>2380</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>2388</v>
+        <v>2381</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>1177</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>607</v>
+        <v>1170</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>602</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>558</v>
@@ -11858,399 +11849,399 @@
         <v>559</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="AF17" s="2" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="AH17" s="2" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="AI17" s="2" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="AJ17" s="2" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="AK17" s="2" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="AL17" s="2" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="AM17" s="2" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="AN17" s="2" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="AO17" s="2" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="AP17" s="2" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="AQ17" s="2" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="AR17" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AS17" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AT17" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="AS17" s="2" t="s">
+      <c r="AU17" s="2" t="s">
         <v>1128</v>
       </c>
-      <c r="AT17" s="2" t="s">
-        <v>1134</v>
-      </c>
-      <c r="AU17" s="2" t="s">
-        <v>1135</v>
-      </c>
       <c r="AX17" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="AZ17" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="BA17" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="BB17" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="BC17" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="BD17" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="BE17" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="BF17" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="BG17" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="BH17" t="s">
-        <v>1325</v>
+        <v>1318</v>
       </c>
       <c r="BI17" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="BJ17" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="BK17" t="s">
-        <v>1372</v>
+        <v>1365</v>
       </c>
       <c r="BL17" t="s">
-        <v>1373</v>
+        <v>1366</v>
       </c>
       <c r="BM17" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
       <c r="BN17" t="s">
-        <v>1400</v>
+        <v>1393</v>
       </c>
       <c r="BO17" t="s">
-        <v>1414</v>
+        <v>1407</v>
       </c>
       <c r="BP17" t="s">
-        <v>1427</v>
+        <v>1420</v>
       </c>
       <c r="BQ17" t="s">
-        <v>1452</v>
+        <v>1445</v>
       </c>
       <c r="BR17" t="s">
-        <v>1453</v>
+        <v>1446</v>
       </c>
       <c r="BS17" t="s">
-        <v>1469</v>
+        <v>1462</v>
       </c>
       <c r="BT17" t="s">
-        <v>1483</v>
+        <v>1476</v>
       </c>
       <c r="BU17" t="s">
-        <v>1548</v>
+        <v>1541</v>
       </c>
       <c r="BV17" t="s">
-        <v>1575</v>
+        <v>1568</v>
       </c>
       <c r="BW17" t="s">
-        <v>1576</v>
+        <v>1569</v>
       </c>
       <c r="BX17" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="BY17" t="s">
-        <v>1605</v>
+        <v>1598</v>
       </c>
       <c r="BZ17" t="s">
-        <v>1622</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="18" spans="1:78" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>935</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>2365</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>2366</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>941</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>960</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>2372</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>2373</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>960</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>960</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>960</v>
-      </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="O18" s="5" t="s">
         <v>947</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="P18" s="2" t="s">
         <v>948</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>960</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>960</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>960</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>956</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>954</v>
-      </c>
       <c r="Q18" s="2" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="T18" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="Z18" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="U18" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>943</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>951</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>950</v>
-      </c>
-      <c r="Y18" s="2" t="s">
+      <c r="AA18" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="AF18" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="AG18" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="AH18" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="AI18" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="AJ18" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="AL18" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AN18" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="AO18" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="AP18" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AR18" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="AS18" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="AT18" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="AU18" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>937</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>1210</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>1227</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>953</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>953</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>1267</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>948</v>
+      </c>
+      <c r="BF18" t="s">
         <v>949</v>
       </c>
-      <c r="Z18" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="AB18" s="2" t="s">
-        <v>945</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="AD18" s="2" t="s">
-        <v>944</v>
-      </c>
-      <c r="AE18" s="2" t="s">
-        <v>943</v>
-      </c>
-      <c r="AF18" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="AG18" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="AH18" s="2" t="s">
-        <v>989</v>
-      </c>
-      <c r="AI18" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="AJ18" s="2" t="s">
-        <v>1020</v>
-      </c>
-      <c r="AK18" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="AL18" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="AM18" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="AN18" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="AO18" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="AP18" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="AQ18" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AR18" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="AS18" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="AT18" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="AU18" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>943</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>1217</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>1234</v>
-      </c>
-      <c r="BB18" t="s">
-        <v>960</v>
-      </c>
-      <c r="BC18" t="s">
-        <v>960</v>
-      </c>
-      <c r="BD18" t="s">
-        <v>1274</v>
-      </c>
-      <c r="BE18" t="s">
-        <v>954</v>
-      </c>
-      <c r="BF18" t="s">
-        <v>955</v>
-      </c>
       <c r="BG18" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="BH18" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="BI18" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="BJ18" t="s">
+        <v>947</v>
+      </c>
+      <c r="BK18" t="s">
         <v>953</v>
       </c>
-      <c r="BK18" t="s">
-        <v>960</v>
-      </c>
       <c r="BL18" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="BM18" t="s">
-        <v>1389</v>
+        <v>1382</v>
       </c>
       <c r="BN18" t="s">
+        <v>947</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>1408</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>937</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>1447</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>1448</v>
+      </c>
+      <c r="BS18" t="s">
         <v>953</v>
       </c>
-      <c r="BO18" t="s">
-        <v>1415</v>
-      </c>
-      <c r="BP18" t="s">
-        <v>943</v>
-      </c>
-      <c r="BQ18" t="s">
-        <v>1454</v>
-      </c>
-      <c r="BR18" t="s">
-        <v>1455</v>
-      </c>
-      <c r="BS18" t="s">
-        <v>960</v>
-      </c>
       <c r="BT18" t="s">
-        <v>1484</v>
+        <v>1477</v>
       </c>
       <c r="BU18" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="BV18" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="BW18" t="s">
-        <v>1577</v>
+        <v>1570</v>
       </c>
       <c r="BX18" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="BY18" s="1" t="s">
-        <v>1606</v>
+        <v>1599</v>
       </c>
       <c r="BZ18" t="s">
-        <v>1623</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="19" spans="1:78" x14ac:dyDescent="0.2">
@@ -12261,13 +12252,13 @@
         <v>535</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>520</v>
@@ -12276,34 +12267,34 @@
         <v>521</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>1179</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>608</v>
+        <v>1172</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>603</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>560</v>
@@ -12312,172 +12303,172 @@
         <v>561</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="AF19" s="2" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="AG19" s="2" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="AH19" s="2" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="AI19" s="2" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="AJ19" s="2" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="AK19" s="2" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="AL19" s="2" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="AM19" s="2" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="AN19" s="2" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="AO19" s="2" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="AP19" s="2" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="AQ19" s="2" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="AR19" s="2" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
       <c r="AS19" s="2" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="AT19" s="2" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="AU19" s="2" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="AX19" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="AZ19" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="BA19" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="BB19" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="BC19" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
       <c r="BD19" t="s">
-        <v>1275</v>
+        <v>1268</v>
       </c>
       <c r="BE19" t="s">
-        <v>1302</v>
+        <v>1295</v>
       </c>
       <c r="BF19" t="s">
-        <v>1275</v>
+        <v>1268</v>
       </c>
       <c r="BG19" t="s">
-        <v>1313</v>
+        <v>1306</v>
       </c>
       <c r="BH19" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="BI19" t="s">
-        <v>1345</v>
+        <v>1338</v>
       </c>
       <c r="BJ19" t="s">
-        <v>1346</v>
+        <v>1339</v>
       </c>
       <c r="BK19" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="BL19" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="BM19" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="BN19" t="s">
-        <v>1401</v>
+        <v>1394</v>
       </c>
       <c r="BO19" t="s">
-        <v>1416</v>
+        <v>1409</v>
       </c>
       <c r="BP19" t="s">
-        <v>1428</v>
+        <v>1421</v>
       </c>
       <c r="BQ19" t="s">
-        <v>1456</v>
+        <v>1449</v>
       </c>
       <c r="BR19" t="s">
-        <v>1457</v>
+        <v>1450</v>
       </c>
       <c r="BS19" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="BT19" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="BU19" t="s">
-        <v>1549</v>
+        <v>1542</v>
       </c>
       <c r="BV19" t="s">
-        <v>1578</v>
+        <v>1571</v>
       </c>
       <c r="BW19" t="s">
-        <v>1579</v>
+        <v>1572</v>
       </c>
       <c r="BX19" t="s">
-        <v>1591</v>
+        <v>1584</v>
       </c>
       <c r="BY19" t="s">
-        <v>1607</v>
+        <v>1600</v>
       </c>
       <c r="BZ19" t="s">
-        <v>1624</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="20" spans="1:78" x14ac:dyDescent="0.2">
@@ -12485,37 +12476,37 @@
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1794</v>
+        <v>1787</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1960</v>
+        <v>1953</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1961</v>
+        <v>1954</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>1630</v>
+        <v>1623</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>1687</v>
+        <v>1680</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>1688</v>
+        <v>1681</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>2084</v>
+        <v>2077</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>2085</v>
+        <v>2078</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>2195</v>
+        <v>2188</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>2269</v>
+        <v>2262</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>2270</v>
+        <v>2263</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -12523,10 +12514,10 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2" t="s">
-        <v>1847</v>
+        <v>1840</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>1848</v>
+        <v>1841</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -12562,37 +12553,37 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1795</v>
+        <v>1788</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1962</v>
+        <v>1955</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1963</v>
+        <v>1956</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1631</v>
+        <v>1624</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>1689</v>
+        <v>1682</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>1690</v>
+        <v>1683</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>2086</v>
+        <v>2079</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>2087</v>
+        <v>2080</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>2196</v>
+        <v>2189</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>2267</v>
+        <v>2260</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>2268</v>
+        <v>2261</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -12600,10 +12591,10 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2" t="s">
-        <v>1849</v>
+        <v>1842</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>1850</v>
+        <v>1843</v>
       </c>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -12639,37 +12630,37 @@
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1799</v>
+        <v>1792</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1964</v>
+        <v>1957</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1965</v>
+        <v>1958</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1632</v>
+        <v>1625</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>1691</v>
+        <v>1684</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>1692</v>
+        <v>1685</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>2088</v>
+        <v>2081</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>2089</v>
+        <v>2082</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>2197</v>
+        <v>2190</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>2265</v>
+        <v>2258</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>2266</v>
+        <v>2259</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -12677,10 +12668,10 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2" t="s">
-        <v>1851</v>
+        <v>1844</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>1852</v>
+        <v>1845</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -12716,37 +12707,37 @@
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1798</v>
+        <v>1791</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1966</v>
+        <v>1959</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1967</v>
+        <v>1960</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1633</v>
+        <v>1626</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>1693</v>
+        <v>1686</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>1694</v>
+        <v>1687</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>2090</v>
+        <v>2083</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>2091</v>
+        <v>2084</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>2198</v>
+        <v>2191</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>2263</v>
+        <v>2256</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>2264</v>
+        <v>2257</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -12754,10 +12745,10 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2" t="s">
-        <v>1853</v>
+        <v>1846</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>1694</v>
+        <v>1687</v>
       </c>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -12793,37 +12784,37 @@
         <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1796</v>
+        <v>1789</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1968</v>
+        <v>1961</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1969</v>
+        <v>1962</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1634</v>
+        <v>1627</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>1695</v>
+        <v>1688</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>1696</v>
+        <v>1689</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>2092</v>
+        <v>2085</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>2093</v>
+        <v>2086</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>2199</v>
+        <v>2192</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>2261</v>
+        <v>2254</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>2262</v>
+        <v>2255</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -12831,10 +12822,10 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2" t="s">
-        <v>1854</v>
+        <v>1847</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>1855</v>
+        <v>1848</v>
       </c>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -12870,37 +12861,37 @@
         <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1797</v>
+        <v>1790</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1970</v>
+        <v>1963</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1971</v>
+        <v>1964</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1635</v>
+        <v>1628</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>1697</v>
+        <v>1690</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>1698</v>
+        <v>1691</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>2094</v>
+        <v>2087</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>2095</v>
+        <v>2088</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>2200</v>
+        <v>2193</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>2259</v>
+        <v>2252</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>2260</v>
+        <v>2253</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -12908,10 +12899,10 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2" t="s">
-        <v>1856</v>
+        <v>1849</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>1857</v>
+        <v>1850</v>
       </c>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -12947,37 +12938,37 @@
         <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1800</v>
+        <v>1793</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1974</v>
+        <v>1967</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1975</v>
+        <v>1968</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>1699</v>
+        <v>1692</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>1700</v>
+        <v>1693</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>2096</v>
+        <v>2089</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>2097</v>
+        <v>2090</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>2201</v>
+        <v>2194</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>2257</v>
+        <v>2250</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>2258</v>
+        <v>2251</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -12985,10 +12976,10 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2" t="s">
-        <v>1858</v>
+        <v>1851</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>1859</v>
+        <v>1852</v>
       </c>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -13024,37 +13015,37 @@
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1801</v>
+        <v>1794</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1976</v>
+        <v>1969</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1977</v>
+        <v>1970</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1637</v>
+        <v>1630</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>1701</v>
+        <v>1694</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>1702</v>
+        <v>1695</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>2098</v>
+        <v>2091</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>2099</v>
+        <v>2092</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>2202</v>
+        <v>2195</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>2255</v>
+        <v>2248</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>2256</v>
+        <v>2249</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -13062,10 +13053,10 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2" t="s">
-        <v>1860</v>
+        <v>1853</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>1861</v>
+        <v>1854</v>
       </c>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -13098,40 +13089,40 @@
     </row>
     <row r="28" spans="1:78" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1802</v>
+        <v>1795</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1978</v>
+        <v>1971</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1979</v>
+        <v>1972</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1638</v>
+        <v>1631</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>1703</v>
+        <v>1696</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>1704</v>
+        <v>1697</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>2100</v>
+        <v>2093</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>2101</v>
+        <v>2094</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>2203</v>
+        <v>2196</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>2254</v>
+        <v>2247</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>2253</v>
+        <v>2246</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -13139,10 +13130,10 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2" t="s">
-        <v>1862</v>
+        <v>1855</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>1863</v>
+        <v>1856</v>
       </c>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -13175,40 +13166,40 @@
     </row>
     <row r="29" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1932</v>
+        <v>1925</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1959</v>
+        <v>1952</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1980</v>
+        <v>1973</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1981</v>
+        <v>1974</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1956</v>
+        <v>1949</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>1957</v>
+        <v>1950</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>1958</v>
+        <v>1951</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>2102</v>
+        <v>2095</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>2103</v>
+        <v>2096</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>2194</v>
+        <v>2187</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>2251</v>
+        <v>2244</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>2252</v>
+        <v>2245</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -13216,10 +13207,10 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2" t="s">
-        <v>1933</v>
+        <v>1926</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>1934</v>
+        <v>1927</v>
       </c>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -13255,37 +13246,37 @@
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1803</v>
+        <v>1796</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1982</v>
+        <v>1975</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1983</v>
+        <v>1976</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1639</v>
+        <v>1632</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1705</v>
+        <v>1698</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1706</v>
+        <v>1699</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>2104</v>
+        <v>2097</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>2205</v>
+        <v>2198</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>2273</v>
+        <v>2266</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>2274</v>
+        <v>2267</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -13293,10 +13284,10 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2" t="s">
-        <v>1864</v>
+        <v>1857</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>1865</v>
+        <v>1858</v>
       </c>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
@@ -13332,37 +13323,37 @@
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1804</v>
+        <v>1797</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1989</v>
+        <v>1982</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1990</v>
+        <v>1983</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1640</v>
+        <v>1633</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>1707</v>
+        <v>1700</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>1708</v>
+        <v>1701</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>2107</v>
+        <v>2100</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>2206</v>
+        <v>2199</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>2277</v>
+        <v>2270</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>2278</v>
+        <v>2271</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -13370,10 +13361,10 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2" t="s">
-        <v>1867</v>
+        <v>1860</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>1866</v>
+        <v>1859</v>
       </c>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
@@ -13409,37 +13400,37 @@
         <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1805</v>
+        <v>1798</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>1991</v>
+        <v>1984</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>1992</v>
+        <v>1985</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1641</v>
+        <v>1634</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>1709</v>
+        <v>1702</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>1710</v>
+        <v>1703</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>2108</v>
+        <v>2101</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>2109</v>
+        <v>2102</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>2207</v>
+        <v>2200</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>2275</v>
+        <v>2268</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>2276</v>
+        <v>2269</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -13447,10 +13438,10 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2" t="s">
-        <v>1868</v>
+        <v>1861</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>1869</v>
+        <v>1862</v>
       </c>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
@@ -13486,37 +13477,37 @@
         <v>11</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1806</v>
+        <v>1799</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>1993</v>
+        <v>1986</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>1994</v>
+        <v>1987</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>1642</v>
+        <v>1635</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>1711</v>
+        <v>1704</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>1712</v>
+        <v>1705</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>2110</v>
+        <v>2103</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>2111</v>
+        <v>2104</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>2208</v>
+        <v>2201</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>2279</v>
+        <v>2272</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>2280</v>
+        <v>2273</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -13524,10 +13515,10 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2" t="s">
-        <v>1870</v>
+        <v>1863</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>1871</v>
+        <v>1864</v>
       </c>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
@@ -13563,37 +13554,37 @@
         <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1807</v>
+        <v>1800</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1995</v>
+        <v>1988</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>1996</v>
+        <v>1989</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1643</v>
+        <v>1636</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>1713</v>
+        <v>1706</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>1714</v>
+        <v>1707</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>2112</v>
+        <v>2105</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>2113</v>
+        <v>2106</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>2209</v>
+        <v>2202</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>2281</v>
+        <v>2274</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>2316</v>
+        <v>2309</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -13601,10 +13592,10 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2" t="s">
-        <v>1872</v>
+        <v>1865</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>1873</v>
+        <v>1866</v>
       </c>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
@@ -13640,37 +13631,37 @@
         <v>13</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1808</v>
+        <v>1801</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1997</v>
+        <v>1990</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1644</v>
+        <v>1637</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>1715</v>
+        <v>1708</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>1716</v>
+        <v>1709</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>2114</v>
+        <v>2107</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>2115</v>
+        <v>2108</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>2210</v>
+        <v>2203</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>2282</v>
+        <v>2275</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>2283</v>
+        <v>2276</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -13678,10 +13669,10 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2" t="s">
-        <v>1874</v>
+        <v>1867</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>1875</v>
+        <v>1868</v>
       </c>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
@@ -13714,40 +13705,40 @@
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1809</v>
+        <v>1802</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1999</v>
+        <v>1992</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1645</v>
+        <v>1638</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>1717</v>
+        <v>1710</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>1718</v>
+        <v>1711</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>2116</v>
+        <v>2109</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>2117</v>
+        <v>2110</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>2211</v>
+        <v>2204</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>2284</v>
+        <v>2277</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>2285</v>
+        <v>2278</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -13755,10 +13746,10 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2" t="s">
-        <v>1876</v>
+        <v>1869</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>1877</v>
+        <v>1870</v>
       </c>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
@@ -13794,37 +13785,37 @@
         <v>502</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1810</v>
+        <v>1803</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>2002</v>
+        <v>1995</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1646</v>
+        <v>1639</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>1719</v>
+        <v>1712</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>1720</v>
+        <v>1713</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>2118</v>
+        <v>2111</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>2119</v>
+        <v>2112</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>2212</v>
+        <v>2205</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>2286</v>
+        <v>2279</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>2287</v>
+        <v>2280</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -13832,10 +13823,10 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2" t="s">
-        <v>1878</v>
+        <v>1871</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>1879</v>
+        <v>1872</v>
       </c>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
@@ -13871,37 +13862,37 @@
         <v>14</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1811</v>
+        <v>1804</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>2003</v>
+        <v>1996</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>2004</v>
+        <v>1997</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1647</v>
+        <v>1640</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>1721</v>
+        <v>1714</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>1722</v>
+        <v>1715</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>2120</v>
+        <v>2113</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>2121</v>
+        <v>2114</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>2213</v>
+        <v>2206</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>2288</v>
+        <v>2281</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>2289</v>
+        <v>2282</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -13909,10 +13900,10 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2" t="s">
-        <v>1880</v>
+        <v>1873</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>1881</v>
+        <v>1874</v>
       </c>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
@@ -13948,37 +13939,37 @@
         <v>15</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1812</v>
+        <v>1805</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>1648</v>
+        <v>1641</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>1723</v>
+        <v>1716</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>1724</v>
+        <v>1717</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>2122</v>
+        <v>2115</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>2123</v>
+        <v>2116</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>2204</v>
+        <v>2197</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>2271</v>
+        <v>2264</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>2272</v>
+        <v>2265</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -13986,10 +13977,10 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2" t="s">
-        <v>1883</v>
+        <v>1876</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>1882</v>
+        <v>1875</v>
       </c>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
@@ -14025,37 +14016,37 @@
         <v>16</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1813</v>
+        <v>1806</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>2007</v>
+        <v>2000</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1649</v>
+        <v>1642</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>1725</v>
+        <v>1718</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>1726</v>
+        <v>1719</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>2124</v>
+        <v>2117</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>2125</v>
+        <v>2118</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>2215</v>
+        <v>2208</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>2292</v>
+        <v>2285</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>2293</v>
+        <v>2286</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -14063,10 +14054,10 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2" t="s">
-        <v>1884</v>
+        <v>1877</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>1885</v>
+        <v>1878</v>
       </c>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
@@ -14102,37 +14093,37 @@
         <v>17</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1814</v>
+        <v>1807</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>1650</v>
+        <v>1643</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>1727</v>
+        <v>1720</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>1728</v>
+        <v>1721</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>2126</v>
+        <v>2119</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>2127</v>
+        <v>2120</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>2216</v>
+        <v>2209</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>2294</v>
+        <v>2287</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>2295</v>
+        <v>2288</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -14140,10 +14131,10 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2" t="s">
-        <v>1886</v>
+        <v>1879</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>1887</v>
+        <v>1880</v>
       </c>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
@@ -14179,37 +14170,37 @@
         <v>18</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1815</v>
+        <v>1808</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>2012</v>
+        <v>2005</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>1651</v>
+        <v>1644</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>1729</v>
+        <v>1722</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>1730</v>
+        <v>1723</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>2128</v>
+        <v>2121</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>2129</v>
+        <v>2122</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>2217</v>
+        <v>2210</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>2296</v>
+        <v>2289</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>2297</v>
+        <v>2290</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -14217,10 +14208,10 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2" t="s">
-        <v>1888</v>
+        <v>1881</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>1889</v>
+        <v>1882</v>
       </c>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
@@ -14256,37 +14247,37 @@
         <v>490</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1816</v>
+        <v>1809</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>1652</v>
+        <v>1645</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>1731</v>
+        <v>1724</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>1732</v>
+        <v>1725</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>2130</v>
+        <v>2123</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>2131</v>
+        <v>2124</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>2218</v>
+        <v>2211</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>2298</v>
+        <v>2291</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>2299</v>
+        <v>2292</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -14294,10 +14285,10 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2" t="s">
-        <v>1890</v>
+        <v>1883</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>1891</v>
+        <v>1884</v>
       </c>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
@@ -14333,37 +14324,37 @@
         <v>19</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1817</v>
+        <v>1810</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>1653</v>
+        <v>1646</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>1733</v>
+        <v>1726</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>1734</v>
+        <v>1727</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>2132</v>
+        <v>2125</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>2133</v>
+        <v>2126</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>2219</v>
+        <v>2212</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>2302</v>
+        <v>2295</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>2303</v>
+        <v>2296</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -14371,10 +14362,10 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2" t="s">
-        <v>1892</v>
+        <v>1885</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>1893</v>
+        <v>1886</v>
       </c>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
@@ -14407,40 +14398,40 @@
     </row>
     <row r="45" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1654</v>
+        <v>1647</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1818</v>
+        <v>1811</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>1655</v>
+        <v>1648</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>1735</v>
+        <v>1728</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>1736</v>
+        <v>1729</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>2134</v>
+        <v>2127</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>2135</v>
+        <v>2128</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>2220</v>
+        <v>2213</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>2300</v>
+        <v>2293</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>2301</v>
+        <v>2294</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -14448,10 +14439,10 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2" t="s">
-        <v>1894</v>
+        <v>1887</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>1895</v>
+        <v>1888</v>
       </c>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
@@ -14487,37 +14478,37 @@
         <v>20</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1819</v>
+        <v>1812</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>1656</v>
+        <v>1649</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>1737</v>
+        <v>1730</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>1738</v>
+        <v>1731</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>2136</v>
+        <v>2129</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>2137</v>
+        <v>2130</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>2221</v>
+        <v>2214</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>2304</v>
+        <v>2297</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>2305</v>
+        <v>2298</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -14525,10 +14516,10 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2" t="s">
-        <v>1896</v>
+        <v>1889</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>1897</v>
+        <v>1890</v>
       </c>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
@@ -14564,37 +14555,37 @@
         <v>21</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1820</v>
+        <v>1813</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>2024</v>
+        <v>2017</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>1657</v>
+        <v>1650</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>1739</v>
+        <v>1732</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>1740</v>
+        <v>1733</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>2138</v>
+        <v>2131</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>2139</v>
+        <v>2132</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>2222</v>
+        <v>2215</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>2306</v>
+        <v>2299</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>2307</v>
+        <v>2300</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -14602,10 +14593,10 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2" t="s">
-        <v>1898</v>
+        <v>1891</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>1899</v>
+        <v>1892</v>
       </c>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
@@ -14641,37 +14632,37 @@
         <v>565</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1821</v>
+        <v>1814</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>2025</v>
+        <v>2018</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>2026</v>
+        <v>2019</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>1658</v>
+        <v>1651</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>1741</v>
+        <v>1734</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>1742</v>
+        <v>1735</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>2140</v>
+        <v>2133</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>2141</v>
+        <v>2134</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>2223</v>
+        <v>2216</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>2308</v>
+        <v>2301</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>2309</v>
+        <v>2302</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -14679,10 +14670,10 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="3" t="s">
-        <v>1900</v>
+        <v>1893</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>1901</v>
+        <v>1894</v>
       </c>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
@@ -14718,37 +14709,37 @@
         <v>22</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1822</v>
+        <v>1815</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>2027</v>
+        <v>2020</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>2028</v>
+        <v>2021</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>1659</v>
+        <v>1652</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>1743</v>
+        <v>1736</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>1744</v>
+        <v>1737</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>2143</v>
+        <v>2136</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>2142</v>
+        <v>2135</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>2214</v>
+        <v>2207</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>2290</v>
+        <v>2283</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>2291</v>
+        <v>2284</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -14756,10 +14747,10 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2" t="s">
-        <v>1902</v>
+        <v>1895</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>1903</v>
+        <v>1896</v>
       </c>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
@@ -14795,37 +14786,37 @@
         <v>23</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1823</v>
+        <v>1816</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>2029</v>
+        <v>2022</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>2030</v>
+        <v>2023</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>1660</v>
+        <v>1653</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>1745</v>
+        <v>1738</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>1746</v>
+        <v>1739</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>2144</v>
+        <v>2137</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>2145</v>
+        <v>2138</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>2225</v>
+        <v>2218</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>2312</v>
+        <v>2305</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>2313</v>
+        <v>2306</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -14833,10 +14824,10 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2" t="s">
-        <v>1904</v>
+        <v>1897</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
@@ -14869,40 +14860,40 @@
     </row>
     <row r="51" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1661</v>
+        <v>1654</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1824</v>
+        <v>1817</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>2031</v>
+        <v>2024</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>2032</v>
+        <v>2025</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>1662</v>
+        <v>1655</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>1748</v>
+        <v>1741</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>1747</v>
+        <v>1740</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>2146</v>
+        <v>2139</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>2147</v>
+        <v>2140</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>2226</v>
+        <v>2219</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>2314</v>
+        <v>2307</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>2315</v>
+        <v>2308</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -14910,10 +14901,10 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2" t="s">
-        <v>1906</v>
+        <v>1899</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>1907</v>
+        <v>1900</v>
       </c>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
@@ -14949,37 +14940,37 @@
         <v>24</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1825</v>
+        <v>1818</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>2033</v>
+        <v>2026</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>2034</v>
+        <v>2027</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>1663</v>
+        <v>1656</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>1749</v>
+        <v>1742</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>1750</v>
+        <v>1743</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>2148</v>
+        <v>2141</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>2149</v>
+        <v>2142</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>2227</v>
+        <v>2220</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>2318</v>
+        <v>2311</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>2317</v>
+        <v>2310</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -14987,10 +14978,10 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2" t="s">
-        <v>1908</v>
+        <v>1901</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>1909</v>
+        <v>1902</v>
       </c>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
@@ -15023,40 +15014,40 @@
     </row>
     <row r="53" spans="1:47" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1664</v>
+        <v>1657</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1826</v>
+        <v>1819</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>2035</v>
+        <v>2028</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>2036</v>
+        <v>2029</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>1665</v>
+        <v>1658</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>1751</v>
+        <v>1744</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>1752</v>
+        <v>1745</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>2150</v>
+        <v>2143</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>2151</v>
+        <v>2144</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>2228</v>
+        <v>2221</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>2319</v>
+        <v>2312</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>2320</v>
+        <v>2313</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -15064,10 +15055,10 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="3" t="s">
-        <v>1910</v>
+        <v>1903</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>1911</v>
+        <v>1904</v>
       </c>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
@@ -15103,37 +15094,37 @@
         <v>25</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1827</v>
+        <v>1820</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>2037</v>
+        <v>2030</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>2038</v>
+        <v>2031</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>1753</v>
+        <v>1746</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>1754</v>
+        <v>1747</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>2152</v>
+        <v>2145</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>2153</v>
+        <v>2146</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>2229</v>
+        <v>2222</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>2321</v>
+        <v>2314</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>2322</v>
+        <v>2315</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -15141,10 +15132,10 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2" t="s">
-        <v>1912</v>
+        <v>1905</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>1913</v>
+        <v>1906</v>
       </c>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
@@ -15180,37 +15171,37 @@
         <v>491</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1828</v>
+        <v>1821</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>2039</v>
+        <v>2032</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>2040</v>
+        <v>2033</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>1667</v>
+        <v>1660</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>1755</v>
+        <v>1748</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>1756</v>
+        <v>1749</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>2154</v>
+        <v>2147</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>2155</v>
+        <v>2148</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>2230</v>
+        <v>2223</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>2323</v>
+        <v>2316</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>2324</v>
+        <v>2317</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -15218,10 +15209,10 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2" t="s">
-        <v>1914</v>
+        <v>1907</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>1915</v>
+        <v>1908</v>
       </c>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
@@ -15257,37 +15248,37 @@
         <v>26</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1829</v>
+        <v>1822</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>2041</v>
+        <v>2034</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>2042</v>
+        <v>2035</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>1668</v>
+        <v>1661</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>1757</v>
+        <v>1750</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>2156</v>
+        <v>2149</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>2157</v>
+        <v>2150</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>2231</v>
+        <v>2224</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>2327</v>
+        <v>2320</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>2328</v>
+        <v>2321</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -15295,10 +15286,10 @@
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2" t="s">
-        <v>1916</v>
+        <v>1909</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>1917</v>
+        <v>1910</v>
       </c>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
@@ -15334,37 +15325,37 @@
         <v>27</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1830</v>
+        <v>1823</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>2043</v>
+        <v>2036</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>2044</v>
+        <v>2037</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>1669</v>
+        <v>1662</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>2158</v>
+        <v>2151</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>2159</v>
+        <v>2152</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>2232</v>
+        <v>2225</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>2325</v>
+        <v>2318</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>2326</v>
+        <v>2319</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -15372,10 +15363,10 @@
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2" t="s">
-        <v>1918</v>
+        <v>1911</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>1919</v>
+        <v>1912</v>
       </c>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
@@ -15411,37 +15402,37 @@
         <v>28</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1831</v>
+        <v>1824</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>2045</v>
+        <v>2038</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>2046</v>
+        <v>2039</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>1670</v>
+        <v>1663</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>1762</v>
+        <v>1755</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>2160</v>
+        <v>2153</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>2161</v>
+        <v>2154</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>2233</v>
+        <v>2226</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>2329</v>
+        <v>2322</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>2330</v>
+        <v>2323</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -15449,10 +15440,10 @@
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2" t="s">
-        <v>1920</v>
+        <v>1913</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>1921</v>
+        <v>1914</v>
       </c>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
@@ -15488,37 +15479,37 @@
         <v>29</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1832</v>
+        <v>1825</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>2047</v>
+        <v>2040</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>2048</v>
+        <v>2041</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>1671</v>
+        <v>1664</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>1763</v>
+        <v>1756</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>2162</v>
+        <v>2155</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>2163</v>
+        <v>2156</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>2224</v>
+        <v>2217</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>2310</v>
+        <v>2303</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>2311</v>
+        <v>2304</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -15526,10 +15517,10 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2" t="s">
-        <v>1922</v>
+        <v>1915</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>1923</v>
+        <v>1916</v>
       </c>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
@@ -15565,37 +15556,37 @@
         <v>30</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1833</v>
+        <v>1826</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>2049</v>
+        <v>2042</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>2050</v>
+        <v>2043</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>1672</v>
+        <v>1665</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>1765</v>
+        <v>1758</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>1766</v>
+        <v>1759</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>2164</v>
+        <v>2157</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>2165</v>
+        <v>2158</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>2236</v>
+        <v>2229</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>2334</v>
+        <v>2327</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>2333</v>
+        <v>2326</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -15603,10 +15594,10 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2" t="s">
-        <v>1924</v>
+        <v>1917</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>1925</v>
+        <v>1918</v>
       </c>
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
@@ -15642,37 +15633,37 @@
         <v>31</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1834</v>
+        <v>1827</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>2051</v>
+        <v>2044</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>2052</v>
+        <v>2045</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>1673</v>
+        <v>1666</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>1768</v>
+        <v>1761</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>1767</v>
+        <v>1760</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>2166</v>
+        <v>2159</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>2167</v>
+        <v>2160</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>2237</v>
+        <v>2230</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>2335</v>
+        <v>2328</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>2336</v>
+        <v>2329</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -15680,10 +15671,10 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="3" t="s">
-        <v>1926</v>
+        <v>1919</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
@@ -15719,37 +15710,37 @@
         <v>32</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1835</v>
+        <v>1828</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>2053</v>
+        <v>2046</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>2054</v>
+        <v>2047</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>1674</v>
+        <v>1667</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>1769</v>
+        <v>1762</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>1770</v>
+        <v>1763</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>2168</v>
+        <v>2161</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>2169</v>
+        <v>2162</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>2238</v>
+        <v>2231</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>2337</v>
+        <v>2330</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>2338</v>
+        <v>2331</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -15757,10 +15748,10 @@
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2" t="s">
-        <v>1928</v>
+        <v>1921</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>1929</v>
+        <v>1922</v>
       </c>
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
@@ -15793,40 +15784,40 @@
     </row>
     <row r="63" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>2240</v>
+        <v>2233</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1836</v>
+        <v>1829</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>2055</v>
+        <v>2048</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>2056</v>
+        <v>2049</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>1675</v>
+        <v>1668</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>1771</v>
+        <v>1764</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>1772</v>
+        <v>1765</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>2170</v>
+        <v>2163</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>2171</v>
+        <v>2164</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>2239</v>
+        <v>2232</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>2339</v>
+        <v>2332</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>2340</v>
+        <v>2333</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -15834,10 +15825,10 @@
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2" t="s">
-        <v>1930</v>
+        <v>1923</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>1931</v>
+        <v>1924</v>
       </c>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
@@ -15873,37 +15864,37 @@
         <v>33</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1837</v>
+        <v>1830</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>2057</v>
+        <v>2050</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>2058</v>
+        <v>2051</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>1676</v>
+        <v>1669</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>1774</v>
+        <v>1767</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>1773</v>
+        <v>1766</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>2172</v>
+        <v>2165</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>2173</v>
+        <v>2166</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>2241</v>
+        <v>2234</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>2341</v>
+        <v>2334</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>2342</v>
+        <v>2335</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -15911,10 +15902,10 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2" t="s">
-        <v>1935</v>
+        <v>1928</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>1936</v>
+        <v>1929</v>
       </c>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
@@ -15950,37 +15941,37 @@
         <v>34</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1838</v>
+        <v>1831</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>2059</v>
+        <v>2052</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>2060</v>
+        <v>2053</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>1677</v>
+        <v>1670</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>1775</v>
+        <v>1768</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>1776</v>
+        <v>1769</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>2174</v>
+        <v>2167</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>2175</v>
+        <v>2168</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>2242</v>
+        <v>2235</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>2345</v>
+        <v>2338</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>2346</v>
+        <v>2339</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -15988,10 +15979,10 @@
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2" t="s">
-        <v>1937</v>
+        <v>1930</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>1938</v>
+        <v>1931</v>
       </c>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
@@ -16027,37 +16018,37 @@
         <v>35</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1839</v>
+        <v>1832</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>2061</v>
+        <v>2054</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>2062</v>
+        <v>2055</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>1678</v>
+        <v>1671</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>1777</v>
+        <v>1770</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>1778</v>
+        <v>1771</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>2176</v>
+        <v>2169</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>2177</v>
+        <v>2170</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>2243</v>
+        <v>2236</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>2343</v>
+        <v>2336</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>2344</v>
+        <v>2337</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -16065,10 +16056,10 @@
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2" t="s">
-        <v>1939</v>
+        <v>1932</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>1940</v>
+        <v>1933</v>
       </c>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
@@ -16104,37 +16095,37 @@
         <v>36</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1840</v>
+        <v>1833</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>2068</v>
+        <v>2061</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>2069</v>
+        <v>2062</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>1679</v>
+        <v>1672</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>1779</v>
+        <v>1772</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>1780</v>
+        <v>1773</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>2178</v>
+        <v>2171</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>2244</v>
+        <v>2237</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>2331</v>
+        <v>2324</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>2332</v>
+        <v>2325</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -16142,10 +16133,10 @@
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2" t="s">
-        <v>1941</v>
+        <v>1934</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>1942</v>
+        <v>1935</v>
       </c>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
@@ -16181,37 +16172,37 @@
         <v>37</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1841</v>
+        <v>1834</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>2070</v>
+        <v>2063</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>2071</v>
+        <v>2064</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>1680</v>
+        <v>1673</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>1781</v>
+        <v>1774</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>1782</v>
+        <v>1775</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>2180</v>
+        <v>2173</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>2181</v>
+        <v>2174</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>2245</v>
+        <v>2238</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>2347</v>
+        <v>2340</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>2348</v>
+        <v>2341</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -16219,10 +16210,10 @@
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2" t="s">
-        <v>1943</v>
+        <v>1936</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>1944</v>
+        <v>1937</v>
       </c>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
@@ -16255,40 +16246,40 @@
     </row>
     <row r="69" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>2235</v>
+        <v>2228</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>2072</v>
+        <v>2065</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>2073</v>
+        <v>2066</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>1793</v>
+        <v>1786</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>1783</v>
+        <v>1776</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>1784</v>
+        <v>1777</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>2182</v>
+        <v>2175</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>2183</v>
+        <v>2176</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>2234</v>
+        <v>2227</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>2349</v>
+        <v>2342</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>2350</v>
+        <v>2343</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -16296,10 +16287,10 @@
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="2" t="s">
-        <v>1945</v>
+        <v>1938</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>1946</v>
+        <v>1939</v>
       </c>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
@@ -16335,37 +16326,37 @@
         <v>38</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1842</v>
+        <v>1835</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>2074</v>
+        <v>2067</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>2075</v>
+        <v>2068</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1681</v>
+        <v>1674</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>1785</v>
+        <v>1778</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>1786</v>
+        <v>1779</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>2184</v>
+        <v>2177</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>2185</v>
+        <v>2178</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>2246</v>
+        <v>2239</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>2351</v>
+        <v>2344</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>2352</v>
+        <v>2345</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -16373,10 +16364,10 @@
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="2" t="s">
-        <v>1947</v>
+        <v>1940</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>1948</v>
+        <v>1941</v>
       </c>
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
@@ -16412,37 +16403,37 @@
         <v>39</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1843</v>
+        <v>1836</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>2076</v>
+        <v>2069</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>2077</v>
+        <v>2070</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1682</v>
+        <v>1675</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>2186</v>
+        <v>2179</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>2187</v>
+        <v>2180</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>2247</v>
+        <v>2240</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>2353</v>
+        <v>2346</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>2354</v>
+        <v>2347</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -16450,10 +16441,10 @@
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="2" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
@@ -16486,40 +16477,40 @@
     </row>
     <row r="72" spans="1:47" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1949</v>
+        <v>1942</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1844</v>
+        <v>1837</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>2078</v>
+        <v>2071</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>2079</v>
+        <v>2072</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1683</v>
+        <v>1676</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>1787</v>
+        <v>1780</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>1788</v>
+        <v>1781</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>2188</v>
+        <v>2181</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>2189</v>
+        <v>2182</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>2248</v>
+        <v>2241</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>2355</v>
+        <v>2348</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>2356</v>
+        <v>2349</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -16527,10 +16518,10 @@
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
       <c r="R72" s="2" t="s">
-        <v>1950</v>
+        <v>1943</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>1951</v>
+        <v>1944</v>
       </c>
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
@@ -16566,37 +16557,37 @@
         <v>40</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1845</v>
+        <v>1838</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>2080</v>
+        <v>2073</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>2081</v>
+        <v>2074</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>1684</v>
+        <v>1677</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>1789</v>
+        <v>1782</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>1790</v>
+        <v>1783</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>2190</v>
+        <v>2183</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>2191</v>
+        <v>2184</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>2249</v>
+        <v>2242</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>2357</v>
+        <v>2350</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>2358</v>
+        <v>2351</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -16604,10 +16595,10 @@
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="2" t="s">
-        <v>1952</v>
+        <v>1945</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>1953</v>
+        <v>1946</v>
       </c>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
@@ -16643,37 +16634,37 @@
         <v>41</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1846</v>
+        <v>1839</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>2082</v>
+        <v>2075</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>2083</v>
+        <v>2076</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>1685</v>
+        <v>1678</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>1791</v>
+        <v>1784</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>1792</v>
+        <v>1785</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>2192</v>
+        <v>2185</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>2193</v>
+        <v>2186</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>2250</v>
+        <v>2243</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>2359</v>
+        <v>2352</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>2360</v>
+        <v>2353</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -16681,10 +16672,10 @@
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="2" t="s">
-        <v>1954</v>
+        <v>1947</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>1955</v>
+        <v>1948</v>
       </c>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
@@ -16777,12 +16768,12 @@
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1985</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1988</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
@@ -17044,7 +17035,7 @@
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>2064</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
@@ -17064,7 +17055,7 @@
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>2020</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
@@ -17084,7 +17075,7 @@
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
@@ -17219,7 +17210,7 @@
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>2063</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
@@ -17314,7 +17305,7 @@
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1628</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
@@ -17369,7 +17360,7 @@
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1986</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
@@ -17389,7 +17380,7 @@
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
@@ -17439,7 +17430,7 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1629</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
@@ -17609,7 +17600,7 @@
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1686</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
@@ -17644,7 +17635,7 @@
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
@@ -17724,7 +17715,7 @@
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1987</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
@@ -17759,7 +17750,7 @@
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>2019</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
@@ -17999,7 +17990,7 @@
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1627</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
@@ -18084,7 +18075,7 @@
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>1396</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
@@ -18229,7 +18220,7 @@
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>1984</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
@@ -18249,7 +18240,7 @@
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>1973</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
@@ -18699,7 +18690,7 @@
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>1625</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
@@ -18714,7 +18705,7 @@
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>2066</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
@@ -18744,7 +18735,7 @@
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>2065</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
@@ -18864,7 +18855,7 @@
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>2067</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
@@ -18909,7 +18900,7 @@
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>1972</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.2">
@@ -18939,7 +18930,7 @@
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>1626</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.2">

--- a/historical/data/data_strict.xlsx
+++ b/historical/data/data_strict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BD0185-D073-4B43-BBE1-9BEAC2E71F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C17C61-DF55-BA4F-951B-8AEB59EAF5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46220" yWindow="-3100" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="2311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="2303">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -2056,9 +2056,6 @@
     <t>animale</t>
   </si>
   <si>
-    <t>répondre</t>
-  </si>
-  <si>
     <t>fourmi</t>
   </si>
   <si>
@@ -2080,9 +2077,6 @@
     <t>cendre</t>
   </si>
   <si>
-    <t>demander, poser des questions</t>
-  </si>
-  <si>
     <t>automne</t>
   </si>
   <si>
@@ -2092,9 +2086,6 @@
     <t>Erle</t>
   </si>
   <si>
-    <t>verärgert, wütend</t>
-  </si>
-  <si>
     <t>Tier</t>
   </si>
   <si>
@@ -2305,18 +2296,6 @@
     <t>Welsh</t>
   </si>
   <si>
-    <t>એલ્ડર</t>
-  </si>
-  <si>
-    <t>Ēlḍara</t>
-  </si>
-  <si>
-    <t>ગુસ્સો</t>
-  </si>
-  <si>
-    <t>Gus'sō</t>
-  </si>
-  <si>
     <t>પ્રાણી, પશુ</t>
   </si>
   <si>
@@ -2341,21 +2320,9 @@
     <t>Sapharajana</t>
   </si>
   <si>
-    <t>હાથ</t>
-  </si>
-  <si>
-    <t>Hātha</t>
-  </si>
-  <si>
     <t>તીર</t>
   </si>
   <si>
-    <t>શરમાવું, લજ્જિત</t>
-  </si>
-  <si>
-    <t>Śaramāvuṁ, Lajjita</t>
-  </si>
-  <si>
     <t>રાખ</t>
   </si>
   <si>
@@ -2368,12 +2335,6 @@
     <t>Puchavuṁ</t>
   </si>
   <si>
-    <t>પાનખર, ઉત્તરાવસ્થા</t>
-  </si>
-  <si>
-    <t>Pānakhara, Uttarāvasthā</t>
-  </si>
-  <si>
     <t>કુહાડી</t>
   </si>
   <si>
@@ -2566,9 +2527,6 @@
     <t>Antwort</t>
   </si>
   <si>
-    <t>fragen, bitten</t>
-  </si>
-  <si>
     <t>Herbst</t>
   </si>
   <si>
@@ -2732,9 +2690,6 @@
   </si>
   <si>
     <t>Ahle</t>
-  </si>
-  <si>
-    <t>poinçon, alêne</t>
   </si>
   <si>
     <t>priem</t>
@@ -6978,6 +6933,27 @@
   </si>
   <si>
     <t>wake up</t>
+  </si>
+  <si>
+    <t>réponse</t>
+  </si>
+  <si>
+    <t>demander</t>
+  </si>
+  <si>
+    <t>alêne</t>
+  </si>
+  <si>
+    <t>böse, zornig</t>
+  </si>
+  <si>
+    <t>fragen</t>
+  </si>
+  <si>
+    <t>પાનખર</t>
+  </si>
+  <si>
+    <t>Pānakhara</t>
   </si>
 </sst>
 </file>
@@ -7838,10 +7814,10 @@
   <dimension ref="A1:BZ532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7944,19 +7920,19 @@
         <v>498</v>
       </c>
       <c r="H1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="I1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="J1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="K1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="L1" t="s">
-        <v>1095</v>
+        <v>1080</v>
       </c>
       <c r="M1" t="s">
         <v>556</v>
@@ -7991,161 +7967,161 @@
       <c r="W1" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="Y1" t="s">
-        <v>684</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="Y1" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>716</v>
+      </c>
+      <c r="AC1" t="s">
         <v>717</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>718</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>719</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>720</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>721</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>722</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
+        <v>896</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>723</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
+        <v>934</v>
+      </c>
+      <c r="AL1" t="s">
         <v>724</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AM1" t="s">
+        <v>951</v>
+      </c>
+      <c r="AN1" t="s">
         <v>725</v>
       </c>
-      <c r="AI1" t="s">
-        <v>911</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="AO1" t="s">
+        <v>982</v>
+      </c>
+      <c r="AP1" t="s">
         <v>726</v>
       </c>
-      <c r="AK1" t="s">
-        <v>949</v>
-      </c>
-      <c r="AL1" t="s">
+      <c r="AQ1" t="s">
         <v>727</v>
       </c>
-      <c r="AM1" t="s">
-        <v>966</v>
-      </c>
-      <c r="AN1" t="s">
+      <c r="AR1" t="s">
         <v>728</v>
       </c>
-      <c r="AO1" t="s">
-        <v>997</v>
-      </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AT1" t="s">
         <v>729</v>
       </c>
-      <c r="AQ1" t="s">
-        <v>730</v>
-      </c>
-      <c r="AR1" t="s">
+      <c r="AU1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AX1" t="s">
         <v>731</v>
       </c>
-      <c r="AS1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>732</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>1069</v>
-      </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
+        <v>733</v>
+      </c>
+      <c r="BA1" t="s">
         <v>734</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
+        <v>735</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="BD1" t="s">
         <v>736</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BE1" t="s">
         <v>737</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BF1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="BG1" t="s">
         <v>738</v>
       </c>
-      <c r="BC1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="BD1" t="s">
+      <c r="BH1" t="s">
         <v>739</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BI1" t="s">
         <v>740</v>
       </c>
-      <c r="BF1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="BG1" t="s">
+      <c r="BJ1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="BK1" t="s">
         <v>741</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BL1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="BM1" t="s">
         <v>742</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BN1" t="s">
         <v>743</v>
       </c>
-      <c r="BJ1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="BK1" t="s">
+      <c r="BO1" t="s">
         <v>744</v>
       </c>
-      <c r="BL1" t="s">
-        <v>1269</v>
-      </c>
-      <c r="BM1" t="s">
+      <c r="BP1" t="s">
         <v>745</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BQ1" t="s">
         <v>746</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BR1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="BS1" t="s">
         <v>747</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BT1" t="s">
         <v>748</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BU1" t="s">
         <v>749</v>
       </c>
-      <c r="BR1" t="s">
-        <v>1344</v>
-      </c>
-      <c r="BS1" t="s">
+      <c r="BV1" t="s">
         <v>750</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BW1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="BX1" t="s">
         <v>751</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BY1" t="s">
         <v>752</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BZ1" t="s">
         <v>753</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>1461</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>754</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>755</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="2" spans="1:78" x14ac:dyDescent="0.2">
@@ -8218,16 +8194,16 @@
       <c r="W2" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="4" t="s">
         <v>487</v>
       </c>
       <c r="AB2" s="2" t="s">
@@ -8252,7 +8228,7 @@
         <v>487</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>487</v>
@@ -8264,7 +8240,7 @@
         <v>487</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
       <c r="AN2" s="2" t="s">
         <v>487</v>
@@ -8377,223 +8353,223 @@
     </row>
     <row r="3" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1383</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2264</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>1397</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>1417</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>1399</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>1387</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>1388</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>1384</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>1385</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>1391</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>1392</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>1394</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>1395</v>
+      </c>
+      <c r="Z3" s="4" t="s">
         <v>1398</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>1404</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>1405</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>2279</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>1396</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>1397</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>1411</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>1412</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>909</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>1432</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>1414</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>909</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>909</v>
-      </c>
-      <c r="O3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
+        <v>1399</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="AC3" s="2" t="s">
         <v>1401</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="AD3" s="2" t="s">
         <v>1402</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>1403</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>1399</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>1400</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>1401</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>1406</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>1407</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>1408</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>1409</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>1410</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>1413</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>1414</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>1415</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>1416</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>1417</v>
       </c>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="AX3" t="s">
         <v>1418</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AZ3" t="s">
         <v>1419</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="BA3" t="s">
         <v>1420</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="BB3" t="s">
         <v>1421</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="BC3" t="s">
         <v>1422</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="BD3" t="s">
         <v>1423</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="BE3" t="s">
         <v>1424</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="BF3" t="s">
         <v>1425</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="BG3" t="s">
         <v>1426</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="BH3" t="s">
         <v>1427</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="BI3" t="s">
         <v>1428</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="BJ3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>894</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>894</v>
+      </c>
+      <c r="BM3" t="s">
         <v>1429</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="BN3" t="s">
         <v>1430</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="BO3" t="s">
         <v>1431</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="BP3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="BQ3" t="s">
         <v>1433</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BR3" t="s">
         <v>1434</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BS3" t="s">
         <v>1435</v>
       </c>
-      <c r="BB3" t="s">
-        <v>1436</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>1437</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>1438</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>1439</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>1440</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>1441</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>1442</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>1443</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>1401</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>909</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>909</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>1444</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>1445</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>1446</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>1447</v>
-      </c>
-      <c r="BQ3" t="s">
+      <c r="BT3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="BV3" t="s">
         <v>1448</v>
       </c>
-      <c r="BR3" t="s">
+      <c r="BW3" t="s">
         <v>1449</v>
       </c>
-      <c r="BS3" t="s">
-        <v>1450</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>1384</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>1383</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>1463</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>1464</v>
-      </c>
       <c r="BX3" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="BY3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="BZ3" t="s">
         <v>1499</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>1514</v>
       </c>
     </row>
     <row r="4" spans="1:78" x14ac:dyDescent="0.2">
@@ -8619,25 +8595,25 @@
         <v>500</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>1121</v>
+        <v>1106</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>581</v>
@@ -8649,10 +8625,10 @@
         <v>594</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="T4" s="4" t="s">
         <v>631</v>
@@ -8661,166 +8637,166 @@
         <v>637</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>840</v>
-      </c>
-      <c r="X4" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="X4" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="Y4" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>758</v>
+      <c r="Y4" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>894</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>910</v>
+        <v>895</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>912</v>
+        <v>897</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>942</v>
+        <v>927</v>
       </c>
       <c r="AK4" s="2" t="s">
         <v>473</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>969</v>
+        <v>954</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>970</v>
+        <v>955</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>942</v>
+        <v>927</v>
       </c>
       <c r="AO4" s="2" t="s">
         <v>473</v>
       </c>
       <c r="AP4" s="2" t="s">
-        <v>1013</v>
+        <v>998</v>
       </c>
       <c r="AQ4" s="2" t="s">
-        <v>1027</v>
+        <v>1012</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>1041</v>
+        <v>1026</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>1043</v>
+        <v>1028</v>
       </c>
       <c r="AT4" s="2" t="s">
-        <v>1093</v>
+        <v>1078</v>
       </c>
       <c r="AU4" s="2" t="s">
-        <v>1094</v>
+        <v>1079</v>
       </c>
       <c r="AX4" t="s">
-        <v>1113</v>
+        <v>1098</v>
       </c>
       <c r="AZ4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="BA4" t="s">
         <v>1134</v>
       </c>
-      <c r="BA4" t="s">
-        <v>1149</v>
-      </c>
       <c r="BB4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="BC4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="BD4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="BE4" t="s">
         <v>1188</v>
       </c>
-      <c r="BE4" t="s">
-        <v>1203</v>
-      </c>
       <c r="BF4" t="s">
-        <v>1204</v>
+        <v>1189</v>
       </c>
       <c r="BG4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="BH4" t="s">
-        <v>1237</v>
+        <v>1222</v>
       </c>
       <c r="BI4" t="s">
-        <v>1249</v>
+        <v>1234</v>
       </c>
       <c r="BJ4" t="s">
         <v>581</v>
       </c>
       <c r="BK4" t="s">
-        <v>1268</v>
+        <v>1253</v>
       </c>
       <c r="BL4" t="s">
-        <v>1270</v>
+        <v>1255</v>
       </c>
       <c r="BM4" t="s">
-        <v>1295</v>
+        <v>1280</v>
       </c>
       <c r="BN4" t="s">
-        <v>1295</v>
+        <v>1280</v>
       </c>
       <c r="BO4" t="s">
-        <v>1319</v>
+        <v>1304</v>
       </c>
       <c r="BP4" t="s">
-        <v>1333</v>
+        <v>1318</v>
       </c>
       <c r="BQ4" t="s">
-        <v>942</v>
+        <v>927</v>
       </c>
       <c r="BR4" t="s">
         <v>473</v>
       </c>
       <c r="BS4" t="s">
-        <v>942</v>
+        <v>927</v>
       </c>
       <c r="BT4" t="s">
-        <v>1382</v>
+        <v>1367</v>
       </c>
       <c r="BU4" t="s">
         <v>473</v>
       </c>
       <c r="BV4" t="s">
-        <v>1460</v>
+        <v>1445</v>
       </c>
       <c r="BW4" t="s">
-        <v>1462</v>
+        <v>1447</v>
       </c>
       <c r="BX4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="BY4" t="s">
+        <v>1485</v>
+      </c>
+      <c r="BZ4" t="s">
         <v>1500</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="5" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -8828,16 +8804,16 @@
         <v>474</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2266</v>
+        <v>2251</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>2269</v>
+        <v>2254</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>2275</v>
+        <v>2260</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>502</v>
@@ -8846,19 +8822,19 @@
         <v>503</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>1122</v>
+        <v>1107</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>2291</v>
+        <v>2276</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>2293</v>
+        <v>2278</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>558</v>
@@ -8867,7 +8843,7 @@
         <v>559</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>595</v>
@@ -8882,172 +8858,172 @@
         <v>535</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
       <c r="V5" s="4" t="s">
         <v>648</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="X5" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="X5" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="Y5" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>760</v>
+      <c r="Y5" s="4" t="s">
+        <v>2299</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>894</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>876</v>
+        <v>862</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>913</v>
+        <v>898</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>914</v>
+        <v>899</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>943</v>
+        <v>928</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>944</v>
+        <v>929</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>971</v>
+        <v>956</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>972</v>
+        <v>957</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>998</v>
+        <v>983</v>
       </c>
       <c r="AO5" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="AP5" s="2" t="s">
         <v>999</v>
       </c>
-      <c r="AP5" s="2" t="s">
-        <v>1014</v>
-      </c>
       <c r="AQ5" s="2" t="s">
-        <v>1028</v>
+        <v>1013</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>1044</v>
+        <v>1029</v>
       </c>
       <c r="AS5" s="2" t="s">
-        <v>1045</v>
+        <v>1030</v>
       </c>
       <c r="AT5" s="2" t="s">
-        <v>1091</v>
+        <v>1076</v>
       </c>
       <c r="AU5" s="2" t="s">
-        <v>1092</v>
+        <v>1077</v>
       </c>
       <c r="AX5" t="s">
-        <v>1114</v>
+        <v>1099</v>
       </c>
       <c r="AZ5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="BA5" t="s">
         <v>1135</v>
       </c>
-      <c r="BA5" t="s">
-        <v>1150</v>
-      </c>
       <c r="BB5" t="s">
-        <v>1166</v>
+        <v>1151</v>
       </c>
       <c r="BC5" t="s">
-        <v>1167</v>
+        <v>1152</v>
       </c>
       <c r="BD5" t="s">
-        <v>1189</v>
+        <v>1174</v>
       </c>
       <c r="BE5" t="s">
-        <v>1205</v>
+        <v>1190</v>
       </c>
       <c r="BF5" t="s">
-        <v>1206</v>
+        <v>1191</v>
       </c>
       <c r="BG5" t="s">
-        <v>1227</v>
+        <v>1212</v>
       </c>
       <c r="BH5" t="s">
-        <v>876</v>
+        <v>862</v>
       </c>
       <c r="BI5" t="s">
-        <v>1250</v>
+        <v>1235</v>
       </c>
       <c r="BJ5" t="s">
-        <v>1251</v>
+        <v>1236</v>
       </c>
       <c r="BK5" t="s">
-        <v>1271</v>
+        <v>1256</v>
       </c>
       <c r="BL5" t="s">
-        <v>1272</v>
+        <v>1257</v>
       </c>
       <c r="BM5" t="s">
-        <v>1296</v>
+        <v>1281</v>
       </c>
       <c r="BN5" t="s">
-        <v>1308</v>
+        <v>1293</v>
       </c>
       <c r="BO5" t="s">
-        <v>1320</v>
+        <v>1305</v>
       </c>
       <c r="BP5" t="s">
-        <v>1334</v>
+        <v>1319</v>
       </c>
       <c r="BQ5" t="s">
-        <v>1345</v>
+        <v>1330</v>
       </c>
       <c r="BR5" t="s">
-        <v>1346</v>
+        <v>1331</v>
       </c>
       <c r="BS5" t="s">
-        <v>1371</v>
+        <v>1356</v>
       </c>
       <c r="BT5" t="s">
-        <v>1385</v>
+        <v>1370</v>
       </c>
       <c r="BU5" t="s">
+        <v>1436</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>1450</v>
+      </c>
+      <c r="BW5" t="s">
         <v>1451</v>
       </c>
-      <c r="BV5" t="s">
-        <v>1465</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>1466</v>
-      </c>
       <c r="BX5" t="s">
-        <v>1488</v>
+        <v>1473</v>
       </c>
       <c r="BY5" t="s">
+        <v>1486</v>
+      </c>
+      <c r="BZ5" t="s">
         <v>1501</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="6" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9064,28 +9040,28 @@
         <v>621</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>1123</v>
+        <v>1108</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>1096</v>
+        <v>1081</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>1097</v>
+        <v>1082</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>560</v>
@@ -9120,161 +9096,161 @@
       <c r="W6" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="X6" s="2" t="s">
+      <c r="X6" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="Y6" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>762</v>
+      <c r="Y6" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>755</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>854</v>
+        <v>840</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="AG6" s="2" t="s">
         <v>673</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>915</v>
+        <v>900</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>916</v>
+        <v>901</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>946</v>
+        <v>931</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>973</v>
+        <v>958</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>974</v>
+        <v>959</v>
       </c>
       <c r="AN6" s="2" t="s">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>1001</v>
+        <v>986</v>
       </c>
       <c r="AP6" s="2" t="s">
         <v>475</v>
       </c>
       <c r="AQ6" s="2" t="s">
-        <v>1029</v>
+        <v>1014</v>
       </c>
       <c r="AR6" s="3" t="s">
-        <v>1047</v>
+        <v>1032</v>
       </c>
       <c r="AS6" s="2" t="s">
-        <v>1046</v>
+        <v>1031</v>
       </c>
       <c r="AT6" s="2" t="s">
-        <v>1089</v>
+        <v>1074</v>
       </c>
       <c r="AU6" s="2" t="s">
-        <v>1090</v>
+        <v>1075</v>
       </c>
       <c r="AX6" t="s">
         <v>649</v>
       </c>
       <c r="AZ6" t="s">
-        <v>1136</v>
+        <v>1121</v>
       </c>
       <c r="BA6" t="s">
         <v>475</v>
       </c>
       <c r="BB6" t="s">
-        <v>1168</v>
+        <v>1153</v>
       </c>
       <c r="BC6" t="s">
-        <v>1169</v>
+        <v>1154</v>
       </c>
       <c r="BD6" t="s">
         <v>475</v>
       </c>
       <c r="BE6" t="s">
-        <v>1207</v>
+        <v>1192</v>
       </c>
       <c r="BF6" t="s">
-        <v>1208</v>
+        <v>1193</v>
       </c>
       <c r="BG6" t="s">
-        <v>1228</v>
+        <v>1213</v>
       </c>
       <c r="BH6" t="s">
-        <v>1238</v>
+        <v>1223</v>
       </c>
       <c r="BI6" t="s">
-        <v>1252</v>
+        <v>1237</v>
       </c>
       <c r="BJ6" t="s">
         <v>582</v>
       </c>
       <c r="BK6" t="s">
-        <v>1273</v>
+        <v>1258</v>
       </c>
       <c r="BL6" t="s">
-        <v>1274</v>
+        <v>1259</v>
       </c>
       <c r="BM6" t="s">
-        <v>1297</v>
+        <v>1282</v>
       </c>
       <c r="BN6" t="s">
-        <v>1309</v>
+        <v>1294</v>
       </c>
       <c r="BO6" t="s">
         <v>475</v>
       </c>
       <c r="BP6" t="s">
-        <v>1335</v>
+        <v>1320</v>
       </c>
       <c r="BQ6" t="s">
-        <v>1347</v>
+        <v>1332</v>
       </c>
       <c r="BR6" t="s">
-        <v>1348</v>
+        <v>1333</v>
       </c>
       <c r="BS6" t="s">
-        <v>1372</v>
+        <v>1357</v>
       </c>
       <c r="BT6" t="s">
-        <v>1386</v>
+        <v>1371</v>
       </c>
       <c r="BU6" t="s">
+        <v>1437</v>
+      </c>
+      <c r="BV6" t="s">
         <v>1452</v>
       </c>
-      <c r="BV6" t="s">
-        <v>1467</v>
-      </c>
       <c r="BW6" t="s">
-        <v>1468</v>
+        <v>1453</v>
       </c>
       <c r="BX6" t="s">
-        <v>1489</v>
+        <v>1474</v>
       </c>
       <c r="BY6" t="s">
+        <v>1487</v>
+      </c>
+      <c r="BZ6" t="s">
         <v>1502</v>
-      </c>
-      <c r="BZ6" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="7" spans="1:78" x14ac:dyDescent="0.2">
@@ -9285,34 +9261,34 @@
         <v>522</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2270</v>
+        <v>2255</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>2276</v>
+        <v>2261</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>491</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>2283</v>
+        <v>2268</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>2284</v>
+        <v>2269</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>1124</v>
+        <v>1109</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>2292</v>
+        <v>2277</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>2294</v>
+        <v>2279</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>562</v>
@@ -9330,178 +9306,178 @@
         <v>600</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>2305</v>
+        <v>2290</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>2306</v>
+        <v>2291</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>632</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>2308</v>
+        <v>2293</v>
       </c>
       <c r="V7" s="4" t="s">
         <v>650</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>842</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>764</v>
+        <v>829</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>2296</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>757</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="AE7" s="2" t="s">
         <v>650</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>918</v>
+        <v>903</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>919</v>
+        <v>904</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>947</v>
+        <v>932</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>948</v>
+        <v>933</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>975</v>
+        <v>960</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>976</v>
+        <v>961</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>1002</v>
+        <v>987</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>1003</v>
+        <v>988</v>
       </c>
       <c r="AP7" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
         <v>1015</v>
       </c>
-      <c r="AQ7" s="2" t="s">
-        <v>1030</v>
-      </c>
       <c r="AR7" s="2" t="s">
-        <v>1048</v>
+        <v>1033</v>
       </c>
       <c r="AS7" s="2" t="s">
-        <v>1049</v>
+        <v>1034</v>
       </c>
       <c r="AT7" s="2" t="s">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="AU7" s="2" t="s">
-        <v>1088</v>
+        <v>1073</v>
       </c>
       <c r="AX7" t="s">
         <v>650</v>
       </c>
       <c r="AZ7" t="s">
-        <v>1137</v>
+        <v>1122</v>
       </c>
       <c r="BA7" t="s">
-        <v>1151</v>
+        <v>1136</v>
       </c>
       <c r="BB7" t="s">
-        <v>1170</v>
+        <v>1155</v>
       </c>
       <c r="BC7" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="BD7" t="s">
-        <v>1190</v>
+        <v>1175</v>
       </c>
       <c r="BE7" t="s">
-        <v>1209</v>
+        <v>1194</v>
       </c>
       <c r="BF7" t="s">
-        <v>1210</v>
+        <v>1195</v>
       </c>
       <c r="BG7" t="s">
-        <v>1229</v>
+        <v>1214</v>
       </c>
       <c r="BH7" t="s">
-        <v>1239</v>
+        <v>1224</v>
       </c>
       <c r="BI7" t="s">
-        <v>1253</v>
+        <v>1238</v>
       </c>
       <c r="BJ7" t="s">
         <v>632</v>
       </c>
       <c r="BK7" t="s">
-        <v>1275</v>
+        <v>1260</v>
       </c>
       <c r="BL7" t="s">
-        <v>1276</v>
+        <v>1261</v>
       </c>
       <c r="BM7" t="s">
-        <v>1298</v>
+        <v>1283</v>
       </c>
       <c r="BN7" t="s">
-        <v>1310</v>
+        <v>1295</v>
       </c>
       <c r="BO7" t="s">
-        <v>1321</v>
+        <v>1306</v>
       </c>
       <c r="BP7" t="s">
         <v>650</v>
       </c>
       <c r="BQ7" t="s">
-        <v>1349</v>
+        <v>1334</v>
       </c>
       <c r="BR7" t="s">
-        <v>1350</v>
+        <v>1335</v>
       </c>
       <c r="BS7" t="s">
-        <v>1373</v>
+        <v>1358</v>
       </c>
       <c r="BT7" t="s">
-        <v>1387</v>
+        <v>1372</v>
       </c>
       <c r="BU7" t="s">
-        <v>1453</v>
+        <v>1438</v>
       </c>
       <c r="BV7" t="s">
-        <v>1469</v>
+        <v>1454</v>
       </c>
       <c r="BW7" t="s">
-        <v>1470</v>
+        <v>1455</v>
       </c>
       <c r="BX7" t="s">
-        <v>1490</v>
+        <v>1475</v>
       </c>
       <c r="BY7" t="s">
+        <v>1488</v>
+      </c>
+      <c r="BZ7" t="s">
         <v>1503</v>
-      </c>
-      <c r="BZ7" t="s">
-        <v>1518</v>
       </c>
     </row>
     <row r="8" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9527,19 +9503,19 @@
         <v>505</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>1125</v>
+        <v>1110</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>1098</v>
+        <v>1083</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>1099</v>
+        <v>1084</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>564</v>
@@ -9574,161 +9550,161 @@
       <c r="W8" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="X8" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>766</v>
+      <c r="X8" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>759</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>920</v>
+        <v>905</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>950</v>
+        <v>935</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>951</v>
+        <v>936</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>977</v>
+        <v>962</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>978</v>
+        <v>963</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>1004</v>
+        <v>989</v>
       </c>
       <c r="AO8" s="2" t="s">
-        <v>1005</v>
+        <v>990</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="AQ8" s="2" t="s">
-        <v>1031</v>
+        <v>1016</v>
       </c>
       <c r="AR8" s="2" t="s">
-        <v>1050</v>
+        <v>1035</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>1051</v>
+        <v>1036</v>
       </c>
       <c r="AT8" s="2" t="s">
-        <v>1085</v>
+        <v>1070</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>1086</v>
+        <v>1071</v>
       </c>
       <c r="AX8" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="AZ8" t="s">
-        <v>1138</v>
+        <v>1123</v>
       </c>
       <c r="BA8" t="s">
-        <v>1152</v>
+        <v>1137</v>
       </c>
       <c r="BB8" t="s">
-        <v>1171</v>
+        <v>1156</v>
       </c>
       <c r="BC8" t="s">
-        <v>1172</v>
+        <v>1157</v>
       </c>
       <c r="BD8" t="s">
-        <v>1191</v>
+        <v>1176</v>
       </c>
       <c r="BE8" t="s">
-        <v>1211</v>
+        <v>1196</v>
       </c>
       <c r="BF8" t="s">
-        <v>1212</v>
+        <v>1197</v>
       </c>
       <c r="BG8" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="BH8" t="s">
-        <v>1240</v>
+        <v>1225</v>
       </c>
       <c r="BI8" t="s">
-        <v>1254</v>
+        <v>1239</v>
       </c>
       <c r="BJ8" t="s">
         <v>583</v>
       </c>
       <c r="BK8" t="s">
-        <v>1277</v>
+        <v>1262</v>
       </c>
       <c r="BL8" t="s">
-        <v>1278</v>
+        <v>1263</v>
       </c>
       <c r="BM8" t="s">
-        <v>1299</v>
+        <v>1284</v>
       </c>
       <c r="BN8" t="s">
-        <v>1311</v>
+        <v>1296</v>
       </c>
       <c r="BO8" t="s">
-        <v>1322</v>
+        <v>1307</v>
       </c>
       <c r="BP8" t="s">
+        <v>1321</v>
+      </c>
+      <c r="BQ8" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="BQ8" s="1" t="s">
-        <v>1351</v>
-      </c>
       <c r="BR8" t="s">
-        <v>1352</v>
+        <v>1337</v>
       </c>
       <c r="BS8" t="s">
-        <v>1374</v>
+        <v>1359</v>
       </c>
       <c r="BT8" t="s">
-        <v>1388</v>
+        <v>1373</v>
       </c>
       <c r="BU8" t="s">
-        <v>1454</v>
+        <v>1439</v>
       </c>
       <c r="BV8" t="s">
-        <v>1471</v>
+        <v>1456</v>
       </c>
       <c r="BW8" t="s">
-        <v>1472</v>
+        <v>1457</v>
       </c>
       <c r="BX8" t="s">
-        <v>1491</v>
+        <v>1476</v>
       </c>
       <c r="BY8" t="s">
+        <v>1489</v>
+      </c>
+      <c r="BZ8" t="s">
         <v>1504</v>
-      </c>
-      <c r="BZ8" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="9" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -9739,13 +9715,13 @@
         <v>524</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>506</v>
@@ -9754,19 +9730,19 @@
         <v>507</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>1126</v>
+        <v>1111</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>1100</v>
+        <v>1085</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>1101</v>
+        <v>1086</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>566</v>
@@ -9801,161 +9777,161 @@
       <c r="W9" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="X9" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="Z9" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>768</v>
+      <c r="X9" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>761</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
       <c r="AH9" s="3" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="AI9" s="2" t="s">
-        <v>923</v>
+        <v>908</v>
       </c>
       <c r="AJ9" s="2" t="s">
-        <v>952</v>
+        <v>937</v>
       </c>
       <c r="AK9" s="2" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="AL9" s="2" t="s">
-        <v>979</v>
+        <v>964</v>
       </c>
       <c r="AM9" s="2" t="s">
-        <v>980</v>
+        <v>965</v>
       </c>
       <c r="AN9" s="2" t="s">
-        <v>952</v>
+        <v>937</v>
       </c>
       <c r="AO9" s="2" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="AP9" s="2" t="s">
-        <v>1016</v>
+        <v>1001</v>
       </c>
       <c r="AQ9" s="2" t="s">
-        <v>1032</v>
+        <v>1017</v>
       </c>
       <c r="AR9" s="2" t="s">
-        <v>1052</v>
+        <v>1037</v>
       </c>
       <c r="AS9" s="2" t="s">
-        <v>1053</v>
+        <v>1038</v>
       </c>
       <c r="AT9" s="2" t="s">
-        <v>1083</v>
+        <v>1068</v>
       </c>
       <c r="AU9" s="2" t="s">
-        <v>1084</v>
+        <v>1069</v>
       </c>
       <c r="AX9" t="s">
-        <v>1115</v>
+        <v>1100</v>
       </c>
       <c r="AZ9" t="s">
-        <v>1139</v>
+        <v>1124</v>
       </c>
       <c r="BA9" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
       <c r="BB9" t="s">
-        <v>1173</v>
+        <v>1158</v>
       </c>
       <c r="BC9" t="s">
-        <v>1174</v>
+        <v>1159</v>
       </c>
       <c r="BD9" t="s">
-        <v>1192</v>
+        <v>1177</v>
       </c>
       <c r="BE9" t="s">
-        <v>1213</v>
+        <v>1198</v>
       </c>
       <c r="BF9" t="s">
-        <v>1214</v>
+        <v>1199</v>
       </c>
       <c r="BG9" t="s">
-        <v>1230</v>
+        <v>1215</v>
       </c>
       <c r="BH9" t="s">
-        <v>1241</v>
+        <v>1226</v>
       </c>
       <c r="BI9" t="s">
-        <v>1255</v>
+        <v>1240</v>
       </c>
       <c r="BJ9" t="s">
         <v>584</v>
       </c>
       <c r="BK9" t="s">
-        <v>1279</v>
+        <v>1264</v>
       </c>
       <c r="BL9" t="s">
-        <v>1280</v>
+        <v>1265</v>
       </c>
       <c r="BM9" t="s">
         <v>640</v>
       </c>
       <c r="BN9" t="s">
-        <v>1312</v>
+        <v>1297</v>
       </c>
       <c r="BO9" t="s">
-        <v>1323</v>
+        <v>1308</v>
       </c>
       <c r="BP9" t="s">
-        <v>1337</v>
+        <v>1322</v>
       </c>
       <c r="BQ9" t="s">
-        <v>1353</v>
+        <v>1338</v>
       </c>
       <c r="BR9" t="s">
-        <v>1354</v>
+        <v>1339</v>
       </c>
       <c r="BS9" t="s">
-        <v>1375</v>
+        <v>1360</v>
       </c>
       <c r="BT9" t="s">
-        <v>1389</v>
+        <v>1374</v>
       </c>
       <c r="BU9" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="BV9" t="s">
-        <v>1473</v>
+        <v>1458</v>
       </c>
       <c r="BW9" t="s">
-        <v>1474</v>
+        <v>1459</v>
       </c>
       <c r="BX9" t="s">
-        <v>1492</v>
+        <v>1477</v>
       </c>
       <c r="BY9" t="s">
+        <v>1490</v>
+      </c>
+      <c r="BZ9" t="s">
         <v>1505</v>
-      </c>
-      <c r="BZ9" t="s">
-        <v>1520</v>
       </c>
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.2">
@@ -9963,7 +9939,7 @@
         <v>479</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2267</v>
+        <v>2252</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>624</v>
@@ -9972,7 +9948,7 @@
         <v>625</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>2280</v>
+        <v>2265</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>508</v>
@@ -9981,19 +9957,19 @@
         <v>479</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>1127</v>
+        <v>1112</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>2295</v>
+        <v>2280</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>2296</v>
+        <v>2281</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>568</v>
@@ -10002,22 +9978,22 @@
         <v>569</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="U10" s="4" t="s">
         <v>641</v>
@@ -10028,95 +10004,95 @@
       <c r="W10" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="X10" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>770</v>
+      <c r="X10" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>894</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="AE10" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="AF10" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="AF10" s="2" t="s">
-        <v>871</v>
-      </c>
       <c r="AG10" s="2" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>924</v>
+        <v>909</v>
       </c>
       <c r="AI10" s="2" t="s">
-        <v>925</v>
+        <v>910</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>953</v>
+        <v>938</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>954</v>
+        <v>939</v>
       </c>
       <c r="AL10" s="2" t="s">
-        <v>981</v>
+        <v>966</v>
       </c>
       <c r="AM10" s="2" t="s">
-        <v>982</v>
+        <v>967</v>
       </c>
       <c r="AN10" s="2" t="s">
-        <v>1006</v>
+        <v>991</v>
       </c>
       <c r="AO10" s="2" t="s">
-        <v>1007</v>
+        <v>992</v>
       </c>
       <c r="AP10" s="2" t="s">
-        <v>1017</v>
+        <v>1002</v>
       </c>
       <c r="AQ10" s="2" t="s">
-        <v>1033</v>
+        <v>1018</v>
       </c>
       <c r="AR10" s="2" t="s">
-        <v>1054</v>
+        <v>1039</v>
       </c>
       <c r="AS10" s="2" t="s">
-        <v>1055</v>
+        <v>1040</v>
       </c>
       <c r="AT10" s="2" t="s">
-        <v>1081</v>
+        <v>1066</v>
       </c>
       <c r="AU10" s="2" t="s">
-        <v>1082</v>
+        <v>1067</v>
       </c>
       <c r="AX10" t="s">
-        <v>1116</v>
+        <v>1101</v>
       </c>
       <c r="AZ10" t="s">
-        <v>1140</v>
+        <v>1125</v>
       </c>
       <c r="BA10" t="s">
-        <v>1154</v>
+        <v>1139</v>
       </c>
       <c r="BB10" t="s">
-        <v>1175</v>
+        <v>1160</v>
       </c>
       <c r="BC10" t="s">
-        <v>1176</v>
+        <v>1161</v>
       </c>
       <c r="BD10" t="s">
-        <v>1193</v>
+        <v>1178</v>
       </c>
       <c r="BE10" t="s">
         <v>543</v>
@@ -10125,49 +10101,49 @@
         <v>544</v>
       </c>
       <c r="BG10" t="s">
-        <v>1231</v>
+        <v>1216</v>
       </c>
       <c r="BH10" t="s">
-        <v>1242</v>
+        <v>1227</v>
       </c>
       <c r="BI10" t="s">
-        <v>1256</v>
+        <v>1241</v>
       </c>
       <c r="BJ10" t="s">
         <v>585</v>
       </c>
       <c r="BK10" t="s">
-        <v>1281</v>
+        <v>1266</v>
       </c>
       <c r="BL10" t="s">
-        <v>1282</v>
+        <v>1267</v>
       </c>
       <c r="BM10" t="s">
-        <v>1300</v>
+        <v>1285</v>
       </c>
       <c r="BN10" t="s">
-        <v>1033</v>
+        <v>1018</v>
       </c>
       <c r="BO10" t="s">
-        <v>1324</v>
+        <v>1309</v>
       </c>
       <c r="BP10" t="s">
-        <v>1338</v>
+        <v>1323</v>
       </c>
       <c r="BQ10" t="s">
-        <v>1355</v>
+        <v>1340</v>
       </c>
       <c r="BR10" t="s">
-        <v>1356</v>
+        <v>1341</v>
       </c>
       <c r="BS10" t="s">
-        <v>1376</v>
+        <v>1361</v>
       </c>
       <c r="BT10" t="s">
-        <v>1007</v>
+        <v>992</v>
       </c>
       <c r="BU10" t="s">
-        <v>1455</v>
+        <v>1440</v>
       </c>
       <c r="BV10" t="s">
         <v>543</v>
@@ -10176,13 +10152,13 @@
         <v>544</v>
       </c>
       <c r="BX10" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="BY10" t="s">
+        <v>1491</v>
+      </c>
+      <c r="BZ10" t="s">
         <v>1506</v>
-      </c>
-      <c r="BZ10" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="11" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10193,10 +10169,10 @@
         <v>525</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>493</v>
@@ -10208,19 +10184,19 @@
         <v>510</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>1128</v>
+        <v>1113</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>1102</v>
+        <v>1087</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>1103</v>
+        <v>1088</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>570</v>
@@ -10229,16 +10205,16 @@
         <v>571</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>2299</v>
+        <v>2284</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>1215</v>
+        <v>1200</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>1216</v>
+        <v>1201</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="S11" s="4" t="s">
         <v>605</v>
@@ -10255,161 +10231,161 @@
       <c r="W11" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="X11" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="AA11" s="2" t="s">
+      <c r="X11" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="AA11" s="4" t="s">
         <v>571</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
       <c r="AF11" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="AG11" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="AG11" s="2" t="s">
-        <v>884</v>
-      </c>
       <c r="AH11" s="2" t="s">
-        <v>926</v>
+        <v>911</v>
       </c>
       <c r="AI11" s="2" t="s">
-        <v>927</v>
+        <v>912</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>955</v>
+        <v>940</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>956</v>
+        <v>941</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>983</v>
+        <v>968</v>
       </c>
       <c r="AM11" s="2" t="s">
-        <v>984</v>
+        <v>969</v>
       </c>
       <c r="AN11" s="2" t="s">
-        <v>955</v>
+        <v>940</v>
       </c>
       <c r="AO11" s="2" t="s">
-        <v>956</v>
+        <v>941</v>
       </c>
       <c r="AP11" s="2" t="s">
-        <v>1018</v>
+        <v>1003</v>
       </c>
       <c r="AQ11" s="2" t="s">
-        <v>1034</v>
+        <v>1019</v>
       </c>
       <c r="AR11" s="2" t="s">
-        <v>1056</v>
+        <v>1041</v>
       </c>
       <c r="AS11" s="2" t="s">
-        <v>1057</v>
+        <v>1042</v>
       </c>
       <c r="AT11" s="2" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="AU11" s="2" t="s">
-        <v>1080</v>
+        <v>1065</v>
       </c>
       <c r="AX11" t="s">
         <v>653</v>
       </c>
       <c r="AZ11" t="s">
-        <v>1141</v>
+        <v>1126</v>
       </c>
       <c r="BA11" t="s">
-        <v>1155</v>
+        <v>1140</v>
       </c>
       <c r="BB11" t="s">
-        <v>1177</v>
+        <v>1162</v>
       </c>
       <c r="BC11" t="s">
         <v>571</v>
       </c>
       <c r="BD11" t="s">
-        <v>1194</v>
+        <v>1179</v>
       </c>
       <c r="BE11" t="s">
-        <v>1215</v>
+        <v>1200</v>
       </c>
       <c r="BF11" t="s">
-        <v>1216</v>
+        <v>1201</v>
       </c>
       <c r="BG11" t="s">
-        <v>1232</v>
+        <v>1217</v>
       </c>
       <c r="BH11" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="BI11" s="1" t="s">
-        <v>1257</v>
+        <v>1242</v>
       </c>
       <c r="BJ11" t="s">
-        <v>1258</v>
+        <v>1243</v>
       </c>
       <c r="BK11" t="s">
-        <v>1283</v>
+        <v>1268</v>
       </c>
       <c r="BL11" t="s">
-        <v>1284</v>
+        <v>1269</v>
       </c>
       <c r="BM11" t="s">
-        <v>1301</v>
+        <v>1286</v>
       </c>
       <c r="BN11" t="s">
-        <v>1313</v>
+        <v>1298</v>
       </c>
       <c r="BO11" t="s">
-        <v>1326</v>
+        <v>1311</v>
       </c>
       <c r="BP11" t="s">
         <v>653</v>
       </c>
       <c r="BQ11" t="s">
-        <v>1357</v>
+        <v>1342</v>
       </c>
       <c r="BR11" t="s">
-        <v>1358</v>
+        <v>1343</v>
       </c>
       <c r="BS11" t="s">
-        <v>1377</v>
+        <v>1362</v>
       </c>
       <c r="BT11" t="s">
-        <v>1390</v>
+        <v>1375</v>
       </c>
       <c r="BU11" t="s">
-        <v>1390</v>
+        <v>1375</v>
       </c>
       <c r="BV11" t="s">
-        <v>1475</v>
+        <v>1460</v>
       </c>
       <c r="BW11" t="s">
-        <v>1476</v>
+        <v>1461</v>
       </c>
       <c r="BX11" t="s">
-        <v>1493</v>
+        <v>1478</v>
       </c>
       <c r="BY11" t="s">
+        <v>1492</v>
+      </c>
+      <c r="BZ11" t="s">
         <v>1507</v>
-      </c>
-      <c r="BZ11" t="s">
-        <v>1522</v>
       </c>
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.2">
@@ -10420,40 +10396,40 @@
         <v>526</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>2271</v>
+        <v>2256</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>2272</v>
+        <v>2257</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>586</v>
@@ -10477,151 +10453,151 @@
         <v>643</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="W12" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="X12" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>909</v>
+      <c r="X12" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>894</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="AH12" s="2" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="AI12" s="2" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="AK12" s="2" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="AL12" s="2" t="s">
-        <v>985</v>
+        <v>970</v>
       </c>
       <c r="AM12" s="2" t="s">
-        <v>986</v>
+        <v>971</v>
       </c>
       <c r="AN12" s="2" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="AO12" s="2" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="AP12" s="2" t="s">
-        <v>1019</v>
+        <v>1004</v>
       </c>
       <c r="AQ12" s="2" t="s">
-        <v>1035</v>
+        <v>1020</v>
       </c>
       <c r="AR12" s="2" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="AS12" s="2" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="AT12" s="2" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="AU12" s="2" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="AX12" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="AZ12" t="s">
-        <v>1142</v>
+        <v>1127</v>
       </c>
       <c r="BA12" t="s">
-        <v>1156</v>
+        <v>1141</v>
       </c>
       <c r="BB12" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="BC12" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="BD12" t="s">
-        <v>1195</v>
+        <v>1180</v>
       </c>
       <c r="BE12" t="s">
         <v>545</v>
       </c>
       <c r="BF12" t="s">
-        <v>1217</v>
+        <v>1202</v>
       </c>
       <c r="BG12" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="BH12" t="s">
-        <v>1243</v>
+        <v>1228</v>
       </c>
       <c r="BI12" t="s">
-        <v>1259</v>
+        <v>1244</v>
       </c>
       <c r="BJ12" t="s">
         <v>586</v>
       </c>
       <c r="BK12" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="BL12" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="BM12" t="s">
-        <v>1302</v>
+        <v>1287</v>
       </c>
       <c r="BN12" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="BO12" t="s">
-        <v>1325</v>
+        <v>1310</v>
       </c>
       <c r="BP12" t="s">
-        <v>1339</v>
+        <v>1324</v>
       </c>
       <c r="BQ12" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="BR12" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="BS12" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="BT12" t="s">
-        <v>1391</v>
+        <v>1376</v>
       </c>
       <c r="BU12" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="BV12" t="s">
         <v>606</v>
@@ -10630,13 +10606,13 @@
         <v>607</v>
       </c>
       <c r="BX12" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="BY12" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="BZ12" t="s">
-        <v>1523</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="13" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -10647,13 +10623,13 @@
         <v>527</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>2281</v>
+        <v>2266</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>511</v>
@@ -10662,19 +10638,19 @@
         <v>512</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>1130</v>
+        <v>1115</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>1105</v>
+        <v>1090</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>1106</v>
+        <v>1091</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>574</v>
@@ -10692,10 +10668,10 @@
         <v>609</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>826</v>
+        <v>813</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>828</v>
+        <v>815</v>
       </c>
       <c r="T13" s="4" t="s">
         <v>588</v>
@@ -10709,161 +10685,161 @@
       <c r="W13" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="X13" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="Z13" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>775</v>
+      <c r="X13" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>764</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="AH13" s="2" t="s">
-        <v>930</v>
+        <v>915</v>
       </c>
       <c r="AI13" s="2" t="s">
-        <v>931</v>
+        <v>916</v>
       </c>
       <c r="AJ13" s="2" t="s">
-        <v>959</v>
+        <v>944</v>
       </c>
       <c r="AK13" s="2" t="s">
-        <v>960</v>
+        <v>945</v>
       </c>
       <c r="AL13" s="2" t="s">
-        <v>989</v>
+        <v>974</v>
       </c>
       <c r="AM13" s="2" t="s">
-        <v>990</v>
+        <v>975</v>
       </c>
       <c r="AN13" s="2" t="s">
-        <v>959</v>
+        <v>944</v>
       </c>
       <c r="AO13" s="2" t="s">
-        <v>960</v>
+        <v>945</v>
       </c>
       <c r="AP13" s="2" t="s">
-        <v>1021</v>
+        <v>1006</v>
       </c>
       <c r="AQ13" s="2" t="s">
-        <v>1037</v>
+        <v>1022</v>
       </c>
       <c r="AR13" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AS13" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AT13" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="AS13" s="2" t="s">
+      <c r="AU13" s="2" t="s">
         <v>1061</v>
-      </c>
-      <c r="AT13" s="2" t="s">
-        <v>1075</v>
-      </c>
-      <c r="AU13" s="2" t="s">
-        <v>1076</v>
       </c>
       <c r="AX13" t="s">
         <v>655</v>
       </c>
       <c r="AZ13" t="s">
-        <v>1144</v>
+        <v>1129</v>
       </c>
       <c r="BA13" t="s">
-        <v>1160</v>
+        <v>1145</v>
       </c>
       <c r="BB13" t="s">
-        <v>1178</v>
+        <v>1163</v>
       </c>
       <c r="BC13" t="s">
-        <v>1179</v>
+        <v>1164</v>
       </c>
       <c r="BD13" t="s">
-        <v>1197</v>
+        <v>1182</v>
       </c>
       <c r="BE13" t="s">
+        <v>1203</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>1204</v>
+      </c>
+      <c r="BG13" t="s">
         <v>1218</v>
       </c>
-      <c r="BF13" t="s">
-        <v>1219</v>
-      </c>
-      <c r="BG13" t="s">
-        <v>1233</v>
-      </c>
       <c r="BH13" t="s">
-        <v>1245</v>
+        <v>1230</v>
       </c>
       <c r="BI13" t="s">
-        <v>1262</v>
+        <v>1247</v>
       </c>
       <c r="BJ13" t="s">
         <v>588</v>
       </c>
       <c r="BK13" t="s">
-        <v>1287</v>
+        <v>1272</v>
       </c>
       <c r="BL13" t="s">
-        <v>1288</v>
+        <v>1273</v>
       </c>
       <c r="BM13" t="s">
-        <v>1304</v>
+        <v>1289</v>
       </c>
       <c r="BN13" t="s">
         <v>609</v>
       </c>
       <c r="BO13" t="s">
-        <v>1328</v>
+        <v>1313</v>
       </c>
       <c r="BP13" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="BQ13" t="s">
-        <v>1361</v>
+        <v>1346</v>
       </c>
       <c r="BR13" t="s">
-        <v>1362</v>
+        <v>1347</v>
       </c>
       <c r="BS13" t="s">
-        <v>1379</v>
+        <v>1364</v>
       </c>
       <c r="BT13" t="s">
-        <v>960</v>
+        <v>945</v>
       </c>
       <c r="BU13" t="s">
-        <v>960</v>
+        <v>945</v>
       </c>
       <c r="BV13" t="s">
-        <v>1477</v>
+        <v>1462</v>
       </c>
       <c r="BW13" t="s">
-        <v>1478</v>
+        <v>1463</v>
       </c>
       <c r="BX13" t="s">
-        <v>1494</v>
+        <v>1479</v>
       </c>
       <c r="BY13" t="s">
-        <v>1508</v>
+        <v>1493</v>
       </c>
       <c r="BZ13" t="s">
-        <v>1524</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="14" spans="1:78" ht="34" x14ac:dyDescent="0.2">
@@ -10871,7 +10847,7 @@
         <v>481</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2268</v>
+        <v>2253</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>627</v>
@@ -10883,22 +10859,22 @@
         <v>492</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>2285</v>
+        <v>2270</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>2286</v>
+        <v>2271</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>1129</v>
+        <v>1114</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>1104</v>
+        <v>1089</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>573</v>
@@ -10910,22 +10886,22 @@
         <v>573</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>2300</v>
+        <v>2285</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>2301</v>
+        <v>2286</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>2302</v>
+        <v>2287</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>2307</v>
+        <v>2292</v>
       </c>
       <c r="U14" s="4" t="s">
         <v>644</v>
@@ -10936,161 +10912,161 @@
       <c r="W14" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="X14" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="Z14" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>773</v>
+      <c r="X14" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>894</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
       <c r="AH14" s="3" t="s">
-        <v>928</v>
+        <v>913</v>
       </c>
       <c r="AI14" s="2" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="AJ14" s="2" t="s">
-        <v>957</v>
+        <v>942</v>
       </c>
       <c r="AK14" s="2" t="s">
-        <v>958</v>
+        <v>943</v>
       </c>
       <c r="AL14" s="2" t="s">
-        <v>987</v>
+        <v>972</v>
       </c>
       <c r="AM14" s="2" t="s">
-        <v>988</v>
+        <v>973</v>
       </c>
       <c r="AN14" s="2" t="s">
-        <v>1008</v>
+        <v>993</v>
       </c>
       <c r="AO14" s="2" t="s">
-        <v>1009</v>
+        <v>994</v>
       </c>
       <c r="AP14" s="2" t="s">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="AQ14" s="2" t="s">
-        <v>1036</v>
+        <v>1021</v>
       </c>
       <c r="AR14" s="3" t="s">
-        <v>1058</v>
+        <v>1043</v>
       </c>
       <c r="AS14" s="2" t="s">
-        <v>1059</v>
+        <v>1044</v>
       </c>
       <c r="AT14" s="2" t="s">
-        <v>1077</v>
+        <v>1062</v>
       </c>
       <c r="AU14" s="2" t="s">
-        <v>1078</v>
+        <v>1063</v>
       </c>
       <c r="AX14" t="s">
-        <v>1117</v>
+        <v>1102</v>
       </c>
       <c r="AZ14" t="s">
-        <v>1143</v>
+        <v>1128</v>
       </c>
       <c r="BA14" t="s">
-        <v>1159</v>
+        <v>1144</v>
       </c>
       <c r="BB14" t="s">
-        <v>1180</v>
+        <v>1165</v>
       </c>
       <c r="BC14" t="s">
+        <v>1166</v>
+      </c>
+      <c r="BD14" t="s">
         <v>1181</v>
       </c>
-      <c r="BD14" t="s">
-        <v>1196</v>
-      </c>
       <c r="BE14" t="s">
-        <v>1220</v>
+        <v>1205</v>
       </c>
       <c r="BF14" t="s">
-        <v>1221</v>
+        <v>1206</v>
       </c>
       <c r="BG14" t="s">
-        <v>1104</v>
+        <v>1089</v>
       </c>
       <c r="BH14" t="s">
-        <v>1244</v>
+        <v>1229</v>
       </c>
       <c r="BI14" t="s">
-        <v>1260</v>
+        <v>1245</v>
       </c>
       <c r="BJ14" t="s">
-        <v>1261</v>
+        <v>1246</v>
       </c>
       <c r="BK14" t="s">
-        <v>1285</v>
+        <v>1270</v>
       </c>
       <c r="BL14" t="s">
-        <v>1286</v>
+        <v>1271</v>
       </c>
       <c r="BM14" t="s">
-        <v>1303</v>
+        <v>1288</v>
       </c>
       <c r="BN14" t="s">
-        <v>1315</v>
+        <v>1300</v>
       </c>
       <c r="BO14" t="s">
-        <v>1327</v>
+        <v>1312</v>
       </c>
       <c r="BP14" t="s">
-        <v>1340</v>
+        <v>1325</v>
       </c>
       <c r="BQ14" t="s">
-        <v>1359</v>
+        <v>1344</v>
       </c>
       <c r="BR14" t="s">
-        <v>1360</v>
+        <v>1345</v>
       </c>
       <c r="BS14" t="s">
-        <v>1378</v>
+        <v>1363</v>
       </c>
       <c r="BT14" t="s">
-        <v>1392</v>
+        <v>1377</v>
       </c>
       <c r="BU14" t="s">
-        <v>1456</v>
+        <v>1441</v>
       </c>
       <c r="BV14" s="1" t="s">
-        <v>1479</v>
+        <v>1464</v>
       </c>
       <c r="BW14" t="s">
+        <v>1465</v>
+      </c>
+      <c r="BX14" t="s">
         <v>1480</v>
       </c>
-      <c r="BX14" t="s">
-        <v>1495</v>
-      </c>
       <c r="BY14" t="s">
-        <v>1509</v>
+        <v>1494</v>
       </c>
       <c r="BZ14" t="s">
-        <v>1525</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="15" spans="1:78" ht="17" x14ac:dyDescent="0.2">
@@ -11101,13 +11077,13 @@
         <v>528</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>2273</v>
+        <v>2258</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>2274</v>
+        <v>2259</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>2282</v>
+        <v>2267</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>513</v>
@@ -11116,213 +11092,213 @@
         <v>514</v>
       </c>
       <c r="H15" s="4" t="s">
+        <v>2274</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>2275</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>2282</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>2283</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>1249</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>2288</v>
+      </c>
+      <c r="Q15" s="4" t="s">
         <v>2289</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>2290</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>1131</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>1107</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>1108</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>2297</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>2298</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>1264</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>2303</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>2304</v>
-      </c>
       <c r="R15" s="4" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>2309</v>
+        <v>2294</v>
       </c>
       <c r="W15" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="X15" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="Z15" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>777</v>
+      <c r="X15" s="4" t="s">
+        <v>2297</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>2300</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>766</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>867</v>
+        <v>853</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="AI15" s="2" t="s">
-        <v>933</v>
+        <v>918</v>
       </c>
       <c r="AJ15" s="2" t="s">
-        <v>961</v>
+        <v>946</v>
       </c>
       <c r="AK15" s="2" t="s">
-        <v>962</v>
+        <v>947</v>
       </c>
       <c r="AL15" s="2" t="s">
-        <v>991</v>
+        <v>976</v>
       </c>
       <c r="AM15" s="2" t="s">
-        <v>992</v>
+        <v>977</v>
       </c>
       <c r="AN15" s="2" t="s">
-        <v>1010</v>
+        <v>995</v>
       </c>
       <c r="AO15" s="2" t="s">
-        <v>1011</v>
+        <v>996</v>
       </c>
       <c r="AP15" s="2" t="s">
-        <v>1022</v>
+        <v>1007</v>
       </c>
       <c r="AQ15" s="2" t="s">
-        <v>1038</v>
+        <v>1023</v>
       </c>
       <c r="AR15" s="3" t="s">
-        <v>1062</v>
+        <v>1047</v>
       </c>
       <c r="AS15" s="2" t="s">
-        <v>1063</v>
+        <v>1048</v>
       </c>
       <c r="AT15" s="2" t="s">
-        <v>1073</v>
+        <v>1058</v>
       </c>
       <c r="AU15" s="2" t="s">
-        <v>1074</v>
+        <v>1059</v>
       </c>
       <c r="AX15" t="s">
-        <v>1118</v>
+        <v>1103</v>
       </c>
       <c r="AZ15" t="s">
-        <v>1145</v>
+        <v>1130</v>
       </c>
       <c r="BA15" t="s">
-        <v>1161</v>
+        <v>1146</v>
       </c>
       <c r="BB15" t="s">
-        <v>1182</v>
+        <v>1167</v>
       </c>
       <c r="BC15" t="s">
+        <v>1168</v>
+      </c>
+      <c r="BD15" t="s">
         <v>1183</v>
       </c>
-      <c r="BD15" t="s">
-        <v>1198</v>
-      </c>
       <c r="BE15" t="s">
-        <v>1222</v>
+        <v>1207</v>
       </c>
       <c r="BF15" t="s">
-        <v>1223</v>
+        <v>1208</v>
       </c>
       <c r="BG15" t="s">
-        <v>1234</v>
+        <v>1219</v>
       </c>
       <c r="BH15" t="s">
-        <v>1246</v>
+        <v>1231</v>
       </c>
       <c r="BI15" t="s">
-        <v>1263</v>
+        <v>1248</v>
       </c>
       <c r="BJ15" t="s">
-        <v>1264</v>
+        <v>1249</v>
       </c>
       <c r="BK15" t="s">
-        <v>1289</v>
+        <v>1274</v>
       </c>
       <c r="BL15" t="s">
+        <v>1275</v>
+      </c>
+      <c r="BM15" s="1" t="s">
         <v>1290</v>
       </c>
-      <c r="BM15" s="1" t="s">
-        <v>1305</v>
-      </c>
       <c r="BN15" t="s">
-        <v>1316</v>
+        <v>1301</v>
       </c>
       <c r="BO15" t="s">
-        <v>1329</v>
+        <v>1314</v>
       </c>
       <c r="BP15" t="s">
-        <v>1341</v>
+        <v>1326</v>
       </c>
       <c r="BQ15" t="s">
-        <v>1363</v>
+        <v>1348</v>
       </c>
       <c r="BR15" t="s">
-        <v>1364</v>
+        <v>1349</v>
       </c>
       <c r="BS15" t="s">
-        <v>1380</v>
+        <v>1365</v>
       </c>
       <c r="BT15" t="s">
-        <v>1393</v>
+        <v>1378</v>
       </c>
       <c r="BU15" t="s">
-        <v>1457</v>
+        <v>1442</v>
       </c>
       <c r="BV15" t="s">
+        <v>1466</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>1467</v>
+      </c>
+      <c r="BX15" t="s">
         <v>1481</v>
       </c>
-      <c r="BW15" t="s">
-        <v>1482</v>
-      </c>
-      <c r="BX15" t="s">
-        <v>1496</v>
-      </c>
       <c r="BY15" t="s">
-        <v>1510</v>
+        <v>1495</v>
       </c>
       <c r="BZ15" t="s">
-        <v>1526</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1024</v>
+        <v>1009</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>530</v>
@@ -11337,25 +11313,25 @@
         <v>497</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>2287</v>
+        <v>2272</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>2288</v>
+        <v>2273</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>1132</v>
+        <v>1117</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>1109</v>
+        <v>1094</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>1110</v>
+        <v>1095</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>576</v>
@@ -11390,388 +11366,388 @@
       <c r="W16" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="X16" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="Z16" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>779</v>
+      <c r="X16" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>2301</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>2302</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="AH16" s="2" t="s">
-        <v>934</v>
+        <v>919</v>
       </c>
       <c r="AI16" s="2" t="s">
-        <v>935</v>
+        <v>920</v>
       </c>
       <c r="AJ16" s="2" t="s">
-        <v>963</v>
+        <v>948</v>
       </c>
       <c r="AK16" s="2" t="s">
-        <v>964</v>
+        <v>949</v>
       </c>
       <c r="AL16" s="2" t="s">
-        <v>993</v>
+        <v>978</v>
       </c>
       <c r="AM16" s="2" t="s">
-        <v>994</v>
+        <v>979</v>
       </c>
       <c r="AN16" s="2" t="s">
-        <v>963</v>
+        <v>948</v>
       </c>
       <c r="AO16" s="2" t="s">
-        <v>964</v>
+        <v>949</v>
       </c>
       <c r="AP16" s="2" t="s">
-        <v>1023</v>
+        <v>1008</v>
       </c>
       <c r="AQ16" s="2" t="s">
-        <v>1039</v>
+        <v>1024</v>
       </c>
       <c r="AR16" s="2" t="s">
-        <v>1064</v>
+        <v>1049</v>
       </c>
       <c r="AS16" s="2" t="s">
-        <v>1065</v>
+        <v>1050</v>
       </c>
       <c r="AT16" s="2" t="s">
-        <v>1071</v>
+        <v>1056</v>
       </c>
       <c r="AU16" s="2" t="s">
-        <v>1072</v>
+        <v>1057</v>
       </c>
       <c r="AX16" t="s">
-        <v>1119</v>
+        <v>1104</v>
       </c>
       <c r="AZ16" t="s">
-        <v>1146</v>
+        <v>1131</v>
       </c>
       <c r="BA16" t="s">
-        <v>1162</v>
+        <v>1147</v>
       </c>
       <c r="BB16" t="s">
+        <v>1169</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>1170</v>
+      </c>
+      <c r="BD16" t="s">
         <v>1184</v>
       </c>
-      <c r="BC16" t="s">
-        <v>1185</v>
-      </c>
-      <c r="BD16" t="s">
-        <v>1199</v>
-      </c>
       <c r="BE16" t="s">
-        <v>1224</v>
+        <v>1209</v>
       </c>
       <c r="BF16" t="s">
-        <v>1225</v>
+        <v>1210</v>
       </c>
       <c r="BG16" t="s">
-        <v>1235</v>
+        <v>1220</v>
       </c>
       <c r="BH16" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
       <c r="BI16" t="s">
-        <v>1265</v>
+        <v>1250</v>
       </c>
       <c r="BJ16" t="s">
         <v>589</v>
       </c>
       <c r="BK16" t="s">
+        <v>1276</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>1277</v>
+      </c>
+      <c r="BM16" t="s">
         <v>1291</v>
       </c>
-      <c r="BL16" t="s">
-        <v>1292</v>
-      </c>
-      <c r="BM16" t="s">
-        <v>1306</v>
-      </c>
       <c r="BN16" t="s">
-        <v>1317</v>
+        <v>1302</v>
       </c>
       <c r="BO16" t="s">
-        <v>1330</v>
+        <v>1315</v>
       </c>
       <c r="BP16" t="s">
-        <v>1342</v>
+        <v>1327</v>
       </c>
       <c r="BQ16" t="s">
-        <v>1365</v>
+        <v>1350</v>
       </c>
       <c r="BR16" t="s">
+        <v>1351</v>
+      </c>
+      <c r="BS16" t="s">
         <v>1366</v>
       </c>
-      <c r="BS16" t="s">
-        <v>1381</v>
-      </c>
       <c r="BT16" t="s">
-        <v>1394</v>
+        <v>1379</v>
       </c>
       <c r="BU16" t="s">
-        <v>1458</v>
+        <v>1443</v>
       </c>
       <c r="BV16" t="s">
-        <v>1483</v>
+        <v>1468</v>
       </c>
       <c r="BW16" t="s">
-        <v>1484</v>
+        <v>1469</v>
       </c>
       <c r="BX16" t="s">
-        <v>1497</v>
+        <v>1482</v>
       </c>
       <c r="BY16" t="s">
-        <v>1511</v>
+        <v>1496</v>
       </c>
       <c r="BZ16" t="s">
-        <v>1527</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="17" spans="1:78" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>877</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>2262</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>2263</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="R17" s="4" t="s">
         <v>891</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>909</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>2277</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>2278</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>909</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>909</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>909</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>897</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>898</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>909</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>909</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>909</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>909</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>909</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>903</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>906</v>
-      </c>
       <c r="S17" s="4" t="s">
-        <v>907</v>
+        <v>892</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>903</v>
+        <v>888</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>902</v>
+        <v>887</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="W17" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="Z17" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>909</v>
+        <v>886</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>2298</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="Z17" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>894</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="AD17" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="AG17" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="AH17" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="AI17" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="AJ17" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="AK17" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="AL17" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="AM17" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="AN17" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="AE17" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="AF17" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="AG17" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="AH17" s="2" t="s">
-        <v>936</v>
-      </c>
-      <c r="AI17" s="2" t="s">
-        <v>937</v>
-      </c>
-      <c r="AJ17" s="2" t="s">
-        <v>965</v>
-      </c>
-      <c r="AK17" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="AL17" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="AM17" s="2" t="s">
-        <v>968</v>
-      </c>
-      <c r="AN17" s="2" t="s">
-        <v>909</v>
-      </c>
       <c r="AO17" s="2" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="AP17" s="2" t="s">
-        <v>1025</v>
+        <v>1010</v>
       </c>
       <c r="AQ17" s="2" t="s">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="AR17" s="3" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="AS17" s="2" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="AT17" s="2" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="AU17" s="2" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="AX17" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="AZ17" t="s">
-        <v>1147</v>
+        <v>1132</v>
       </c>
       <c r="BA17" t="s">
-        <v>1163</v>
+        <v>1148</v>
       </c>
       <c r="BB17" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="BC17" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="BD17" t="s">
-        <v>1200</v>
+        <v>1185</v>
       </c>
       <c r="BE17" t="s">
-        <v>904</v>
+        <v>889</v>
       </c>
       <c r="BF17" t="s">
-        <v>905</v>
+        <v>890</v>
       </c>
       <c r="BG17" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="BH17" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="BI17" t="s">
-        <v>904</v>
+        <v>889</v>
       </c>
       <c r="BJ17" t="s">
-        <v>903</v>
+        <v>888</v>
       </c>
       <c r="BK17" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="BL17" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="BM17" t="s">
-        <v>1307</v>
+        <v>1292</v>
       </c>
       <c r="BN17" t="s">
-        <v>903</v>
+        <v>888</v>
       </c>
       <c r="BO17" t="s">
-        <v>1331</v>
+        <v>1316</v>
       </c>
       <c r="BP17" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="BQ17" t="s">
-        <v>1367</v>
+        <v>1352</v>
       </c>
       <c r="BR17" t="s">
-        <v>1368</v>
+        <v>1353</v>
       </c>
       <c r="BS17" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="BT17" t="s">
-        <v>1395</v>
+        <v>1380</v>
       </c>
       <c r="BU17" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
       <c r="BV17" t="s">
-        <v>904</v>
+        <v>889</v>
       </c>
       <c r="BW17" t="s">
-        <v>1485</v>
+        <v>1470</v>
       </c>
       <c r="BX17" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="BY17" s="1" t="s">
-        <v>1512</v>
+        <v>1497</v>
       </c>
       <c r="BZ17" t="s">
-        <v>1528</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="18" spans="1:78" x14ac:dyDescent="0.2">
@@ -11788,7 +11764,7 @@
         <v>616</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>517</v>
@@ -11797,19 +11773,19 @@
         <v>518</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>851</v>
+        <v>837</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>1133</v>
+        <v>1118</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>1111</v>
+        <v>1096</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>578</v>
@@ -11844,161 +11820,161 @@
       <c r="W18" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="X18" s="2" t="s">
+      <c r="X18" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="Y18" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="Z18" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>781</v>
+      <c r="Y18" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>768</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="AF18" s="2" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>890</v>
+        <v>876</v>
       </c>
       <c r="AH18" s="2" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="AI18" s="2" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="AJ18" s="2" t="s">
-        <v>940</v>
+        <v>925</v>
       </c>
       <c r="AK18" s="2" t="s">
-        <v>941</v>
+        <v>926</v>
       </c>
       <c r="AL18" s="2" t="s">
-        <v>995</v>
+        <v>980</v>
       </c>
       <c r="AM18" s="2" t="s">
-        <v>996</v>
+        <v>981</v>
       </c>
       <c r="AN18" s="2" t="s">
-        <v>940</v>
+        <v>925</v>
       </c>
       <c r="AO18" s="2" t="s">
-        <v>941</v>
+        <v>926</v>
       </c>
       <c r="AP18" s="2" t="s">
-        <v>1012</v>
+        <v>997</v>
       </c>
       <c r="AQ18" s="2" t="s">
-        <v>1040</v>
+        <v>1025</v>
       </c>
       <c r="AR18" s="2" t="s">
-        <v>1066</v>
+        <v>1051</v>
       </c>
       <c r="AS18" s="2" t="s">
-        <v>1067</v>
+        <v>1052</v>
       </c>
       <c r="AT18" s="2" t="s">
-        <v>1068</v>
+        <v>1053</v>
       </c>
       <c r="AU18" s="2" t="s">
-        <v>1070</v>
+        <v>1055</v>
       </c>
       <c r="AX18" t="s">
-        <v>1120</v>
+        <v>1105</v>
       </c>
       <c r="AZ18" t="s">
-        <v>1148</v>
+        <v>1133</v>
       </c>
       <c r="BA18" t="s">
-        <v>1164</v>
+        <v>1149</v>
       </c>
       <c r="BB18" t="s">
+        <v>1171</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>1172</v>
+      </c>
+      <c r="BD18" t="s">
         <v>1186</v>
       </c>
-      <c r="BC18" t="s">
-        <v>1187</v>
-      </c>
-      <c r="BD18" t="s">
-        <v>1201</v>
-      </c>
       <c r="BE18" t="s">
-        <v>1226</v>
+        <v>1211</v>
       </c>
       <c r="BF18" t="s">
-        <v>1201</v>
+        <v>1186</v>
       </c>
       <c r="BG18" t="s">
-        <v>1236</v>
+        <v>1221</v>
       </c>
       <c r="BH18" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="BI18" t="s">
-        <v>1266</v>
+        <v>1251</v>
       </c>
       <c r="BJ18" t="s">
-        <v>1267</v>
+        <v>1252</v>
       </c>
       <c r="BK18" t="s">
-        <v>1293</v>
+        <v>1278</v>
       </c>
       <c r="BL18" t="s">
-        <v>1294</v>
+        <v>1279</v>
       </c>
       <c r="BM18" t="s">
         <v>636</v>
       </c>
       <c r="BN18" t="s">
-        <v>1318</v>
+        <v>1303</v>
       </c>
       <c r="BO18" t="s">
-        <v>1332</v>
+        <v>1317</v>
       </c>
       <c r="BP18" t="s">
-        <v>1343</v>
+        <v>1328</v>
       </c>
       <c r="BQ18" t="s">
-        <v>1369</v>
+        <v>1354</v>
       </c>
       <c r="BR18" t="s">
-        <v>1370</v>
+        <v>1355</v>
       </c>
       <c r="BS18" t="s">
-        <v>940</v>
+        <v>925</v>
       </c>
       <c r="BT18" t="s">
-        <v>941</v>
+        <v>926</v>
       </c>
       <c r="BU18" t="s">
-        <v>1459</v>
+        <v>1444</v>
       </c>
       <c r="BV18" t="s">
-        <v>1486</v>
+        <v>1471</v>
       </c>
       <c r="BW18" t="s">
-        <v>1487</v>
+        <v>1472</v>
       </c>
       <c r="BX18" t="s">
+        <v>1483</v>
+      </c>
+      <c r="BY18" t="s">
         <v>1498</v>
       </c>
-      <c r="BY18" t="s">
-        <v>1513</v>
-      </c>
       <c r="BZ18" t="s">
-        <v>1529</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="19" spans="1:78" x14ac:dyDescent="0.2">
@@ -12006,37 +11982,37 @@
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1699</v>
+        <v>1684</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>1865</v>
+        <v>1850</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1866</v>
+        <v>1851</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>1535</v>
+        <v>1520</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>1592</v>
+        <v>1577</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>1593</v>
+        <v>1578</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>1989</v>
+        <v>1974</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>1990</v>
+        <v>1975</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>2100</v>
+        <v>2085</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>2174</v>
+        <v>2159</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>2175</v>
+        <v>2160</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -12044,10 +12020,10 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2" t="s">
-        <v>1752</v>
+        <v>1737</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>1753</v>
+        <v>1738</v>
       </c>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
@@ -12083,37 +12059,37 @@
         <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1700</v>
+        <v>1685</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1867</v>
+        <v>1852</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1868</v>
+        <v>1853</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>1536</v>
+        <v>1521</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>1594</v>
+        <v>1579</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>1595</v>
+        <v>1580</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>1991</v>
+        <v>1976</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>1992</v>
+        <v>1977</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>2101</v>
+        <v>2086</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>2172</v>
+        <v>2157</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>2173</v>
+        <v>2158</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -12121,10 +12097,10 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2" t="s">
-        <v>1754</v>
+        <v>1739</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>1755</v>
+        <v>1740</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -12160,37 +12136,37 @@
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1704</v>
+        <v>1689</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1869</v>
+        <v>1854</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1870</v>
+        <v>1855</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1537</v>
+        <v>1522</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>1596</v>
+        <v>1581</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>1597</v>
+        <v>1582</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>1993</v>
+        <v>1978</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>1994</v>
+        <v>1979</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>2102</v>
+        <v>2087</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>2170</v>
+        <v>2155</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>2171</v>
+        <v>2156</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -12198,10 +12174,10 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2" t="s">
-        <v>1756</v>
+        <v>1741</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>1757</v>
+        <v>1742</v>
       </c>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -12237,37 +12213,37 @@
         <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1703</v>
+        <v>1688</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1871</v>
+        <v>1856</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1872</v>
+        <v>1857</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1538</v>
+        <v>1523</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>1598</v>
+        <v>1583</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>1599</v>
+        <v>1584</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>1995</v>
+        <v>1980</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>1996</v>
+        <v>1981</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>2103</v>
+        <v>2088</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>2168</v>
+        <v>2153</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>2169</v>
+        <v>2154</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -12275,10 +12251,10 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2" t="s">
-        <v>1758</v>
+        <v>1743</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>1599</v>
+        <v>1584</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -12314,37 +12290,37 @@
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1701</v>
+        <v>1686</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1873</v>
+        <v>1858</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1874</v>
+        <v>1859</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1539</v>
+        <v>1524</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>1600</v>
+        <v>1585</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>1601</v>
+        <v>1586</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>1997</v>
+        <v>1982</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>1998</v>
+        <v>1983</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>2104</v>
+        <v>2089</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>2166</v>
+        <v>2151</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>2167</v>
+        <v>2152</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -12352,10 +12328,10 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2" t="s">
-        <v>1759</v>
+        <v>1744</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>1760</v>
+        <v>1745</v>
       </c>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -12391,37 +12367,37 @@
         <v>5</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>1702</v>
+        <v>1687</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1875</v>
+        <v>1860</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1876</v>
+        <v>1861</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1540</v>
+        <v>1525</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>1602</v>
+        <v>1587</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>1603</v>
+        <v>1588</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>1999</v>
+        <v>1984</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>2000</v>
+        <v>1985</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>2105</v>
+        <v>2090</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>2164</v>
+        <v>2149</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>2165</v>
+        <v>2150</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -12429,10 +12405,10 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2" t="s">
-        <v>1761</v>
+        <v>1746</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>1762</v>
+        <v>1747</v>
       </c>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -12468,37 +12444,37 @@
         <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1705</v>
+        <v>1690</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1879</v>
+        <v>1864</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1880</v>
+        <v>1865</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1541</v>
+        <v>1526</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>1604</v>
+        <v>1589</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>1605</v>
+        <v>1590</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>2001</v>
+        <v>1986</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>2002</v>
+        <v>1987</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>2106</v>
+        <v>2091</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>2162</v>
+        <v>2147</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>2163</v>
+        <v>2148</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -12506,10 +12482,10 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2" t="s">
-        <v>1763</v>
+        <v>1748</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>1764</v>
+        <v>1749</v>
       </c>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -12545,37 +12521,37 @@
         <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1706</v>
+        <v>1691</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1881</v>
+        <v>1866</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1882</v>
+        <v>1867</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1542</v>
+        <v>1527</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>1606</v>
+        <v>1591</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>1607</v>
+        <v>1592</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>2003</v>
+        <v>1988</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>2004</v>
+        <v>1989</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>2107</v>
+        <v>2092</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>2160</v>
+        <v>2145</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>2161</v>
+        <v>2146</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -12583,10 +12559,10 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2" t="s">
-        <v>1765</v>
+        <v>1750</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>1766</v>
+        <v>1751</v>
       </c>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -12619,40 +12595,40 @@
     </row>
     <row r="27" spans="1:78" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1158</v>
+        <v>1143</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1707</v>
+        <v>1692</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1883</v>
+        <v>1868</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1884</v>
+        <v>1869</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1543</v>
+        <v>1528</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>1608</v>
+        <v>1593</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>1609</v>
+        <v>1594</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>2005</v>
+        <v>1990</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>2006</v>
+        <v>1991</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>2108</v>
+        <v>2093</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>2159</v>
+        <v>2144</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>2158</v>
+        <v>2143</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -12660,10 +12636,10 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2" t="s">
-        <v>1767</v>
+        <v>1752</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>1768</v>
+        <v>1753</v>
       </c>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -12696,40 +12672,40 @@
     </row>
     <row r="28" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1837</v>
+        <v>1822</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1864</v>
+        <v>1849</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1885</v>
+        <v>1870</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1886</v>
+        <v>1871</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1861</v>
+        <v>1846</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>1862</v>
+        <v>1847</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>1863</v>
+        <v>1848</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>2007</v>
+        <v>1992</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>2008</v>
+        <v>1993</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>2099</v>
+        <v>2084</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>2156</v>
+        <v>2141</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>2157</v>
+        <v>2142</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -12737,10 +12713,10 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2" t="s">
-        <v>1838</v>
+        <v>1823</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>1839</v>
+        <v>1824</v>
       </c>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -12776,37 +12752,37 @@
         <v>8</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1708</v>
+        <v>1693</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1887</v>
+        <v>1872</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1888</v>
+        <v>1873</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1544</v>
+        <v>1529</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>1610</v>
+        <v>1595</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>1611</v>
+        <v>1596</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>2009</v>
+        <v>1994</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>2010</v>
+        <v>1995</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>2110</v>
+        <v>2095</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>2178</v>
+        <v>2163</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>2179</v>
+        <v>2164</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -12814,10 +12790,10 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>1770</v>
+        <v>1755</v>
       </c>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -12853,37 +12829,37 @@
         <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1709</v>
+        <v>1694</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1894</v>
+        <v>1879</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1895</v>
+        <v>1880</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1545</v>
+        <v>1530</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>1612</v>
+        <v>1597</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>1613</v>
+        <v>1598</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>2011</v>
+        <v>1996</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>2012</v>
+        <v>1997</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>2111</v>
+        <v>2096</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>2182</v>
+        <v>2167</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>2183</v>
+        <v>2168</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -12891,10 +12867,10 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2" t="s">
-        <v>1772</v>
+        <v>1757</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>1771</v>
+        <v>1756</v>
       </c>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
@@ -12930,37 +12906,37 @@
         <v>10</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1710</v>
+        <v>1695</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1896</v>
+        <v>1881</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1897</v>
+        <v>1882</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1546</v>
+        <v>1531</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>1614</v>
+        <v>1599</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>1615</v>
+        <v>1600</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>2013</v>
+        <v>1998</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>2014</v>
+        <v>1999</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>2112</v>
+        <v>2097</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>2180</v>
+        <v>2165</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>2181</v>
+        <v>2166</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -12968,10 +12944,10 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2" t="s">
-        <v>1773</v>
+        <v>1758</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>1774</v>
+        <v>1759</v>
       </c>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
@@ -13007,37 +12983,37 @@
         <v>11</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1711</v>
+        <v>1696</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>1898</v>
+        <v>1883</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>1899</v>
+        <v>1884</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1547</v>
+        <v>1532</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>1616</v>
+        <v>1601</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>1617</v>
+        <v>1602</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>2016</v>
+        <v>2001</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>2113</v>
+        <v>2098</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>2184</v>
+        <v>2169</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>2185</v>
+        <v>2170</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -13045,10 +13021,10 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2" t="s">
-        <v>1775</v>
+        <v>1760</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>1776</v>
+        <v>1761</v>
       </c>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
@@ -13084,37 +13060,37 @@
         <v>12</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>1712</v>
+        <v>1697</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>1900</v>
+        <v>1885</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>1901</v>
+        <v>1886</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>1548</v>
+        <v>1533</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>1618</v>
+        <v>1603</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>1619</v>
+        <v>1604</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>2017</v>
+        <v>2002</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>2018</v>
+        <v>2003</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>2114</v>
+        <v>2099</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>2186</v>
+        <v>2171</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>2221</v>
+        <v>2206</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -13122,10 +13098,10 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2" t="s">
-        <v>1777</v>
+        <v>1762</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>1778</v>
+        <v>1763</v>
       </c>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
@@ -13161,37 +13137,37 @@
         <v>13</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1713</v>
+        <v>1698</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1902</v>
+        <v>1887</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>1903</v>
+        <v>1888</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1549</v>
+        <v>1534</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>1620</v>
+        <v>1605</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>1621</v>
+        <v>1606</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>2019</v>
+        <v>2004</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>2020</v>
+        <v>2005</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>2115</v>
+        <v>2100</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>2187</v>
+        <v>2172</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>2188</v>
+        <v>2173</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -13199,10 +13175,10 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2" t="s">
-        <v>1779</v>
+        <v>1764</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>1780</v>
+        <v>1765</v>
       </c>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
@@ -13235,40 +13211,40 @@
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1157</v>
+        <v>1142</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1714</v>
+        <v>1699</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1904</v>
+        <v>1889</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>1905</v>
+        <v>1890</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1550</v>
+        <v>1535</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>1622</v>
+        <v>1607</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>1623</v>
+        <v>1608</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>2021</v>
+        <v>2006</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>2022</v>
+        <v>2007</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>2116</v>
+        <v>2101</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>2189</v>
+        <v>2174</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>2190</v>
+        <v>2175</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -13276,10 +13252,10 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2" t="s">
-        <v>1781</v>
+        <v>1766</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>1782</v>
+        <v>1767</v>
       </c>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
@@ -13315,37 +13291,37 @@
         <v>501</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1715</v>
+        <v>1700</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1906</v>
+        <v>1891</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>1907</v>
+        <v>1892</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1551</v>
+        <v>1536</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>1624</v>
+        <v>1609</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>1625</v>
+        <v>1610</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>2023</v>
+        <v>2008</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>2024</v>
+        <v>2009</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>2117</v>
+        <v>2102</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>2191</v>
+        <v>2176</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>2192</v>
+        <v>2177</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -13353,10 +13329,10 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2" t="s">
-        <v>1783</v>
+        <v>1768</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>1784</v>
+        <v>1769</v>
       </c>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
@@ -13392,37 +13368,37 @@
         <v>14</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1716</v>
+        <v>1701</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>1908</v>
+        <v>1893</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>1909</v>
+        <v>1894</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1552</v>
+        <v>1537</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>1626</v>
+        <v>1611</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>1627</v>
+        <v>1612</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>2025</v>
+        <v>2010</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>2026</v>
+        <v>2011</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>2118</v>
+        <v>2103</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>2193</v>
+        <v>2178</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>2194</v>
+        <v>2179</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -13430,10 +13406,10 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2" t="s">
-        <v>1785</v>
+        <v>1770</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>1786</v>
+        <v>1771</v>
       </c>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
@@ -13469,37 +13445,37 @@
         <v>15</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1717</v>
+        <v>1702</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>1910</v>
+        <v>1895</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1911</v>
+        <v>1896</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1553</v>
+        <v>1538</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>1628</v>
+        <v>1613</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>1629</v>
+        <v>1614</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>2027</v>
+        <v>2012</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>2028</v>
+        <v>2013</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>2109</v>
+        <v>2094</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>2176</v>
+        <v>2161</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>2177</v>
+        <v>2162</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -13507,10 +13483,10 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2" t="s">
-        <v>1788</v>
+        <v>1773</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>1787</v>
+        <v>1772</v>
       </c>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
@@ -13546,37 +13522,37 @@
         <v>16</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1718</v>
+        <v>1703</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>1912</v>
+        <v>1897</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>1913</v>
+        <v>1898</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>1554</v>
+        <v>1539</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>1630</v>
+        <v>1615</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>1631</v>
+        <v>1616</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>2029</v>
+        <v>2014</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>2030</v>
+        <v>2015</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>2120</v>
+        <v>2105</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>2197</v>
+        <v>2182</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>2198</v>
+        <v>2183</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -13584,10 +13560,10 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2" t="s">
-        <v>1789</v>
+        <v>1774</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>1790</v>
+        <v>1775</v>
       </c>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
@@ -13623,37 +13599,37 @@
         <v>17</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1719</v>
+        <v>1704</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>1914</v>
+        <v>1899</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>1915</v>
+        <v>1900</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1555</v>
+        <v>1540</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>1632</v>
+        <v>1617</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>1633</v>
+        <v>1618</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>2031</v>
+        <v>2016</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>2032</v>
+        <v>2017</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>2121</v>
+        <v>2106</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>2199</v>
+        <v>2184</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>2200</v>
+        <v>2185</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -13661,10 +13637,10 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2" t="s">
-        <v>1791</v>
+        <v>1776</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>1792</v>
+        <v>1777</v>
       </c>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
@@ -13700,37 +13676,37 @@
         <v>18</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1720</v>
+        <v>1705</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>1916</v>
+        <v>1901</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>1917</v>
+        <v>1902</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>1556</v>
+        <v>1541</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>1634</v>
+        <v>1619</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>1635</v>
+        <v>1620</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>2033</v>
+        <v>2018</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>2034</v>
+        <v>2019</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>2122</v>
+        <v>2107</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>2201</v>
+        <v>2186</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>2202</v>
+        <v>2187</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -13738,10 +13714,10 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2" t="s">
-        <v>1793</v>
+        <v>1778</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>1794</v>
+        <v>1779</v>
       </c>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
@@ -13777,37 +13753,37 @@
         <v>489</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1721</v>
+        <v>1706</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>1919</v>
+        <v>1904</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>1918</v>
+        <v>1903</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>1557</v>
+        <v>1542</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>1636</v>
+        <v>1621</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>1637</v>
+        <v>1622</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>2035</v>
+        <v>2020</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>2036</v>
+        <v>2021</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>2123</v>
+        <v>2108</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>2203</v>
+        <v>2188</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>2204</v>
+        <v>2189</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -13815,10 +13791,10 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2" t="s">
-        <v>1795</v>
+        <v>1780</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>1796</v>
+        <v>1781</v>
       </c>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
@@ -13854,37 +13830,37 @@
         <v>19</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1722</v>
+        <v>1707</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>1920</v>
+        <v>1905</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>1921</v>
+        <v>1906</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>1558</v>
+        <v>1543</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>1638</v>
+        <v>1623</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>1639</v>
+        <v>1624</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>2037</v>
+        <v>2022</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>2038</v>
+        <v>2023</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>2124</v>
+        <v>2109</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>2207</v>
+        <v>2192</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>2208</v>
+        <v>2193</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -13892,10 +13868,10 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2" t="s">
-        <v>1797</v>
+        <v>1782</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>1798</v>
+        <v>1783</v>
       </c>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
@@ -13928,40 +13904,40 @@
     </row>
     <row r="44" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1559</v>
+        <v>1544</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1723</v>
+        <v>1708</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>1922</v>
+        <v>1907</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>1923</v>
+        <v>1908</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>1560</v>
+        <v>1545</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>1640</v>
+        <v>1625</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>1641</v>
+        <v>1626</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>2039</v>
+        <v>2024</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>2040</v>
+        <v>2025</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>2125</v>
+        <v>2110</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>2205</v>
+        <v>2190</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>2206</v>
+        <v>2191</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -13969,10 +13945,10 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2" t="s">
-        <v>1799</v>
+        <v>1784</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>1800</v>
+        <v>1785</v>
       </c>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
@@ -14008,37 +13984,37 @@
         <v>20</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>1724</v>
+        <v>1709</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>1926</v>
+        <v>1911</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>1927</v>
+        <v>1912</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>1561</v>
+        <v>1546</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>1642</v>
+        <v>1627</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>1643</v>
+        <v>1628</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>2041</v>
+        <v>2026</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>2042</v>
+        <v>2027</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>2126</v>
+        <v>2111</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>2209</v>
+        <v>2194</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>2210</v>
+        <v>2195</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -14046,10 +14022,10 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2" t="s">
-        <v>1801</v>
+        <v>1786</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>1802</v>
+        <v>1787</v>
       </c>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
@@ -14085,37 +14061,37 @@
         <v>21</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>1725</v>
+        <v>1710</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>1928</v>
+        <v>1913</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>1929</v>
+        <v>1914</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>1562</v>
+        <v>1547</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>1644</v>
+        <v>1629</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>1645</v>
+        <v>1630</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>2043</v>
+        <v>2028</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>2044</v>
+        <v>2029</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>2127</v>
+        <v>2112</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>2211</v>
+        <v>2196</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>2212</v>
+        <v>2197</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -14123,10 +14099,10 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2" t="s">
-        <v>1803</v>
+        <v>1788</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>1804</v>
+        <v>1789</v>
       </c>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
@@ -14162,37 +14138,37 @@
         <v>555</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1726</v>
+        <v>1711</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>1930</v>
+        <v>1915</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>1931</v>
+        <v>1916</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>1563</v>
+        <v>1548</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>1646</v>
+        <v>1631</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>1647</v>
+        <v>1632</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>2045</v>
+        <v>2030</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>2046</v>
+        <v>2031</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>2128</v>
+        <v>2113</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>2213</v>
+        <v>2198</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>2214</v>
+        <v>2199</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -14200,10 +14176,10 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="3" t="s">
-        <v>1805</v>
+        <v>1790</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>1806</v>
+        <v>1791</v>
       </c>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
@@ -14239,37 +14215,37 @@
         <v>22</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1727</v>
+        <v>1712</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>1932</v>
+        <v>1917</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>1933</v>
+        <v>1918</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>1564</v>
+        <v>1549</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>1648</v>
+        <v>1633</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>1649</v>
+        <v>1634</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>2048</v>
+        <v>2033</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>2047</v>
+        <v>2032</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>2119</v>
+        <v>2104</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>2195</v>
+        <v>2180</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>2196</v>
+        <v>2181</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -14277,10 +14253,10 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2" t="s">
-        <v>1807</v>
+        <v>1792</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>1808</v>
+        <v>1793</v>
       </c>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
@@ -14316,37 +14292,37 @@
         <v>23</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1728</v>
+        <v>1713</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>1934</v>
+        <v>1919</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>1935</v>
+        <v>1920</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>1565</v>
+        <v>1550</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>1650</v>
+        <v>1635</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>1651</v>
+        <v>1636</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>2049</v>
+        <v>2034</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>2050</v>
+        <v>2035</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>2130</v>
+        <v>2115</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>2217</v>
+        <v>2202</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>2218</v>
+        <v>2203</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -14354,10 +14330,10 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2" t="s">
-        <v>1809</v>
+        <v>1794</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>1810</v>
+        <v>1795</v>
       </c>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
@@ -14390,40 +14366,40 @@
     </row>
     <row r="50" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1566</v>
+        <v>1551</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1729</v>
+        <v>1714</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>1936</v>
+        <v>1921</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>1937</v>
+        <v>1922</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>1567</v>
+        <v>1552</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>1653</v>
+        <v>1638</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>1652</v>
+        <v>1637</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>2051</v>
+        <v>2036</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>2052</v>
+        <v>2037</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>2131</v>
+        <v>2116</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>2219</v>
+        <v>2204</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>2220</v>
+        <v>2205</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -14431,10 +14407,10 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2" t="s">
-        <v>1811</v>
+        <v>1796</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>1812</v>
+        <v>1797</v>
       </c>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
@@ -14470,37 +14446,37 @@
         <v>24</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1730</v>
+        <v>1715</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>1938</v>
+        <v>1923</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>1939</v>
+        <v>1924</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>1568</v>
+        <v>1553</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>1654</v>
+        <v>1639</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>1655</v>
+        <v>1640</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>2053</v>
+        <v>2038</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>2054</v>
+        <v>2039</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>2132</v>
+        <v>2117</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>2223</v>
+        <v>2208</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>2222</v>
+        <v>2207</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -14508,10 +14484,10 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2" t="s">
-        <v>1813</v>
+        <v>1798</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>1814</v>
+        <v>1799</v>
       </c>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
@@ -14544,40 +14520,40 @@
     </row>
     <row r="52" spans="1:47" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1569</v>
+        <v>1554</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1731</v>
+        <v>1716</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>1940</v>
+        <v>1925</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>1941</v>
+        <v>1926</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>1570</v>
+        <v>1555</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>1656</v>
+        <v>1641</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>1657</v>
+        <v>1642</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>2055</v>
+        <v>2040</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>2056</v>
+        <v>2041</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>2133</v>
+        <v>2118</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>2224</v>
+        <v>2209</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>2225</v>
+        <v>2210</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -14585,10 +14561,10 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="3" t="s">
-        <v>1815</v>
+        <v>1800</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>1816</v>
+        <v>1801</v>
       </c>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
@@ -14624,37 +14600,37 @@
         <v>25</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1732</v>
+        <v>1717</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>1942</v>
+        <v>1927</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>1943</v>
+        <v>1928</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>1571</v>
+        <v>1556</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>1658</v>
+        <v>1643</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>1659</v>
+        <v>1644</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>2057</v>
+        <v>2042</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>2058</v>
+        <v>2043</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>2134</v>
+        <v>2119</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>2226</v>
+        <v>2211</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>2227</v>
+        <v>2212</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -14662,10 +14638,10 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2" t="s">
-        <v>1817</v>
+        <v>1802</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>1818</v>
+        <v>1803</v>
       </c>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
@@ -14701,37 +14677,37 @@
         <v>490</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1733</v>
+        <v>1718</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>1944</v>
+        <v>1929</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>1945</v>
+        <v>1930</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>1572</v>
+        <v>1557</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>1660</v>
+        <v>1645</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>1661</v>
+        <v>1646</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>2059</v>
+        <v>2044</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>2060</v>
+        <v>2045</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>2135</v>
+        <v>2120</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>2228</v>
+        <v>2213</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>2229</v>
+        <v>2214</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -14739,10 +14715,10 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2" t="s">
-        <v>1819</v>
+        <v>1804</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>1820</v>
+        <v>1805</v>
       </c>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
@@ -14778,37 +14754,37 @@
         <v>26</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1734</v>
+        <v>1719</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>1946</v>
+        <v>1931</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>1947</v>
+        <v>1932</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>1573</v>
+        <v>1558</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>1662</v>
+        <v>1647</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>1663</v>
+        <v>1648</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>2061</v>
+        <v>2046</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>2062</v>
+        <v>2047</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>2136</v>
+        <v>2121</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>2232</v>
+        <v>2217</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>2233</v>
+        <v>2218</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -14816,10 +14792,10 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2" t="s">
-        <v>1821</v>
+        <v>1806</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>1822</v>
+        <v>1807</v>
       </c>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
@@ -14855,37 +14831,37 @@
         <v>27</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1735</v>
+        <v>1720</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>1948</v>
+        <v>1933</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>1949</v>
+        <v>1934</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>1574</v>
+        <v>1559</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>1664</v>
+        <v>1649</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>1665</v>
+        <v>1650</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>2063</v>
+        <v>2048</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>2064</v>
+        <v>2049</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>2137</v>
+        <v>2122</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>2230</v>
+        <v>2215</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>2231</v>
+        <v>2216</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -14893,10 +14869,10 @@
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2" t="s">
-        <v>1823</v>
+        <v>1808</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>1824</v>
+        <v>1809</v>
       </c>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
@@ -14932,37 +14908,37 @@
         <v>28</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1736</v>
+        <v>1721</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>1950</v>
+        <v>1935</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>1951</v>
+        <v>1936</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>1575</v>
+        <v>1560</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>1666</v>
+        <v>1651</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>1667</v>
+        <v>1652</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>2065</v>
+        <v>2050</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>2066</v>
+        <v>2051</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>2138</v>
+        <v>2123</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>2234</v>
+        <v>2219</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>2235</v>
+        <v>2220</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -14970,10 +14946,10 @@
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2" t="s">
-        <v>1825</v>
+        <v>1810</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>1826</v>
+        <v>1811</v>
       </c>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
@@ -15009,37 +14985,37 @@
         <v>29</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1737</v>
+        <v>1722</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>1952</v>
+        <v>1937</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>1953</v>
+        <v>1938</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>1576</v>
+        <v>1561</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>1668</v>
+        <v>1653</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>1669</v>
+        <v>1654</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>2067</v>
+        <v>2052</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>2068</v>
+        <v>2053</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>2129</v>
+        <v>2114</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>2215</v>
+        <v>2200</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>2216</v>
+        <v>2201</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -15047,10 +15023,10 @@
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2" t="s">
-        <v>1827</v>
+        <v>1812</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>1828</v>
+        <v>1813</v>
       </c>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
@@ -15086,37 +15062,37 @@
         <v>30</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1738</v>
+        <v>1723</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>1954</v>
+        <v>1939</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>1955</v>
+        <v>1940</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>1577</v>
+        <v>1562</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>1670</v>
+        <v>1655</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>1671</v>
+        <v>1656</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>2069</v>
+        <v>2054</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>2070</v>
+        <v>2055</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>2141</v>
+        <v>2126</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>2239</v>
+        <v>2224</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>2238</v>
+        <v>2223</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -15124,10 +15100,10 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2" t="s">
-        <v>1829</v>
+        <v>1814</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>1830</v>
+        <v>1815</v>
       </c>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
@@ -15163,37 +15139,37 @@
         <v>31</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1739</v>
+        <v>1724</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>1956</v>
+        <v>1941</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>1957</v>
+        <v>1942</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>1578</v>
+        <v>1563</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>1673</v>
+        <v>1658</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>1672</v>
+        <v>1657</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>2071</v>
+        <v>2056</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>2072</v>
+        <v>2057</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>2142</v>
+        <v>2127</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>2240</v>
+        <v>2225</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>2241</v>
+        <v>2226</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -15201,10 +15177,10 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="3" t="s">
-        <v>1831</v>
+        <v>1816</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>1832</v>
+        <v>1817</v>
       </c>
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
@@ -15240,37 +15216,37 @@
         <v>32</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1740</v>
+        <v>1725</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>1958</v>
+        <v>1943</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>1959</v>
+        <v>1944</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>1579</v>
+        <v>1564</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>1674</v>
+        <v>1659</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>1675</v>
+        <v>1660</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>2073</v>
+        <v>2058</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>2074</v>
+        <v>2059</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>2143</v>
+        <v>2128</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>2242</v>
+        <v>2227</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>2243</v>
+        <v>2228</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -15278,10 +15254,10 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="2" t="s">
-        <v>1833</v>
+        <v>1818</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>1834</v>
+        <v>1819</v>
       </c>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
@@ -15314,40 +15290,40 @@
     </row>
     <row r="62" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>2145</v>
+        <v>2130</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1741</v>
+        <v>1726</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>1960</v>
+        <v>1945</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>1961</v>
+        <v>1946</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>1580</v>
+        <v>1565</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>1676</v>
+        <v>1661</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>1677</v>
+        <v>1662</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>2075</v>
+        <v>2060</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>2076</v>
+        <v>2061</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>2144</v>
+        <v>2129</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>2244</v>
+        <v>2229</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>2245</v>
+        <v>2230</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -15355,10 +15331,10 @@
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2" t="s">
-        <v>1835</v>
+        <v>1820</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>1836</v>
+        <v>1821</v>
       </c>
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
@@ -15394,37 +15370,37 @@
         <v>33</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1742</v>
+        <v>1727</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>1962</v>
+        <v>1947</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>1963</v>
+        <v>1948</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>1581</v>
+        <v>1566</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>1679</v>
+        <v>1664</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>1678</v>
+        <v>1663</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>2077</v>
+        <v>2062</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>2078</v>
+        <v>2063</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>2146</v>
+        <v>2131</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>2246</v>
+        <v>2231</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>2247</v>
+        <v>2232</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -15432,10 +15408,10 @@
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2" t="s">
-        <v>1840</v>
+        <v>1825</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>1841</v>
+        <v>1826</v>
       </c>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
@@ -15471,37 +15447,37 @@
         <v>34</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1743</v>
+        <v>1728</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>1964</v>
+        <v>1949</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>1965</v>
+        <v>1950</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>1582</v>
+        <v>1567</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>1680</v>
+        <v>1665</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>1681</v>
+        <v>1666</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>2079</v>
+        <v>2064</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>2080</v>
+        <v>2065</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>2147</v>
+        <v>2132</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>2250</v>
+        <v>2235</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>2251</v>
+        <v>2236</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -15509,10 +15485,10 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2" t="s">
-        <v>1842</v>
+        <v>1827</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>1843</v>
+        <v>1828</v>
       </c>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
@@ -15548,37 +15524,37 @@
         <v>35</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1744</v>
+        <v>1729</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>1966</v>
+        <v>1951</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>1967</v>
+        <v>1952</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>1583</v>
+        <v>1568</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>1682</v>
+        <v>1667</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>1683</v>
+        <v>1668</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>2081</v>
+        <v>2066</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>2082</v>
+        <v>2067</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>2148</v>
+        <v>2133</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>2248</v>
+        <v>2233</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>2249</v>
+        <v>2234</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -15586,10 +15562,10 @@
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2" t="s">
-        <v>1844</v>
+        <v>1829</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>1845</v>
+        <v>1830</v>
       </c>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
@@ -15625,37 +15601,37 @@
         <v>36</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1745</v>
+        <v>1730</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>1973</v>
+        <v>1958</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>1974</v>
+        <v>1959</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>1584</v>
+        <v>1569</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>1684</v>
+        <v>1669</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>1685</v>
+        <v>1670</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>2083</v>
+        <v>2068</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>2084</v>
+        <v>2069</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>2149</v>
+        <v>2134</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>2236</v>
+        <v>2221</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>2237</v>
+        <v>2222</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -15663,10 +15639,10 @@
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2" t="s">
-        <v>1846</v>
+        <v>1831</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>1847</v>
+        <v>1832</v>
       </c>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
@@ -15702,37 +15678,37 @@
         <v>37</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1746</v>
+        <v>1731</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>1975</v>
+        <v>1960</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>1976</v>
+        <v>1961</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>1585</v>
+        <v>1570</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>1686</v>
+        <v>1671</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>1687</v>
+        <v>1672</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>2085</v>
+        <v>2070</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>2086</v>
+        <v>2071</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>2150</v>
+        <v>2135</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>2252</v>
+        <v>2237</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>2253</v>
+        <v>2238</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -15740,10 +15716,10 @@
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2" t="s">
-        <v>1848</v>
+        <v>1833</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>1849</v>
+        <v>1834</v>
       </c>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
@@ -15776,40 +15752,40 @@
     </row>
     <row r="68" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>2140</v>
+        <v>2125</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>1977</v>
+        <v>1962</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>1978</v>
+        <v>1963</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>1698</v>
+        <v>1683</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>1688</v>
+        <v>1673</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>1689</v>
+        <v>1674</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>2087</v>
+        <v>2072</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>2088</v>
+        <v>2073</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>2139</v>
+        <v>2124</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>2254</v>
+        <v>2239</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>2255</v>
+        <v>2240</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -15817,10 +15793,10 @@
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2" t="s">
-        <v>1850</v>
+        <v>1835</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>1851</v>
+        <v>1836</v>
       </c>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
@@ -15856,37 +15832,37 @@
         <v>38</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1747</v>
+        <v>1732</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>1979</v>
+        <v>1964</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>1980</v>
+        <v>1965</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>1586</v>
+        <v>1571</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>1690</v>
+        <v>1675</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>1691</v>
+        <v>1676</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>2089</v>
+        <v>2074</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>2090</v>
+        <v>2075</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>2151</v>
+        <v>2136</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>2256</v>
+        <v>2241</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>2257</v>
+        <v>2242</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -15894,10 +15870,10 @@
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="2" t="s">
-        <v>1852</v>
+        <v>1837</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>1853</v>
+        <v>1838</v>
       </c>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
@@ -15933,37 +15909,37 @@
         <v>39</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1748</v>
+        <v>1733</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>1981</v>
+        <v>1966</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>1982</v>
+        <v>1967</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1587</v>
+        <v>1572</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>2091</v>
+        <v>2076</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>2092</v>
+        <v>2077</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>2152</v>
+        <v>2137</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>2258</v>
+        <v>2243</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>2259</v>
+        <v>2244</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -15971,10 +15947,10 @@
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="2" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
@@ -16007,40 +15983,40 @@
     </row>
     <row r="71" spans="1:47" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1854</v>
+        <v>1839</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1749</v>
+        <v>1734</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>1983</v>
+        <v>1968</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>1984</v>
+        <v>1969</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1588</v>
+        <v>1573</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>1692</v>
+        <v>1677</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>1693</v>
+        <v>1678</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>2093</v>
+        <v>2078</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>2094</v>
+        <v>2079</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>2153</v>
+        <v>2138</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>2260</v>
+        <v>2245</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>2261</v>
+        <v>2246</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -16048,10 +16024,10 @@
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="2" t="s">
-        <v>1855</v>
+        <v>1840</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>1856</v>
+        <v>1841</v>
       </c>
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
@@ -16087,37 +16063,37 @@
         <v>40</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1750</v>
+        <v>1735</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>1985</v>
+        <v>1970</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>1986</v>
+        <v>1971</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1589</v>
+        <v>1574</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>1694</v>
+        <v>1679</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>1695</v>
+        <v>1680</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>2095</v>
+        <v>2080</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>2096</v>
+        <v>2081</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>2154</v>
+        <v>2139</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>2262</v>
+        <v>2247</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>2263</v>
+        <v>2248</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -16125,10 +16101,10 @@
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
       <c r="R72" s="2" t="s">
-        <v>1857</v>
+        <v>1842</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>1858</v>
+        <v>1843</v>
       </c>
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
@@ -16164,37 +16140,37 @@
         <v>41</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1751</v>
+        <v>1736</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>1987</v>
+        <v>1972</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>1988</v>
+        <v>1973</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>1590</v>
+        <v>1575</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>1696</v>
+        <v>1681</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>1697</v>
+        <v>1682</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>2097</v>
+        <v>2082</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>2098</v>
+        <v>2083</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>2155</v>
+        <v>2140</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>2264</v>
+        <v>2249</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>2265</v>
+        <v>2250</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -16202,10 +16178,10 @@
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="2" t="s">
-        <v>1859</v>
+        <v>1844</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>1860</v>
+        <v>1845</v>
       </c>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
@@ -16298,12 +16274,12 @@
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1890</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1893</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
@@ -16565,7 +16541,7 @@
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1969</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
@@ -16585,7 +16561,7 @@
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1925</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
@@ -16605,7 +16581,7 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
@@ -16740,7 +16716,7 @@
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1968</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
@@ -16835,7 +16811,7 @@
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1533</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
@@ -16890,7 +16866,7 @@
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>1891</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
@@ -16910,7 +16886,7 @@
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>908</v>
+        <v>893</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
@@ -16960,7 +16936,7 @@
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>1534</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
@@ -17130,7 +17106,7 @@
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1591</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
@@ -17245,7 +17221,7 @@
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1892</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
@@ -17280,7 +17256,7 @@
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>1924</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
@@ -17520,7 +17496,7 @@
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>1532</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
@@ -17605,7 +17581,7 @@
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>1314</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
@@ -17750,7 +17726,7 @@
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>1889</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
@@ -17770,7 +17746,7 @@
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>1878</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
@@ -18220,7 +18196,7 @@
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>1530</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
@@ -18235,7 +18211,7 @@
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>1971</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
@@ -18265,7 +18241,7 @@
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>1970</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
@@ -18355,7 +18331,7 @@
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>2310</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.2">
@@ -18390,7 +18366,7 @@
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>1972</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
@@ -18435,7 +18411,7 @@
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>1877</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.2">
@@ -18465,7 +18441,7 @@
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>1531</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.2">

--- a/historical/data/data_strict.xlsx
+++ b/historical/data/data_strict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B052342-BA14-CF4B-A3E8-445881280311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DDA264-D439-084E-9704-D408D093AE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46220" yWindow="-3100" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2549" uniqueCount="2256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2549" uniqueCount="2254">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -3529,9 +3529,6 @@
     <t>uinnsinn</t>
   </si>
   <si>
-    <t>ioghnadh</t>
-  </si>
-  <si>
     <t>luaithre</t>
   </si>
   <si>
@@ -4082,9 +4079,6 @@
   </si>
   <si>
     <t>एकोर्णः</t>
-  </si>
-  <si>
-    <t>dearcan</t>
   </si>
   <si>
     <t>жир</t>
@@ -7673,7 +7667,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V9" sqref="V9"/>
+      <selection pane="bottomRight" activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7797,7 +7791,7 @@
         <v>735</v>
       </c>
       <c r="O1" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="P1" t="s">
         <v>556</v>
@@ -7827,12 +7821,12 @@
         <v>738</v>
       </c>
       <c r="Y1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="Z1" t="s">
         <v>720</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>736</v>
       </c>
       <c r="AB1" t="s">
@@ -7869,7 +7863,7 @@
         <v>737</v>
       </c>
       <c r="AM1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AN1" t="s">
         <v>739</v>
@@ -7908,7 +7902,7 @@
         <v>741</v>
       </c>
       <c r="AZ1" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="BA1" t="s">
         <v>722</v>
@@ -7953,7 +7947,7 @@
         <v>743</v>
       </c>
       <c r="BP1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="BQ1" t="s">
         <v>744</v>
@@ -7968,7 +7962,7 @@
         <v>747</v>
       </c>
       <c r="BU1" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="BV1" t="s">
         <v>748</v>
@@ -8056,7 +8050,7 @@
       <c r="Z2" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AA2" s="3" t="s">
         <v>487</v>
       </c>
       <c r="AB2" s="1" t="s">
@@ -8200,49 +8194,49 @@
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>1315</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>1316</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>1307</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>1308</v>
-      </c>
       <c r="I3" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>1322</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>1323</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>875</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>875</v>
@@ -8251,22 +8245,22 @@
         <v>875</v>
       </c>
       <c r="R3" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>1324</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>1326</v>
       </c>
-      <c r="U3" s="3" t="s">
-        <v>1327</v>
-      </c>
       <c r="V3" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>1344</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>1345</v>
       </c>
       <c r="X3" s="3" t="s">
         <v>875</v>
@@ -8275,144 +8269,144 @@
         <v>875</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>2253</v>
-      </c>
-      <c r="AA3" s="1" t="s">
+        <v>2251</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="AN3" s="1" t="s">
         <v>1350</v>
       </c>
-      <c r="AB3" s="1" t="s">
-        <v>1422</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>1312</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>1313</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>1310</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>1311</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>1312</v>
-      </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AO3" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="AP3" s="3" t="s">
         <v>1317</v>
       </c>
-      <c r="AJ3" s="3" t="s">
-        <v>1347</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>1348</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>1351</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>1312</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>1352</v>
-      </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AQ3" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="AR3" s="1" t="s">
         <v>1353</v>
       </c>
-      <c r="AP3" s="3" t="s">
-        <v>1318</v>
-      </c>
-      <c r="AQ3" s="3" t="s">
-        <v>1319</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>1355</v>
-      </c>
       <c r="AS3" s="3" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="AT3" s="1"/>
       <c r="AU3" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="AW3" s="3" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="AX3" s="1"/>
       <c r="AY3" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="BO3" s="1" t="s">
         <v>1354</v>
       </c>
-      <c r="BA3" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>1330</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>1331</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>1332</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>1333</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>1334</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>1335</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>1336</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>1338</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>1339</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>1341</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>1342</v>
-      </c>
-      <c r="BO3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
         <v>1356</v>
       </c>
-      <c r="BP3" s="1" t="s">
-        <v>1357</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>1358</v>
-      </c>
       <c r="BR3" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="BU3" s="1" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="BV3" s="1" t="s">
         <v>875</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="4" spans="1:75" x14ac:dyDescent="0.2">
@@ -8486,19 +8480,19 @@
         <v>875</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="Z4" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AA4" s="3" t="s">
         <v>1158</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>581</v>
@@ -8528,16 +8522,16 @@
         <v>1129</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AM4" s="1" t="s">
         <v>581</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="AP4" s="3" t="s">
         <v>875</v>
@@ -8546,7 +8540,7 @@
         <v>813</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="AS4" s="3" t="s">
         <v>683</v>
@@ -8567,7 +8561,7 @@
         <v>846</v>
       </c>
       <c r="AY4" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>876</v>
@@ -8618,22 +8612,22 @@
         <v>908</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="BS4" s="1" t="s">
         <v>473</v>
       </c>
       <c r="BT4" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="BU4" s="1" t="s">
         <v>1368</v>
-      </c>
-      <c r="BU4" s="1" t="s">
-        <v>1370</v>
       </c>
       <c r="BV4" s="1" t="s">
         <v>875</v>
       </c>
       <c r="BW4" s="1" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="5" spans="1:75" ht="17" x14ac:dyDescent="0.2">
@@ -8641,16 +8635,16 @@
         <v>474</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>783</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>796</v>
@@ -8671,16 +8665,16 @@
         <v>1080</v>
       </c>
       <c r="L5" s="3" t="s">
+        <v>2197</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>2199</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>2201</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>1150</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>558</v>
@@ -8715,11 +8709,11 @@
       <c r="Z5" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AA5" s="3" t="s">
         <v>844</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>803</v>
@@ -8743,22 +8737,22 @@
         <v>811</v>
       </c>
       <c r="AJ5" s="3" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="AL5" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AM5" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="AM5" s="1" t="s">
-        <v>1172</v>
-      </c>
       <c r="AN5" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="AP5" s="3" t="s">
         <v>648</v>
@@ -8767,10 +8761,10 @@
         <v>814</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="AS5" s="3" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="AT5" s="1" t="s">
         <v>825</v>
@@ -8788,7 +8782,7 @@
         <v>847</v>
       </c>
       <c r="AY5" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>879</v>
@@ -8830,31 +8824,31 @@
         <v>1058</v>
       </c>
       <c r="BO5" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="BP5" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="BP5" s="1" t="s">
-        <v>1257</v>
-      </c>
       <c r="BQ5" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="BR5" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="BS5" s="1" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="BT5" s="1" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="BU5" s="1" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="BV5" s="1" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="BW5" s="1" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="6" spans="1:75" ht="17" x14ac:dyDescent="0.2">
@@ -8926,19 +8920,19 @@
         <v>1098</v>
       </c>
       <c r="X6" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="Y6" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="Y6" s="3" t="s">
-        <v>1193</v>
-      </c>
       <c r="Z6" s="3" t="s">
-        <v>2254</v>
-      </c>
-      <c r="AA6" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="AA6" s="3" t="s">
         <v>1159</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="AC6" s="3" t="s">
         <v>582</v>
@@ -8968,16 +8962,16 @@
         <v>1131</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="AM6" s="1" t="s">
         <v>582</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AP6" s="3" t="s">
         <v>649</v>
@@ -8986,7 +8980,7 @@
         <v>660</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="AS6" s="3" t="s">
         <v>684</v>
@@ -9049,31 +9043,31 @@
         <v>1056</v>
       </c>
       <c r="BO6" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="BP6" s="1" t="s">
         <v>1258</v>
       </c>
-      <c r="BP6" s="1" t="s">
-        <v>1259</v>
-      </c>
       <c r="BQ6" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="BR6" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="BS6" s="1" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="BT6" s="1" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="BU6" s="1" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="BV6" s="1" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="BW6" s="1" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="7" spans="1:75" x14ac:dyDescent="0.2">
@@ -9087,19 +9081,19 @@
         <v>785</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>491</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>697</v>
@@ -9111,16 +9105,16 @@
         <v>1082</v>
       </c>
       <c r="L7" s="3" t="s">
+        <v>2198</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>2200</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>2202</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>1151</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>562</v>
@@ -9135,10 +9129,10 @@
         <v>754</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="V7" s="3" t="s">
         <v>1099</v>
@@ -9147,19 +9141,19 @@
         <v>754</v>
       </c>
       <c r="X7" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="Y7" s="3" t="s">
         <v>1194</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>1195</v>
       </c>
       <c r="Z7" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AA7" s="3" t="s">
         <v>1160</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="AC7" s="3" t="s">
         <v>632</v>
@@ -9171,16 +9165,16 @@
         <v>600</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="AH7" s="3" t="s">
         <v>632</v>
       </c>
       <c r="AI7" s="3" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="AJ7" s="3" t="s">
         <v>1132</v>
@@ -9189,16 +9183,16 @@
         <v>1133</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AM7" s="1" t="s">
         <v>632</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AP7" s="3" t="s">
         <v>650</v>
@@ -9222,13 +9216,13 @@
         <v>1115</v>
       </c>
       <c r="AW7" s="3" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="AX7" s="1" t="s">
         <v>848</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="BA7" s="1" t="s">
         <v>884</v>
@@ -9270,31 +9264,31 @@
         <v>1054</v>
       </c>
       <c r="BO7" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="BP7" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="BP7" s="1" t="s">
-        <v>1261</v>
-      </c>
       <c r="BQ7" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="BR7" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="BS7" s="1" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="BT7" s="1" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="BU7" s="1" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="BV7" s="1" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="BW7" s="1" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="8" spans="1:75" ht="17" x14ac:dyDescent="0.2">
@@ -9368,19 +9362,19 @@
         <v>1101</v>
       </c>
       <c r="X8" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="Y8" s="3" t="s">
         <v>1196</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>1197</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AA8" s="3" t="s">
         <v>1161</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="AC8" s="3" t="s">
         <v>583</v>
@@ -9410,16 +9404,16 @@
         <v>1135</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="AM8" s="1" t="s">
         <v>583</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="AP8" s="3" t="s">
         <v>651</v>
@@ -9428,7 +9422,7 @@
         <v>661</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="AS8" s="3" t="s">
         <v>685</v>
@@ -9449,7 +9443,7 @@
         <v>849</v>
       </c>
       <c r="AY8" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="BA8" s="1" t="s">
         <v>886</v>
@@ -9491,31 +9485,31 @@
         <v>1052</v>
       </c>
       <c r="BO8" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="BP8" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="BP8" s="1" t="s">
-        <v>1263</v>
-      </c>
       <c r="BQ8" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="BR8" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="BS8" s="1" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="BT8" s="1" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="BU8" s="1" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="BV8" s="1" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="BW8" s="1" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="9" spans="1:75" ht="17" x14ac:dyDescent="0.2">
@@ -9562,7 +9556,7 @@
         <v>1152</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>566</v>
@@ -9589,19 +9583,19 @@
         <v>1103</v>
       </c>
       <c r="X9" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="Y9" s="3" t="s">
         <v>1198</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>1199</v>
       </c>
       <c r="Z9" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="AA9" s="1" t="s">
+      <c r="AA9" s="3" t="s">
         <v>1162</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="AC9" s="3" t="s">
         <v>584</v>
@@ -9631,7 +9625,7 @@
         <v>1137</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="AM9" s="1" t="s">
         <v>584</v>
@@ -9640,7 +9634,7 @@
         <v>640</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AP9" s="3" t="s">
         <v>652</v>
@@ -9649,7 +9643,7 @@
         <v>662</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="AS9" s="3" t="s">
         <v>686</v>
@@ -9670,7 +9664,7 @@
         <v>850</v>
       </c>
       <c r="AY9" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="BA9" s="2" t="s">
         <v>888</v>
@@ -9712,31 +9706,31 @@
         <v>1050</v>
       </c>
       <c r="BO9" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="BP9" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="BP9" s="1" t="s">
-        <v>1265</v>
-      </c>
       <c r="BQ9" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="BR9" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="BS9" s="1" t="s">
         <v>787</v>
       </c>
       <c r="BT9" s="1" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="BU9" s="1" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="BV9" s="1" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="BW9" s="1" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="10" spans="1:75" x14ac:dyDescent="0.2">
@@ -9744,7 +9738,7 @@
         <v>479</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>788</v>
@@ -9756,7 +9750,7 @@
         <v>625</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>508</v>
@@ -9774,16 +9768,16 @@
         <v>1085</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>1153</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>568</v>
@@ -9798,10 +9792,10 @@
         <v>875</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>1104</v>
@@ -9818,11 +9812,11 @@
       <c r="Z10" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="AA10" s="1" t="s">
+      <c r="AA10" s="3" t="s">
         <v>1163</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="AC10" s="3" t="s">
         <v>875</v>
@@ -9852,13 +9846,13 @@
         <v>875</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="AM10" s="1" t="s">
         <v>585</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="AO10" s="1" t="s">
         <v>999</v>
@@ -9870,7 +9864,7 @@
         <v>479</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="AS10" s="3" t="s">
         <v>687</v>
@@ -9891,7 +9885,7 @@
         <v>851</v>
       </c>
       <c r="AY10" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="BA10" s="1" t="s">
         <v>890</v>
@@ -9933,19 +9927,19 @@
         <v>1048</v>
       </c>
       <c r="BO10" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="BP10" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="BP10" s="1" t="s">
-        <v>1267</v>
-      </c>
       <c r="BQ10" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="BR10" s="1" t="s">
         <v>973</v>
       </c>
       <c r="BS10" s="1" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="BT10" s="1" t="s">
         <v>543</v>
@@ -9957,7 +9951,7 @@
         <v>875</v>
       </c>
       <c r="BW10" s="1" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="11" spans="1:75" ht="17" x14ac:dyDescent="0.2">
@@ -10004,7 +9998,7 @@
         <v>1154</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>570</v>
@@ -10031,22 +10025,22 @@
         <v>571</v>
       </c>
       <c r="X11" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="Y11" s="3" t="s">
         <v>1200</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>1201</v>
       </c>
       <c r="Z11" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="AA11" s="1" t="s">
+      <c r="AA11" s="3" t="s">
         <v>840</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="AD11" s="3" t="s">
         <v>1138</v>
@@ -10073,16 +10067,16 @@
         <v>1139</v>
       </c>
       <c r="AL11" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="AM11" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="AM11" s="1" t="s">
-        <v>1179</v>
-      </c>
       <c r="AN11" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="AP11" s="3" t="s">
         <v>653</v>
@@ -10112,7 +10106,7 @@
         <v>852</v>
       </c>
       <c r="AY11" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="BA11" s="1" t="s">
         <v>892</v>
@@ -10154,31 +10148,31 @@
         <v>1046</v>
       </c>
       <c r="BO11" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="BP11" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="BP11" s="1" t="s">
-        <v>1269</v>
-      </c>
       <c r="BQ11" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="BR11" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="BS11" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="BT11" s="1" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="BU11" s="1" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="BV11" s="1" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="BW11" s="1" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="12" spans="1:75" x14ac:dyDescent="0.2">
@@ -10192,10 +10186,10 @@
         <v>790</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>875</v>
@@ -10260,11 +10254,11 @@
       <c r="Z12" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="AA12" s="1" t="s">
+      <c r="AA12" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="AC12" s="3" t="s">
         <v>586</v>
@@ -10294,13 +10288,13 @@
         <v>1140</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="AM12" s="1" t="s">
         <v>586</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="AO12" s="1" t="s">
         <v>875</v>
@@ -10312,7 +10306,7 @@
         <v>664</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="AS12" s="3" t="s">
         <v>689</v>
@@ -10333,7 +10327,7 @@
         <v>853</v>
       </c>
       <c r="AY12" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="BA12" s="1" t="s">
         <v>875</v>
@@ -10384,7 +10378,7 @@
         <v>875</v>
       </c>
       <c r="BR12" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="BS12" s="1" t="s">
         <v>875</v>
@@ -10419,7 +10413,7 @@
         <v>809</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>511</v>
@@ -10446,7 +10440,7 @@
         <v>1155</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>574</v>
@@ -10479,13 +10473,13 @@
         <v>875</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>2255</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>1166</v>
+        <v>2253</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>1165</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="AC13" s="3" t="s">
         <v>588</v>
@@ -10515,13 +10509,13 @@
         <v>1142</v>
       </c>
       <c r="AL13" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="AM13" s="1" t="s">
         <v>588</v>
       </c>
       <c r="AN13" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="AO13" s="1" t="s">
         <v>609</v>
@@ -10554,7 +10548,7 @@
         <v>855</v>
       </c>
       <c r="AY13" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="BA13" s="1" t="s">
         <v>896</v>
@@ -10596,13 +10590,13 @@
         <v>1042</v>
       </c>
       <c r="BO13" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="BP13" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="BP13" s="1" t="s">
-        <v>1273</v>
-      </c>
       <c r="BQ13" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="BR13" s="1" t="s">
         <v>926</v>
@@ -10611,16 +10605,16 @@
         <v>926</v>
       </c>
       <c r="BT13" s="1" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="BU13" s="1" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="BV13" s="1" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="BW13" s="1" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="14" spans="1:75" ht="34" x14ac:dyDescent="0.2">
@@ -10628,7 +10622,7 @@
         <v>481</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>791</v>
@@ -10643,10 +10637,10 @@
         <v>492</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>702</v>
@@ -10682,10 +10676,10 @@
         <v>875</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>875</v>
@@ -10702,20 +10696,20 @@
       <c r="Z14" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="AA14" s="1" t="s">
-        <v>1165</v>
+      <c r="AA14" s="3" t="s">
+        <v>875</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="AC14" s="3" t="s">
+        <v>2206</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>2207</v>
+      </c>
+      <c r="AE14" s="3" t="s">
         <v>2208</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>2209</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>2210</v>
       </c>
       <c r="AF14" s="3" t="s">
         <v>875</v>
@@ -10724,7 +10718,7 @@
         <v>875</v>
       </c>
       <c r="AH14" s="3" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="AI14" s="3" t="s">
         <v>644</v>
@@ -10736,16 +10730,16 @@
         <v>1144</v>
       </c>
       <c r="AL14" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="AM14" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="AM14" s="1" t="s">
-        <v>1182</v>
-      </c>
       <c r="AN14" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AP14" s="3" t="s">
         <v>654</v>
@@ -10754,7 +10748,7 @@
         <v>665</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="AS14" s="3" t="s">
         <v>690</v>
@@ -10775,7 +10769,7 @@
         <v>854</v>
       </c>
       <c r="AY14" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="BA14" s="2" t="s">
         <v>894</v>
@@ -10817,31 +10811,31 @@
         <v>1044</v>
       </c>
       <c r="BO14" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="BP14" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="BP14" s="1" t="s">
-        <v>1271</v>
-      </c>
       <c r="BQ14" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="BR14" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="BS14" s="1" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="BT14" s="2" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="BU14" s="1" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="BV14" s="1" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="BW14" s="1" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="15" spans="1:75" ht="34" x14ac:dyDescent="0.2">
@@ -10852,16 +10846,16 @@
         <v>528</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>513</v>
@@ -10870,10 +10864,10 @@
         <v>514</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>1089</v>
@@ -10888,13 +10882,13 @@
         <v>1156</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>762</v>
@@ -10909,10 +10903,10 @@
         <v>777</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>875</v>
@@ -10923,20 +10917,20 @@
       <c r="Z15" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="AA15" s="1" t="s">
-        <v>1167</v>
+      <c r="AA15" s="3" t="s">
+        <v>1166</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="AC15" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AD15" s="3" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="AE15" s="3" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="AF15" s="3" t="s">
         <v>800</v>
@@ -10957,28 +10951,28 @@
         <v>1146</v>
       </c>
       <c r="AL15" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="AM15" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="AM15" s="1" t="s">
-        <v>1185</v>
-      </c>
       <c r="AN15" s="2" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AP15" s="3" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="AQ15" s="3" t="s">
         <v>667</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="AS15" s="3" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="AT15" s="1" t="s">
         <v>834</v>
@@ -10990,13 +10984,13 @@
         <v>1123</v>
       </c>
       <c r="AW15" s="3" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="AX15" s="1" t="s">
         <v>856</v>
       </c>
       <c r="AY15" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="BA15" s="1" t="s">
         <v>898</v>
@@ -11038,31 +11032,31 @@
         <v>1040</v>
       </c>
       <c r="BO15" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="BP15" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="BP15" s="1" t="s">
-        <v>1275</v>
-      </c>
       <c r="BQ15" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="BR15" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="BS15" s="1" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="BT15" s="1" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="BU15" s="1" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="BV15" s="1" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="BW15" s="1" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="16" spans="1:75" x14ac:dyDescent="0.2">
@@ -11085,10 +11079,10 @@
         <v>497</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>703</v>
@@ -11109,7 +11103,7 @@
         <v>1157</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>576</v>
@@ -11118,10 +11112,10 @@
         <v>577</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>778</v>
@@ -11136,19 +11130,19 @@
         <v>1110</v>
       </c>
       <c r="X16" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="Y16" s="3" t="s">
         <v>1202</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>1203</v>
       </c>
       <c r="Z16" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="AA16" s="1" t="s">
-        <v>1168</v>
+      <c r="AA16" s="3" t="s">
+        <v>1167</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="AC16" s="3" t="s">
         <v>589</v>
@@ -11178,16 +11172,16 @@
         <v>1148</v>
       </c>
       <c r="AL16" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AM16" s="1" t="s">
         <v>589</v>
       </c>
       <c r="AN16" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AP16" s="3" t="s">
         <v>656</v>
@@ -11196,7 +11190,7 @@
         <v>668</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="AS16" s="3" t="s">
         <v>817</v>
@@ -11217,7 +11211,7 @@
         <v>857</v>
       </c>
       <c r="AY16" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="BA16" s="1" t="s">
         <v>900</v>
@@ -11259,31 +11253,31 @@
         <v>1038</v>
       </c>
       <c r="BO16" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="BP16" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="BP16" s="1" t="s">
-        <v>1277</v>
-      </c>
       <c r="BQ16" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="BR16" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="BS16" s="1" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="BT16" s="1" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="BU16" s="1" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="BV16" s="1" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="BW16" s="1" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="17" spans="1:75" ht="17" x14ac:dyDescent="0.2">
@@ -11297,10 +11291,10 @@
         <v>862</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>875</v>
@@ -11348,7 +11342,7 @@
         <v>863</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>875</v>
@@ -11365,11 +11359,11 @@
       <c r="Z17" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="AA17" s="1" t="s">
+      <c r="AA17" s="3" t="s">
         <v>875</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="AC17" s="4" t="s">
         <v>869</v>
@@ -11405,7 +11399,7 @@
         <v>869</v>
       </c>
       <c r="AN17" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AO17" s="1" t="s">
         <v>869</v>
@@ -11432,13 +11426,13 @@
         <v>1125</v>
       </c>
       <c r="AW17" s="3" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="AX17" s="1" t="s">
         <v>860</v>
       </c>
       <c r="AY17" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="BA17" s="1" t="s">
         <v>902</v>
@@ -11480,16 +11474,16 @@
         <v>875</v>
       </c>
       <c r="BO17" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="BP17" s="1" t="s">
         <v>1278</v>
-      </c>
-      <c r="BP17" s="1" t="s">
-        <v>1279</v>
       </c>
       <c r="BQ17" s="1" t="s">
         <v>875</v>
       </c>
       <c r="BR17" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="BS17" s="1" t="s">
         <v>859</v>
@@ -11498,13 +11492,13 @@
         <v>870</v>
       </c>
       <c r="BU17" s="1" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="BV17" s="1" t="s">
         <v>875</v>
       </c>
       <c r="BW17" s="2" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="18" spans="1:75" x14ac:dyDescent="0.2">
@@ -11578,19 +11572,19 @@
         <v>1112</v>
       </c>
       <c r="X18" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="Y18" s="3" t="s">
         <v>1204</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>1205</v>
       </c>
       <c r="Z18" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="AA18" s="1" t="s">
+      <c r="AA18" s="3" t="s">
         <v>837</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="AC18" s="3" t="s">
         <v>590</v>
@@ -11620,16 +11614,16 @@
         <v>1126</v>
       </c>
       <c r="AL18" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="AM18" s="1" t="s">
         <v>1187</v>
-      </c>
-      <c r="AM18" s="1" t="s">
-        <v>1188</v>
       </c>
       <c r="AN18" s="1" t="s">
         <v>636</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="AP18" s="3" t="s">
         <v>657</v>
@@ -11638,7 +11632,7 @@
         <v>659</v>
       </c>
       <c r="AR18" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="AS18" s="3" t="s">
         <v>692</v>
@@ -11659,7 +11653,7 @@
         <v>858</v>
       </c>
       <c r="AY18" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="BA18" s="1" t="s">
         <v>904</v>
@@ -11701,10 +11695,10 @@
         <v>1036</v>
       </c>
       <c r="BO18" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="BP18" s="1" t="s">
         <v>1280</v>
-      </c>
-      <c r="BP18" s="1" t="s">
-        <v>1281</v>
       </c>
       <c r="BQ18" s="1" t="s">
         <v>906</v>
@@ -11713,19 +11707,19 @@
         <v>907</v>
       </c>
       <c r="BS18" s="1" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="BT18" s="1" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="BU18" s="1" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="BV18" s="1" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="BW18" s="1" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="19" spans="1:75" x14ac:dyDescent="0.2">
@@ -11733,50 +11727,50 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="AD19" s="1" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
@@ -11811,37 +11805,37 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -11849,10 +11843,10 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="AD20" s="1" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
@@ -11887,37 +11881,37 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -11925,10 +11919,10 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="AD21" s="1" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
@@ -11963,37 +11957,37 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -12001,10 +11995,10 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="AD22" s="1" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
@@ -12038,37 +12032,37 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -12076,10 +12070,10 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="AD23" s="1" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="AF23" s="1"/>
       <c r="AK23" s="1"/>
@@ -12108,37 +12102,37 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -12146,10 +12140,10 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="AD24" s="1" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="AF24" s="1"/>
       <c r="AK24" s="1"/>
@@ -12178,37 +12172,37 @@
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -12216,10 +12210,10 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="AD25" s="1" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="AF25" s="1"/>
       <c r="AK25" s="1"/>
@@ -12248,37 +12242,37 @@
         <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -12286,10 +12280,10 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="AD26" s="1" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="AF26" s="1"/>
       <c r="AK26" s="1"/>
@@ -12318,37 +12312,37 @@
         <v>1093</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -12356,10 +12350,10 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="AD27" s="1" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="AF27" s="1"/>
       <c r="AK27" s="1"/>
@@ -12385,40 +12379,40 @@
     </row>
     <row r="28" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>1769</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>1770</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>1771</v>
-      </c>
       <c r="I28" s="1" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -12426,10 +12420,10 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="AD28" s="1" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="AF28" s="1"/>
       <c r="AK28" s="1"/>
@@ -12458,37 +12452,37 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -12496,10 +12490,10 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="AD29" s="1" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="AF29" s="1"/>
       <c r="AK29" s="1"/>
@@ -12528,37 +12522,37 @@
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -12566,10 +12560,10 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="AD30" s="1" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="AF30" s="1"/>
       <c r="AK30" s="1"/>
@@ -12598,37 +12592,37 @@
         <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -12636,10 +12630,10 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="AD31" s="1" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="AF31" s="1"/>
       <c r="AK31" s="1"/>
@@ -12668,37 +12662,37 @@
         <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -12706,10 +12700,10 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="AD32" s="1" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="AE32" s="1" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="AF32" s="1"/>
       <c r="AK32" s="1"/>
@@ -12738,37 +12732,37 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -12776,10 +12770,10 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="AD33" s="1" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="AE33" s="1" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="AF33" s="1"/>
       <c r="AK33" s="1"/>
@@ -12808,37 +12802,37 @@
         <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -12846,10 +12840,10 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="AD34" s="1" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="AF34" s="1"/>
       <c r="AK34" s="1"/>
@@ -12878,37 +12872,37 @@
         <v>1092</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -12916,10 +12910,10 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="AD35" s="1" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="AF35" s="1"/>
       <c r="AK35" s="1"/>
@@ -12948,37 +12942,37 @@
         <v>501</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -12986,10 +12980,10 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="AD36" s="1" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="AE36" s="1" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="AF36" s="1"/>
       <c r="AK36" s="1"/>
@@ -13018,37 +13012,37 @@
         <v>14</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -13056,10 +13050,10 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="AD37" s="1" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="AF37" s="1"/>
       <c r="AK37" s="1"/>
@@ -13088,37 +13082,37 @@
         <v>15</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -13126,10 +13120,10 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="AD38" s="1" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="AE38" s="1" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="AF38" s="1"/>
       <c r="AK38" s="1"/>
@@ -13158,37 +13152,37 @@
         <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -13196,10 +13190,10 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="AD39" s="1" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="AF39" s="1"/>
       <c r="AK39" s="1"/>
@@ -13228,37 +13222,37 @@
         <v>17</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -13266,10 +13260,10 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="AD40" s="1" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="AE40" s="1" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="AF40" s="1"/>
       <c r="AK40" s="1"/>
@@ -13299,37 +13293,37 @@
         <v>18</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -13337,10 +13331,10 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="AD41" s="1" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="AE41" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
@@ -13375,37 +13369,37 @@
         <v>489</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -13413,10 +13407,10 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
       <c r="AD42" s="1" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="AE42" s="1" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
@@ -13451,37 +13445,37 @@
         <v>19</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -13489,10 +13483,10 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
       <c r="AD43" s="1" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="AE43" s="1" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
@@ -13524,40 +13518,40 @@
     </row>
     <row r="44" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -13565,10 +13559,10 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="AD44" s="1" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="AE44" s="1" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
@@ -13603,37 +13597,37 @@
         <v>20</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -13641,10 +13635,10 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="AD45" s="1" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="AE45" s="1" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
@@ -13679,37 +13673,37 @@
         <v>21</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -13717,10 +13711,10 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="AD46" s="1" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="AE46" s="1" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="AF46" s="1"/>
       <c r="AG46" s="1"/>
@@ -13755,37 +13749,37 @@
         <v>555</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -13793,10 +13787,10 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="AD47" s="2" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="AE47" s="1" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
@@ -13831,37 +13825,37 @@
         <v>22</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -13869,10 +13863,10 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="AD48" s="1" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="AE48" s="1" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="AF48" s="1"/>
       <c r="AG48" s="1"/>
@@ -13907,37 +13901,37 @@
         <v>23</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -13945,10 +13939,10 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="AD49" s="1" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="AF49" s="1"/>
       <c r="AG49" s="1"/>
@@ -13980,40 +13974,40 @@
     </row>
     <row r="50" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -14021,10 +14015,10 @@
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
       <c r="AD50" s="1" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
@@ -14059,37 +14053,37 @@
         <v>24</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -14097,10 +14091,10 @@
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
       <c r="AD51" s="1" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="AE51" s="1" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
@@ -14132,40 +14126,40 @@
     </row>
     <row r="52" spans="1:58" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -14173,10 +14167,10 @@
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
       <c r="AD52" s="2" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="AE52" s="1" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="AF52" s="1"/>
       <c r="AG52" s="1"/>
@@ -14211,37 +14205,37 @@
         <v>25</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -14249,10 +14243,10 @@
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
       <c r="AD53" s="1" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="AF53" s="1"/>
       <c r="AG53" s="1"/>
@@ -14287,37 +14281,37 @@
         <v>490</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -14325,10 +14319,10 @@
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
       <c r="AD54" s="1" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="AE54" s="1" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="AF54" s="1"/>
       <c r="AG54" s="1"/>
@@ -14363,37 +14357,37 @@
         <v>26</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -14401,10 +14395,10 @@
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
       <c r="AD55" s="1" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="AE55" s="1" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="AF55" s="1"/>
       <c r="AG55" s="1"/>
@@ -14439,37 +14433,37 @@
         <v>27</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -14477,10 +14471,10 @@
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
       <c r="AD56" s="1" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="AE56" s="1" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AF56" s="1"/>
       <c r="AG56" s="1"/>
@@ -14515,37 +14509,37 @@
         <v>28</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -14553,10 +14547,10 @@
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
       <c r="AD57" s="1" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="AF57" s="1"/>
       <c r="AG57" s="1"/>
@@ -14591,37 +14585,37 @@
         <v>29</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
@@ -14629,10 +14623,10 @@
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
       <c r="AD58" s="1" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="AF58" s="1"/>
       <c r="AG58" s="1"/>
@@ -14667,37 +14661,37 @@
         <v>30</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -14705,10 +14699,10 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
       <c r="AD59" s="1" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="AE59" s="1" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="AF59" s="1"/>
       <c r="AG59" s="1"/>
@@ -14743,37 +14737,37 @@
         <v>31</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
@@ -14781,10 +14775,10 @@
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
       <c r="AD60" s="2" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="AE60" s="1" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="AF60" s="1"/>
       <c r="AG60" s="1"/>
@@ -14819,37 +14813,37 @@
         <v>32</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -14857,10 +14851,10 @@
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
       <c r="AD61" s="1" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="AE61" s="1" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="AF61" s="1"/>
       <c r="AG61" s="1"/>
@@ -14892,40 +14886,40 @@
     </row>
     <row r="62" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
@@ -14933,10 +14927,10 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
       <c r="AD62" s="1" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="AF62" s="1"/>
       <c r="AG62" s="1"/>
@@ -14971,37 +14965,37 @@
         <v>33</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -15009,10 +15003,10 @@
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
       <c r="AD63" s="1" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="AE63" s="1" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="AF63" s="1"/>
       <c r="AG63" s="1"/>
@@ -15047,37 +15041,37 @@
         <v>34</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
@@ -15085,10 +15079,10 @@
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
       <c r="AD64" s="1" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="AE64" s="1" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="AF64" s="1"/>
       <c r="AG64" s="1"/>
@@ -15123,37 +15117,37 @@
         <v>35</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
@@ -15161,10 +15155,10 @@
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
       <c r="AD65" s="1" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="AE65" s="1" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="AF65" s="1"/>
       <c r="AG65" s="1"/>
@@ -15199,37 +15193,37 @@
         <v>36</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
@@ -15237,10 +15231,10 @@
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
       <c r="AD66" s="1" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="AF66" s="1"/>
       <c r="AG66" s="1"/>
@@ -15275,37 +15269,37 @@
         <v>37</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
@@ -15313,10 +15307,10 @@
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
       <c r="AD67" s="1" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="AE67" s="1" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="AF67" s="1"/>
       <c r="AG67" s="1"/>
@@ -15348,40 +15342,40 @@
     </row>
     <row r="68" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>875</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
@@ -15389,10 +15383,10 @@
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
       <c r="AD68" s="1" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="AE68" s="1" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="AF68" s="1"/>
       <c r="AG68" s="1"/>
@@ -15427,37 +15421,37 @@
         <v>38</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
@@ -15465,10 +15459,10 @@
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
       <c r="AD69" s="1" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="AE69" s="1" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="AF69" s="1"/>
       <c r="AG69" s="1"/>
@@ -15503,16 +15497,16 @@
         <v>39</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>875</v>
@@ -15521,19 +15515,19 @@
         <v>875</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
@@ -15576,40 +15570,40 @@
     </row>
     <row r="71" spans="1:58" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
@@ -15617,10 +15611,10 @@
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
       <c r="AD71" s="1" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="AE71" s="1" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="AF71" s="1"/>
       <c r="AG71" s="1"/>
@@ -15655,37 +15649,37 @@
         <v>40</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
@@ -15693,10 +15687,10 @@
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
       <c r="AD72" s="1" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="AE72" s="1" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="AF72" s="1"/>
       <c r="AG72" s="1"/>
@@ -15731,37 +15725,37 @@
         <v>41</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
@@ -15769,10 +15763,10 @@
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
       <c r="AD73" s="1" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="AE73" s="1" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="AF73" s="1"/>
       <c r="AG73" s="1"/>
@@ -15864,12 +15858,12 @@
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
@@ -16131,7 +16125,7 @@
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
@@ -16151,7 +16145,7 @@
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
@@ -16176,7 +16170,7 @@
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
@@ -16301,7 +16295,7 @@
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
@@ -16316,7 +16310,7 @@
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
@@ -16411,7 +16405,7 @@
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
@@ -16466,7 +16460,7 @@
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
@@ -16536,7 +16530,7 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
@@ -16706,7 +16700,7 @@
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
@@ -16821,7 +16815,7 @@
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
@@ -16856,7 +16850,7 @@
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
@@ -17096,7 +17090,7 @@
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
@@ -17181,7 +17175,7 @@
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
@@ -17326,7 +17320,7 @@
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
@@ -17346,7 +17340,7 @@
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
@@ -17356,7 +17350,7 @@
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
@@ -17801,7 +17795,7 @@
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
@@ -17816,7 +17810,7 @@
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.2">
@@ -17846,7 +17840,7 @@
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.2">
@@ -17936,7 +17930,7 @@
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.2">
@@ -17971,7 +17965,7 @@
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.2">
@@ -18016,7 +18010,7 @@
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.2">
@@ -18046,7 +18040,7 @@
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.2">

--- a/historical/data/data_strict.xlsx
+++ b/historical/data/data_strict.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DDA264-D439-084E-9704-D408D093AE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B5A053-F29C-BE4F-B139-32E92FDB5DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46220" yWindow="-3100" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2549" uniqueCount="2254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="2246">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -1789,9 +1789,6 @@
     <t>jabuka</t>
   </si>
   <si>
-    <t>ruku</t>
-  </si>
-  <si>
     <t>jasen</t>
   </si>
   <si>
@@ -3541,9 +3538,6 @@
     <t>SerTr</t>
   </si>
   <si>
-    <t>joxa, јова</t>
-  </si>
-  <si>
     <t>љут, гневан</t>
   </si>
   <si>
@@ -3562,24 +3556,9 @@
     <t>јабука</t>
   </si>
   <si>
-    <t>руку</t>
-  </si>
-  <si>
-    <t>стрелац, стрела</t>
-  </si>
-  <si>
-    <t>strelac, strela</t>
-  </si>
-  <si>
     <t>јасен</t>
   </si>
   <si>
-    <t>стиди се, постиђен</t>
-  </si>
-  <si>
-    <t>stidi se, postiđen</t>
-  </si>
-  <si>
     <t>пепео</t>
   </si>
   <si>
@@ -3592,12 +3571,6 @@
     <t>јесен</t>
   </si>
   <si>
-    <t>ак, секира</t>
-  </si>
-  <si>
-    <t>ak, sekira</t>
-  </si>
-  <si>
     <t>ඇල්ඩර්</t>
   </si>
   <si>
@@ -3655,27 +3628,18 @@
     <t>nahnevaný, zlostný, rozhnevaný</t>
   </si>
   <si>
-    <t>zviera, živočích</t>
-  </si>
-  <si>
     <t>odpoveď</t>
   </si>
   <si>
     <t>mravec</t>
   </si>
   <si>
-    <t>rameno, plece</t>
-  </si>
-  <si>
     <t>šípka, šíp</t>
   </si>
   <si>
     <t>jaseň</t>
   </si>
   <si>
-    <t>hanbiť sa, zahanbený</t>
-  </si>
-  <si>
     <t>popol</t>
   </si>
   <si>
@@ -4297,21 +4261,12 @@
     <t>mesen, fesen</t>
   </si>
   <si>
-    <t>gwernen, gwerni</t>
-  </si>
-  <si>
     <t>blin, dig</t>
   </si>
   <si>
-    <t>anifail, anifeiliaid</t>
-  </si>
-  <si>
     <t>ateb</t>
   </si>
   <si>
-    <t>morgrugyn, morgrug</t>
-  </si>
-  <si>
     <t>afal</t>
   </si>
   <si>
@@ -4321,22 +4276,10 @@
     <t>saeth</t>
   </si>
   <si>
-    <t>honnen, onnen</t>
-  </si>
-  <si>
     <t>lludw</t>
   </si>
   <si>
-    <t>cywilydd</t>
-  </si>
-  <si>
-    <t>gofyn, ofyn, gofennwch</t>
-  </si>
-  <si>
     <t>hydref</t>
-  </si>
-  <si>
-    <t>awl, mynawyd</t>
   </si>
   <si>
     <t>bwyell, fwyell</t>
@@ -6791,9 +6734,6 @@
     <t>śarad</t>
   </si>
   <si>
-    <t>ll</t>
-  </si>
-  <si>
     <t>Portuguese</t>
   </si>
   <si>
@@ -6807,6 +6747,42 @@
   </si>
   <si>
     <t>luaithreach</t>
+  </si>
+  <si>
+    <t>gwernen</t>
+  </si>
+  <si>
+    <t>anifail</t>
+  </si>
+  <si>
+    <t>morgrugyn</t>
+  </si>
+  <si>
+    <t>onnen</t>
+  </si>
+  <si>
+    <t>gofyn, ofyn</t>
+  </si>
+  <si>
+    <t>стрела</t>
+  </si>
+  <si>
+    <t>strela</t>
+  </si>
+  <si>
+    <t>стиди се</t>
+  </si>
+  <si>
+    <t>stidi se</t>
+  </si>
+  <si>
+    <t>секира</t>
+  </si>
+  <si>
+    <t>zviera</t>
+  </si>
+  <si>
+    <t>hanbiť sa</t>
   </si>
 </sst>
 </file>
@@ -7664,10 +7640,10 @@
   <dimension ref="A1:BW535"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y17" sqref="Y17"/>
+      <selection pane="bottomRight" activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7675,31 +7651,23 @@
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.5" customWidth="1"/>
-    <col min="12" max="12" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="25" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="24.5" bestFit="1" customWidth="1"/>
@@ -7755,13 +7723,13 @@
         <v>519</v>
       </c>
       <c r="C1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F1" t="s">
         <v>485</v>
@@ -7773,25 +7741,25 @@
         <v>498</v>
       </c>
       <c r="I1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="M1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="N1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="O1" t="s">
-        <v>2237</v>
+        <v>2218</v>
       </c>
       <c r="P1" t="s">
         <v>556</v>
@@ -7800,46 +7768,46 @@
         <v>557</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" t="s">
         <v>715</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>716</v>
       </c>
-      <c r="U1" t="s">
-        <v>717</v>
-      </c>
       <c r="V1" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="X1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="Y1" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
       <c r="Z1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>750</v>
+        <v>735</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>749</v>
       </c>
       <c r="AC1" s="3" t="s">
         <v>580</v>
       </c>
       <c r="AD1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AE1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AF1" t="s">
         <v>532</v>
@@ -7848,127 +7816,127 @@
         <v>533</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AI1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AJ1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AK1" t="s">
-        <v>1127</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>737</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>1168</v>
+        <v>1126</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>1167</v>
       </c>
       <c r="AN1" t="s">
+        <v>738</v>
+      </c>
+      <c r="AO1" t="s">
         <v>739</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>741</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>718</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>725</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>732</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>720</v>
+      </c>
+      <c r="AY1" t="s">
         <v>740</v>
       </c>
-      <c r="AP1" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="AR1" t="s">
+      <c r="AZ1" t="s">
+        <v>2229</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>721</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>876</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>722</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>914</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>723</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>931</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>724</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>962</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>726</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>727</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>728</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="BO1" t="s">
         <v>742</v>
       </c>
-      <c r="AS1" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>719</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>726</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>733</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>721</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>741</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>2249</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>722</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>877</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>723</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>915</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>724</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>932</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>725</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>963</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>727</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>728</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>729</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="BQ1" t="s">
         <v>743</v>
       </c>
-      <c r="BP1" t="s">
-        <v>1254</v>
-      </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>744</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>745</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>746</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="BV1" t="s">
         <v>747</v>
       </c>
-      <c r="BU1" t="s">
-        <v>1367</v>
-      </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>748</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:75" x14ac:dyDescent="0.2">
@@ -8015,7 +7983,7 @@
         <v>487</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>487</v>
@@ -8053,7 +8021,7 @@
       <c r="AA2" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AB2" s="3" t="s">
         <v>487</v>
       </c>
       <c r="AC2" s="3" t="s">
@@ -8083,13 +8051,13 @@
       <c r="AK2" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AL2" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AM2" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AN2" s="3" t="s">
         <v>487</v>
       </c>
       <c r="AO2" s="1" t="s">
@@ -8129,7 +8097,7 @@
         <v>487</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="BC2" s="1" t="s">
         <v>487</v>
@@ -8141,7 +8109,7 @@
         <v>487</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>487</v>
@@ -8194,219 +8162,219 @@
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1293</v>
+        <v>1281</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>2166</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>2220</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>2231</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="AS3" s="3" t="s">
         <v>1308</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1314</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>1315</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>2185</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>1306</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>1307</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>1321</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>1322</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>1342</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>1324</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>1348</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>2239</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>1323</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>1324</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>1326</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>1343</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>1344</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>2251</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>1420</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>1311</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>1312</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>1313</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>1309</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>1310</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>1311</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>1316</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>1346</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>1347</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>1349</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>1311</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>1350</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>1351</v>
-      </c>
-      <c r="AP3" s="3" t="s">
-        <v>1317</v>
-      </c>
-      <c r="AQ3" s="3" t="s">
-        <v>1318</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>1353</v>
-      </c>
-      <c r="AS3" s="3" t="s">
-        <v>1320</v>
       </c>
       <c r="AT3" s="1"/>
       <c r="AU3" s="1" t="s">
-        <v>1336</v>
+        <v>1324</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>1345</v>
+        <v>1333</v>
       </c>
       <c r="AW3" s="3" t="s">
-        <v>1319</v>
+        <v>1307</v>
       </c>
       <c r="AX3" s="1"/>
       <c r="AY3" s="1" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
       <c r="BA3" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="BL3" s="1" t="s">
         <v>1328</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BM3" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="BC3" s="1" t="s">
-        <v>1330</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>1331</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>1332</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>1333</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>1334</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>1335</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>1338</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>1339</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>1341</v>
-      </c>
       <c r="BO3" s="1" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>1356</v>
+        <v>1344</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>1294</v>
+        <v>1282</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>1293</v>
+        <v>1281</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>1369</v>
+        <v>1357</v>
       </c>
       <c r="BU3" s="1" t="s">
-        <v>1370</v>
+        <v>1358</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>1405</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="4" spans="1:75" x14ac:dyDescent="0.2">
@@ -8417,13 +8385,13 @@
         <v>520</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>617</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>618</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>488</v>
@@ -8435,199 +8403,199 @@
         <v>500</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>1158</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>1421</v>
+        <v>1157</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>2234</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>581</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AF4" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AW4" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="BA4" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="AG4" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
-        <v>1128</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>1129</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="AP4" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AS4" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>1113</v>
-      </c>
-      <c r="AW4" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>1229</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>876</v>
-      </c>
       <c r="BB4" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="BD4" s="1" t="s">
         <v>473</v>
       </c>
       <c r="BE4" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="BF4" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="BF4" s="1" t="s">
-        <v>936</v>
-      </c>
       <c r="BG4" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="BH4" s="1" t="s">
         <v>473</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="BK4" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="BL4" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="BM4" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="BM4" s="1" t="s">
-        <v>1060</v>
-      </c>
       <c r="BO4" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="BP4" s="1" t="s">
         <v>473</v>
       </c>
       <c r="BQ4" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>1292</v>
+        <v>1280</v>
       </c>
       <c r="BS4" s="1" t="s">
         <v>473</v>
       </c>
       <c r="BT4" s="1" t="s">
-        <v>1366</v>
+        <v>1354</v>
       </c>
       <c r="BU4" s="1" t="s">
-        <v>1368</v>
+        <v>1356</v>
       </c>
       <c r="BV4" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="BW4" s="1" t="s">
-        <v>1406</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="5" spans="1:75" ht="17" x14ac:dyDescent="0.2">
@@ -8635,19 +8603,19 @@
         <v>474</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2172</v>
+        <v>2153</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>2175</v>
+        <v>2156</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>2181</v>
+        <v>2162</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>502</v>
@@ -8656,25 +8624,25 @@
         <v>503</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>2197</v>
+        <v>2178</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>2199</v>
+        <v>2180</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>2240</v>
+        <v>2221</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>558</v>
@@ -8683,46 +8651,46 @@
         <v>559</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="T5" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="U5" s="3" t="s">
-        <v>767</v>
-      </c>
       <c r="V5" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="W5" s="3" t="s">
-        <v>1096</v>
-      </c>
       <c r="X5" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>1422</v>
+        <v>843</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>1409</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AD5" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="AE5" s="3" t="s">
         <v>595</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>596</v>
       </c>
       <c r="AF5" s="3" t="s">
         <v>534</v>
@@ -8731,124 +8699,124 @@
         <v>535</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AI5" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AJ5" s="3" t="s">
-        <v>2235</v>
+        <v>2216</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>2236</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>1170</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>1171</v>
-      </c>
-      <c r="AN5" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="AO5" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="AO5" s="1" t="s">
+      <c r="AP5" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="AS5" s="3" t="s">
+        <v>2201</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AW5" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="AY5" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="AP5" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="AQ5" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="AR5" s="1" t="s">
+      <c r="BA5" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="BM5" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BP5" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="AS5" s="3" t="s">
-        <v>2220</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>1114</v>
-      </c>
-      <c r="AW5" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>1230</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="BD5" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="BE5" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="BF5" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="BH5" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="BI5" s="1" t="s">
-        <v>994</v>
-      </c>
-      <c r="BJ5" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="BK5" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="BL5" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="BM5" s="1" t="s">
-        <v>1058</v>
-      </c>
-      <c r="BO5" s="1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="BP5" s="1" t="s">
-        <v>1256</v>
-      </c>
       <c r="BQ5" s="1" t="s">
-        <v>1281</v>
+        <v>1269</v>
       </c>
       <c r="BR5" s="1" t="s">
-        <v>1295</v>
+        <v>1283</v>
       </c>
       <c r="BS5" s="1" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
       <c r="BT5" s="1" t="s">
-        <v>1371</v>
+        <v>1359</v>
       </c>
       <c r="BU5" s="1" t="s">
-        <v>1372</v>
+        <v>1360</v>
       </c>
       <c r="BV5" s="1" t="s">
-        <v>1394</v>
+        <v>1382</v>
       </c>
       <c r="BW5" s="1" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="6" spans="1:75" ht="17" x14ac:dyDescent="0.2">
@@ -8859,40 +8827,40 @@
         <v>521</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>621</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="L6" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>1063</v>
-      </c>
       <c r="N6" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
@@ -8902,46 +8870,46 @@
         <v>561</v>
       </c>
       <c r="R6" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="S6" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>752</v>
-      </c>
       <c r="T6" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="V6" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="W6" s="3" t="s">
         <v>1097</v>
       </c>
-      <c r="W6" s="3" t="s">
-        <v>1098</v>
-      </c>
       <c r="X6" s="3" t="s">
-        <v>1191</v>
+        <v>1182</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>2252</v>
+        <v>2232</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>1159</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>1423</v>
+        <v>1158</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>2235</v>
       </c>
       <c r="AC6" s="3" t="s">
         <v>582</v>
       </c>
       <c r="AD6" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="AE6" s="3" t="s">
         <v>597</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>598</v>
       </c>
       <c r="AF6" s="3" t="s">
         <v>536</v>
@@ -8953,40 +8921,40 @@
         <v>582</v>
       </c>
       <c r="AI6" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AJ6" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AK6" s="3" t="s">
         <v>1130</v>
       </c>
-      <c r="AK6" s="3" t="s">
-        <v>1131</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>1172</v>
-      </c>
-      <c r="AM6" s="1" t="s">
+      <c r="AL6" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AM6" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="AN6" s="1" t="s">
+      <c r="AN6" s="3" t="s">
+        <v>2244</v>
+      </c>
+      <c r="AO6" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="AO6" s="1" t="s">
-        <v>1219</v>
-      </c>
       <c r="AP6" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AQ6" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>1245</v>
+        <v>1233</v>
       </c>
       <c r="AS6" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="AU6" s="1" t="s">
         <v>475</v>
@@ -8995,79 +8963,79 @@
         <v>475</v>
       </c>
       <c r="AW6" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AY6" s="1" t="s">
         <v>475</v>
       </c>
       <c r="BA6" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="BB6" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="BB6" s="1" t="s">
-        <v>882</v>
-      </c>
       <c r="BC6" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="BD6" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="BD6" s="1" t="s">
-        <v>912</v>
-      </c>
       <c r="BE6" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="BF6" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="BF6" s="1" t="s">
-        <v>940</v>
-      </c>
       <c r="BG6" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="BH6" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="BH6" s="1" t="s">
-        <v>967</v>
-      </c>
       <c r="BI6" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="BJ6" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="BK6" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="BL6" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="BM6" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="BM6" s="1" t="s">
-        <v>1056</v>
-      </c>
       <c r="BO6" s="1" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
       <c r="BP6" s="1" t="s">
-        <v>1258</v>
+        <v>1246</v>
       </c>
       <c r="BQ6" s="1" t="s">
-        <v>1282</v>
+        <v>1270</v>
       </c>
       <c r="BR6" s="1" t="s">
-        <v>1296</v>
+        <v>1284</v>
       </c>
       <c r="BS6" s="1" t="s">
-        <v>1358</v>
+        <v>1346</v>
       </c>
       <c r="BT6" s="1" t="s">
-        <v>1373</v>
+        <v>1361</v>
       </c>
       <c r="BU6" s="1" t="s">
-        <v>1374</v>
+        <v>1362</v>
       </c>
       <c r="BV6" s="1" t="s">
-        <v>1395</v>
+        <v>1383</v>
       </c>
       <c r="BW6" s="1" t="s">
-        <v>1408</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="7" spans="1:75" x14ac:dyDescent="0.2">
@@ -9078,43 +9046,43 @@
         <v>522</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>2176</v>
+        <v>2157</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>2182</v>
+        <v>2163</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>491</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>2189</v>
+        <v>2170</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>2190</v>
+        <v>2171</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>2198</v>
+        <v>2179</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>2200</v>
+        <v>2181</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>2241</v>
+        <v>2222</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>562</v>
@@ -9123,172 +9091,172 @@
         <v>563</v>
       </c>
       <c r="R7" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="S7" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="S7" s="3" t="s">
-        <v>754</v>
-      </c>
       <c r="T7" s="3" t="s">
-        <v>2231</v>
+        <v>2212</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>2232</v>
+        <v>2213</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>1193</v>
+        <v>1184</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>1160</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>1424</v>
+        <v>1159</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>1410</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AD7" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="AE7" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="AE7" s="3" t="s">
-        <v>600</v>
-      </c>
       <c r="AF7" s="3" t="s">
-        <v>2211</v>
+        <v>2192</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>2212</v>
+        <v>2193</v>
       </c>
       <c r="AH7" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AI7" s="3" t="s">
-        <v>2214</v>
+        <v>2195</v>
       </c>
       <c r="AJ7" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AK7" s="3" t="s">
         <v>1132</v>
       </c>
-      <c r="AK7" s="3" t="s">
-        <v>1133</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="AN7" s="1" t="s">
+      <c r="AL7" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AM7" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="AN7" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="AO7" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="AO7" s="1" t="s">
-        <v>1220</v>
-      </c>
       <c r="AP7" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AQ7" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="AS7" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="AR7" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="AS7" s="3" t="s">
-        <v>816</v>
-      </c>
       <c r="AT7" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AW7" s="3" t="s">
-        <v>2217</v>
+        <v>2198</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>1231</v>
+        <v>1219</v>
       </c>
       <c r="BA7" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="BB7" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="BB7" s="1" t="s">
-        <v>885</v>
-      </c>
       <c r="BC7" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="BD7" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="BD7" s="1" t="s">
-        <v>914</v>
-      </c>
       <c r="BE7" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="BF7" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="BF7" s="1" t="s">
-        <v>942</v>
-      </c>
       <c r="BG7" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="BH7" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="BH7" s="1" t="s">
-        <v>969</v>
-      </c>
       <c r="BI7" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="BJ7" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="BK7" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="BK7" s="1" t="s">
-        <v>1015</v>
-      </c>
       <c r="BL7" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="BM7" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="BM7" s="1" t="s">
-        <v>1054</v>
-      </c>
       <c r="BO7" s="1" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="BP7" s="1" t="s">
-        <v>1260</v>
+        <v>1248</v>
       </c>
       <c r="BQ7" s="1" t="s">
-        <v>1283</v>
+        <v>1271</v>
       </c>
       <c r="BR7" s="1" t="s">
-        <v>1297</v>
+        <v>1285</v>
       </c>
       <c r="BS7" s="1" t="s">
-        <v>1359</v>
+        <v>1347</v>
       </c>
       <c r="BT7" s="1" t="s">
-        <v>1375</v>
+        <v>1363</v>
       </c>
       <c r="BU7" s="1" t="s">
-        <v>1376</v>
+        <v>1364</v>
       </c>
       <c r="BV7" s="1" t="s">
-        <v>1396</v>
+        <v>1384</v>
       </c>
       <c r="BW7" s="1" t="s">
-        <v>1409</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="8" spans="1:75" ht="17" x14ac:dyDescent="0.2">
@@ -9299,13 +9267,13 @@
         <v>523</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>622</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>623</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>540</v>
@@ -9317,25 +9285,25 @@
         <v>505</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>819</v>
-      </c>
       <c r="K8" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="L8" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>1065</v>
-      </c>
       <c r="N8" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>564</v>
@@ -9344,46 +9312,46 @@
         <v>565</v>
       </c>
       <c r="R8" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="S8" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>756</v>
-      </c>
       <c r="T8" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="U8" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>769</v>
-      </c>
       <c r="V8" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="W8" s="3" t="s">
         <v>1100</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>1101</v>
-      </c>
       <c r="X8" s="3" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>1161</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>1425</v>
+        <v>1160</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>2236</v>
       </c>
       <c r="AC8" s="3" t="s">
         <v>583</v>
       </c>
       <c r="AD8" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="AE8" s="3" t="s">
         <v>601</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>602</v>
       </c>
       <c r="AF8" s="3" t="s">
         <v>538</v>
@@ -9392,124 +9360,124 @@
         <v>539</v>
       </c>
       <c r="AH8" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AI8" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AJ8" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AK8" s="3" t="s">
         <v>1134</v>
       </c>
-      <c r="AK8" s="3" t="s">
-        <v>1135</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="AM8" s="1" t="s">
+      <c r="AL8" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AM8" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="AN8" s="1" t="s">
+      <c r="AN8" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="AO8" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="AO8" s="1" t="s">
-        <v>1221</v>
-      </c>
       <c r="AP8" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AQ8" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="AS8" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AU8" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="AW8" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AY8" s="1" t="s">
-        <v>1232</v>
+        <v>1220</v>
       </c>
       <c r="BA8" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="BB8" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="BB8" s="1" t="s">
-        <v>887</v>
-      </c>
       <c r="BC8" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="BD8" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="BD8" s="1" t="s">
-        <v>917</v>
-      </c>
       <c r="BE8" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="BF8" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="BF8" s="1" t="s">
-        <v>944</v>
-      </c>
       <c r="BG8" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="BH8" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="BH8" s="1" t="s">
-        <v>971</v>
-      </c>
       <c r="BI8" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="BJ8" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="BK8" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="BK8" s="1" t="s">
-        <v>1017</v>
-      </c>
       <c r="BL8" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="BM8" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="BM8" s="1" t="s">
-        <v>1052</v>
-      </c>
       <c r="BO8" s="2" t="s">
-        <v>1261</v>
+        <v>1249</v>
       </c>
       <c r="BP8" s="1" t="s">
-        <v>1262</v>
+        <v>1250</v>
       </c>
       <c r="BQ8" s="1" t="s">
-        <v>1284</v>
+        <v>1272</v>
       </c>
       <c r="BR8" s="1" t="s">
-        <v>1298</v>
+        <v>1286</v>
       </c>
       <c r="BS8" s="1" t="s">
-        <v>1360</v>
+        <v>1348</v>
       </c>
       <c r="BT8" s="1" t="s">
-        <v>1377</v>
+        <v>1365</v>
       </c>
       <c r="BU8" s="1" t="s">
-        <v>1378</v>
+        <v>1366</v>
       </c>
       <c r="BV8" s="1" t="s">
-        <v>1397</v>
+        <v>1385</v>
       </c>
       <c r="BW8" s="1" t="s">
-        <v>1410</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="9" spans="1:75" ht="17" x14ac:dyDescent="0.2">
@@ -9520,16 +9488,16 @@
         <v>524</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>805</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>506</v>
@@ -9538,25 +9506,25 @@
         <v>507</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="L9" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>1067</v>
-      </c>
       <c r="N9" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>2242</v>
+        <v>2223</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>566</v>
@@ -9565,46 +9533,46 @@
         <v>567</v>
       </c>
       <c r="R9" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="S9" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>758</v>
-      </c>
       <c r="T9" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="U9" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>771</v>
-      </c>
       <c r="V9" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="W9" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>1103</v>
-      </c>
       <c r="X9" s="3" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>1162</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>1426</v>
+        <v>1161</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>1411</v>
       </c>
       <c r="AC9" s="3" t="s">
         <v>584</v>
       </c>
       <c r="AD9" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="AE9" s="3" t="s">
         <v>603</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>604</v>
       </c>
       <c r="AF9" s="3" t="s">
         <v>541</v>
@@ -9616,121 +9584,121 @@
         <v>584</v>
       </c>
       <c r="AI9" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AJ9" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AK9" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="AK9" s="3" t="s">
-        <v>1137</v>
-      </c>
-      <c r="AL9" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="AM9" s="1" t="s">
+      <c r="AL9" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AM9" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="AN9" s="1" t="s">
-        <v>640</v>
+      <c r="AN9" s="3" t="s">
+        <v>639</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>1222</v>
+        <v>1210</v>
       </c>
       <c r="AP9" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AQ9" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>1247</v>
+        <v>1235</v>
       </c>
       <c r="AS9" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AV9" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AW9" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AY9" s="1" t="s">
-        <v>1233</v>
+        <v>1221</v>
       </c>
       <c r="BA9" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="BB9" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="BB9" s="1" t="s">
-        <v>889</v>
-      </c>
       <c r="BC9" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="BD9" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="BE9" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="BF9" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="BF9" s="1" t="s">
-        <v>946</v>
-      </c>
       <c r="BG9" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="BH9" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="BI9" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="BJ9" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="BK9" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="BK9" s="1" t="s">
-        <v>1019</v>
-      </c>
       <c r="BL9" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="BM9" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="BM9" s="1" t="s">
-        <v>1050</v>
-      </c>
       <c r="BO9" s="1" t="s">
-        <v>1263</v>
+        <v>1251</v>
       </c>
       <c r="BP9" s="1" t="s">
-        <v>1264</v>
+        <v>1252</v>
       </c>
       <c r="BQ9" s="1" t="s">
-        <v>1285</v>
+        <v>1273</v>
       </c>
       <c r="BR9" s="1" t="s">
-        <v>1299</v>
+        <v>1287</v>
       </c>
       <c r="BS9" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="BT9" s="1" t="s">
-        <v>1379</v>
+        <v>1367</v>
       </c>
       <c r="BU9" s="1" t="s">
-        <v>1380</v>
+        <v>1368</v>
       </c>
       <c r="BV9" s="1" t="s">
-        <v>1398</v>
+        <v>1386</v>
       </c>
       <c r="BW9" s="1" t="s">
-        <v>1411</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="10" spans="1:75" x14ac:dyDescent="0.2">
@@ -9738,19 +9706,19 @@
         <v>479</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>2173</v>
+        <v>2154</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>625</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>2186</v>
+        <v>2167</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>508</v>
@@ -9759,25 +9727,25 @@
         <v>479</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>2201</v>
+        <v>2182</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>2202</v>
+        <v>2183</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>2244</v>
+        <v>2225</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>568</v>
@@ -9786,76 +9754,76 @@
         <v>569</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>2229</v>
+        <v>2210</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>2230</v>
+        <v>2211</v>
       </c>
       <c r="V10" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="W10" s="3" t="s">
         <v>1104</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>1105</v>
-      </c>
       <c r="X10" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>1163</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>1427</v>
+        <v>1162</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>1412</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AD10" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AG10" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AH10" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AI10" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AJ10" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AK10" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="AL10" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="AM10" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="AN10" s="1" t="s">
-        <v>1210</v>
+        <v>874</v>
+      </c>
+      <c r="AL10" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="AM10" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="AN10" s="3" t="s">
+        <v>874</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="AP10" s="3" t="s">
         <v>479</v>
@@ -9864,82 +9832,82 @@
         <v>479</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
       <c r="AS10" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AV10" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="AW10" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AY10" s="1" t="s">
-        <v>1234</v>
+        <v>1222</v>
       </c>
       <c r="BA10" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="BB10" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="BB10" s="1" t="s">
-        <v>891</v>
-      </c>
       <c r="BC10" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="BD10" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="BD10" s="1" t="s">
-        <v>920</v>
-      </c>
       <c r="BE10" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="BF10" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="BF10" s="1" t="s">
-        <v>948</v>
-      </c>
       <c r="BG10" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="BH10" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="BH10" s="1" t="s">
-        <v>973</v>
-      </c>
       <c r="BI10" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="BJ10" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="BK10" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="BK10" s="1" t="s">
-        <v>1021</v>
-      </c>
       <c r="BL10" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="BM10" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="BM10" s="1" t="s">
-        <v>1048</v>
-      </c>
       <c r="BO10" s="1" t="s">
-        <v>1265</v>
+        <v>1253</v>
       </c>
       <c r="BP10" s="1" t="s">
-        <v>1266</v>
+        <v>1254</v>
       </c>
       <c r="BQ10" s="1" t="s">
-        <v>1286</v>
+        <v>1274</v>
       </c>
       <c r="BR10" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="BS10" s="1" t="s">
-        <v>1361</v>
+        <v>1349</v>
       </c>
       <c r="BT10" s="1" t="s">
         <v>543</v>
@@ -9948,10 +9916,10 @@
         <v>544</v>
       </c>
       <c r="BV10" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="BW10" s="1" t="s">
-        <v>1412</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="11" spans="1:75" ht="17" x14ac:dyDescent="0.2">
@@ -9962,13 +9930,13 @@
         <v>525</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>806</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>807</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>493</v>
@@ -9980,25 +9948,25 @@
         <v>510</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="L11" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>1069</v>
-      </c>
       <c r="N11" s="3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>2243</v>
+        <v>2224</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>570</v>
@@ -10007,172 +9975,172 @@
         <v>571</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>571</v>
       </c>
       <c r="T11" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="U11" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="U11" s="3" t="s">
-        <v>773</v>
-      </c>
       <c r="V11" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="W11" s="3" t="s">
         <v>571</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
       <c r="Y11" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>2186</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="AH11" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="AI11" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="AJ11" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AK11" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AL11" s="4" t="s">
+        <v>2239</v>
+      </c>
+      <c r="AM11" s="3" t="s">
+        <v>2240</v>
+      </c>
+      <c r="AN11" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="Z11" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>1428</v>
-      </c>
-      <c r="AC11" s="3" t="s">
-        <v>2205</v>
-      </c>
-      <c r="AD11" s="3" t="s">
-        <v>1138</v>
-      </c>
-      <c r="AE11" s="3" t="s">
-        <v>1139</v>
-      </c>
-      <c r="AF11" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="AG11" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="AH11" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="AI11" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="AJ11" s="3" t="s">
-        <v>1138</v>
-      </c>
-      <c r="AK11" s="3" t="s">
-        <v>1139</v>
-      </c>
-      <c r="AL11" s="2" t="s">
-        <v>1177</v>
-      </c>
-      <c r="AM11" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="AN11" s="1" t="s">
+      <c r="AO11" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="AO11" s="1" t="s">
-        <v>1223</v>
-      </c>
       <c r="AP11" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AQ11" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AS11" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="AV11" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AW11" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AX11" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AY11" s="1" t="s">
-        <v>1236</v>
+        <v>1224</v>
       </c>
       <c r="BA11" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="BB11" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="BB11" s="1" t="s">
-        <v>893</v>
-      </c>
       <c r="BC11" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="BD11" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="BD11" s="1" t="s">
-        <v>922</v>
-      </c>
       <c r="BE11" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="BF11" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="BF11" s="1" t="s">
-        <v>950</v>
-      </c>
       <c r="BG11" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="BH11" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="BH11" s="1" t="s">
-        <v>922</v>
-      </c>
       <c r="BI11" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="BJ11" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="BK11" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="BK11" s="1" t="s">
-        <v>1023</v>
-      </c>
       <c r="BL11" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="BM11" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="BM11" s="1" t="s">
-        <v>1046</v>
-      </c>
       <c r="BO11" s="1" t="s">
-        <v>1267</v>
+        <v>1255</v>
       </c>
       <c r="BP11" s="1" t="s">
-        <v>1268</v>
+        <v>1256</v>
       </c>
       <c r="BQ11" s="1" t="s">
-        <v>1287</v>
+        <v>1275</v>
       </c>
       <c r="BR11" s="1" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
       <c r="BS11" s="1" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
       <c r="BT11" s="1" t="s">
-        <v>1381</v>
+        <v>1369</v>
       </c>
       <c r="BU11" s="1" t="s">
-        <v>1382</v>
+        <v>1370</v>
       </c>
       <c r="BV11" s="1" t="s">
-        <v>1399</v>
+        <v>1387</v>
       </c>
       <c r="BW11" s="1" t="s">
-        <v>1413</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="12" spans="1:75" x14ac:dyDescent="0.2">
@@ -10183,91 +10151,91 @@
         <v>526</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>2177</v>
+        <v>2158</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>2178</v>
+        <v>2159</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>1164</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>1429</v>
+        <v>1163</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>2237</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AD12" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="AE12" s="3" t="s">
         <v>606</v>
-      </c>
-      <c r="AE12" s="3" t="s">
-        <v>607</v>
       </c>
       <c r="AF12" s="3" t="s">
         <v>545</v>
@@ -10276,124 +10244,124 @@
         <v>546</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AJ12" s="3" t="s">
         <v>545</v>
       </c>
       <c r="AK12" s="3" t="s">
-        <v>1140</v>
-      </c>
-      <c r="AL12" s="1" t="s">
-        <v>1179</v>
-      </c>
-      <c r="AM12" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="AN12" s="1" t="s">
-        <v>1212</v>
+        <v>1139</v>
+      </c>
+      <c r="AL12" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AM12" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="AN12" s="3" t="s">
+        <v>1201</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AP12" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AQ12" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>1249</v>
+        <v>1237</v>
       </c>
       <c r="AS12" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AU12" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="AV12" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AW12" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AY12" s="1" t="s">
-        <v>1235</v>
+        <v>1223</v>
       </c>
       <c r="BA12" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="BB12" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="BC12" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="BD12" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="BE12" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="BF12" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="BF12" s="1" t="s">
-        <v>952</v>
-      </c>
       <c r="BG12" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="BH12" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="BI12" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="BJ12" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="BK12" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="BM12" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="BO12" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="BP12" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="BQ12" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="BR12" s="1" t="s">
-        <v>1301</v>
+        <v>1289</v>
       </c>
       <c r="BS12" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="BT12" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="BU12" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="BU12" s="1" t="s">
-        <v>607</v>
-      </c>
       <c r="BV12" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="BW12" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="13" spans="1:75" ht="17" x14ac:dyDescent="0.2">
@@ -10404,16 +10372,16 @@
         <v>527</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>809</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>2187</v>
+        <v>2168</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>511</v>
@@ -10422,25 +10390,25 @@
         <v>512</v>
       </c>
       <c r="I13" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>821</v>
-      </c>
       <c r="K13" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="L13" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>1071</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>1072</v>
-      </c>
       <c r="N13" s="3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>2245</v>
+        <v>2226</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>574</v>
@@ -10449,172 +10417,172 @@
         <v>575</v>
       </c>
       <c r="R13" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="S13" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="S13" s="3" t="s">
-        <v>761</v>
-      </c>
       <c r="T13" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="U13" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="U13" s="3" t="s">
-        <v>775</v>
-      </c>
       <c r="V13" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="W13" s="3" t="s">
         <v>1107</v>
       </c>
-      <c r="W13" s="3" t="s">
-        <v>1108</v>
-      </c>
       <c r="X13" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>2253</v>
+        <v>2233</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>1165</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>1430</v>
+        <v>1164</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>1414</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AD13" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="AE13" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="AE13" s="3" t="s">
-        <v>609</v>
-      </c>
       <c r="AF13" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AH13" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AI13" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AJ13" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AK13" s="3" t="s">
         <v>1141</v>
       </c>
-      <c r="AK13" s="3" t="s">
-        <v>1142</v>
-      </c>
-      <c r="AL13" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="AM13" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="AN13" s="1" t="s">
-        <v>1214</v>
+      <c r="AL13" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AM13" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="AN13" s="3" t="s">
+        <v>1202</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AP13" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AQ13" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AS13" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="AV13" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="AW13" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AY13" s="1" t="s">
-        <v>1238</v>
+        <v>1226</v>
       </c>
       <c r="BA13" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="BB13" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="BB13" s="1" t="s">
-        <v>897</v>
-      </c>
       <c r="BC13" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="BD13" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="BD13" s="1" t="s">
-        <v>926</v>
-      </c>
       <c r="BE13" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="BF13" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="BF13" s="1" t="s">
-        <v>956</v>
-      </c>
       <c r="BG13" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="BH13" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="BH13" s="1" t="s">
-        <v>926</v>
-      </c>
       <c r="BI13" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="BJ13" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="BK13" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="BK13" s="1" t="s">
-        <v>1027</v>
-      </c>
       <c r="BL13" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="BM13" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="BM13" s="1" t="s">
-        <v>1042</v>
-      </c>
       <c r="BO13" s="1" t="s">
-        <v>1271</v>
+        <v>1259</v>
       </c>
       <c r="BP13" s="1" t="s">
-        <v>1272</v>
+        <v>1260</v>
       </c>
       <c r="BQ13" s="1" t="s">
-        <v>1289</v>
+        <v>1277</v>
       </c>
       <c r="BR13" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="BS13" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="BT13" s="1" t="s">
-        <v>1383</v>
+        <v>1371</v>
       </c>
       <c r="BU13" s="1" t="s">
-        <v>1384</v>
+        <v>1372</v>
       </c>
       <c r="BV13" s="1" t="s">
-        <v>1400</v>
+        <v>1388</v>
       </c>
       <c r="BW13" s="1" t="s">
-        <v>1414</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="14" spans="1:75" ht="34" x14ac:dyDescent="0.2">
@@ -10622,46 +10590,46 @@
         <v>481</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>2174</v>
+        <v>2155</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>492</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>2191</v>
+        <v>2172</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>2192</v>
+        <v>2173</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>573</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>572</v>
@@ -10670,172 +10638,172 @@
         <v>573</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>2226</v>
+        <v>2207</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>2227</v>
+        <v>2208</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>1431</v>
+        <v>874</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>874</v>
       </c>
       <c r="AC14" s="3" t="s">
-        <v>2206</v>
+        <v>2187</v>
       </c>
       <c r="AD14" s="3" t="s">
-        <v>2207</v>
+        <v>2188</v>
       </c>
       <c r="AE14" s="3" t="s">
-        <v>2208</v>
+        <v>2189</v>
       </c>
       <c r="AF14" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AG14" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AH14" s="3" t="s">
-        <v>2213</v>
+        <v>2194</v>
       </c>
       <c r="AI14" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AJ14" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="AK14" s="3" t="s">
         <v>1143</v>
       </c>
-      <c r="AK14" s="3" t="s">
-        <v>1144</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>1180</v>
-      </c>
-      <c r="AM14" s="1" t="s">
-        <v>1181</v>
-      </c>
-      <c r="AN14" s="1" t="s">
+      <c r="AL14" s="3" t="s">
+        <v>2241</v>
+      </c>
+      <c r="AM14" s="3" t="s">
+        <v>2242</v>
+      </c>
+      <c r="AN14" s="3" t="s">
+        <v>2245</v>
+      </c>
+      <c r="AO14" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="AO14" s="1" t="s">
+      <c r="AP14" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="AQ14" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="AR14" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="AS14" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="AT14" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="AU14" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="AV14" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AW14" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="AX14" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="AY14" s="1" t="s">
         <v>1225</v>
       </c>
-      <c r="AP14" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="AQ14" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="AR14" s="1" t="s">
-        <v>1250</v>
-      </c>
-      <c r="AS14" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="AT14" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="AU14" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="AV14" s="1" t="s">
-        <v>1121</v>
-      </c>
-      <c r="AW14" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="AX14" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="AY14" s="1" t="s">
-        <v>1237</v>
-      </c>
       <c r="BA14" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="BB14" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="BB14" s="1" t="s">
-        <v>895</v>
-      </c>
       <c r="BC14" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="BD14" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="BD14" s="1" t="s">
-        <v>924</v>
-      </c>
       <c r="BE14" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="BF14" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="BF14" s="1" t="s">
-        <v>954</v>
-      </c>
       <c r="BG14" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="BH14" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="BH14" s="1" t="s">
-        <v>975</v>
-      </c>
       <c r="BI14" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="BJ14" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="BK14" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="BK14" s="1" t="s">
-        <v>1025</v>
-      </c>
       <c r="BL14" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="BM14" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="BM14" s="1" t="s">
-        <v>1044</v>
-      </c>
       <c r="BO14" s="1" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="BP14" s="1" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="BQ14" s="1" t="s">
-        <v>1288</v>
+        <v>1276</v>
       </c>
       <c r="BR14" s="1" t="s">
-        <v>1302</v>
+        <v>1290</v>
       </c>
       <c r="BS14" s="1" t="s">
-        <v>1362</v>
+        <v>1350</v>
       </c>
       <c r="BT14" s="2" t="s">
-        <v>1385</v>
+        <v>1373</v>
       </c>
       <c r="BU14" s="1" t="s">
-        <v>1386</v>
+        <v>1374</v>
       </c>
       <c r="BV14" s="1" t="s">
-        <v>1401</v>
+        <v>1389</v>
       </c>
       <c r="BW14" s="1" t="s">
-        <v>1415</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="15" spans="1:75" ht="34" x14ac:dyDescent="0.2">
@@ -10846,16 +10814,16 @@
         <v>528</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>2250</v>
+        <v>2230</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>2179</v>
+        <v>2160</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>2180</v>
+        <v>2161</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>2188</v>
+        <v>2169</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>513</v>
@@ -10864,246 +10832,246 @@
         <v>514</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>2195</v>
+        <v>2176</v>
       </c>
       <c r="J15" s="3" t="s">
+        <v>2177</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>2227</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>2184</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>2185</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>2214</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>2238</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>2190</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>2191</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="AG15" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="AH15" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="AI15" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="AJ15" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AK15" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AL15" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="AM15" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="AN15" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="AP15" s="3" t="s">
         <v>2196</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>1089</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>1073</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>1074</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>1156</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>2246</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>2203</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>2204</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>2233</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>2234</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="AA15" s="3" t="s">
-        <v>1166</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>1432</v>
-      </c>
-      <c r="AC15" s="3" t="s">
-        <v>1184</v>
-      </c>
-      <c r="AD15" s="3" t="s">
-        <v>2209</v>
-      </c>
-      <c r="AE15" s="3" t="s">
-        <v>2210</v>
-      </c>
-      <c r="AF15" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="AG15" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="AH15" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="AI15" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="AJ15" s="3" t="s">
-        <v>1145</v>
-      </c>
-      <c r="AK15" s="3" t="s">
-        <v>1146</v>
-      </c>
-      <c r="AL15" s="1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="AM15" s="1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="AN15" s="2" t="s">
-        <v>1215</v>
-      </c>
-      <c r="AO15" s="1" t="s">
-        <v>1226</v>
-      </c>
-      <c r="AP15" s="3" t="s">
-        <v>2215</v>
-      </c>
       <c r="AQ15" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>1251</v>
+        <v>1239</v>
       </c>
       <c r="AS15" s="3" t="s">
-        <v>2221</v>
+        <v>2202</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AU15" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AV15" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AW15" s="3" t="s">
-        <v>2218</v>
+        <v>2199</v>
       </c>
       <c r="AX15" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AY15" s="1" t="s">
-        <v>1239</v>
+        <v>1227</v>
       </c>
       <c r="BA15" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="BB15" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="BB15" s="1" t="s">
-        <v>899</v>
-      </c>
       <c r="BC15" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="BD15" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="BD15" s="1" t="s">
-        <v>928</v>
-      </c>
       <c r="BE15" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="BF15" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="BF15" s="1" t="s">
-        <v>958</v>
-      </c>
       <c r="BG15" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="BH15" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="BH15" s="1" t="s">
-        <v>977</v>
-      </c>
       <c r="BI15" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="BJ15" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="BK15" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="BK15" s="1" t="s">
-        <v>1029</v>
-      </c>
       <c r="BL15" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="BM15" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="BM15" s="1" t="s">
-        <v>1040</v>
-      </c>
       <c r="BO15" s="1" t="s">
-        <v>1273</v>
+        <v>1261</v>
       </c>
       <c r="BP15" s="1" t="s">
-        <v>1274</v>
+        <v>1262</v>
       </c>
       <c r="BQ15" s="1" t="s">
-        <v>1290</v>
+        <v>1278</v>
       </c>
       <c r="BR15" s="1" t="s">
-        <v>1303</v>
+        <v>1291</v>
       </c>
       <c r="BS15" s="1" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
       <c r="BT15" s="1" t="s">
-        <v>1387</v>
+        <v>1375</v>
       </c>
       <c r="BU15" s="1" t="s">
-        <v>1388</v>
+        <v>1376</v>
       </c>
       <c r="BV15" s="1" t="s">
-        <v>1402</v>
+        <v>1390</v>
       </c>
       <c r="BW15" s="1" t="s">
-        <v>1416</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="16" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>530</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>628</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>629</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>497</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>2193</v>
+        <v>2174</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>2194</v>
+        <v>2175</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="L16" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>1076</v>
-      </c>
       <c r="N16" s="3" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>2247</v>
+        <v>2228</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>576</v>
@@ -11112,46 +11080,46 @@
         <v>577</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>2222</v>
+        <v>2203</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>2223</v>
+        <v>2204</v>
       </c>
       <c r="T16" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="U16" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="U16" s="3" t="s">
-        <v>779</v>
-      </c>
       <c r="V16" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="W16" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="W16" s="3" t="s">
-        <v>1110</v>
-      </c>
       <c r="X16" s="3" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>1167</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>1433</v>
+        <v>1166</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>1415</v>
       </c>
       <c r="AC16" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AD16" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="AE16" s="3" t="s">
         <v>610</v>
-      </c>
-      <c r="AE16" s="3" t="s">
-        <v>611</v>
       </c>
       <c r="AF16" s="3" t="s">
         <v>548</v>
@@ -11160,345 +11128,345 @@
         <v>549</v>
       </c>
       <c r="AH16" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AI16" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AJ16" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AK16" s="3" t="s">
         <v>1147</v>
       </c>
-      <c r="AK16" s="3" t="s">
-        <v>1148</v>
-      </c>
-      <c r="AL16" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="AM16" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="AN16" s="1" t="s">
-        <v>1216</v>
+      <c r="AL16" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="AM16" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="AN16" s="3" t="s">
+        <v>1204</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>1227</v>
+        <v>1215</v>
       </c>
       <c r="AP16" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AQ16" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>1252</v>
+        <v>1240</v>
       </c>
       <c r="AS16" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AU16" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AV16" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="AW16" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AX16" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AY16" s="1" t="s">
-        <v>1240</v>
+        <v>1228</v>
       </c>
       <c r="BA16" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="BB16" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="BB16" s="1" t="s">
-        <v>901</v>
-      </c>
       <c r="BC16" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="BD16" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="BD16" s="1" t="s">
-        <v>930</v>
-      </c>
       <c r="BE16" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="BF16" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="BF16" s="1" t="s">
-        <v>960</v>
-      </c>
       <c r="BG16" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="BH16" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="BH16" s="1" t="s">
-        <v>930</v>
-      </c>
       <c r="BI16" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="BJ16" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="BK16" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="BK16" s="1" t="s">
-        <v>1031</v>
-      </c>
       <c r="BL16" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="BM16" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="BM16" s="1" t="s">
-        <v>1038</v>
-      </c>
       <c r="BO16" s="1" t="s">
-        <v>1275</v>
+        <v>1263</v>
       </c>
       <c r="BP16" s="1" t="s">
-        <v>1276</v>
+        <v>1264</v>
       </c>
       <c r="BQ16" s="1" t="s">
-        <v>1291</v>
+        <v>1279</v>
       </c>
       <c r="BR16" s="1" t="s">
-        <v>1304</v>
+        <v>1292</v>
       </c>
       <c r="BS16" s="1" t="s">
-        <v>1364</v>
+        <v>1352</v>
       </c>
       <c r="BT16" s="1" t="s">
-        <v>1389</v>
+        <v>1377</v>
       </c>
       <c r="BU16" s="1" t="s">
-        <v>1390</v>
+        <v>1378</v>
       </c>
       <c r="BV16" s="1" t="s">
-        <v>1403</v>
+        <v>1391</v>
       </c>
       <c r="BW16" s="1" t="s">
-        <v>1417</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="17" spans="1:75" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>858</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>2164</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>2165</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>2206</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="AC17" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="AE17" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="AF17" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="AG17" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="AH17" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="AI17" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="AJ17" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="AK17" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="AL17" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="AM17" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="AN17" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="AP17" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="AQ17" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="AS17" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="AT17" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="AU17" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="AV17" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AW17" s="3" t="s">
+        <v>2200</v>
+      </c>
+      <c r="AX17" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>862</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>2183</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>2184</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>2225</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="AA17" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>1434</v>
-      </c>
-      <c r="AC17" s="4" t="s">
+      <c r="AY17" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="BA17" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="BB17" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="BC17" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="BD17" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="BE17" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="BF17" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="BG17" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="BH17" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="BI17" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="BJ17" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="BK17" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="BL17" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="BM17" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="BO17" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="BP17" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="BQ17" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="BR17" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="BS17" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="BT17" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="AD17" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="AE17" s="3" t="s">
-        <v>871</v>
-      </c>
-      <c r="AF17" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="AG17" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="AH17" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="AI17" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="AJ17" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="AK17" s="3" t="s">
-        <v>871</v>
-      </c>
-      <c r="AL17" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="AM17" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="AN17" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="AO17" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="AP17" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="AQ17" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="AR17" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="AS17" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="AT17" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="AU17" s="1" t="s">
-        <v>991</v>
-      </c>
-      <c r="AV17" s="1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="AW17" s="3" t="s">
-        <v>2219</v>
-      </c>
-      <c r="AX17" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="AY17" s="1" t="s">
-        <v>1241</v>
-      </c>
-      <c r="BA17" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="BB17" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="BC17" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="BD17" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="BE17" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="BF17" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="BG17" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="BH17" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="BI17" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="BJ17" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="BK17" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="BL17" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="BM17" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="BO17" s="1" t="s">
-        <v>1277</v>
-      </c>
-      <c r="BP17" s="1" t="s">
-        <v>1278</v>
-      </c>
-      <c r="BQ17" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="BR17" s="1" t="s">
-        <v>1305</v>
-      </c>
-      <c r="BS17" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="BT17" s="1" t="s">
-        <v>870</v>
-      </c>
       <c r="BU17" s="1" t="s">
-        <v>1391</v>
+        <v>1379</v>
       </c>
       <c r="BV17" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="BW17" s="2" t="s">
-        <v>1418</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="18" spans="1:75" x14ac:dyDescent="0.2">
@@ -11509,16 +11477,16 @@
         <v>531</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>794</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>795</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>517</v>
@@ -11527,25 +11495,25 @@
         <v>518</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="L18" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>1078</v>
-      </c>
       <c r="N18" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>578</v>
@@ -11554,46 +11522,46 @@
         <v>579</v>
       </c>
       <c r="R18" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="S18" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>765</v>
-      </c>
       <c r="T18" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="U18" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>781</v>
-      </c>
       <c r="V18" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="W18" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>1112</v>
-      </c>
       <c r="X18" s="3" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>1435</v>
+        <v>836</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>1416</v>
       </c>
       <c r="AC18" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AD18" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="AE18" s="3" t="s">
         <v>612</v>
-      </c>
-      <c r="AE18" s="3" t="s">
-        <v>613</v>
       </c>
       <c r="AF18" s="3" t="s">
         <v>550</v>
@@ -11602,124 +11570,124 @@
         <v>551</v>
       </c>
       <c r="AH18" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AI18" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AJ18" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="AK18" s="3" t="s">
-        <v>1126</v>
-      </c>
-      <c r="AL18" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="AM18" s="1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="AN18" s="1" t="s">
-        <v>636</v>
+        <v>1125</v>
+      </c>
+      <c r="AL18" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="AM18" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="AN18" s="3" t="s">
+        <v>635</v>
       </c>
       <c r="AO18" s="1" t="s">
-        <v>1228</v>
+        <v>1216</v>
       </c>
       <c r="AP18" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AQ18" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AR18" s="1" t="s">
-        <v>1253</v>
+        <v>1241</v>
       </c>
       <c r="AS18" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AU18" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="AV18" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="AW18" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AX18" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AY18" s="1" t="s">
-        <v>1242</v>
+        <v>1230</v>
       </c>
       <c r="BA18" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="BB18" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="BB18" s="1" t="s">
+      <c r="BC18" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="BC18" s="1" t="s">
+      <c r="BD18" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="BD18" s="1" t="s">
-        <v>907</v>
-      </c>
       <c r="BE18" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="BF18" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="BF18" s="1" t="s">
-        <v>962</v>
-      </c>
       <c r="BG18" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="BH18" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="BH18" s="1" t="s">
-        <v>907</v>
-      </c>
       <c r="BI18" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="BJ18" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="BK18" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="BK18" s="1" t="s">
+      <c r="BL18" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="BL18" s="1" t="s">
-        <v>1034</v>
-      </c>
       <c r="BM18" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="BO18" s="1" t="s">
-        <v>1279</v>
+        <v>1267</v>
       </c>
       <c r="BP18" s="1" t="s">
-        <v>1280</v>
+        <v>1268</v>
       </c>
       <c r="BQ18" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="BR18" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="BR18" s="1" t="s">
-        <v>907</v>
-      </c>
       <c r="BS18" s="1" t="s">
-        <v>1365</v>
+        <v>1353</v>
       </c>
       <c r="BT18" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="BU18" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="BV18" s="1" t="s">
         <v>1392</v>
       </c>
-      <c r="BU18" s="1" t="s">
-        <v>1393</v>
-      </c>
-      <c r="BV18" s="1" t="s">
-        <v>1404</v>
-      </c>
       <c r="BW18" s="1" t="s">
-        <v>1419</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="19" spans="1:75" x14ac:dyDescent="0.2">
@@ -11727,50 +11695,48 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1605</v>
+        <v>1586</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1771</v>
+        <v>1752</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1772</v>
+        <v>1753</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1441</v>
+        <v>1422</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>1498</v>
+        <v>1479</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>1499</v>
+        <v>1480</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>1895</v>
+        <v>1876</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>1896</v>
+        <v>1877</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>2006</v>
+        <v>1987</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>2080</v>
+        <v>2061</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>2081</v>
+        <v>2062</v>
       </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="1" t="s">
-        <v>2248</v>
-      </c>
+      <c r="O19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="AD19" s="1" t="s">
-        <v>1658</v>
+        <v>1639</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>1659</v>
+        <v>1640</v>
       </c>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
@@ -11805,37 +11771,37 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1606</v>
+        <v>1587</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1773</v>
+        <v>1754</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1774</v>
+        <v>1755</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1442</v>
+        <v>1423</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1500</v>
+        <v>1481</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>1501</v>
+        <v>1482</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>1897</v>
+        <v>1878</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>1898</v>
+        <v>1879</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>2007</v>
+        <v>1988</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>2078</v>
+        <v>2059</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>2079</v>
+        <v>2060</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -11843,10 +11809,10 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="AD20" s="1" t="s">
-        <v>1660</v>
+        <v>1641</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>1661</v>
+        <v>1642</v>
       </c>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
@@ -11881,37 +11847,37 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1610</v>
+        <v>1591</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1775</v>
+        <v>1756</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1776</v>
+        <v>1757</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1443</v>
+        <v>1424</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1502</v>
+        <v>1483</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>1503</v>
+        <v>1484</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>1899</v>
+        <v>1880</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>1900</v>
+        <v>1881</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>2008</v>
+        <v>1989</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>2076</v>
+        <v>2057</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>2077</v>
+        <v>2058</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -11919,10 +11885,10 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="AD21" s="1" t="s">
-        <v>1662</v>
+        <v>1643</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>1663</v>
+        <v>1644</v>
       </c>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
@@ -11957,37 +11923,37 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1609</v>
+        <v>1590</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1777</v>
+        <v>1758</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1778</v>
+        <v>1759</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1444</v>
+        <v>1425</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1504</v>
+        <v>1485</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>1505</v>
+        <v>1486</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>1901</v>
+        <v>1882</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>1902</v>
+        <v>1883</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>2009</v>
+        <v>1990</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>2074</v>
+        <v>2055</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>2075</v>
+        <v>2056</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -11995,10 +11961,10 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="AD22" s="1" t="s">
-        <v>1664</v>
+        <v>1645</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>1505</v>
+        <v>1486</v>
       </c>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
@@ -12032,37 +11998,37 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1607</v>
+        <v>1588</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1779</v>
+        <v>1760</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1780</v>
+        <v>1761</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1445</v>
+        <v>1426</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1506</v>
+        <v>1487</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>1507</v>
+        <v>1488</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>1903</v>
+        <v>1884</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>1904</v>
+        <v>1885</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>2010</v>
+        <v>1991</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>2072</v>
+        <v>2053</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>2073</v>
+        <v>2054</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -12070,10 +12036,10 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="AD23" s="1" t="s">
-        <v>1665</v>
+        <v>1646</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>1666</v>
+        <v>1647</v>
       </c>
       <c r="AF23" s="1"/>
       <c r="AK23" s="1"/>
@@ -12102,37 +12068,37 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1608</v>
+        <v>1589</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1781</v>
+        <v>1762</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1782</v>
+        <v>1763</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1446</v>
+        <v>1427</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1508</v>
+        <v>1489</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>1509</v>
+        <v>1490</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>1905</v>
+        <v>1886</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>1906</v>
+        <v>1887</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>2011</v>
+        <v>1992</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>2070</v>
+        <v>2051</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>2071</v>
+        <v>2052</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -12140,10 +12106,10 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="AD24" s="1" t="s">
-        <v>1667</v>
+        <v>1648</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>1668</v>
+        <v>1649</v>
       </c>
       <c r="AF24" s="1"/>
       <c r="AK24" s="1"/>
@@ -12172,37 +12138,37 @@
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1611</v>
+        <v>1592</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1785</v>
+        <v>1766</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1786</v>
+        <v>1767</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1447</v>
+        <v>1428</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1510</v>
+        <v>1491</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>1511</v>
+        <v>1492</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>1907</v>
+        <v>1888</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>1908</v>
+        <v>1889</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>2012</v>
+        <v>1993</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>2068</v>
+        <v>2049</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>2069</v>
+        <v>2050</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -12210,10 +12176,10 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="AD25" s="1" t="s">
-        <v>1669</v>
+        <v>1650</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>1670</v>
+        <v>1651</v>
       </c>
       <c r="AF25" s="1"/>
       <c r="AK25" s="1"/>
@@ -12242,37 +12208,37 @@
         <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1612</v>
+        <v>1593</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1787</v>
+        <v>1768</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1788</v>
+        <v>1769</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1448</v>
+        <v>1429</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1512</v>
+        <v>1493</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>1513</v>
+        <v>1494</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>1909</v>
+        <v>1890</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>1910</v>
+        <v>1891</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>2013</v>
+        <v>1994</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>2066</v>
+        <v>2047</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>2067</v>
+        <v>2048</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -12280,10 +12246,10 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="AD26" s="1" t="s">
-        <v>1671</v>
+        <v>1652</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>1672</v>
+        <v>1653</v>
       </c>
       <c r="AF26" s="1"/>
       <c r="AK26" s="1"/>
@@ -12309,40 +12275,40 @@
     </row>
     <row r="27" spans="1:75" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1613</v>
+        <v>1594</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1789</v>
+        <v>1770</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1790</v>
+        <v>1771</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1449</v>
+        <v>1430</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1514</v>
+        <v>1495</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>1515</v>
+        <v>1496</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>1911</v>
+        <v>1892</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>1912</v>
+        <v>1893</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>2014</v>
+        <v>1995</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>2065</v>
+        <v>2046</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>2064</v>
+        <v>2045</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -12350,10 +12316,10 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="AD27" s="1" t="s">
-        <v>1673</v>
+        <v>1654</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>1674</v>
+        <v>1655</v>
       </c>
       <c r="AF27" s="1"/>
       <c r="AK27" s="1"/>
@@ -12379,40 +12345,40 @@
     </row>
     <row r="28" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1743</v>
+        <v>1724</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1770</v>
+        <v>1751</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1791</v>
+        <v>1772</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1792</v>
+        <v>1773</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1767</v>
+        <v>1748</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>1768</v>
+        <v>1749</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>1769</v>
+        <v>1750</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>1913</v>
+        <v>1894</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>1914</v>
+        <v>1895</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>2005</v>
+        <v>1986</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>2062</v>
+        <v>2043</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>2063</v>
+        <v>2044</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -12420,10 +12386,10 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="AD28" s="1" t="s">
-        <v>1744</v>
+        <v>1725</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>1745</v>
+        <v>1726</v>
       </c>
       <c r="AF28" s="1"/>
       <c r="AK28" s="1"/>
@@ -12452,37 +12418,37 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1614</v>
+        <v>1595</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1793</v>
+        <v>1774</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1794</v>
+        <v>1775</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1450</v>
+        <v>1431</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1516</v>
+        <v>1497</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>1517</v>
+        <v>1498</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>1915</v>
+        <v>1896</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>1916</v>
+        <v>1897</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>2016</v>
+        <v>1997</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>2084</v>
+        <v>2065</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>2085</v>
+        <v>2066</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -12490,10 +12456,10 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="AD29" s="1" t="s">
-        <v>1675</v>
+        <v>1656</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>1676</v>
+        <v>1657</v>
       </c>
       <c r="AF29" s="1"/>
       <c r="AK29" s="1"/>
@@ -12522,37 +12488,37 @@
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1615</v>
+        <v>1596</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1800</v>
+        <v>1781</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1801</v>
+        <v>1782</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1451</v>
+        <v>1432</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>1518</v>
+        <v>1499</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>1519</v>
+        <v>1500</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>1917</v>
+        <v>1898</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>1918</v>
+        <v>1899</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>2017</v>
+        <v>1998</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>2088</v>
+        <v>2069</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>2089</v>
+        <v>2070</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -12560,10 +12526,10 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="AD30" s="1" t="s">
-        <v>1678</v>
+        <v>1659</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>1677</v>
+        <v>1658</v>
       </c>
       <c r="AF30" s="1"/>
       <c r="AK30" s="1"/>
@@ -12592,37 +12558,37 @@
         <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1616</v>
+        <v>1597</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1802</v>
+        <v>1783</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1803</v>
+        <v>1784</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1452</v>
+        <v>1433</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>1520</v>
+        <v>1501</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>1521</v>
+        <v>1502</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>1919</v>
+        <v>1900</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>1920</v>
+        <v>1901</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>2018</v>
+        <v>1999</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>2086</v>
+        <v>2067</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>2087</v>
+        <v>2068</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -12630,10 +12596,10 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="AD31" s="1" t="s">
-        <v>1679</v>
+        <v>1660</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>1680</v>
+        <v>1661</v>
       </c>
       <c r="AF31" s="1"/>
       <c r="AK31" s="1"/>
@@ -12662,37 +12628,37 @@
         <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1617</v>
+        <v>1598</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1804</v>
+        <v>1785</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1805</v>
+        <v>1786</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1453</v>
+        <v>1434</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>1522</v>
+        <v>1503</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>1523</v>
+        <v>1504</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>1921</v>
+        <v>1902</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>1922</v>
+        <v>1903</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>2019</v>
+        <v>2000</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>2090</v>
+        <v>2071</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>2091</v>
+        <v>2072</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -12700,10 +12666,10 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="AD32" s="1" t="s">
-        <v>1681</v>
+        <v>1662</v>
       </c>
       <c r="AE32" s="1" t="s">
-        <v>1682</v>
+        <v>1663</v>
       </c>
       <c r="AF32" s="1"/>
       <c r="AK32" s="1"/>
@@ -12732,37 +12698,37 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1618</v>
+        <v>1599</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1806</v>
+        <v>1787</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1807</v>
+        <v>1788</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1454</v>
+        <v>1435</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1524</v>
+        <v>1505</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>1525</v>
+        <v>1506</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>1923</v>
+        <v>1904</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>1924</v>
+        <v>1905</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>2020</v>
+        <v>2001</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>2092</v>
+        <v>2073</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>2127</v>
+        <v>2108</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -12770,10 +12736,10 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="AD33" s="1" t="s">
-        <v>1683</v>
+        <v>1664</v>
       </c>
       <c r="AE33" s="1" t="s">
-        <v>1684</v>
+        <v>1665</v>
       </c>
       <c r="AF33" s="1"/>
       <c r="AK33" s="1"/>
@@ -12802,37 +12768,37 @@
         <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1619</v>
+        <v>1600</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1808</v>
+        <v>1789</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1809</v>
+        <v>1790</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1455</v>
+        <v>1436</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1526</v>
+        <v>1507</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>1527</v>
+        <v>1508</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>1925</v>
+        <v>1906</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>1926</v>
+        <v>1907</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>2021</v>
+        <v>2002</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>2093</v>
+        <v>2074</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>2094</v>
+        <v>2075</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -12840,10 +12806,10 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="AD34" s="1" t="s">
-        <v>1685</v>
+        <v>1666</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>1686</v>
+        <v>1667</v>
       </c>
       <c r="AF34" s="1"/>
       <c r="AK34" s="1"/>
@@ -12869,40 +12835,40 @@
     </row>
     <row r="35" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1620</v>
+        <v>1601</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1810</v>
+        <v>1791</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1811</v>
+        <v>1792</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1456</v>
+        <v>1437</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1528</v>
+        <v>1509</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>1529</v>
+        <v>1510</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>1927</v>
+        <v>1908</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>1928</v>
+        <v>1909</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>2022</v>
+        <v>2003</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>2095</v>
+        <v>2076</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>2096</v>
+        <v>2077</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -12910,10 +12876,10 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="AD35" s="1" t="s">
-        <v>1687</v>
+        <v>1668</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>1688</v>
+        <v>1669</v>
       </c>
       <c r="AF35" s="1"/>
       <c r="AK35" s="1"/>
@@ -12942,37 +12908,37 @@
         <v>501</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1621</v>
+        <v>1602</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1812</v>
+        <v>1793</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1813</v>
+        <v>1794</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1457</v>
+        <v>1438</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>1530</v>
+        <v>1511</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>1531</v>
+        <v>1512</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>1929</v>
+        <v>1910</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>1930</v>
+        <v>1911</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>2023</v>
+        <v>2004</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>2097</v>
+        <v>2078</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>2098</v>
+        <v>2079</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -12980,10 +12946,10 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="AD36" s="1" t="s">
-        <v>1689</v>
+        <v>1670</v>
       </c>
       <c r="AE36" s="1" t="s">
-        <v>1690</v>
+        <v>1671</v>
       </c>
       <c r="AF36" s="1"/>
       <c r="AK36" s="1"/>
@@ -13012,37 +12978,37 @@
         <v>14</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1622</v>
+        <v>1603</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1814</v>
+        <v>1795</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1815</v>
+        <v>1796</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1458</v>
+        <v>1439</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>1532</v>
+        <v>1513</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>1533</v>
+        <v>1514</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>1931</v>
+        <v>1912</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>1932</v>
+        <v>1913</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>2024</v>
+        <v>2005</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>2099</v>
+        <v>2080</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>2100</v>
+        <v>2081</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -13050,10 +13016,10 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="AD37" s="1" t="s">
-        <v>1691</v>
+        <v>1672</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>1692</v>
+        <v>1673</v>
       </c>
       <c r="AF37" s="1"/>
       <c r="AK37" s="1"/>
@@ -13082,37 +13048,37 @@
         <v>15</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1623</v>
+        <v>1604</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1816</v>
+        <v>1797</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1817</v>
+        <v>1798</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1459</v>
+        <v>1440</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>1534</v>
+        <v>1515</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>1535</v>
+        <v>1516</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>1933</v>
+        <v>1914</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>1934</v>
+        <v>1915</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>2015</v>
+        <v>1996</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>2082</v>
+        <v>2063</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>2083</v>
+        <v>2064</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -13120,10 +13086,10 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="AD38" s="1" t="s">
-        <v>1694</v>
+        <v>1675</v>
       </c>
       <c r="AE38" s="1" t="s">
-        <v>1693</v>
+        <v>1674</v>
       </c>
       <c r="AF38" s="1"/>
       <c r="AK38" s="1"/>
@@ -13152,37 +13118,37 @@
         <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1624</v>
+        <v>1605</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1818</v>
+        <v>1799</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1819</v>
+        <v>1800</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1460</v>
+        <v>1441</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>1536</v>
+        <v>1517</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>1537</v>
+        <v>1518</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>1935</v>
+        <v>1916</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>1936</v>
+        <v>1917</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>2026</v>
+        <v>2007</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>2103</v>
+        <v>2084</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>2104</v>
+        <v>2085</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -13190,10 +13156,10 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="AD39" s="1" t="s">
-        <v>1695</v>
+        <v>1676</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>1696</v>
+        <v>1677</v>
       </c>
       <c r="AF39" s="1"/>
       <c r="AK39" s="1"/>
@@ -13222,37 +13188,37 @@
         <v>17</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1625</v>
+        <v>1606</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1820</v>
+        <v>1801</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1821</v>
+        <v>1802</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1461</v>
+        <v>1442</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>1538</v>
+        <v>1519</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>1539</v>
+        <v>1520</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>1937</v>
+        <v>1918</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>1938</v>
+        <v>1919</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>2027</v>
+        <v>2008</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>2105</v>
+        <v>2086</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>2106</v>
+        <v>2087</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -13260,10 +13226,10 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="AD40" s="1" t="s">
-        <v>1697</v>
+        <v>1678</v>
       </c>
       <c r="AE40" s="1" t="s">
-        <v>1698</v>
+        <v>1679</v>
       </c>
       <c r="AF40" s="1"/>
       <c r="AK40" s="1"/>
@@ -13293,37 +13259,37 @@
         <v>18</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1626</v>
+        <v>1607</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1822</v>
+        <v>1803</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1823</v>
+        <v>1804</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1462</v>
+        <v>1443</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>1540</v>
+        <v>1521</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>1541</v>
+        <v>1522</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>1939</v>
+        <v>1920</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>1940</v>
+        <v>1921</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>2028</v>
+        <v>2009</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>2107</v>
+        <v>2088</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>2108</v>
+        <v>2089</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -13331,10 +13297,10 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="AD41" s="1" t="s">
-        <v>1699</v>
+        <v>1680</v>
       </c>
       <c r="AE41" s="1" t="s">
-        <v>1700</v>
+        <v>1681</v>
       </c>
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
@@ -13369,37 +13335,37 @@
         <v>489</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1627</v>
+        <v>1608</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1825</v>
+        <v>1806</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1824</v>
+        <v>1805</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1463</v>
+        <v>1444</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>1542</v>
+        <v>1523</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>1543</v>
+        <v>1524</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>1941</v>
+        <v>1922</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>1942</v>
+        <v>1923</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>2029</v>
+        <v>2010</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>2109</v>
+        <v>2090</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>2110</v>
+        <v>2091</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -13407,10 +13373,10 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
       <c r="AD42" s="1" t="s">
-        <v>1701</v>
+        <v>1682</v>
       </c>
       <c r="AE42" s="1" t="s">
-        <v>1702</v>
+        <v>1683</v>
       </c>
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
@@ -13445,37 +13411,37 @@
         <v>19</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1628</v>
+        <v>1609</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1826</v>
+        <v>1807</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1827</v>
+        <v>1808</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1464</v>
+        <v>1445</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>1544</v>
+        <v>1525</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>1545</v>
+        <v>1526</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>1943</v>
+        <v>1924</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>1944</v>
+        <v>1925</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>2030</v>
+        <v>2011</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>2113</v>
+        <v>2094</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>2114</v>
+        <v>2095</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -13483,10 +13449,10 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
       <c r="AD43" s="1" t="s">
-        <v>1703</v>
+        <v>1684</v>
       </c>
       <c r="AE43" s="1" t="s">
-        <v>1704</v>
+        <v>1685</v>
       </c>
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
@@ -13518,40 +13484,40 @@
     </row>
     <row r="44" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1465</v>
+        <v>1446</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1629</v>
+        <v>1610</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1828</v>
+        <v>1809</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1829</v>
+        <v>1810</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1466</v>
+        <v>1447</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>1546</v>
+        <v>1527</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>1547</v>
+        <v>1528</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>1945</v>
+        <v>1926</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>1946</v>
+        <v>1927</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>2031</v>
+        <v>2012</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>2111</v>
+        <v>2092</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>2112</v>
+        <v>2093</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -13559,10 +13525,10 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="AD44" s="1" t="s">
-        <v>1705</v>
+        <v>1686</v>
       </c>
       <c r="AE44" s="1" t="s">
-        <v>1706</v>
+        <v>1687</v>
       </c>
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
@@ -13597,37 +13563,37 @@
         <v>20</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1630</v>
+        <v>1611</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1832</v>
+        <v>1813</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1833</v>
+        <v>1814</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1467</v>
+        <v>1448</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1548</v>
+        <v>1529</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>1549</v>
+        <v>1530</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>1947</v>
+        <v>1928</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>1948</v>
+        <v>1929</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>2032</v>
+        <v>2013</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>2115</v>
+        <v>2096</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>2116</v>
+        <v>2097</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -13635,10 +13601,10 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="AD45" s="1" t="s">
-        <v>1707</v>
+        <v>1688</v>
       </c>
       <c r="AE45" s="1" t="s">
-        <v>1708</v>
+        <v>1689</v>
       </c>
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
@@ -13673,37 +13639,37 @@
         <v>21</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1631</v>
+        <v>1612</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1834</v>
+        <v>1815</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1835</v>
+        <v>1816</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>1468</v>
+        <v>1449</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1550</v>
+        <v>1531</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>1551</v>
+        <v>1532</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>1949</v>
+        <v>1930</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>1950</v>
+        <v>1931</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>2033</v>
+        <v>2014</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>2117</v>
+        <v>2098</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>2118</v>
+        <v>2099</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -13711,10 +13677,10 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="AD46" s="1" t="s">
-        <v>1709</v>
+        <v>1690</v>
       </c>
       <c r="AE46" s="1" t="s">
-        <v>1710</v>
+        <v>1691</v>
       </c>
       <c r="AF46" s="1"/>
       <c r="AG46" s="1"/>
@@ -13749,37 +13715,37 @@
         <v>555</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1632</v>
+        <v>1613</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1836</v>
+        <v>1817</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1837</v>
+        <v>1818</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1469</v>
+        <v>1450</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>1552</v>
+        <v>1533</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>1553</v>
+        <v>1534</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>1951</v>
+        <v>1932</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>1952</v>
+        <v>1933</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>2034</v>
+        <v>2015</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>2119</v>
+        <v>2100</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>2120</v>
+        <v>2101</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -13787,10 +13753,10 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="AD47" s="2" t="s">
-        <v>1711</v>
+        <v>1692</v>
       </c>
       <c r="AE47" s="1" t="s">
-        <v>1712</v>
+        <v>1693</v>
       </c>
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
@@ -13825,37 +13791,37 @@
         <v>22</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1633</v>
+        <v>1614</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1838</v>
+        <v>1819</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1839</v>
+        <v>1820</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1470</v>
+        <v>1451</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>1554</v>
+        <v>1535</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>1555</v>
+        <v>1536</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>1954</v>
+        <v>1935</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>1953</v>
+        <v>1934</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>2025</v>
+        <v>2006</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>2101</v>
+        <v>2082</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>2102</v>
+        <v>2083</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -13863,10 +13829,10 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="AD48" s="1" t="s">
-        <v>1713</v>
+        <v>1694</v>
       </c>
       <c r="AE48" s="1" t="s">
-        <v>1714</v>
+        <v>1695</v>
       </c>
       <c r="AF48" s="1"/>
       <c r="AG48" s="1"/>
@@ -13901,37 +13867,37 @@
         <v>23</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1634</v>
+        <v>1615</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1840</v>
+        <v>1821</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1841</v>
+        <v>1822</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>1471</v>
+        <v>1452</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>1556</v>
+        <v>1537</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>1557</v>
+        <v>1538</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>1955</v>
+        <v>1936</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1956</v>
+        <v>1937</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>2036</v>
+        <v>2017</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>2123</v>
+        <v>2104</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>2124</v>
+        <v>2105</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -13939,10 +13905,10 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="AD49" s="1" t="s">
-        <v>1715</v>
+        <v>1696</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>1716</v>
+        <v>1697</v>
       </c>
       <c r="AF49" s="1"/>
       <c r="AG49" s="1"/>
@@ -13974,40 +13940,40 @@
     </row>
     <row r="50" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1472</v>
+        <v>1453</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1635</v>
+        <v>1616</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1842</v>
+        <v>1823</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1843</v>
+        <v>1824</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1473</v>
+        <v>1454</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>1559</v>
+        <v>1540</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>1558</v>
+        <v>1539</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>1957</v>
+        <v>1938</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>1958</v>
+        <v>1939</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>2037</v>
+        <v>2018</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>2125</v>
+        <v>2106</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>2126</v>
+        <v>2107</v>
       </c>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -14015,10 +13981,10 @@
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
       <c r="AD50" s="1" t="s">
-        <v>1717</v>
+        <v>1698</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>1718</v>
+        <v>1699</v>
       </c>
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
@@ -14053,37 +14019,37 @@
         <v>24</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1636</v>
+        <v>1617</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1844</v>
+        <v>1825</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1845</v>
+        <v>1826</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1474</v>
+        <v>1455</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1560</v>
+        <v>1541</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>1561</v>
+        <v>1542</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>1959</v>
+        <v>1940</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>1960</v>
+        <v>1941</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>2038</v>
+        <v>2019</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>2129</v>
+        <v>2110</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>2128</v>
+        <v>2109</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -14091,10 +14057,10 @@
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
       <c r="AD51" s="1" t="s">
-        <v>1719</v>
+        <v>1700</v>
       </c>
       <c r="AE51" s="1" t="s">
-        <v>1720</v>
+        <v>1701</v>
       </c>
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
@@ -14126,40 +14092,40 @@
     </row>
     <row r="52" spans="1:58" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1475</v>
+        <v>1456</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1637</v>
+        <v>1618</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1846</v>
+        <v>1827</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1847</v>
+        <v>1828</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1476</v>
+        <v>1457</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>1562</v>
+        <v>1543</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>1563</v>
+        <v>1544</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>1961</v>
+        <v>1942</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>1962</v>
+        <v>1943</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>2039</v>
+        <v>2020</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>2130</v>
+        <v>2111</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>2131</v>
+        <v>2112</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -14167,10 +14133,10 @@
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
       <c r="AD52" s="2" t="s">
-        <v>1721</v>
+        <v>1702</v>
       </c>
       <c r="AE52" s="1" t="s">
-        <v>1722</v>
+        <v>1703</v>
       </c>
       <c r="AF52" s="1"/>
       <c r="AG52" s="1"/>
@@ -14205,37 +14171,37 @@
         <v>25</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1638</v>
+        <v>1619</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1848</v>
+        <v>1829</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1849</v>
+        <v>1830</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1477</v>
+        <v>1458</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1564</v>
+        <v>1545</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>1565</v>
+        <v>1546</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>1963</v>
+        <v>1944</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>1964</v>
+        <v>1945</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>2132</v>
+        <v>2113</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>2133</v>
+        <v>2114</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -14243,10 +14209,10 @@
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
       <c r="AD53" s="1" t="s">
-        <v>1723</v>
+        <v>1704</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>1724</v>
+        <v>1705</v>
       </c>
       <c r="AF53" s="1"/>
       <c r="AG53" s="1"/>
@@ -14281,37 +14247,37 @@
         <v>490</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1639</v>
+        <v>1620</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1850</v>
+        <v>1831</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1851</v>
+        <v>1832</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1478</v>
+        <v>1459</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>1566</v>
+        <v>1547</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>1567</v>
+        <v>1548</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>1965</v>
+        <v>1946</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>1966</v>
+        <v>1947</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>2041</v>
+        <v>2022</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>2134</v>
+        <v>2115</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>2135</v>
+        <v>2116</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -14319,10 +14285,10 @@
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
       <c r="AD54" s="1" t="s">
-        <v>1725</v>
+        <v>1706</v>
       </c>
       <c r="AE54" s="1" t="s">
-        <v>1726</v>
+        <v>1707</v>
       </c>
       <c r="AF54" s="1"/>
       <c r="AG54" s="1"/>
@@ -14357,37 +14323,37 @@
         <v>26</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1640</v>
+        <v>1621</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1852</v>
+        <v>1833</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1853</v>
+        <v>1834</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1479</v>
+        <v>1460</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>1568</v>
+        <v>1549</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>1569</v>
+        <v>1550</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>1967</v>
+        <v>1948</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>1968</v>
+        <v>1949</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>2042</v>
+        <v>2023</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>2138</v>
+        <v>2119</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>2139</v>
+        <v>2120</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -14395,10 +14361,10 @@
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
       <c r="AD55" s="1" t="s">
-        <v>1727</v>
+        <v>1708</v>
       </c>
       <c r="AE55" s="1" t="s">
-        <v>1728</v>
+        <v>1709</v>
       </c>
       <c r="AF55" s="1"/>
       <c r="AG55" s="1"/>
@@ -14433,37 +14399,37 @@
         <v>27</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1641</v>
+        <v>1622</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1854</v>
+        <v>1835</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1855</v>
+        <v>1836</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1480</v>
+        <v>1461</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>1570</v>
+        <v>1551</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>1571</v>
+        <v>1552</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>1969</v>
+        <v>1950</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>1970</v>
+        <v>1951</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>2043</v>
+        <v>2024</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>2136</v>
+        <v>2117</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>2137</v>
+        <v>2118</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -14471,10 +14437,10 @@
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
       <c r="AD56" s="1" t="s">
-        <v>1729</v>
+        <v>1710</v>
       </c>
       <c r="AE56" s="1" t="s">
-        <v>1730</v>
+        <v>1711</v>
       </c>
       <c r="AF56" s="1"/>
       <c r="AG56" s="1"/>
@@ -14509,37 +14475,37 @@
         <v>28</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1642</v>
+        <v>1623</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1856</v>
+        <v>1837</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1857</v>
+        <v>1838</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1481</v>
+        <v>1462</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1572</v>
+        <v>1553</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>1573</v>
+        <v>1554</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>1971</v>
+        <v>1952</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>1972</v>
+        <v>1953</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>2044</v>
+        <v>2025</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>2140</v>
+        <v>2121</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>2141</v>
+        <v>2122</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -14547,10 +14513,10 @@
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
       <c r="AD57" s="1" t="s">
-        <v>1731</v>
+        <v>1712</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>1732</v>
+        <v>1713</v>
       </c>
       <c r="AF57" s="1"/>
       <c r="AG57" s="1"/>
@@ -14585,37 +14551,37 @@
         <v>29</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1643</v>
+        <v>1624</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1858</v>
+        <v>1839</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1859</v>
+        <v>1840</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1482</v>
+        <v>1463</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>1574</v>
+        <v>1555</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>1575</v>
+        <v>1556</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>1973</v>
+        <v>1954</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>1974</v>
+        <v>1955</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>2121</v>
+        <v>2102</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>2122</v>
+        <v>2103</v>
       </c>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
@@ -14623,10 +14589,10 @@
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
       <c r="AD58" s="1" t="s">
-        <v>1733</v>
+        <v>1714</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>1734</v>
+        <v>1715</v>
       </c>
       <c r="AF58" s="1"/>
       <c r="AG58" s="1"/>
@@ -14661,37 +14627,37 @@
         <v>30</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1644</v>
+        <v>1625</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1860</v>
+        <v>1841</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1861</v>
+        <v>1842</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>1483</v>
+        <v>1464</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>1576</v>
+        <v>1557</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>1577</v>
+        <v>1558</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>1975</v>
+        <v>1956</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>1976</v>
+        <v>1957</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>2047</v>
+        <v>2028</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>2145</v>
+        <v>2126</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>2144</v>
+        <v>2125</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -14699,10 +14665,10 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
       <c r="AD59" s="1" t="s">
-        <v>1735</v>
+        <v>1716</v>
       </c>
       <c r="AE59" s="1" t="s">
-        <v>1736</v>
+        <v>1717</v>
       </c>
       <c r="AF59" s="1"/>
       <c r="AG59" s="1"/>
@@ -14737,37 +14703,37 @@
         <v>31</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1645</v>
+        <v>1626</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1862</v>
+        <v>1843</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1863</v>
+        <v>1844</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>1484</v>
+        <v>1465</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>1579</v>
+        <v>1560</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>1578</v>
+        <v>1559</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>1977</v>
+        <v>1958</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>1978</v>
+        <v>1959</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>2048</v>
+        <v>2029</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>2146</v>
+        <v>2127</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>2147</v>
+        <v>2128</v>
       </c>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
@@ -14775,10 +14741,10 @@
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
       <c r="AD60" s="2" t="s">
-        <v>1737</v>
+        <v>1718</v>
       </c>
       <c r="AE60" s="1" t="s">
-        <v>1738</v>
+        <v>1719</v>
       </c>
       <c r="AF60" s="1"/>
       <c r="AG60" s="1"/>
@@ -14813,37 +14779,37 @@
         <v>32</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1646</v>
+        <v>1627</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1864</v>
+        <v>1845</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1865</v>
+        <v>1846</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>1485</v>
+        <v>1466</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1580</v>
+        <v>1561</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>1581</v>
+        <v>1562</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>1979</v>
+        <v>1960</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>1980</v>
+        <v>1961</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>2049</v>
+        <v>2030</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>2148</v>
+        <v>2129</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>2149</v>
+        <v>2130</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -14851,10 +14817,10 @@
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
       <c r="AD61" s="1" t="s">
-        <v>1739</v>
+        <v>1720</v>
       </c>
       <c r="AE61" s="1" t="s">
-        <v>1740</v>
+        <v>1721</v>
       </c>
       <c r="AF61" s="1"/>
       <c r="AG61" s="1"/>
@@ -14886,40 +14852,40 @@
     </row>
     <row r="62" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>2051</v>
+        <v>2032</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1647</v>
+        <v>1628</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1866</v>
+        <v>1847</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1867</v>
+        <v>1848</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1486</v>
+        <v>1467</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>1582</v>
+        <v>1563</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>1583</v>
+        <v>1564</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>1981</v>
+        <v>1962</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>1982</v>
+        <v>1963</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>2050</v>
+        <v>2031</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>2150</v>
+        <v>2131</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>2151</v>
+        <v>2132</v>
       </c>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
@@ -14927,10 +14893,10 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
       <c r="AD62" s="1" t="s">
-        <v>1741</v>
+        <v>1722</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>1742</v>
+        <v>1723</v>
       </c>
       <c r="AF62" s="1"/>
       <c r="AG62" s="1"/>
@@ -14965,37 +14931,37 @@
         <v>33</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1648</v>
+        <v>1629</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1868</v>
+        <v>1849</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1869</v>
+        <v>1850</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>1487</v>
+        <v>1468</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>1585</v>
+        <v>1566</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>1584</v>
+        <v>1565</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>1983</v>
+        <v>1964</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>1984</v>
+        <v>1965</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>2052</v>
+        <v>2033</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>2152</v>
+        <v>2133</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>2153</v>
+        <v>2134</v>
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -15003,10 +14969,10 @@
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
       <c r="AD63" s="1" t="s">
-        <v>1746</v>
+        <v>1727</v>
       </c>
       <c r="AE63" s="1" t="s">
-        <v>1747</v>
+        <v>1728</v>
       </c>
       <c r="AF63" s="1"/>
       <c r="AG63" s="1"/>
@@ -15041,37 +15007,37 @@
         <v>34</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1649</v>
+        <v>1630</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1870</v>
+        <v>1851</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1871</v>
+        <v>1852</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>1488</v>
+        <v>1469</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1586</v>
+        <v>1567</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>1587</v>
+        <v>1568</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>1985</v>
+        <v>1966</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>1986</v>
+        <v>1967</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>2053</v>
+        <v>2034</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>2156</v>
+        <v>2137</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>2157</v>
+        <v>2138</v>
       </c>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
@@ -15079,10 +15045,10 @@
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
       <c r="AD64" s="1" t="s">
-        <v>1748</v>
+        <v>1729</v>
       </c>
       <c r="AE64" s="1" t="s">
-        <v>1749</v>
+        <v>1730</v>
       </c>
       <c r="AF64" s="1"/>
       <c r="AG64" s="1"/>
@@ -15117,37 +15083,37 @@
         <v>35</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1650</v>
+        <v>1631</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1872</v>
+        <v>1853</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1873</v>
+        <v>1854</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>1489</v>
+        <v>1470</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>1588</v>
+        <v>1569</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>1589</v>
+        <v>1570</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>1987</v>
+        <v>1968</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>1988</v>
+        <v>1969</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>2054</v>
+        <v>2035</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>2154</v>
+        <v>2135</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>2155</v>
+        <v>2136</v>
       </c>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
@@ -15155,10 +15121,10 @@
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
       <c r="AD65" s="1" t="s">
-        <v>1750</v>
+        <v>1731</v>
       </c>
       <c r="AE65" s="1" t="s">
-        <v>1751</v>
+        <v>1732</v>
       </c>
       <c r="AF65" s="1"/>
       <c r="AG65" s="1"/>
@@ -15193,37 +15159,37 @@
         <v>36</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1651</v>
+        <v>1632</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1879</v>
+        <v>1860</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1880</v>
+        <v>1861</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>1490</v>
+        <v>1471</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>1590</v>
+        <v>1571</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>1591</v>
+        <v>1572</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>1989</v>
+        <v>1970</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>1990</v>
+        <v>1971</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>2055</v>
+        <v>2036</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>2142</v>
+        <v>2123</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>2143</v>
+        <v>2124</v>
       </c>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
@@ -15231,10 +15197,10 @@
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
       <c r="AD66" s="1" t="s">
-        <v>1752</v>
+        <v>1733</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>1753</v>
+        <v>1734</v>
       </c>
       <c r="AF66" s="1"/>
       <c r="AG66" s="1"/>
@@ -15269,37 +15235,37 @@
         <v>37</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1652</v>
+        <v>1633</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1881</v>
+        <v>1862</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1882</v>
+        <v>1863</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1491</v>
+        <v>1472</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>1592</v>
+        <v>1573</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>1593</v>
+        <v>1574</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>1991</v>
+        <v>1972</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>1992</v>
+        <v>1973</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>2056</v>
+        <v>2037</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>2158</v>
+        <v>2139</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>2159</v>
+        <v>2140</v>
       </c>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
@@ -15307,10 +15273,10 @@
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
       <c r="AD67" s="1" t="s">
-        <v>1754</v>
+        <v>1735</v>
       </c>
       <c r="AE67" s="1" t="s">
-        <v>1755</v>
+        <v>1736</v>
       </c>
       <c r="AF67" s="1"/>
       <c r="AG67" s="1"/>
@@ -15342,40 +15308,40 @@
     </row>
     <row r="68" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>2046</v>
+        <v>2027</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1883</v>
+        <v>1864</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1884</v>
+        <v>1865</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>1604</v>
+        <v>1585</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>1594</v>
+        <v>1575</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>1595</v>
+        <v>1576</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>1993</v>
+        <v>1974</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>1994</v>
+        <v>1975</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>2045</v>
+        <v>2026</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>2160</v>
+        <v>2141</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>2161</v>
+        <v>2142</v>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
@@ -15383,10 +15349,10 @@
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
       <c r="AD68" s="1" t="s">
-        <v>1756</v>
+        <v>1737</v>
       </c>
       <c r="AE68" s="1" t="s">
-        <v>1757</v>
+        <v>1738</v>
       </c>
       <c r="AF68" s="1"/>
       <c r="AG68" s="1"/>
@@ -15421,37 +15387,37 @@
         <v>38</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1653</v>
+        <v>1634</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1885</v>
+        <v>1866</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1886</v>
+        <v>1867</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>1492</v>
+        <v>1473</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1596</v>
+        <v>1577</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>1597</v>
+        <v>1578</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>1995</v>
+        <v>1976</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>1996</v>
+        <v>1977</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>2057</v>
+        <v>2038</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>2162</v>
+        <v>2143</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>2163</v>
+        <v>2144</v>
       </c>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
@@ -15459,10 +15425,10 @@
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
       <c r="AD69" s="1" t="s">
-        <v>1758</v>
+        <v>1739</v>
       </c>
       <c r="AE69" s="1" t="s">
-        <v>1759</v>
+        <v>1740</v>
       </c>
       <c r="AF69" s="1"/>
       <c r="AG69" s="1"/>
@@ -15497,37 +15463,37 @@
         <v>39</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1654</v>
+        <v>1635</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1887</v>
+        <v>1868</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1888</v>
+        <v>1869</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>1493</v>
+        <v>1474</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>1997</v>
+        <v>1978</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>1998</v>
+        <v>1979</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>2058</v>
+        <v>2039</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>2164</v>
+        <v>2145</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>2165</v>
+        <v>2146</v>
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
@@ -15535,10 +15501,10 @@
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
       <c r="AD70" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AE70" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AF70" s="1"/>
       <c r="AG70" s="1"/>
@@ -15570,40 +15536,40 @@
     </row>
     <row r="71" spans="1:58" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1760</v>
+        <v>1741</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1655</v>
+        <v>1636</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1889</v>
+        <v>1870</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1890</v>
+        <v>1871</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>1494</v>
+        <v>1475</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>1598</v>
+        <v>1579</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>1599</v>
+        <v>1580</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>1999</v>
+        <v>1980</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>2000</v>
+        <v>1981</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>2059</v>
+        <v>2040</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>2166</v>
+        <v>2147</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>2167</v>
+        <v>2148</v>
       </c>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
@@ -15611,10 +15577,10 @@
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
       <c r="AD71" s="1" t="s">
-        <v>1761</v>
+        <v>1742</v>
       </c>
       <c r="AE71" s="1" t="s">
-        <v>1762</v>
+        <v>1743</v>
       </c>
       <c r="AF71" s="1"/>
       <c r="AG71" s="1"/>
@@ -15649,37 +15615,37 @@
         <v>40</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1656</v>
+        <v>1637</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1891</v>
+        <v>1872</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1892</v>
+        <v>1873</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>1495</v>
+        <v>1476</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>1600</v>
+        <v>1581</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>1601</v>
+        <v>1582</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>2001</v>
+        <v>1982</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>2002</v>
+        <v>1983</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>2060</v>
+        <v>2041</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>2168</v>
+        <v>2149</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>2169</v>
+        <v>2150</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
@@ -15687,10 +15653,10 @@
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
       <c r="AD72" s="1" t="s">
-        <v>1763</v>
+        <v>1744</v>
       </c>
       <c r="AE72" s="1" t="s">
-        <v>1764</v>
+        <v>1745</v>
       </c>
       <c r="AF72" s="1"/>
       <c r="AG72" s="1"/>
@@ -15725,37 +15691,37 @@
         <v>41</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1657</v>
+        <v>1638</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1893</v>
+        <v>1874</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1894</v>
+        <v>1875</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1496</v>
+        <v>1477</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1602</v>
+        <v>1583</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>1603</v>
+        <v>1584</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>2003</v>
+        <v>1984</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>2004</v>
+        <v>1985</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>2061</v>
+        <v>2042</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>2170</v>
+        <v>2151</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>2171</v>
+        <v>2152</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
@@ -15763,10 +15729,10 @@
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
       <c r="AD73" s="1" t="s">
-        <v>1765</v>
+        <v>1746</v>
       </c>
       <c r="AE73" s="1" t="s">
-        <v>1766</v>
+        <v>1747</v>
       </c>
       <c r="AF73" s="1"/>
       <c r="AG73" s="1"/>
@@ -15858,12 +15824,12 @@
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1796</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1799</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
@@ -16125,7 +16091,7 @@
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1875</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
@@ -16145,7 +16111,7 @@
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1831</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
@@ -16165,12 +16131,12 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>2238</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
@@ -16295,7 +16261,7 @@
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>2224</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
@@ -16310,7 +16276,7 @@
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1874</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
@@ -16405,7 +16371,7 @@
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1439</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
@@ -16460,7 +16426,7 @@
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1797</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
@@ -16480,7 +16446,7 @@
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
@@ -16530,7 +16496,7 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1440</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
@@ -16700,7 +16666,7 @@
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1497</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
@@ -16735,7 +16701,7 @@
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
@@ -16815,7 +16781,7 @@
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1798</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
@@ -16850,7 +16816,7 @@
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>1830</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
@@ -17090,7 +17056,7 @@
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>1438</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
@@ -17175,7 +17141,7 @@
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>1224</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
@@ -17320,7 +17286,7 @@
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>1795</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
@@ -17340,7 +17306,7 @@
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>1784</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
@@ -17350,7 +17316,7 @@
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>2228</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
@@ -17795,7 +17761,7 @@
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>1436</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
@@ -17810,7 +17776,7 @@
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>1877</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.2">
@@ -17840,7 +17806,7 @@
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>1876</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.2">
@@ -17930,7 +17896,7 @@
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>2216</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.2">
@@ -17965,7 +17931,7 @@
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>1878</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.2">
@@ -18010,7 +17976,7 @@
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>1783</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.2">
@@ -18040,7 +18006,7 @@
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>1437</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.2">

--- a/historical/data/data_strict.xlsx
+++ b/historical/data/data_strict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B5A053-F29C-BE4F-B139-32E92FDB5DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76D09D7-2130-5449-BF66-8D0098032852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46220" yWindow="-3100" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="2246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="2244">
   <si>
     <t xml:space="preserve">baby						</t>
   </si>
@@ -3673,13 +3673,7 @@
     <t>plane (tree)</t>
   </si>
   <si>
-    <t>sram, osramočen</t>
-  </si>
-  <si>
     <t>vprašaj, vprašati</t>
-  </si>
-  <si>
-    <t>jeseni</t>
   </si>
   <si>
     <t>sekira</t>
@@ -7643,7 +7637,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH13" sqref="AH13"/>
+      <selection pane="bottomRight" activeCell="AG4" sqref="AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7759,7 +7753,7 @@
         <v>734</v>
       </c>
       <c r="O1" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="P1" t="s">
         <v>556</v>
@@ -7870,7 +7864,7 @@
         <v>740</v>
       </c>
       <c r="AZ1" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="BA1" t="s">
         <v>721</v>
@@ -7915,7 +7909,7 @@
         <v>742</v>
       </c>
       <c r="BP1" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="BQ1" t="s">
         <v>743</v>
@@ -7930,7 +7924,7 @@
         <v>746</v>
       </c>
       <c r="BU1" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="BV1" t="s">
         <v>747</v>
@@ -8060,7 +8054,7 @@
       <c r="AN2" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AO2" s="3" t="s">
         <v>487</v>
       </c>
       <c r="AP2" s="3" t="s">
@@ -8162,49 +8156,49 @@
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>874</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>874</v>
@@ -8213,22 +8207,22 @@
         <v>874</v>
       </c>
       <c r="R3" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>1311</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>1312</v>
       </c>
-      <c r="T3" s="3" t="s">
-        <v>1313</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>1314</v>
-      </c>
       <c r="V3" s="3" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="X3" s="3" t="s">
         <v>874</v>
@@ -8237,144 +8231,144 @@
         <v>874</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="AA3" s="3" t="s">
         <v>874</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="AC3" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="AE3" s="3" t="s">
         <v>1299</v>
       </c>
-      <c r="AD3" s="3" t="s">
-        <v>1300</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>1301</v>
-      </c>
       <c r="AF3" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="AH3" s="3" t="s">
         <v>1297</v>
       </c>
-      <c r="AG3" s="3" t="s">
-        <v>1298</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>1299</v>
-      </c>
       <c r="AI3" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
         <v>1304</v>
       </c>
-      <c r="AJ3" s="3" t="s">
-        <v>1334</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>1335</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>1337</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>1299</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>1338</v>
-      </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>1339</v>
       </c>
-      <c r="AP3" s="3" t="s">
-        <v>1305</v>
-      </c>
-      <c r="AQ3" s="3" t="s">
+      <c r="AS3" s="3" t="s">
         <v>1306</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>1341</v>
-      </c>
-      <c r="AS3" s="3" t="s">
-        <v>1308</v>
       </c>
       <c r="AT3" s="1"/>
       <c r="AU3" s="1" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="AW3" s="3" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="AX3" s="1"/>
       <c r="AY3" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="BO3" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="BA3" s="1" t="s">
-        <v>1316</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>1317</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>1318</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>1319</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>1320</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>1321</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>1322</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>1325</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>1326</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="BO3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
         <v>1342</v>
       </c>
-      <c r="BP3" s="1" t="s">
-        <v>1343</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>1344</v>
-      </c>
       <c r="BR3" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="BU3" s="1" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="BV3" s="1" t="s">
         <v>874</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="4" spans="1:75" x14ac:dyDescent="0.2">
@@ -8460,7 +8454,7 @@
         <v>1157</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>581</v>
@@ -8498,7 +8492,7 @@
       <c r="AN4" s="3" t="s">
         <v>1196</v>
       </c>
-      <c r="AO4" s="1" t="s">
+      <c r="AO4" s="3" t="s">
         <v>1196</v>
       </c>
       <c r="AP4" s="3" t="s">
@@ -8508,7 +8502,7 @@
         <v>812</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="AS4" s="3" t="s">
         <v>682</v>
@@ -8529,7 +8523,7 @@
         <v>845</v>
       </c>
       <c r="AY4" s="1" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>875</v>
@@ -8580,22 +8574,22 @@
         <v>907</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="BS4" s="1" t="s">
         <v>473</v>
       </c>
       <c r="BT4" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="BU4" s="1" t="s">
         <v>1354</v>
-      </c>
-      <c r="BU4" s="1" t="s">
-        <v>1356</v>
       </c>
       <c r="BV4" s="1" t="s">
         <v>874</v>
       </c>
       <c r="BW4" s="1" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="5" spans="1:75" ht="17" x14ac:dyDescent="0.2">
@@ -8603,16 +8597,16 @@
         <v>474</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>782</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>795</v>
@@ -8633,16 +8627,16 @@
         <v>1079</v>
       </c>
       <c r="L5" s="3" t="s">
+        <v>2176</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>2178</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>2180</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>1149</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>558</v>
@@ -8681,7 +8675,7 @@
         <v>843</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>802</v>
@@ -8705,10 +8699,10 @@
         <v>810</v>
       </c>
       <c r="AJ5" s="3" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="AL5" s="3" t="s">
         <v>1168</v>
@@ -8719,7 +8713,7 @@
       <c r="AN5" s="3" t="s">
         <v>1197</v>
       </c>
-      <c r="AO5" s="1" t="s">
+      <c r="AO5" s="3" t="s">
         <v>1206</v>
       </c>
       <c r="AP5" s="3" t="s">
@@ -8729,10 +8723,10 @@
         <v>813</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="AS5" s="3" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="AT5" s="1" t="s">
         <v>824</v>
@@ -8750,7 +8744,7 @@
         <v>846</v>
       </c>
       <c r="AY5" s="1" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>878</v>
@@ -8792,31 +8786,31 @@
         <v>1057</v>
       </c>
       <c r="BO5" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="BQ5" s="1" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="BR5" s="1" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="BS5" s="1" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="BT5" s="1" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="BU5" s="1" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="BV5" s="1" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="BW5" s="1" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="6" spans="1:75" ht="17" x14ac:dyDescent="0.2">
@@ -8894,13 +8888,13 @@
         <v>1183</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="AA6" s="3" t="s">
         <v>1158</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="AC6" s="3" t="s">
         <v>582</v>
@@ -8936,9 +8930,9 @@
         <v>582</v>
       </c>
       <c r="AN6" s="3" t="s">
-        <v>2244</v>
-      </c>
-      <c r="AO6" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="AO6" s="3" t="s">
         <v>1207</v>
       </c>
       <c r="AP6" s="3" t="s">
@@ -8948,7 +8942,7 @@
         <v>659</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="AS6" s="3" t="s">
         <v>683</v>
@@ -9011,31 +9005,31 @@
         <v>1055</v>
       </c>
       <c r="BO6" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="BP6" s="1" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="BQ6" s="1" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="BR6" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="BS6" s="1" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="BT6" s="1" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="BU6" s="1" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="BV6" s="1" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="BW6" s="1" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="7" spans="1:75" x14ac:dyDescent="0.2">
@@ -9049,19 +9043,19 @@
         <v>784</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>491</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>696</v>
@@ -9073,16 +9067,16 @@
         <v>1081</v>
       </c>
       <c r="L7" s="3" t="s">
+        <v>2177</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>2179</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>2181</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>1150</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>562</v>
@@ -9097,10 +9091,10 @@
         <v>753</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="V7" s="3" t="s">
         <v>1098</v>
@@ -9121,7 +9115,7 @@
         <v>1159</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="AC7" s="3" t="s">
         <v>631</v>
@@ -9133,16 +9127,16 @@
         <v>599</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="AH7" s="3" t="s">
         <v>631</v>
       </c>
       <c r="AI7" s="3" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="AJ7" s="3" t="s">
         <v>1131</v>
@@ -9159,7 +9153,7 @@
       <c r="AN7" s="3" t="s">
         <v>1198</v>
       </c>
-      <c r="AO7" s="1" t="s">
+      <c r="AO7" s="3" t="s">
         <v>1208</v>
       </c>
       <c r="AP7" s="3" t="s">
@@ -9184,13 +9178,13 @@
         <v>1114</v>
       </c>
       <c r="AW7" s="3" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="AX7" s="1" t="s">
         <v>847</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="BA7" s="1" t="s">
         <v>883</v>
@@ -9232,31 +9226,31 @@
         <v>1053</v>
       </c>
       <c r="BO7" s="1" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="BP7" s="1" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="BQ7" s="1" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="BR7" s="1" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="BS7" s="1" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="BT7" s="1" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="BU7" s="1" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="BV7" s="1" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="BW7" s="1" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="8" spans="1:75" ht="17" x14ac:dyDescent="0.2">
@@ -9342,7 +9336,7 @@
         <v>1160</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="AC8" s="3" t="s">
         <v>583</v>
@@ -9380,7 +9374,7 @@
       <c r="AN8" s="3" t="s">
         <v>1199</v>
       </c>
-      <c r="AO8" s="1" t="s">
+      <c r="AO8" s="3" t="s">
         <v>1209</v>
       </c>
       <c r="AP8" s="3" t="s">
@@ -9390,7 +9384,7 @@
         <v>660</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="AS8" s="3" t="s">
         <v>684</v>
@@ -9411,7 +9405,7 @@
         <v>848</v>
       </c>
       <c r="AY8" s="1" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="BA8" s="1" t="s">
         <v>885</v>
@@ -9453,31 +9447,31 @@
         <v>1051</v>
       </c>
       <c r="BO8" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="BP8" s="1" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="BQ8" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="BR8" s="1" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="BS8" s="1" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="BT8" s="1" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="BU8" s="1" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="BV8" s="1" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="BW8" s="1" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="9" spans="1:75" ht="17" x14ac:dyDescent="0.2">
@@ -9524,7 +9518,7 @@
         <v>1151</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>566</v>
@@ -9563,7 +9557,7 @@
         <v>1161</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="AC9" s="3" t="s">
         <v>584</v>
@@ -9601,7 +9595,7 @@
       <c r="AN9" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="AO9" s="1" t="s">
+      <c r="AO9" s="3" t="s">
         <v>1210</v>
       </c>
       <c r="AP9" s="3" t="s">
@@ -9611,7 +9605,7 @@
         <v>661</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="AS9" s="3" t="s">
         <v>685</v>
@@ -9632,7 +9626,7 @@
         <v>849</v>
       </c>
       <c r="AY9" s="1" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="BA9" s="2" t="s">
         <v>887</v>
@@ -9674,31 +9668,31 @@
         <v>1049</v>
       </c>
       <c r="BO9" s="1" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="BP9" s="1" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="BQ9" s="1" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="BR9" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="BS9" s="1" t="s">
         <v>786</v>
       </c>
       <c r="BT9" s="1" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="BU9" s="1" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="BV9" s="1" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="BW9" s="1" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="10" spans="1:75" x14ac:dyDescent="0.2">
@@ -9706,7 +9700,7 @@
         <v>479</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>787</v>
@@ -9718,7 +9712,7 @@
         <v>624</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>508</v>
@@ -9736,16 +9730,16 @@
         <v>1084</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>1152</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>568</v>
@@ -9760,10 +9754,10 @@
         <v>874</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>1103</v>
@@ -9784,7 +9778,7 @@
         <v>1162</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="AC10" s="3" t="s">
         <v>874</v>
@@ -9822,8 +9816,8 @@
       <c r="AN10" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="AO10" s="1" t="s">
-        <v>998</v>
+      <c r="AO10" s="3" t="s">
+        <v>874</v>
       </c>
       <c r="AP10" s="3" t="s">
         <v>479</v>
@@ -9832,7 +9826,7 @@
         <v>479</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="AS10" s="3" t="s">
         <v>686</v>
@@ -9853,7 +9847,7 @@
         <v>850</v>
       </c>
       <c r="AY10" s="1" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="BA10" s="1" t="s">
         <v>889</v>
@@ -9895,19 +9889,19 @@
         <v>1047</v>
       </c>
       <c r="BO10" s="1" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="BP10" s="1" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="BQ10" s="1" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="BR10" s="1" t="s">
         <v>972</v>
       </c>
       <c r="BS10" s="1" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="BT10" s="1" t="s">
         <v>543</v>
@@ -9919,7 +9913,7 @@
         <v>874</v>
       </c>
       <c r="BW10" s="1" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="11" spans="1:75" ht="17" x14ac:dyDescent="0.2">
@@ -9966,7 +9960,7 @@
         <v>1153</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>570</v>
@@ -10005,10 +9999,10 @@
         <v>839</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="AD11" s="3" t="s">
         <v>1137</v>
@@ -10035,15 +10029,15 @@
         <v>1138</v>
       </c>
       <c r="AL11" s="4" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="AM11" s="3" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="AN11" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="AO11" s="1" t="s">
+      <c r="AO11" s="3" t="s">
         <v>1211</v>
       </c>
       <c r="AP11" s="3" t="s">
@@ -10074,7 +10068,7 @@
         <v>851</v>
       </c>
       <c r="AY11" s="1" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="BA11" s="1" t="s">
         <v>891</v>
@@ -10116,31 +10110,31 @@
         <v>1045</v>
       </c>
       <c r="BO11" s="1" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="BP11" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="BQ11" s="1" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="BR11" s="1" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="BS11" s="1" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="BT11" s="1" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="BU11" s="1" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="BV11" s="1" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="BW11" s="1" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="12" spans="1:75" x14ac:dyDescent="0.2">
@@ -10154,10 +10148,10 @@
         <v>789</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>874</v>
@@ -10226,7 +10220,7 @@
         <v>1163</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="AC12" s="3" t="s">
         <v>585</v>
@@ -10264,7 +10258,7 @@
       <c r="AN12" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="AO12" s="1" t="s">
+      <c r="AO12" s="3" t="s">
         <v>874</v>
       </c>
       <c r="AP12" s="3" t="s">
@@ -10274,7 +10268,7 @@
         <v>663</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="AS12" s="3" t="s">
         <v>688</v>
@@ -10295,7 +10289,7 @@
         <v>852</v>
       </c>
       <c r="AY12" s="1" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="BA12" s="1" t="s">
         <v>874</v>
@@ -10346,7 +10340,7 @@
         <v>874</v>
       </c>
       <c r="BR12" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="BS12" s="1" t="s">
         <v>874</v>
@@ -10381,7 +10375,7 @@
         <v>808</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>511</v>
@@ -10408,7 +10402,7 @@
         <v>1154</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>574</v>
@@ -10441,13 +10435,13 @@
         <v>874</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="AA13" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="AC13" s="3" t="s">
         <v>587</v>
@@ -10485,7 +10479,7 @@
       <c r="AN13" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="AO13" s="1" t="s">
+      <c r="AO13" s="3" t="s">
         <v>608</v>
       </c>
       <c r="AP13" s="3" t="s">
@@ -10516,7 +10510,7 @@
         <v>854</v>
       </c>
       <c r="AY13" s="1" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="BA13" s="1" t="s">
         <v>895</v>
@@ -10558,13 +10552,13 @@
         <v>1041</v>
       </c>
       <c r="BO13" s="1" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="BP13" s="1" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="BQ13" s="1" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="BR13" s="1" t="s">
         <v>925</v>
@@ -10573,16 +10567,16 @@
         <v>925</v>
       </c>
       <c r="BT13" s="1" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="BU13" s="1" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="BV13" s="1" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="BW13" s="1" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="14" spans="1:75" ht="34" x14ac:dyDescent="0.2">
@@ -10590,7 +10584,7 @@
         <v>481</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>790</v>
@@ -10605,10 +10599,10 @@
         <v>492</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>701</v>
@@ -10644,10 +10638,10 @@
         <v>874</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>874</v>
@@ -10671,13 +10665,13 @@
         <v>874</v>
       </c>
       <c r="AC14" s="3" t="s">
+        <v>2185</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>2186</v>
+      </c>
+      <c r="AE14" s="3" t="s">
         <v>2187</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>2188</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>2189</v>
       </c>
       <c r="AF14" s="3" t="s">
         <v>874</v>
@@ -10686,7 +10680,7 @@
         <v>874</v>
       </c>
       <c r="AH14" s="3" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="AI14" s="3" t="s">
         <v>643</v>
@@ -10698,16 +10692,16 @@
         <v>1143</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>2245</v>
-      </c>
-      <c r="AO14" s="1" t="s">
-        <v>1213</v>
+        <v>2243</v>
+      </c>
+      <c r="AO14" s="3" t="s">
+        <v>874</v>
       </c>
       <c r="AP14" s="3" t="s">
         <v>653</v>
@@ -10716,7 +10710,7 @@
         <v>664</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="AS14" s="3" t="s">
         <v>689</v>
@@ -10737,7 +10731,7 @@
         <v>853</v>
       </c>
       <c r="AY14" s="1" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="BA14" s="2" t="s">
         <v>893</v>
@@ -10779,31 +10773,31 @@
         <v>1043</v>
       </c>
       <c r="BO14" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="BP14" s="1" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="BQ14" s="1" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="BR14" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="BS14" s="1" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="BT14" s="2" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="BU14" s="1" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="BV14" s="1" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="BW14" s="1" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="15" spans="1:75" ht="34" x14ac:dyDescent="0.2">
@@ -10814,16 +10808,16 @@
         <v>528</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>513</v>
@@ -10832,10 +10826,10 @@
         <v>514</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>1088</v>
@@ -10850,13 +10844,13 @@
         <v>1155</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>761</v>
@@ -10871,10 +10865,10 @@
         <v>776</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>874</v>
@@ -10889,16 +10883,16 @@
         <v>1165</v>
       </c>
       <c r="AB15" s="3" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="AC15" s="3" t="s">
         <v>1177</v>
       </c>
       <c r="AD15" s="3" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="AE15" s="3" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="AF15" s="3" t="s">
         <v>799</v>
@@ -10927,20 +10921,20 @@
       <c r="AN15" s="4" t="s">
         <v>1203</v>
       </c>
-      <c r="AO15" s="1" t="s">
-        <v>1214</v>
+      <c r="AO15" s="3" t="s">
+        <v>1213</v>
       </c>
       <c r="AP15" s="3" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="AQ15" s="3" t="s">
         <v>666</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="AS15" s="3" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="AT15" s="1" t="s">
         <v>833</v>
@@ -10952,13 +10946,13 @@
         <v>1122</v>
       </c>
       <c r="AW15" s="3" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="AX15" s="1" t="s">
         <v>855</v>
       </c>
       <c r="AY15" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="BA15" s="1" t="s">
         <v>897</v>
@@ -11000,31 +10994,31 @@
         <v>1039</v>
       </c>
       <c r="BO15" s="1" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="BP15" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="BQ15" s="1" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="BR15" s="1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="BS15" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="BT15" s="1" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="BU15" s="1" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="BV15" s="1" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="BW15" s="1" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="16" spans="1:75" x14ac:dyDescent="0.2">
@@ -11047,10 +11041,10 @@
         <v>497</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>702</v>
@@ -11071,7 +11065,7 @@
         <v>1156</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>576</v>
@@ -11080,10 +11074,10 @@
         <v>577</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>777</v>
@@ -11110,7 +11104,7 @@
         <v>1166</v>
       </c>
       <c r="AB16" s="3" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="AC16" s="3" t="s">
         <v>588</v>
@@ -11148,8 +11142,8 @@
       <c r="AN16" s="3" t="s">
         <v>1204</v>
       </c>
-      <c r="AO16" s="1" t="s">
-        <v>1215</v>
+      <c r="AO16" s="3" t="s">
+        <v>588</v>
       </c>
       <c r="AP16" s="3" t="s">
         <v>655</v>
@@ -11158,7 +11152,7 @@
         <v>667</v>
       </c>
       <c r="AR16" s="1" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="AS16" s="3" t="s">
         <v>816</v>
@@ -11179,7 +11173,7 @@
         <v>856</v>
       </c>
       <c r="AY16" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="BA16" s="1" t="s">
         <v>899</v>
@@ -11221,31 +11215,31 @@
         <v>1037</v>
       </c>
       <c r="BO16" s="1" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="BP16" s="1" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="BQ16" s="1" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="BR16" s="1" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="BS16" s="1" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="BT16" s="1" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="BU16" s="1" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="BV16" s="1" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="BW16" s="1" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="17" spans="1:75" ht="17" x14ac:dyDescent="0.2">
@@ -11259,10 +11253,10 @@
         <v>861</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>874</v>
@@ -11310,7 +11304,7 @@
         <v>862</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>874</v>
@@ -11369,7 +11363,7 @@
       <c r="AN17" s="3" t="s">
         <v>1205</v>
       </c>
-      <c r="AO17" s="1" t="s">
+      <c r="AO17" s="3" t="s">
         <v>868</v>
       </c>
       <c r="AP17" s="3" t="s">
@@ -11394,13 +11388,13 @@
         <v>1124</v>
       </c>
       <c r="AW17" s="3" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="AX17" s="1" t="s">
         <v>859</v>
       </c>
       <c r="AY17" s="1" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="BA17" s="1" t="s">
         <v>901</v>
@@ -11442,16 +11436,16 @@
         <v>874</v>
       </c>
       <c r="BO17" s="1" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="BP17" s="1" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="BQ17" s="1" t="s">
         <v>874</v>
       </c>
       <c r="BR17" s="1" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="BS17" s="1" t="s">
         <v>858</v>
@@ -11460,13 +11454,13 @@
         <v>869</v>
       </c>
       <c r="BU17" s="1" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="BV17" s="1" t="s">
         <v>874</v>
       </c>
       <c r="BW17" s="2" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="18" spans="1:75" x14ac:dyDescent="0.2">
@@ -11552,7 +11546,7 @@
         <v>836</v>
       </c>
       <c r="AB18" s="3" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="AC18" s="3" t="s">
         <v>589</v>
@@ -11582,16 +11576,16 @@
         <v>1125</v>
       </c>
       <c r="AL18" s="3" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="AM18" s="3" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="AN18" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="AO18" s="1" t="s">
-        <v>1216</v>
+      <c r="AO18" s="3" t="s">
+        <v>1214</v>
       </c>
       <c r="AP18" s="3" t="s">
         <v>656</v>
@@ -11600,7 +11594,7 @@
         <v>658</v>
       </c>
       <c r="AR18" s="1" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="AS18" s="3" t="s">
         <v>691</v>
@@ -11621,7 +11615,7 @@
         <v>857</v>
       </c>
       <c r="AY18" s="1" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="BA18" s="1" t="s">
         <v>903</v>
@@ -11663,10 +11657,10 @@
         <v>1035</v>
       </c>
       <c r="BO18" s="1" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="BP18" s="1" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="BQ18" s="1" t="s">
         <v>905</v>
@@ -11675,19 +11669,19 @@
         <v>906</v>
       </c>
       <c r="BS18" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="BT18" s="1" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="BU18" s="1" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="BV18" s="1" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="BW18" s="1" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="19" spans="1:75" x14ac:dyDescent="0.2">
@@ -11695,37 +11689,37 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -11733,10 +11727,10 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="AD19" s="1" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
@@ -11771,37 +11765,37 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -11809,10 +11803,10 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="AD20" s="1" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
@@ -11847,37 +11841,37 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -11885,10 +11879,10 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="AD21" s="1" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
@@ -11923,37 +11917,37 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -11961,10 +11955,10 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="AD22" s="1" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
@@ -11998,37 +11992,37 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -12036,10 +12030,10 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="AD23" s="1" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="AF23" s="1"/>
       <c r="AK23" s="1"/>
@@ -12068,37 +12062,37 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -12106,10 +12100,10 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="AD24" s="1" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="AF24" s="1"/>
       <c r="AK24" s="1"/>
@@ -12138,37 +12132,37 @@
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -12176,10 +12170,10 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="AD25" s="1" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="AF25" s="1"/>
       <c r="AK25" s="1"/>
@@ -12208,37 +12202,37 @@
         <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -12246,10 +12240,10 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="AD26" s="1" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="AF26" s="1"/>
       <c r="AK26" s="1"/>
@@ -12278,37 +12272,37 @@
         <v>1092</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -12316,10 +12310,10 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="AD27" s="1" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="AF27" s="1"/>
       <c r="AK27" s="1"/>
@@ -12345,40 +12339,40 @@
     </row>
     <row r="28" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>1748</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>1750</v>
-      </c>
       <c r="I28" s="1" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -12386,10 +12380,10 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="AD28" s="1" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="AF28" s="1"/>
       <c r="AK28" s="1"/>
@@ -12418,37 +12412,37 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -12456,10 +12450,10 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="AD29" s="1" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="AF29" s="1"/>
       <c r="AK29" s="1"/>
@@ -12488,37 +12482,37 @@
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -12526,10 +12520,10 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="AD30" s="1" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="AF30" s="1"/>
       <c r="AK30" s="1"/>
@@ -12558,37 +12552,37 @@
         <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -12596,10 +12590,10 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="AD31" s="1" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="AF31" s="1"/>
       <c r="AK31" s="1"/>
@@ -12628,37 +12622,37 @@
         <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -12666,10 +12660,10 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="AD32" s="1" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="AE32" s="1" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="AF32" s="1"/>
       <c r="AK32" s="1"/>
@@ -12698,37 +12692,37 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -12736,10 +12730,10 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="AD33" s="1" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="AE33" s="1" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="AF33" s="1"/>
       <c r="AK33" s="1"/>
@@ -12768,37 +12762,37 @@
         <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -12806,10 +12800,10 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="AD34" s="1" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="AF34" s="1"/>
       <c r="AK34" s="1"/>
@@ -12838,37 +12832,37 @@
         <v>1091</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -12876,10 +12870,10 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="AD35" s="1" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="AF35" s="1"/>
       <c r="AK35" s="1"/>
@@ -12908,37 +12902,37 @@
         <v>501</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -12946,10 +12940,10 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="AD36" s="1" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="AE36" s="1" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="AF36" s="1"/>
       <c r="AK36" s="1"/>
@@ -12978,37 +12972,37 @@
         <v>14</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -13016,10 +13010,10 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="AD37" s="1" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="AF37" s="1"/>
       <c r="AK37" s="1"/>
@@ -13048,37 +13042,37 @@
         <v>15</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -13086,10 +13080,10 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="AD38" s="1" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="AE38" s="1" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="AF38" s="1"/>
       <c r="AK38" s="1"/>
@@ -13118,37 +13112,37 @@
         <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -13156,10 +13150,10 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="AD39" s="1" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="AF39" s="1"/>
       <c r="AK39" s="1"/>
@@ -13188,37 +13182,37 @@
         <v>17</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -13226,10 +13220,10 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="AD40" s="1" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="AE40" s="1" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="AF40" s="1"/>
       <c r="AK40" s="1"/>
@@ -13259,37 +13253,37 @@
         <v>18</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -13297,10 +13291,10 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="AD41" s="1" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="AE41" s="1" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
@@ -13335,37 +13329,37 @@
         <v>489</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -13373,10 +13367,10 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
       <c r="AD42" s="1" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="AE42" s="1" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
@@ -13411,37 +13405,37 @@
         <v>19</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -13449,10 +13443,10 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
       <c r="AD43" s="1" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="AE43" s="1" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
@@ -13484,40 +13478,40 @@
     </row>
     <row r="44" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -13525,10 +13519,10 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="AD44" s="1" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="AE44" s="1" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
@@ -13563,37 +13557,37 @@
         <v>20</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -13601,10 +13595,10 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="AD45" s="1" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="AE45" s="1" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
@@ -13639,37 +13633,37 @@
         <v>21</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -13677,10 +13671,10 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="AD46" s="1" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="AE46" s="1" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="AF46" s="1"/>
       <c r="AG46" s="1"/>
@@ -13715,37 +13709,37 @@
         <v>555</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -13753,10 +13747,10 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="AD47" s="2" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="AE47" s="1" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
@@ -13791,37 +13785,37 @@
         <v>22</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -13829,10 +13823,10 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="AD48" s="1" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="AE48" s="1" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="AF48" s="1"/>
       <c r="AG48" s="1"/>
@@ -13867,37 +13861,37 @@
         <v>23</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -13905,10 +13899,10 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="AD49" s="1" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="AF49" s="1"/>
       <c r="AG49" s="1"/>
@@ -13940,40 +13934,40 @@
     </row>
     <row r="50" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -13981,10 +13975,10 @@
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
       <c r="AD50" s="1" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
@@ -14019,37 +14013,37 @@
         <v>24</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -14057,10 +14051,10 @@
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
       <c r="AD51" s="1" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="AE51" s="1" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
@@ -14092,40 +14086,40 @@
     </row>
     <row r="52" spans="1:58" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -14133,10 +14127,10 @@
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
       <c r="AD52" s="2" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="AE52" s="1" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="AF52" s="1"/>
       <c r="AG52" s="1"/>
@@ -14171,37 +14165,37 @@
         <v>25</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -14209,10 +14203,10 @@
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
       <c r="AD53" s="1" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="AF53" s="1"/>
       <c r="AG53" s="1"/>
@@ -14247,37 +14241,37 @@
         <v>490</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -14285,10 +14279,10 @@
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
       <c r="AD54" s="1" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="AE54" s="1" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="AF54" s="1"/>
       <c r="AG54" s="1"/>
@@ -14323,37 +14317,37 @@
         <v>26</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -14361,10 +14355,10 @@
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
       <c r="AD55" s="1" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="AE55" s="1" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="AF55" s="1"/>
       <c r="AG55" s="1"/>
@@ -14399,37 +14393,37 @@
         <v>27</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -14437,10 +14431,10 @@
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
       <c r="AD56" s="1" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="AE56" s="1" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="AF56" s="1"/>
       <c r="AG56" s="1"/>
@@ -14475,37 +14469,37 @@
         <v>28</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -14513,10 +14507,10 @@
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
       <c r="AD57" s="1" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="AF57" s="1"/>
       <c r="AG57" s="1"/>
@@ -14551,37 +14545,37 @@
         <v>29</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
@@ -14589,10 +14583,10 @@
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
       <c r="AD58" s="1" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="AF58" s="1"/>
       <c r="AG58" s="1"/>
@@ -14627,37 +14621,37 @@
         <v>30</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -14665,10 +14659,10 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
       <c r="AD59" s="1" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="AE59" s="1" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="AF59" s="1"/>
       <c r="AG59" s="1"/>
@@ -14703,37 +14697,37 @@
         <v>31</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
@@ -14741,10 +14735,10 @@
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
       <c r="AD60" s="2" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="AE60" s="1" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="AF60" s="1"/>
       <c r="AG60" s="1"/>
@@ -14779,37 +14773,37 @@
         <v>32</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -14817,10 +14811,10 @@
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
       <c r="AD61" s="1" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="AE61" s="1" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="AF61" s="1"/>
       <c r="AG61" s="1"/>
@@ -14852,40 +14846,40 @@
     </row>
     <row r="62" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
@@ -14893,10 +14887,10 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
       <c r="AD62" s="1" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="AF62" s="1"/>
       <c r="AG62" s="1"/>
@@ -14931,37 +14925,37 @@
         <v>33</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -14969,10 +14963,10 @@
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
       <c r="AD63" s="1" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="AE63" s="1" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="AF63" s="1"/>
       <c r="AG63" s="1"/>
@@ -15007,37 +15001,37 @@
         <v>34</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
@@ -15045,10 +15039,10 @@
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
       <c r="AD64" s="1" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="AE64" s="1" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="AF64" s="1"/>
       <c r="AG64" s="1"/>
@@ -15083,37 +15077,37 @@
         <v>35</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
@@ -15121,10 +15115,10 @@
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
       <c r="AD65" s="1" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="AE65" s="1" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="AF65" s="1"/>
       <c r="AG65" s="1"/>
@@ -15159,37 +15153,37 @@
         <v>36</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
@@ -15197,10 +15191,10 @@
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
       <c r="AD66" s="1" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="AF66" s="1"/>
       <c r="AG66" s="1"/>
@@ -15235,37 +15229,37 @@
         <v>37</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
@@ -15273,10 +15267,10 @@
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
       <c r="AD67" s="1" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="AE67" s="1" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="AF67" s="1"/>
       <c r="AG67" s="1"/>
@@ -15308,40 +15302,40 @@
     </row>
     <row r="68" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>874</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
@@ -15349,10 +15343,10 @@
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
       <c r="AD68" s="1" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="AE68" s="1" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="AF68" s="1"/>
       <c r="AG68" s="1"/>
@@ -15387,37 +15381,37 @@
         <v>38</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
@@ -15425,10 +15419,10 @@
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
       <c r="AD69" s="1" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="AE69" s="1" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="AF69" s="1"/>
       <c r="AG69" s="1"/>
@@ -15463,16 +15457,16 @@
         <v>39</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>874</v>
@@ -15481,19 +15475,19 @@
         <v>874</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
@@ -15536,40 +15530,40 @@
     </row>
     <row r="71" spans="1:58" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
@@ -15577,10 +15571,10 @@
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
       <c r="AD71" s="1" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="AE71" s="1" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="AF71" s="1"/>
       <c r="AG71" s="1"/>
@@ -15615,37 +15609,37 @@
         <v>40</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
@@ -15653,10 +15647,10 @@
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
       <c r="AD72" s="1" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="AE72" s="1" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="AF72" s="1"/>
       <c r="AG72" s="1"/>
@@ -15691,37 +15685,37 @@
         <v>41</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
@@ -15729,10 +15723,10 @@
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
       <c r="AD73" s="1" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="AE73" s="1" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="AF73" s="1"/>
       <c r="AG73" s="1"/>
@@ -15824,12 +15818,12 @@
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
@@ -16091,7 +16085,7 @@
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
@@ -16111,7 +16105,7 @@
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
@@ -16136,7 +16130,7 @@
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
@@ -16261,7 +16255,7 @@
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
@@ -16276,7 +16270,7 @@
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
@@ -16371,7 +16365,7 @@
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
@@ -16426,7 +16420,7 @@
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
@@ -16496,7 +16490,7 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
@@ -16666,7 +16660,7 @@
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
@@ -16781,7 +16775,7 @@
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
@@ -16816,7 +16810,7 @@
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
@@ -17056,7 +17050,7 @@
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
@@ -17286,7 +17280,7 @@
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
@@ -17306,7 +17300,7 @@
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
@@ -17316,7 +17310,7 @@
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
@@ -17761,7 +17755,7 @@
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
@@ -17776,7 +17770,7 @@
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.2">
@@ -17806,7 +17800,7 @@
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.2">
@@ -17896,7 +17890,7 @@
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.2">
@@ -17931,7 +17925,7 @@
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.2">
@@ -17976,7 +17970,7 @@
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.2">
@@ -18006,7 +18000,7 @@
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.2">

--- a/historical/data/data_strict.xlsx
+++ b/historical/data/data_strict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiansp/Learning/linguistics/historical/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76D09D7-2130-5449-BF66-8D0098032852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6A1D43-4347-2C43-B053-F0A3F4FE6202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="46220" yWindow="-3100" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3727,9 +3727,6 @@
     <t>arg</t>
   </si>
   <si>
-    <t>djur-</t>
-  </si>
-  <si>
     <t>myra</t>
   </si>
   <si>
@@ -3743,9 +3740,6 @@
   </si>
   <si>
     <t>skamsen</t>
-  </si>
-  <si>
-    <t>fråga, be</t>
   </si>
   <si>
     <t>höst</t>
@@ -6777,6 +6771,12 @@
   </si>
   <si>
     <t>hanbiť sa</t>
+  </si>
+  <si>
+    <t>djur</t>
+  </si>
+  <si>
+    <t>be</t>
   </si>
 </sst>
 </file>
@@ -7634,10 +7634,10 @@
   <dimension ref="A1:BW535"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG4" sqref="AG4"/>
+      <selection pane="bottomRight" activeCell="AR18" sqref="AR1:AR18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7753,7 +7753,7 @@
         <v>734</v>
       </c>
       <c r="O1" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="P1" t="s">
         <v>556</v>
@@ -7839,7 +7839,7 @@
       <c r="AQ1" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="3" t="s">
         <v>741</v>
       </c>
       <c r="AS1" s="3" t="s">
@@ -7864,7 +7864,7 @@
         <v>740</v>
       </c>
       <c r="AZ1" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="BA1" t="s">
         <v>721</v>
@@ -7909,7 +7909,7 @@
         <v>742</v>
       </c>
       <c r="BP1" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="BQ1" t="s">
         <v>743</v>
@@ -7924,7 +7924,7 @@
         <v>746</v>
       </c>
       <c r="BU1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="BV1" t="s">
         <v>747</v>
@@ -8063,7 +8063,7 @@
       <c r="AQ2" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AR2" s="3" t="s">
         <v>487</v>
       </c>
       <c r="AS2" s="3" t="s">
@@ -8156,49 +8156,49 @@
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>874</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>874</v>
@@ -8207,22 +8207,22 @@
         <v>874</v>
       </c>
       <c r="R3" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>1309</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>1310</v>
       </c>
-      <c r="T3" s="3" t="s">
-        <v>1311</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>1312</v>
-      </c>
       <c r="V3" s="3" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="X3" s="3" t="s">
         <v>874</v>
@@ -8231,144 +8231,144 @@
         <v>874</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="AA3" s="3" t="s">
         <v>874</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="AC3" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="AE3" s="3" t="s">
         <v>1297</v>
       </c>
-      <c r="AD3" s="3" t="s">
-        <v>1298</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>1299</v>
-      </c>
       <c r="AF3" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="AH3" s="3" t="s">
         <v>1295</v>
       </c>
-      <c r="AG3" s="3" t="s">
-        <v>1296</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>1297</v>
-      </c>
       <c r="AI3" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
         <v>1302</v>
       </c>
-      <c r="AJ3" s="3" t="s">
-        <v>1332</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>1333</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>1335</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>1297</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>1336</v>
-      </c>
-      <c r="AO3" s="3" t="s">
+      <c r="AR3" s="3" t="s">
         <v>1337</v>
       </c>
-      <c r="AP3" s="3" t="s">
-        <v>1303</v>
-      </c>
-      <c r="AQ3" s="3" t="s">
+      <c r="AS3" s="3" t="s">
         <v>1304</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>1339</v>
-      </c>
-      <c r="AS3" s="3" t="s">
-        <v>1306</v>
       </c>
       <c r="AT3" s="1"/>
       <c r="AU3" s="1" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="AW3" s="3" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="AX3" s="1"/>
       <c r="AY3" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="BO3" s="1" t="s">
         <v>1338</v>
       </c>
-      <c r="BA3" s="1" t="s">
-        <v>1314</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>1315</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>1316</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>1317</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>1318</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>1319</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>1320</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>1321</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>1324</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>1325</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>1326</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="BO3" s="1" t="s">
+      <c r="BP3" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="BP3" s="1" t="s">
-        <v>1341</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>1342</v>
-      </c>
       <c r="BR3" s="1" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="BU3" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="BV3" s="1" t="s">
         <v>874</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="4" spans="1:75" x14ac:dyDescent="0.2">
@@ -8454,7 +8454,7 @@
         <v>1157</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>581</v>
@@ -8501,7 +8501,7 @@
       <c r="AQ4" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="AR4" s="1" t="s">
+      <c r="AR4" s="3" t="s">
         <v>1229</v>
       </c>
       <c r="AS4" s="3" t="s">
@@ -8574,22 +8574,22 @@
         <v>907</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="BS4" s="1" t="s">
         <v>473</v>
       </c>
       <c r="BT4" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="BU4" s="1" t="s">
         <v>1352</v>
-      </c>
-      <c r="BU4" s="1" t="s">
-        <v>1354</v>
       </c>
       <c r="BV4" s="1" t="s">
         <v>874</v>
       </c>
       <c r="BW4" s="1" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="5" spans="1:75" ht="17" x14ac:dyDescent="0.2">
@@ -8597,16 +8597,16 @@
         <v>474</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>782</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>795</v>
@@ -8627,16 +8627,16 @@
         <v>1079</v>
       </c>
       <c r="L5" s="3" t="s">
+        <v>2174</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>2176</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>2178</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>1149</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>558</v>
@@ -8675,7 +8675,7 @@
         <v>843</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>802</v>
@@ -8699,10 +8699,10 @@
         <v>810</v>
       </c>
       <c r="AJ5" s="3" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="AL5" s="3" t="s">
         <v>1168</v>
@@ -8722,11 +8722,11 @@
       <c r="AQ5" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="AR5" s="1" t="s">
+      <c r="AR5" s="3" t="s">
         <v>1230</v>
       </c>
       <c r="AS5" s="3" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="AT5" s="1" t="s">
         <v>824</v>
@@ -8786,31 +8786,31 @@
         <v>1057</v>
       </c>
       <c r="BO5" s="1" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="BQ5" s="1" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="BR5" s="1" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="BS5" s="1" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="BT5" s="1" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="BU5" s="1" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="BV5" s="1" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="BW5" s="1" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="6" spans="1:75" ht="17" x14ac:dyDescent="0.2">
@@ -8888,13 +8888,13 @@
         <v>1183</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="AA6" s="3" t="s">
         <v>1158</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="AC6" s="3" t="s">
         <v>582</v>
@@ -8930,7 +8930,7 @@
         <v>582</v>
       </c>
       <c r="AN6" s="3" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="AO6" s="3" t="s">
         <v>1207</v>
@@ -8941,8 +8941,8 @@
       <c r="AQ6" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="AR6" s="1" t="s">
-        <v>1231</v>
+      <c r="AR6" s="3" t="s">
+        <v>2242</v>
       </c>
       <c r="AS6" s="3" t="s">
         <v>683</v>
@@ -9005,31 +9005,31 @@
         <v>1055</v>
       </c>
       <c r="BO6" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="BP6" s="1" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="BQ6" s="1" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="BR6" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="BS6" s="1" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="BT6" s="1" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="BU6" s="1" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="BV6" s="1" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="BW6" s="1" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="7" spans="1:75" x14ac:dyDescent="0.2">
@@ -9043,19 +9043,19 @@
         <v>784</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>491</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>696</v>
@@ -9067,16 +9067,16 @@
         <v>1081</v>
       </c>
       <c r="L7" s="3" t="s">
+        <v>2175</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>2177</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>2179</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>1150</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>562</v>
@@ -9091,10 +9091,10 @@
         <v>753</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="V7" s="3" t="s">
         <v>1098</v>
@@ -9115,7 +9115,7 @@
         <v>1159</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="AC7" s="3" t="s">
         <v>631</v>
@@ -9127,16 +9127,16 @@
         <v>599</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="AH7" s="3" t="s">
         <v>631</v>
       </c>
       <c r="AI7" s="3" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="AJ7" s="3" t="s">
         <v>1131</v>
@@ -9162,7 +9162,7 @@
       <c r="AQ7" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="AR7" s="1" t="s">
+      <c r="AR7" s="3" t="s">
         <v>649</v>
       </c>
       <c r="AS7" s="3" t="s">
@@ -9178,7 +9178,7 @@
         <v>1114</v>
       </c>
       <c r="AW7" s="3" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="AX7" s="1" t="s">
         <v>847</v>
@@ -9226,31 +9226,31 @@
         <v>1053</v>
       </c>
       <c r="BO7" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="BP7" s="1" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="BQ7" s="1" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="BR7" s="1" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="BS7" s="1" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="BT7" s="1" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="BU7" s="1" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="BV7" s="1" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="BW7" s="1" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="8" spans="1:75" ht="17" x14ac:dyDescent="0.2">
@@ -9336,7 +9336,7 @@
         <v>1160</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="AC8" s="3" t="s">
         <v>583</v>
@@ -9383,8 +9383,8 @@
       <c r="AQ8" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="AR8" s="1" t="s">
-        <v>1232</v>
+      <c r="AR8" s="3" t="s">
+        <v>1231</v>
       </c>
       <c r="AS8" s="3" t="s">
         <v>684</v>
@@ -9447,31 +9447,31 @@
         <v>1051</v>
       </c>
       <c r="BO8" s="2" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="BP8" s="1" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="BQ8" s="1" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="BR8" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="BS8" s="1" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="BT8" s="1" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="BU8" s="1" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="BV8" s="1" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="BW8" s="1" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="9" spans="1:75" ht="17" x14ac:dyDescent="0.2">
@@ -9518,7 +9518,7 @@
         <v>1151</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>566</v>
@@ -9557,7 +9557,7 @@
         <v>1161</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="AC9" s="3" t="s">
         <v>584</v>
@@ -9604,8 +9604,8 @@
       <c r="AQ9" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="AR9" s="1" t="s">
-        <v>1233</v>
+      <c r="AR9" s="3" t="s">
+        <v>1232</v>
       </c>
       <c r="AS9" s="3" t="s">
         <v>685</v>
@@ -9668,31 +9668,31 @@
         <v>1049</v>
       </c>
       <c r="BO9" s="1" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="BP9" s="1" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="BQ9" s="1" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="BR9" s="1" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="BS9" s="1" t="s">
         <v>786</v>
       </c>
       <c r="BT9" s="1" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="BU9" s="1" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="BV9" s="1" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="BW9" s="1" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="10" spans="1:75" x14ac:dyDescent="0.2">
@@ -9700,7 +9700,7 @@
         <v>479</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>787</v>
@@ -9712,7 +9712,7 @@
         <v>624</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>508</v>
@@ -9730,16 +9730,16 @@
         <v>1084</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>1152</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>568</v>
@@ -9754,10 +9754,10 @@
         <v>874</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>1103</v>
@@ -9778,7 +9778,7 @@
         <v>1162</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="AC10" s="3" t="s">
         <v>874</v>
@@ -9825,8 +9825,8 @@
       <c r="AQ10" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="AR10" s="1" t="s">
-        <v>1234</v>
+      <c r="AR10" s="3" t="s">
+        <v>1233</v>
       </c>
       <c r="AS10" s="3" t="s">
         <v>686</v>
@@ -9889,19 +9889,19 @@
         <v>1047</v>
       </c>
       <c r="BO10" s="1" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="BP10" s="1" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="BQ10" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="BR10" s="1" t="s">
         <v>972</v>
       </c>
       <c r="BS10" s="1" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="BT10" s="1" t="s">
         <v>543</v>
@@ -9913,7 +9913,7 @@
         <v>874</v>
       </c>
       <c r="BW10" s="1" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="11" spans="1:75" ht="17" x14ac:dyDescent="0.2">
@@ -9960,7 +9960,7 @@
         <v>1153</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>570</v>
@@ -9999,10 +9999,10 @@
         <v>839</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="AD11" s="3" t="s">
         <v>1137</v>
@@ -10029,10 +10029,10 @@
         <v>1138</v>
       </c>
       <c r="AL11" s="4" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="AM11" s="3" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="AN11" s="3" t="s">
         <v>1200</v>
@@ -10046,7 +10046,7 @@
       <c r="AQ11" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="AR11" s="1" t="s">
+      <c r="AR11" s="3" t="s">
         <v>652</v>
       </c>
       <c r="AS11" s="3" t="s">
@@ -10110,31 +10110,31 @@
         <v>1045</v>
       </c>
       <c r="BO11" s="1" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="BP11" s="1" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="BQ11" s="1" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="BR11" s="1" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="BS11" s="1" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="BT11" s="1" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="BU11" s="1" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="BV11" s="1" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="BW11" s="1" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="12" spans="1:75" x14ac:dyDescent="0.2">
@@ -10148,10 +10148,10 @@
         <v>789</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>874</v>
@@ -10220,7 +10220,7 @@
         <v>1163</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="AC12" s="3" t="s">
         <v>585</v>
@@ -10267,8 +10267,8 @@
       <c r="AQ12" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="AR12" s="1" t="s">
-        <v>1235</v>
+      <c r="AR12" s="3" t="s">
+        <v>1234</v>
       </c>
       <c r="AS12" s="3" t="s">
         <v>688</v>
@@ -10340,7 +10340,7 @@
         <v>874</v>
       </c>
       <c r="BR12" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="BS12" s="1" t="s">
         <v>874</v>
@@ -10375,7 +10375,7 @@
         <v>808</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>511</v>
@@ -10402,7 +10402,7 @@
         <v>1154</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>574</v>
@@ -10435,13 +10435,13 @@
         <v>874</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="AA13" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="AC13" s="3" t="s">
         <v>587</v>
@@ -10488,7 +10488,7 @@
       <c r="AQ13" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="AR13" s="1" t="s">
+      <c r="AR13" s="3" t="s">
         <v>832</v>
       </c>
       <c r="AS13" s="3" t="s">
@@ -10552,13 +10552,13 @@
         <v>1041</v>
       </c>
       <c r="BO13" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="BP13" s="1" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="BQ13" s="1" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="BR13" s="1" t="s">
         <v>925</v>
@@ -10567,16 +10567,16 @@
         <v>925</v>
       </c>
       <c r="BT13" s="1" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="BU13" s="1" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="BV13" s="1" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="BW13" s="1" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="14" spans="1:75" ht="34" x14ac:dyDescent="0.2">
@@ -10584,7 +10584,7 @@
         <v>481</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>790</v>
@@ -10599,10 +10599,10 @@
         <v>492</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>701</v>
@@ -10638,10 +10638,10 @@
         <v>874</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>874</v>
@@ -10665,13 +10665,13 @@
         <v>874</v>
       </c>
       <c r="AC14" s="3" t="s">
+        <v>2183</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>2184</v>
+      </c>
+      <c r="AE14" s="3" t="s">
         <v>2185</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>2186</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>2187</v>
       </c>
       <c r="AF14" s="3" t="s">
         <v>874</v>
@@ -10680,7 +10680,7 @@
         <v>874</v>
       </c>
       <c r="AH14" s="3" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="AI14" s="3" t="s">
         <v>643</v>
@@ -10692,13 +10692,13 @@
         <v>1143</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="AO14" s="3" t="s">
         <v>874</v>
@@ -10709,8 +10709,8 @@
       <c r="AQ14" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="AR14" s="1" t="s">
-        <v>1236</v>
+      <c r="AR14" s="3" t="s">
+        <v>1235</v>
       </c>
       <c r="AS14" s="3" t="s">
         <v>689</v>
@@ -10773,31 +10773,31 @@
         <v>1043</v>
       </c>
       <c r="BO14" s="1" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="BP14" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="BQ14" s="1" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="BR14" s="1" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="BS14" s="1" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="BT14" s="2" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="BU14" s="1" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="BV14" s="1" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="BW14" s="1" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="15" spans="1:75" ht="34" x14ac:dyDescent="0.2">
@@ -10808,16 +10808,16 @@
         <v>528</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>513</v>
@@ -10826,10 +10826,10 @@
         <v>514</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>1088</v>
@@ -10844,13 +10844,13 @@
         <v>1155</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>761</v>
@@ -10865,10 +10865,10 @@
         <v>776</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>874</v>
@@ -10883,16 +10883,16 @@
         <v>1165</v>
       </c>
       <c r="AB15" s="3" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="AC15" s="3" t="s">
         <v>1177</v>
       </c>
       <c r="AD15" s="3" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="AE15" s="3" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="AF15" s="3" t="s">
         <v>799</v>
@@ -10925,16 +10925,16 @@
         <v>1213</v>
       </c>
       <c r="AP15" s="3" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="AQ15" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="AR15" s="1" t="s">
-        <v>1237</v>
+      <c r="AR15" s="3" t="s">
+        <v>2243</v>
       </c>
       <c r="AS15" s="3" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="AT15" s="1" t="s">
         <v>833</v>
@@ -10946,7 +10946,7 @@
         <v>1122</v>
       </c>
       <c r="AW15" s="3" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="AX15" s="1" t="s">
         <v>855</v>
@@ -10994,31 +10994,31 @@
         <v>1039</v>
       </c>
       <c r="BO15" s="1" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="BP15" s="1" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="BQ15" s="1" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="BR15" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="BS15" s="1" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="BT15" s="1" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="BU15" s="1" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="BV15" s="1" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="BW15" s="1" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="16" spans="1:75" x14ac:dyDescent="0.2">
@@ -11041,10 +11041,10 @@
         <v>497</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>702</v>
@@ -11065,7 +11065,7 @@
         <v>1156</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>576</v>
@@ -11074,10 +11074,10 @@
         <v>577</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>777</v>
@@ -11104,7 +11104,7 @@
         <v>1166</v>
       </c>
       <c r="AB16" s="3" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="AC16" s="3" t="s">
         <v>588</v>
@@ -11151,8 +11151,8 @@
       <c r="AQ16" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="AR16" s="1" t="s">
-        <v>1238</v>
+      <c r="AR16" s="3" t="s">
+        <v>1236</v>
       </c>
       <c r="AS16" s="3" t="s">
         <v>816</v>
@@ -11215,31 +11215,31 @@
         <v>1037</v>
       </c>
       <c r="BO16" s="1" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="BP16" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="BQ16" s="1" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="BR16" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="BS16" s="1" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="BT16" s="1" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="BU16" s="1" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="BV16" s="1" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="BW16" s="1" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="17" spans="1:75" ht="17" x14ac:dyDescent="0.2">
@@ -11253,10 +11253,10 @@
         <v>861</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>874</v>
@@ -11304,7 +11304,7 @@
         <v>862</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>874</v>
@@ -11372,7 +11372,7 @@
       <c r="AQ17" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="AR17" s="1" t="s">
+      <c r="AR17" s="3" t="s">
         <v>860</v>
       </c>
       <c r="AS17" s="3" t="s">
@@ -11388,7 +11388,7 @@
         <v>1124</v>
       </c>
       <c r="AW17" s="3" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="AX17" s="1" t="s">
         <v>859</v>
@@ -11436,16 +11436,16 @@
         <v>874</v>
       </c>
       <c r="BO17" s="1" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="BP17" s="1" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="BQ17" s="1" t="s">
         <v>874</v>
       </c>
       <c r="BR17" s="1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="BS17" s="1" t="s">
         <v>858</v>
@@ -11454,13 +11454,13 @@
         <v>869</v>
       </c>
       <c r="BU17" s="1" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="BV17" s="1" t="s">
         <v>874</v>
       </c>
       <c r="BW17" s="2" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="18" spans="1:75" x14ac:dyDescent="0.2">
@@ -11546,7 +11546,7 @@
         <v>836</v>
       </c>
       <c r="AB18" s="3" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="AC18" s="3" t="s">
         <v>589</v>
@@ -11576,7 +11576,7 @@
         <v>1125</v>
       </c>
       <c r="AL18" s="3" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="AM18" s="3" t="s">
         <v>1214</v>
@@ -11593,8 +11593,8 @@
       <c r="AQ18" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="AR18" s="1" t="s">
-        <v>1239</v>
+      <c r="AR18" s="3" t="s">
+        <v>1237</v>
       </c>
       <c r="AS18" s="3" t="s">
         <v>691</v>
@@ -11657,10 +11657,10 @@
         <v>1035</v>
       </c>
       <c r="BO18" s="1" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="BP18" s="1" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="BQ18" s="1" t="s">
         <v>905</v>
@@ -11669,19 +11669,19 @@
         <v>906</v>
       </c>
       <c r="BS18" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="BT18" s="1" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="BU18" s="1" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="BV18" s="1" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="BW18" s="1" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="19" spans="1:75" x14ac:dyDescent="0.2">
@@ -11689,37 +11689,37 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -11727,10 +11727,10 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="AD19" s="1" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
@@ -11765,37 +11765,37 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -11803,10 +11803,10 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="AD20" s="1" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
@@ -11841,37 +11841,37 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -11879,10 +11879,10 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="AD21" s="1" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
@@ -11917,37 +11917,37 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -11955,10 +11955,10 @@
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="AD22" s="1" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
@@ -11992,37 +11992,37 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -12030,10 +12030,10 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="AD23" s="1" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="AF23" s="1"/>
       <c r="AK23" s="1"/>
@@ -12062,37 +12062,37 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -12100,10 +12100,10 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="AD24" s="1" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="AF24" s="1"/>
       <c r="AK24" s="1"/>
@@ -12132,37 +12132,37 @@
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -12170,10 +12170,10 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="AD25" s="1" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="AF25" s="1"/>
       <c r="AK25" s="1"/>
@@ -12202,37 +12202,37 @@
         <v>7</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -12240,10 +12240,10 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="AD26" s="1" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="AF26" s="1"/>
       <c r="AK26" s="1"/>
@@ -12272,37 +12272,37 @@
         <v>1092</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -12310,10 +12310,10 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="AD27" s="1" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="AF27" s="1"/>
       <c r="AK27" s="1"/>
@@ -12339,40 +12339,40 @@
     </row>
     <row r="28" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>1746</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>1747</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>1748</v>
-      </c>
       <c r="I28" s="1" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -12380,10 +12380,10 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="AD28" s="1" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="AF28" s="1"/>
       <c r="AK28" s="1"/>
@@ -12412,37 +12412,37 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -12450,10 +12450,10 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="AD29" s="1" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="AF29" s="1"/>
       <c r="AK29" s="1"/>
@@ -12482,37 +12482,37 @@
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -12520,10 +12520,10 @@
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="AD30" s="1" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="AF30" s="1"/>
       <c r="AK30" s="1"/>
@@ -12552,37 +12552,37 @@
         <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -12590,10 +12590,10 @@
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="AD31" s="1" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="AF31" s="1"/>
       <c r="AK31" s="1"/>
@@ -12622,37 +12622,37 @@
         <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -12660,10 +12660,10 @@
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="AD32" s="1" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="AE32" s="1" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="AF32" s="1"/>
       <c r="AK32" s="1"/>
@@ -12692,37 +12692,37 @@
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -12730,10 +12730,10 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="AD33" s="1" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="AE33" s="1" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="AF33" s="1"/>
       <c r="AK33" s="1"/>
@@ -12762,37 +12762,37 @@
         <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -12800,10 +12800,10 @@
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="AD34" s="1" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="AF34" s="1"/>
       <c r="AK34" s="1"/>
@@ -12832,37 +12832,37 @@
         <v>1091</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -12870,10 +12870,10 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="AD35" s="1" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="AF35" s="1"/>
       <c r="AK35" s="1"/>
@@ -12902,37 +12902,37 @@
         <v>501</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -12940,10 +12940,10 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="AD36" s="1" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="AE36" s="1" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="AF36" s="1"/>
       <c r="AK36" s="1"/>
@@ -12972,37 +12972,37 @@
         <v>14</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -13010,10 +13010,10 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="AD37" s="1" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="AF37" s="1"/>
       <c r="AK37" s="1"/>
@@ -13042,37 +13042,37 @@
         <v>15</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -13080,10 +13080,10 @@
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="AD38" s="1" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="AE38" s="1" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="AF38" s="1"/>
       <c r="AK38" s="1"/>
@@ -13112,37 +13112,37 @@
         <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -13150,10 +13150,10 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="AD39" s="1" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="AF39" s="1"/>
       <c r="AK39" s="1"/>
@@ -13182,37 +13182,37 @@
         <v>17</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -13220,10 +13220,10 @@
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="AD40" s="1" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="AE40" s="1" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="AF40" s="1"/>
       <c r="AK40" s="1"/>
@@ -13253,37 +13253,37 @@
         <v>18</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -13291,10 +13291,10 @@
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="AD41" s="1" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="AE41" s="1" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
@@ -13329,37 +13329,37 @@
         <v>489</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -13367,10 +13367,10 @@
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
       <c r="AD42" s="1" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="AE42" s="1" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
@@ -13405,37 +13405,37 @@
         <v>19</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -13443,10 +13443,10 @@
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
       <c r="AD43" s="1" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="AE43" s="1" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
@@ -13478,40 +13478,40 @@
     </row>
     <row r="44" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -13519,10 +13519,10 @@
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="AD44" s="1" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="AE44" s="1" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
@@ -13557,37 +13557,37 @@
         <v>20</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -13595,10 +13595,10 @@
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="AD45" s="1" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="AE45" s="1" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
@@ -13633,37 +13633,37 @@
         <v>21</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -13671,10 +13671,10 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="AD46" s="1" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="AE46" s="1" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="AF46" s="1"/>
       <c r="AG46" s="1"/>
@@ -13709,37 +13709,37 @@
         <v>555</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -13747,10 +13747,10 @@
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="AD47" s="2" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="AE47" s="1" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
@@ -13785,37 +13785,37 @@
         <v>22</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -13823,10 +13823,10 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="AD48" s="1" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="AE48" s="1" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="AF48" s="1"/>
       <c r="AG48" s="1"/>
@@ -13861,37 +13861,37 @@
         <v>23</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -13899,10 +13899,10 @@
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="AD49" s="1" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="AF49" s="1"/>
       <c r="AG49" s="1"/>
@@ -13934,40 +13934,40 @@
     </row>
     <row r="50" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -13975,10 +13975,10 @@
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
       <c r="AD50" s="1" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="AF50" s="1"/>
       <c r="AG50" s="1"/>
@@ -14013,37 +14013,37 @@
         <v>24</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -14051,10 +14051,10 @@
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
       <c r="AD51" s="1" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="AE51" s="1" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
@@ -14086,40 +14086,40 @@
     </row>
     <row r="52" spans="1:58" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -14127,10 +14127,10 @@
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
       <c r="AD52" s="2" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="AE52" s="1" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="AF52" s="1"/>
       <c r="AG52" s="1"/>
@@ -14165,37 +14165,37 @@
         <v>25</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -14203,10 +14203,10 @@
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
       <c r="AD53" s="1" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="AF53" s="1"/>
       <c r="AG53" s="1"/>
@@ -14241,37 +14241,37 @@
         <v>490</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -14279,10 +14279,10 @@
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
       <c r="AD54" s="1" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="AE54" s="1" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="AF54" s="1"/>
       <c r="AG54" s="1"/>
@@ -14317,37 +14317,37 @@
         <v>26</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -14355,10 +14355,10 @@
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
       <c r="AD55" s="1" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="AE55" s="1" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="AF55" s="1"/>
       <c r="AG55" s="1"/>
@@ -14393,37 +14393,37 @@
         <v>27</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -14431,10 +14431,10 @@
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
       <c r="AD56" s="1" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="AE56" s="1" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="AF56" s="1"/>
       <c r="AG56" s="1"/>
@@ -14469,37 +14469,37 @@
         <v>28</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -14507,10 +14507,10 @@
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
       <c r="AD57" s="1" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="AF57" s="1"/>
       <c r="AG57" s="1"/>
@@ -14545,37 +14545,37 @@
         <v>29</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
@@ -14583,10 +14583,10 @@
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
       <c r="AD58" s="1" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="AF58" s="1"/>
       <c r="AG58" s="1"/>
@@ -14621,37 +14621,37 @@
         <v>30</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -14659,10 +14659,10 @@
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
       <c r="AD59" s="1" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="AE59" s="1" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="AF59" s="1"/>
       <c r="AG59" s="1"/>
@@ -14697,37 +14697,37 @@
         <v>31</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="F60" s="1